--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,66 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Scotland Premiership</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>St. Mirren</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['13', '23']</t>
+  </si>
+  <si>
+    <t>['48', '78', '80']</t>
+  </si>
+  <si>
+    <t>['17', '40', '59', '90+4']</t>
+  </si>
+  <si>
+    <t>['18', '79']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +330,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +842,1036 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7480139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45507.35416666666</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2">
+        <v>4.75</v>
+      </c>
+      <c r="R2">
+        <v>2.4</v>
+      </c>
+      <c r="S2">
+        <v>2.1</v>
+      </c>
+      <c r="T2">
+        <v>1.29</v>
+      </c>
+      <c r="U2">
+        <v>3.5</v>
+      </c>
+      <c r="V2">
+        <v>2.25</v>
+      </c>
+      <c r="W2">
+        <v>1.57</v>
+      </c>
+      <c r="X2">
+        <v>5.5</v>
+      </c>
+      <c r="Y2">
+        <v>1.14</v>
+      </c>
+      <c r="Z2">
+        <v>4.58</v>
+      </c>
+      <c r="AA2">
+        <v>4.05</v>
+      </c>
+      <c r="AB2">
+        <v>1.71</v>
+      </c>
+      <c r="AC2">
+        <v>1.02</v>
+      </c>
+      <c r="AD2">
+        <v>17</v>
+      </c>
+      <c r="AE2">
+        <v>1.18</v>
+      </c>
+      <c r="AF2">
+        <v>4.75</v>
+      </c>
+      <c r="AG2">
+        <v>1.55</v>
+      </c>
+      <c r="AH2">
+        <v>2.36</v>
+      </c>
+      <c r="AI2">
+        <v>1.62</v>
+      </c>
+      <c r="AJ2">
+        <v>2.2</v>
+      </c>
+      <c r="AK2">
+        <v>2.3</v>
+      </c>
+      <c r="AL2">
+        <v>1.17</v>
+      </c>
+      <c r="AM2">
+        <v>1.18</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>-1</v>
+      </c>
+      <c r="AV2">
+        <v>-1</v>
+      </c>
+      <c r="AW2">
+        <v>-1</v>
+      </c>
+      <c r="AX2">
+        <v>-1</v>
+      </c>
+      <c r="AY2">
+        <v>-1</v>
+      </c>
+      <c r="AZ2">
+        <v>-1</v>
+      </c>
+      <c r="BA2">
+        <v>-1</v>
+      </c>
+      <c r="BB2">
+        <v>-1</v>
+      </c>
+      <c r="BC2">
+        <v>-1</v>
+      </c>
+      <c r="BD2">
+        <v>2.9</v>
+      </c>
+      <c r="BE2">
+        <v>9</v>
+      </c>
+      <c r="BF2">
+        <v>1.55</v>
+      </c>
+      <c r="BG2">
+        <v>1.12</v>
+      </c>
+      <c r="BH2">
+        <v>5.25</v>
+      </c>
+      <c r="BI2">
+        <v>1.18</v>
+      </c>
+      <c r="BJ2">
+        <v>4.05</v>
+      </c>
+      <c r="BK2">
+        <v>1.45</v>
+      </c>
+      <c r="BL2">
+        <v>2.6</v>
+      </c>
+      <c r="BM2">
+        <v>1.77</v>
+      </c>
+      <c r="BN2">
+        <v>1.95</v>
+      </c>
+      <c r="BO2">
+        <v>2.1</v>
+      </c>
+      <c r="BP2">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7480140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45507.45833333334</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3">
+        <v>2.5</v>
+      </c>
+      <c r="R3">
+        <v>2.25</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>1.36</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>2.63</v>
+      </c>
+      <c r="W3">
+        <v>1.44</v>
+      </c>
+      <c r="X3">
+        <v>7</v>
+      </c>
+      <c r="Y3">
+        <v>1.1</v>
+      </c>
+      <c r="Z3">
+        <v>1.91</v>
+      </c>
+      <c r="AA3">
+        <v>3.4</v>
+      </c>
+      <c r="AB3">
+        <v>3.7</v>
+      </c>
+      <c r="AC3">
+        <v>1.04</v>
+      </c>
+      <c r="AD3">
+        <v>12</v>
+      </c>
+      <c r="AE3">
+        <v>1.28</v>
+      </c>
+      <c r="AF3">
+        <v>3.75</v>
+      </c>
+      <c r="AG3">
+        <v>1.8</v>
+      </c>
+      <c r="AH3">
+        <v>1.95</v>
+      </c>
+      <c r="AI3">
+        <v>1.67</v>
+      </c>
+      <c r="AJ3">
+        <v>2.1</v>
+      </c>
+      <c r="AK3">
+        <v>1.28</v>
+      </c>
+      <c r="AL3">
+        <v>1.25</v>
+      </c>
+      <c r="AM3">
+        <v>1.85</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>-1</v>
+      </c>
+      <c r="AV3">
+        <v>-1</v>
+      </c>
+      <c r="AW3">
+        <v>-1</v>
+      </c>
+      <c r="AX3">
+        <v>-1</v>
+      </c>
+      <c r="AY3">
+        <v>-1</v>
+      </c>
+      <c r="AZ3">
+        <v>-1</v>
+      </c>
+      <c r="BA3">
+        <v>-1</v>
+      </c>
+      <c r="BB3">
+        <v>-1</v>
+      </c>
+      <c r="BC3">
+        <v>-1</v>
+      </c>
+      <c r="BD3">
+        <v>1.55</v>
+      </c>
+      <c r="BE3">
+        <v>8.5</v>
+      </c>
+      <c r="BF3">
+        <v>2.91</v>
+      </c>
+      <c r="BG3">
+        <v>1.18</v>
+      </c>
+      <c r="BH3">
+        <v>4.2</v>
+      </c>
+      <c r="BI3">
+        <v>1.35</v>
+      </c>
+      <c r="BJ3">
+        <v>2.88</v>
+      </c>
+      <c r="BK3">
+        <v>1.61</v>
+      </c>
+      <c r="BL3">
+        <v>2.14</v>
+      </c>
+      <c r="BM3">
+        <v>1.95</v>
+      </c>
+      <c r="BN3">
+        <v>1.77</v>
+      </c>
+      <c r="BO3">
+        <v>2.63</v>
+      </c>
+      <c r="BP3">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7480141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45508.39583333334</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>2.2</v>
+      </c>
+      <c r="S4">
+        <v>3.5</v>
+      </c>
+      <c r="T4">
+        <v>1.36</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>2.75</v>
+      </c>
+      <c r="W4">
+        <v>1.4</v>
+      </c>
+      <c r="X4">
+        <v>7</v>
+      </c>
+      <c r="Y4">
+        <v>1.1</v>
+      </c>
+      <c r="Z4">
+        <v>2.5</v>
+      </c>
+      <c r="AA4">
+        <v>3.25</v>
+      </c>
+      <c r="AB4">
+        <v>2.8</v>
+      </c>
+      <c r="AC4">
+        <v>1.02</v>
+      </c>
+      <c r="AD4">
+        <v>8.9</v>
+      </c>
+      <c r="AE4">
+        <v>1.24</v>
+      </c>
+      <c r="AF4">
+        <v>3.5</v>
+      </c>
+      <c r="AG4">
+        <v>1.86</v>
+      </c>
+      <c r="AH4">
+        <v>1.86</v>
+      </c>
+      <c r="AI4">
+        <v>1.67</v>
+      </c>
+      <c r="AJ4">
+        <v>2.1</v>
+      </c>
+      <c r="AK4">
+        <v>1.4</v>
+      </c>
+      <c r="AL4">
+        <v>1.25</v>
+      </c>
+      <c r="AM4">
+        <v>1.62</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>-1</v>
+      </c>
+      <c r="AV4">
+        <v>-1</v>
+      </c>
+      <c r="AW4">
+        <v>-1</v>
+      </c>
+      <c r="AX4">
+        <v>-1</v>
+      </c>
+      <c r="AY4">
+        <v>-1</v>
+      </c>
+      <c r="AZ4">
+        <v>-1</v>
+      </c>
+      <c r="BA4">
+        <v>-1</v>
+      </c>
+      <c r="BB4">
+        <v>-1</v>
+      </c>
+      <c r="BC4">
+        <v>-1</v>
+      </c>
+      <c r="BD4">
+        <v>1.75</v>
+      </c>
+      <c r="BE4">
+        <v>8.5</v>
+      </c>
+      <c r="BF4">
+        <v>2.43</v>
+      </c>
+      <c r="BG4">
+        <v>1.13</v>
+      </c>
+      <c r="BH4">
+        <v>4.75</v>
+      </c>
+      <c r="BI4">
+        <v>1.29</v>
+      </c>
+      <c r="BJ4">
+        <v>3.2</v>
+      </c>
+      <c r="BK4">
+        <v>1.52</v>
+      </c>
+      <c r="BL4">
+        <v>2.33</v>
+      </c>
+      <c r="BM4">
+        <v>1.92</v>
+      </c>
+      <c r="BN4">
+        <v>1.88</v>
+      </c>
+      <c r="BO4">
+        <v>2.38</v>
+      </c>
+      <c r="BP4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7480142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45508.45833333334</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5">
+        <v>3.1</v>
+      </c>
+      <c r="R5">
+        <v>2.2</v>
+      </c>
+      <c r="S5">
+        <v>3.4</v>
+      </c>
+      <c r="T5">
+        <v>1.4</v>
+      </c>
+      <c r="U5">
+        <v>2.75</v>
+      </c>
+      <c r="V5">
+        <v>2.75</v>
+      </c>
+      <c r="W5">
+        <v>1.4</v>
+      </c>
+      <c r="X5">
+        <v>8</v>
+      </c>
+      <c r="Y5">
+        <v>1.08</v>
+      </c>
+      <c r="Z5">
+        <v>2.45</v>
+      </c>
+      <c r="AA5">
+        <v>3.14</v>
+      </c>
+      <c r="AB5">
+        <v>2.99</v>
+      </c>
+      <c r="AC5">
+        <v>1.05</v>
+      </c>
+      <c r="AD5">
+        <v>11</v>
+      </c>
+      <c r="AE5">
+        <v>1.3</v>
+      </c>
+      <c r="AF5">
+        <v>3.4</v>
+      </c>
+      <c r="AG5">
+        <v>1.91</v>
+      </c>
+      <c r="AH5">
+        <v>1.8</v>
+      </c>
+      <c r="AI5">
+        <v>1.75</v>
+      </c>
+      <c r="AJ5">
+        <v>2</v>
+      </c>
+      <c r="AK5">
+        <v>1.42</v>
+      </c>
+      <c r="AL5">
+        <v>1.28</v>
+      </c>
+      <c r="AM5">
+        <v>1.57</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>3</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>-1</v>
+      </c>
+      <c r="AV5">
+        <v>-1</v>
+      </c>
+      <c r="AW5">
+        <v>-1</v>
+      </c>
+      <c r="AX5">
+        <v>-1</v>
+      </c>
+      <c r="AY5">
+        <v>-1</v>
+      </c>
+      <c r="AZ5">
+        <v>-1</v>
+      </c>
+      <c r="BA5">
+        <v>-1</v>
+      </c>
+      <c r="BB5">
+        <v>-1</v>
+      </c>
+      <c r="BC5">
+        <v>-1</v>
+      </c>
+      <c r="BD5">
+        <v>1.85</v>
+      </c>
+      <c r="BE5">
+        <v>8</v>
+      </c>
+      <c r="BF5">
+        <v>2.28</v>
+      </c>
+      <c r="BG5">
+        <v>1.19</v>
+      </c>
+      <c r="BH5">
+        <v>4</v>
+      </c>
+      <c r="BI5">
+        <v>1.37</v>
+      </c>
+      <c r="BJ5">
+        <v>2.8</v>
+      </c>
+      <c r="BK5">
+        <v>1.7</v>
+      </c>
+      <c r="BL5">
+        <v>2.05</v>
+      </c>
+      <c r="BM5">
+        <v>2.05</v>
+      </c>
+      <c r="BN5">
+        <v>1.7</v>
+      </c>
+      <c r="BO5">
+        <v>2.7</v>
+      </c>
+      <c r="BP5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7480143</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45508.52083333334</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6">
+        <v>1.5</v>
+      </c>
+      <c r="R6">
+        <v>3.2</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>1.18</v>
+      </c>
+      <c r="U6">
+        <v>4.5</v>
+      </c>
+      <c r="V6">
+        <v>1.91</v>
+      </c>
+      <c r="W6">
+        <v>1.8</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>1.22</v>
+      </c>
+      <c r="Z6">
+        <v>1.17</v>
+      </c>
+      <c r="AA6">
+        <v>7.36</v>
+      </c>
+      <c r="AB6">
+        <v>12.55</v>
+      </c>
+      <c r="AC6">
+        <v>1.01</v>
+      </c>
+      <c r="AD6">
+        <v>32.5</v>
+      </c>
+      <c r="AE6">
+        <v>1.09</v>
+      </c>
+      <c r="AF6">
+        <v>7</v>
+      </c>
+      <c r="AG6">
+        <v>1.34</v>
+      </c>
+      <c r="AH6">
+        <v>3.09</v>
+      </c>
+      <c r="AI6">
+        <v>1.95</v>
+      </c>
+      <c r="AJ6">
+        <v>1.8</v>
+      </c>
+      <c r="AK6">
+        <v>1.01</v>
+      </c>
+      <c r="AL6">
+        <v>1.04</v>
+      </c>
+      <c r="AM6">
+        <v>5.5</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>3</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>-1</v>
+      </c>
+      <c r="AV6">
+        <v>-1</v>
+      </c>
+      <c r="AW6">
+        <v>-1</v>
+      </c>
+      <c r="AX6">
+        <v>-1</v>
+      </c>
+      <c r="AY6">
+        <v>-1</v>
+      </c>
+      <c r="AZ6">
+        <v>-1</v>
+      </c>
+      <c r="BA6">
+        <v>-1</v>
+      </c>
+      <c r="BB6">
+        <v>-1</v>
+      </c>
+      <c r="BC6">
+        <v>-1</v>
+      </c>
+      <c r="BD6">
+        <v>1.07</v>
+      </c>
+      <c r="BE6">
+        <v>15</v>
+      </c>
+      <c r="BF6">
+        <v>10</v>
+      </c>
+      <c r="BG6">
+        <v>1.08</v>
+      </c>
+      <c r="BH6">
+        <v>7.1</v>
+      </c>
+      <c r="BI6">
+        <v>1.14</v>
+      </c>
+      <c r="BJ6">
+        <v>4.7</v>
+      </c>
+      <c r="BK6">
+        <v>1.29</v>
+      </c>
+      <c r="BL6">
+        <v>3.2</v>
+      </c>
+      <c r="BM6">
+        <v>1.5</v>
+      </c>
+      <c r="BN6">
+        <v>2.38</v>
+      </c>
+      <c r="BO6">
+        <v>1.8</v>
+      </c>
+      <c r="BP6">
+        <v>1.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -241,6 +241,9 @@
     <t>Celtic</t>
   </si>
   <si>
+    <t>St. Johnstone</t>
+  </si>
+  <si>
     <t>Rangers</t>
   </si>
   <si>
@@ -256,6 +259,9 @@
     <t>Kilmarnock</t>
   </si>
   <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -268,7 +274,13 @@
     <t>['17', '40', '59', '90+4']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
+  </si>
+  <si>
+    <t>['22', '62']</t>
   </si>
 </sst>
 </file>
@@ -630,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP6"/>
+  <dimension ref="A1:BP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,7 +877,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -886,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -982,31 +994,31 @@
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY2">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ2">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA2">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB2">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC2">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD2">
         <v>2.9</v>
@@ -1071,7 +1083,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1092,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q3">
         <v>2.5</v>
@@ -1188,31 +1200,31 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV3">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW3">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY3">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ3">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA3">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC3">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD3">
         <v>1.55</v>
@@ -1277,7 +1289,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1298,10 +1310,10 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1394,31 +1406,31 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY4">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ4">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC4">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD4">
         <v>1.75</v>
@@ -1483,7 +1495,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1504,10 +1516,10 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" t="s">
         <v>82</v>
-      </c>
-      <c r="P5" t="s">
-        <v>80</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1600,31 +1612,31 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV5">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW5">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ5">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA5">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC5">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD5">
         <v>1.85</v>
@@ -1689,7 +1701,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1710,10 +1722,10 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q6">
         <v>1.5</v>
@@ -1806,31 +1818,31 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AV6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY6">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="AZ6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC6">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD6">
         <v>1.07</v>
@@ -1870,6 +1882,212 @@
       </c>
       <c r="BP6">
         <v>1.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7480144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45509.66666666666</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7">
+        <v>3.6</v>
+      </c>
+      <c r="R7">
+        <v>2.1</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>1.4</v>
+      </c>
+      <c r="U7">
+        <v>2.75</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>1.36</v>
+      </c>
+      <c r="X7">
+        <v>8</v>
+      </c>
+      <c r="Y7">
+        <v>1.08</v>
+      </c>
+      <c r="Z7">
+        <v>2.78</v>
+      </c>
+      <c r="AA7">
+        <v>3.25</v>
+      </c>
+      <c r="AB7">
+        <v>2.33</v>
+      </c>
+      <c r="AC7">
+        <v>1.05</v>
+      </c>
+      <c r="AD7">
+        <v>10</v>
+      </c>
+      <c r="AE7">
+        <v>1.33</v>
+      </c>
+      <c r="AF7">
+        <v>3.25</v>
+      </c>
+      <c r="AG7">
+        <v>2.04</v>
+      </c>
+      <c r="AH7">
+        <v>1.8</v>
+      </c>
+      <c r="AI7">
+        <v>1.75</v>
+      </c>
+      <c r="AJ7">
+        <v>2</v>
+      </c>
+      <c r="AK7">
+        <v>1.6</v>
+      </c>
+      <c r="AL7">
+        <v>1.25</v>
+      </c>
+      <c r="AM7">
+        <v>1.4</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>3</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>3</v>
+      </c>
+      <c r="AV7">
+        <v>7</v>
+      </c>
+      <c r="AW7">
+        <v>8</v>
+      </c>
+      <c r="AX7">
+        <v>9</v>
+      </c>
+      <c r="AY7">
+        <v>11</v>
+      </c>
+      <c r="AZ7">
+        <v>16</v>
+      </c>
+      <c r="BA7">
+        <v>12</v>
+      </c>
+      <c r="BB7">
+        <v>7</v>
+      </c>
+      <c r="BC7">
+        <v>19</v>
+      </c>
+      <c r="BD7">
+        <v>2.33</v>
+      </c>
+      <c r="BE7">
+        <v>8</v>
+      </c>
+      <c r="BF7">
+        <v>1.82</v>
+      </c>
+      <c r="BG7">
+        <v>1.21</v>
+      </c>
+      <c r="BH7">
+        <v>3.8</v>
+      </c>
+      <c r="BI7">
+        <v>1.4</v>
+      </c>
+      <c r="BJ7">
+        <v>2.65</v>
+      </c>
+      <c r="BK7">
+        <v>1.7</v>
+      </c>
+      <c r="BL7">
+        <v>2.05</v>
+      </c>
+      <c r="BM7">
+        <v>2</v>
+      </c>
+      <c r="BN7">
+        <v>1.7</v>
+      </c>
+      <c r="BO7">
+        <v>2.8</v>
+      </c>
+      <c r="BP7">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -277,10 +277,31 @@
     <t>['88']</t>
   </si>
   <si>
+    <t>['13', '24']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['23', '45+2', '45+5']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
     <t>['22', '62']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['3', '19']</t>
   </si>
 </sst>
 </file>
@@ -642,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP7"/>
+  <dimension ref="A1:BP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1313,7 +1334,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1931,7 +1952,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2088,6 +2109,830 @@
       </c>
       <c r="BP7">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7480147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8">
+        <v>1.57</v>
+      </c>
+      <c r="R8">
+        <v>2.75</v>
+      </c>
+      <c r="S8">
+        <v>8.5</v>
+      </c>
+      <c r="T8">
+        <v>1.22</v>
+      </c>
+      <c r="U8">
+        <v>3.9</v>
+      </c>
+      <c r="V8">
+        <v>1.95</v>
+      </c>
+      <c r="W8">
+        <v>1.75</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+      <c r="Y8">
+        <v>1.2</v>
+      </c>
+      <c r="Z8">
+        <v>1.13</v>
+      </c>
+      <c r="AA8">
+        <v>8.94</v>
+      </c>
+      <c r="AB8">
+        <v>14.41</v>
+      </c>
+      <c r="AC8">
+        <v>1.01</v>
+      </c>
+      <c r="AD8">
+        <v>30</v>
+      </c>
+      <c r="AE8">
+        <v>1.12</v>
+      </c>
+      <c r="AF8">
+        <v>6</v>
+      </c>
+      <c r="AG8">
+        <v>1.36</v>
+      </c>
+      <c r="AH8">
+        <v>2.9</v>
+      </c>
+      <c r="AI8">
+        <v>1.8</v>
+      </c>
+      <c r="AJ8">
+        <v>1.9</v>
+      </c>
+      <c r="AK8">
+        <v>1.03</v>
+      </c>
+      <c r="AL8">
+        <v>1.1</v>
+      </c>
+      <c r="AM8">
+        <v>4.33</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>3</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>10</v>
+      </c>
+      <c r="AV8">
+        <v>2</v>
+      </c>
+      <c r="AW8">
+        <v>5</v>
+      </c>
+      <c r="AX8">
+        <v>5</v>
+      </c>
+      <c r="AY8">
+        <v>15</v>
+      </c>
+      <c r="AZ8">
+        <v>7</v>
+      </c>
+      <c r="BA8">
+        <v>6</v>
+      </c>
+      <c r="BB8">
+        <v>4</v>
+      </c>
+      <c r="BC8">
+        <v>10</v>
+      </c>
+      <c r="BD8">
+        <v>1.03</v>
+      </c>
+      <c r="BE8">
+        <v>17</v>
+      </c>
+      <c r="BF8">
+        <v>13</v>
+      </c>
+      <c r="BG8">
+        <v>1.11</v>
+      </c>
+      <c r="BH8">
+        <v>5.5</v>
+      </c>
+      <c r="BI8">
+        <v>1.14</v>
+      </c>
+      <c r="BJ8">
+        <v>4.65</v>
+      </c>
+      <c r="BK8">
+        <v>1.28</v>
+      </c>
+      <c r="BL8">
+        <v>3.2</v>
+      </c>
+      <c r="BM8">
+        <v>1.6</v>
+      </c>
+      <c r="BN8">
+        <v>2.25</v>
+      </c>
+      <c r="BO8">
+        <v>1.95</v>
+      </c>
+      <c r="BP8">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7481842</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9">
+        <v>3.2</v>
+      </c>
+      <c r="R9">
+        <v>2.1</v>
+      </c>
+      <c r="S9">
+        <v>3.4</v>
+      </c>
+      <c r="T9">
+        <v>1.44</v>
+      </c>
+      <c r="U9">
+        <v>2.63</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>1.36</v>
+      </c>
+      <c r="X9">
+        <v>9</v>
+      </c>
+      <c r="Y9">
+        <v>1.07</v>
+      </c>
+      <c r="Z9">
+        <v>2.32</v>
+      </c>
+      <c r="AA9">
+        <v>3.23</v>
+      </c>
+      <c r="AB9">
+        <v>3.12</v>
+      </c>
+      <c r="AC9">
+        <v>1.06</v>
+      </c>
+      <c r="AD9">
+        <v>8.5</v>
+      </c>
+      <c r="AE9">
+        <v>1.33</v>
+      </c>
+      <c r="AF9">
+        <v>3.25</v>
+      </c>
+      <c r="AG9">
+        <v>2.03</v>
+      </c>
+      <c r="AH9">
+        <v>1.85</v>
+      </c>
+      <c r="AI9">
+        <v>1.8</v>
+      </c>
+      <c r="AJ9">
+        <v>1.95</v>
+      </c>
+      <c r="AK9">
+        <v>1.42</v>
+      </c>
+      <c r="AL9">
+        <v>1.28</v>
+      </c>
+      <c r="AM9">
+        <v>1.5</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>6</v>
+      </c>
+      <c r="AV9">
+        <v>3</v>
+      </c>
+      <c r="AW9">
+        <v>8</v>
+      </c>
+      <c r="AX9">
+        <v>4</v>
+      </c>
+      <c r="AY9">
+        <v>14</v>
+      </c>
+      <c r="AZ9">
+        <v>7</v>
+      </c>
+      <c r="BA9">
+        <v>7</v>
+      </c>
+      <c r="BB9">
+        <v>5</v>
+      </c>
+      <c r="BC9">
+        <v>12</v>
+      </c>
+      <c r="BD9">
+        <v>1.9</v>
+      </c>
+      <c r="BE9">
+        <v>6.5</v>
+      </c>
+      <c r="BF9">
+        <v>2.35</v>
+      </c>
+      <c r="BG9">
+        <v>1.18</v>
+      </c>
+      <c r="BH9">
+        <v>4.33</v>
+      </c>
+      <c r="BI9">
+        <v>1.33</v>
+      </c>
+      <c r="BJ9">
+        <v>3</v>
+      </c>
+      <c r="BK9">
+        <v>1.57</v>
+      </c>
+      <c r="BL9">
+        <v>2.3</v>
+      </c>
+      <c r="BM9">
+        <v>1.92</v>
+      </c>
+      <c r="BN9">
+        <v>1.88</v>
+      </c>
+      <c r="BO9">
+        <v>2.4</v>
+      </c>
+      <c r="BP9">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7480148</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45514.5625</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10">
+        <v>3.5</v>
+      </c>
+      <c r="R10">
+        <v>2.3</v>
+      </c>
+      <c r="S10">
+        <v>2.75</v>
+      </c>
+      <c r="T10">
+        <v>1.3</v>
+      </c>
+      <c r="U10">
+        <v>3.4</v>
+      </c>
+      <c r="V10">
+        <v>2.5</v>
+      </c>
+      <c r="W10">
+        <v>1.5</v>
+      </c>
+      <c r="X10">
+        <v>6</v>
+      </c>
+      <c r="Y10">
+        <v>1.13</v>
+      </c>
+      <c r="Z10">
+        <v>3.11</v>
+      </c>
+      <c r="AA10">
+        <v>3.62</v>
+      </c>
+      <c r="AB10">
+        <v>2.16</v>
+      </c>
+      <c r="AC10">
+        <v>1.04</v>
+      </c>
+      <c r="AD10">
+        <v>10</v>
+      </c>
+      <c r="AE10">
+        <v>1.22</v>
+      </c>
+      <c r="AF10">
+        <v>4.2</v>
+      </c>
+      <c r="AG10">
+        <v>1.55</v>
+      </c>
+      <c r="AH10">
+        <v>2.3</v>
+      </c>
+      <c r="AI10">
+        <v>1.53</v>
+      </c>
+      <c r="AJ10">
+        <v>2.38</v>
+      </c>
+      <c r="AK10">
+        <v>1.65</v>
+      </c>
+      <c r="AL10">
+        <v>1.25</v>
+      </c>
+      <c r="AM10">
+        <v>1.36</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>3</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>8</v>
+      </c>
+      <c r="AV10">
+        <v>4</v>
+      </c>
+      <c r="AW10">
+        <v>3</v>
+      </c>
+      <c r="AX10">
+        <v>7</v>
+      </c>
+      <c r="AY10">
+        <v>11</v>
+      </c>
+      <c r="AZ10">
+        <v>11</v>
+      </c>
+      <c r="BA10">
+        <v>2</v>
+      </c>
+      <c r="BB10">
+        <v>10</v>
+      </c>
+      <c r="BC10">
+        <v>12</v>
+      </c>
+      <c r="BD10">
+        <v>2.7</v>
+      </c>
+      <c r="BE10">
+        <v>7</v>
+      </c>
+      <c r="BF10">
+        <v>1.68</v>
+      </c>
+      <c r="BG10">
+        <v>1.12</v>
+      </c>
+      <c r="BH10">
+        <v>5.25</v>
+      </c>
+      <c r="BI10">
+        <v>1.19</v>
+      </c>
+      <c r="BJ10">
+        <v>3.94</v>
+      </c>
+      <c r="BK10">
+        <v>1.37</v>
+      </c>
+      <c r="BL10">
+        <v>2.75</v>
+      </c>
+      <c r="BM10">
+        <v>1.63</v>
+      </c>
+      <c r="BN10">
+        <v>2.15</v>
+      </c>
+      <c r="BO10">
+        <v>2</v>
+      </c>
+      <c r="BP10">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7480149</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45515.35416666666</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q11">
+        <v>6.5</v>
+      </c>
+      <c r="R11">
+        <v>2.63</v>
+      </c>
+      <c r="S11">
+        <v>1.8</v>
+      </c>
+      <c r="T11">
+        <v>1.25</v>
+      </c>
+      <c r="U11">
+        <v>3.75</v>
+      </c>
+      <c r="V11">
+        <v>2.1</v>
+      </c>
+      <c r="W11">
+        <v>1.67</v>
+      </c>
+      <c r="X11">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>1.17</v>
+      </c>
+      <c r="Z11">
+        <v>7.2</v>
+      </c>
+      <c r="AA11">
+        <v>5</v>
+      </c>
+      <c r="AB11">
+        <v>1.4</v>
+      </c>
+      <c r="AC11">
+        <v>1.04</v>
+      </c>
+      <c r="AD11">
+        <v>10</v>
+      </c>
+      <c r="AE11">
+        <v>1.15</v>
+      </c>
+      <c r="AF11">
+        <v>5.25</v>
+      </c>
+      <c r="AG11">
+        <v>1.49</v>
+      </c>
+      <c r="AH11">
+        <v>2.38</v>
+      </c>
+      <c r="AI11">
+        <v>1.7</v>
+      </c>
+      <c r="AJ11">
+        <v>2.05</v>
+      </c>
+      <c r="AK11">
+        <v>3.1</v>
+      </c>
+      <c r="AL11">
+        <v>1.12</v>
+      </c>
+      <c r="AM11">
+        <v>1.07</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>3</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>-1</v>
+      </c>
+      <c r="AV11">
+        <v>-1</v>
+      </c>
+      <c r="AW11">
+        <v>-1</v>
+      </c>
+      <c r="AX11">
+        <v>-1</v>
+      </c>
+      <c r="AY11">
+        <v>-1</v>
+      </c>
+      <c r="AZ11">
+        <v>-1</v>
+      </c>
+      <c r="BA11">
+        <v>-1</v>
+      </c>
+      <c r="BB11">
+        <v>-1</v>
+      </c>
+      <c r="BC11">
+        <v>-1</v>
+      </c>
+      <c r="BD11">
+        <v>7</v>
+      </c>
+      <c r="BE11">
+        <v>11</v>
+      </c>
+      <c r="BF11">
+        <v>1.15</v>
+      </c>
+      <c r="BG11">
+        <v>1.11</v>
+      </c>
+      <c r="BH11">
+        <v>5.5</v>
+      </c>
+      <c r="BI11">
+        <v>1.21</v>
+      </c>
+      <c r="BJ11">
+        <v>4.5</v>
+      </c>
+      <c r="BK11">
+        <v>1.31</v>
+      </c>
+      <c r="BL11">
+        <v>3.04</v>
+      </c>
+      <c r="BM11">
+        <v>1.63</v>
+      </c>
+      <c r="BN11">
+        <v>2.15</v>
+      </c>
+      <c r="BO11">
+        <v>2</v>
+      </c>
+      <c r="BP11">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="99">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,12 +256,12 @@
     <t>Hibernian</t>
   </si>
   <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
     <t>Kilmarnock</t>
   </si>
   <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -286,6 +286,9 @@
     <t>['23', '45+2', '45+5']</t>
   </si>
   <si>
+    <t>['39', '54', '81']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -302,6 +305,12 @@
   </si>
   <si>
     <t>['3', '19']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['3', '33', '81']</t>
   </si>
 </sst>
 </file>
@@ -663,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP11"/>
+  <dimension ref="A1:BP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1334,7 +1343,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1722,7 +1731,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1928,7 +1937,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1952,7 +1961,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2158,7 +2167,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2364,7 +2373,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2570,7 +2579,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2776,7 +2785,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -2869,31 +2878,31 @@
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AV11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AZ11">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD11">
         <v>7</v>
@@ -2933,6 +2942,418 @@
       </c>
       <c r="BP11">
         <v>1.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7480145</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45515.45833333334</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q12">
+        <v>2.75</v>
+      </c>
+      <c r="R12">
+        <v>2.1</v>
+      </c>
+      <c r="S12">
+        <v>4.33</v>
+      </c>
+      <c r="T12">
+        <v>1.44</v>
+      </c>
+      <c r="U12">
+        <v>2.63</v>
+      </c>
+      <c r="V12">
+        <v>3.25</v>
+      </c>
+      <c r="W12">
+        <v>1.33</v>
+      </c>
+      <c r="X12">
+        <v>9</v>
+      </c>
+      <c r="Y12">
+        <v>1.07</v>
+      </c>
+      <c r="Z12">
+        <v>1.83</v>
+      </c>
+      <c r="AA12">
+        <v>3.6</v>
+      </c>
+      <c r="AB12">
+        <v>4.2</v>
+      </c>
+      <c r="AC12">
+        <v>1.06</v>
+      </c>
+      <c r="AD12">
+        <v>9.5</v>
+      </c>
+      <c r="AE12">
+        <v>1.4</v>
+      </c>
+      <c r="AF12">
+        <v>2.95</v>
+      </c>
+      <c r="AG12">
+        <v>2.14</v>
+      </c>
+      <c r="AH12">
+        <v>1.63</v>
+      </c>
+      <c r="AI12">
+        <v>1.95</v>
+      </c>
+      <c r="AJ12">
+        <v>1.8</v>
+      </c>
+      <c r="AK12">
+        <v>1.22</v>
+      </c>
+      <c r="AL12">
+        <v>1.25</v>
+      </c>
+      <c r="AM12">
+        <v>1.95</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>3</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>4</v>
+      </c>
+      <c r="AV12">
+        <v>6</v>
+      </c>
+      <c r="AW12">
+        <v>4</v>
+      </c>
+      <c r="AX12">
+        <v>3</v>
+      </c>
+      <c r="AY12">
+        <v>8</v>
+      </c>
+      <c r="AZ12">
+        <v>9</v>
+      </c>
+      <c r="BA12">
+        <v>6</v>
+      </c>
+      <c r="BB12">
+        <v>2</v>
+      </c>
+      <c r="BC12">
+        <v>8</v>
+      </c>
+      <c r="BD12">
+        <v>1.75</v>
+      </c>
+      <c r="BE12">
+        <v>6.5</v>
+      </c>
+      <c r="BF12">
+        <v>2.6</v>
+      </c>
+      <c r="BG12">
+        <v>1.15</v>
+      </c>
+      <c r="BH12">
+        <v>4.75</v>
+      </c>
+      <c r="BI12">
+        <v>1.29</v>
+      </c>
+      <c r="BJ12">
+        <v>3.3</v>
+      </c>
+      <c r="BK12">
+        <v>1.55</v>
+      </c>
+      <c r="BL12">
+        <v>2.35</v>
+      </c>
+      <c r="BM12">
+        <v>1.9</v>
+      </c>
+      <c r="BN12">
+        <v>1.9</v>
+      </c>
+      <c r="BO12">
+        <v>2.35</v>
+      </c>
+      <c r="BP12">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7480146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45515.45833333334</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13">
+        <v>2.4</v>
+      </c>
+      <c r="R13">
+        <v>2.1</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>1.44</v>
+      </c>
+      <c r="U13">
+        <v>2.63</v>
+      </c>
+      <c r="V13">
+        <v>3.25</v>
+      </c>
+      <c r="W13">
+        <v>1.33</v>
+      </c>
+      <c r="X13">
+        <v>9</v>
+      </c>
+      <c r="Y13">
+        <v>1.07</v>
+      </c>
+      <c r="Z13">
+        <v>1.66</v>
+      </c>
+      <c r="AA13">
+        <v>4.03</v>
+      </c>
+      <c r="AB13">
+        <v>4.8</v>
+      </c>
+      <c r="AC13">
+        <v>1.06</v>
+      </c>
+      <c r="AD13">
+        <v>10</v>
+      </c>
+      <c r="AE13">
+        <v>1.36</v>
+      </c>
+      <c r="AF13">
+        <v>3.2</v>
+      </c>
+      <c r="AG13">
+        <v>2.14</v>
+      </c>
+      <c r="AH13">
+        <v>1.63</v>
+      </c>
+      <c r="AI13">
+        <v>2</v>
+      </c>
+      <c r="AJ13">
+        <v>1.75</v>
+      </c>
+      <c r="AK13">
+        <v>1.2</v>
+      </c>
+      <c r="AL13">
+        <v>1.22</v>
+      </c>
+      <c r="AM13">
+        <v>2.05</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>3</v>
+      </c>
+      <c r="AV13">
+        <v>8</v>
+      </c>
+      <c r="AW13">
+        <v>9</v>
+      </c>
+      <c r="AX13">
+        <v>2</v>
+      </c>
+      <c r="AY13">
+        <v>12</v>
+      </c>
+      <c r="AZ13">
+        <v>10</v>
+      </c>
+      <c r="BA13">
+        <v>4</v>
+      </c>
+      <c r="BB13">
+        <v>4</v>
+      </c>
+      <c r="BC13">
+        <v>8</v>
+      </c>
+      <c r="BD13">
+        <v>1.3</v>
+      </c>
+      <c r="BE13">
+        <v>8.5</v>
+      </c>
+      <c r="BF13">
+        <v>4.5</v>
+      </c>
+      <c r="BG13">
+        <v>1.11</v>
+      </c>
+      <c r="BH13">
+        <v>5.3</v>
+      </c>
+      <c r="BI13">
+        <v>1.24</v>
+      </c>
+      <c r="BJ13">
+        <v>3.48</v>
+      </c>
+      <c r="BK13">
+        <v>1.55</v>
+      </c>
+      <c r="BL13">
+        <v>2.35</v>
+      </c>
+      <c r="BM13">
+        <v>1.95</v>
+      </c>
+      <c r="BN13">
+        <v>1.85</v>
+      </c>
+      <c r="BO13">
+        <v>2.35</v>
+      </c>
+      <c r="BP13">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -289,6 +289,15 @@
     <t>['39', '54', '81']</t>
   </si>
   <si>
+    <t>['54', '88']</t>
+  </si>
+  <si>
+    <t>['45', '72']</t>
+  </si>
+  <si>
+    <t>['18', '45', '58', '65', '69', '90']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -311,6 +320,9 @@
   </si>
   <si>
     <t>['3', '33', '81']</t>
+  </si>
+  <si>
+    <t>['9', '88']</t>
   </si>
 </sst>
 </file>
@@ -672,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP13"/>
+  <dimension ref="A1:BP16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1218,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1343,7 +1355,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1421,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1961,7 +1973,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2167,7 +2179,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2373,7 +2385,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2579,7 +2591,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2785,7 +2797,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -2863,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ11">
         <v>3</v>
@@ -2991,7 +3003,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3197,7 +3209,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3278,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="AQ13">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3354,6 +3366,624 @@
       </c>
       <c r="BP13">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7480151</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14">
+        <v>2.6</v>
+      </c>
+      <c r="R14">
+        <v>2.05</v>
+      </c>
+      <c r="S14">
+        <v>4.75</v>
+      </c>
+      <c r="T14">
+        <v>1.5</v>
+      </c>
+      <c r="U14">
+        <v>2.5</v>
+      </c>
+      <c r="V14">
+        <v>3.4</v>
+      </c>
+      <c r="W14">
+        <v>1.3</v>
+      </c>
+      <c r="X14">
+        <v>10</v>
+      </c>
+      <c r="Y14">
+        <v>1.06</v>
+      </c>
+      <c r="Z14">
+        <v>1.95</v>
+      </c>
+      <c r="AA14">
+        <v>3.65</v>
+      </c>
+      <c r="AB14">
+        <v>3.8</v>
+      </c>
+      <c r="AC14">
+        <v>1.07</v>
+      </c>
+      <c r="AD14">
+        <v>9.5</v>
+      </c>
+      <c r="AE14">
+        <v>1.4</v>
+      </c>
+      <c r="AF14">
+        <v>2.95</v>
+      </c>
+      <c r="AG14">
+        <v>2.14</v>
+      </c>
+      <c r="AH14">
+        <v>1.66</v>
+      </c>
+      <c r="AI14">
+        <v>2.05</v>
+      </c>
+      <c r="AJ14">
+        <v>1.7</v>
+      </c>
+      <c r="AK14">
+        <v>1.22</v>
+      </c>
+      <c r="AL14">
+        <v>1.25</v>
+      </c>
+      <c r="AM14">
+        <v>1.9</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>3</v>
+      </c>
+      <c r="AP14">
+        <v>2</v>
+      </c>
+      <c r="AQ14">
+        <v>1.5</v>
+      </c>
+      <c r="AR14">
+        <v>2.04</v>
+      </c>
+      <c r="AS14">
+        <v>1.5</v>
+      </c>
+      <c r="AT14">
+        <v>3.54</v>
+      </c>
+      <c r="AU14">
+        <v>3</v>
+      </c>
+      <c r="AV14">
+        <v>2</v>
+      </c>
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="AX14">
+        <v>7</v>
+      </c>
+      <c r="AY14">
+        <v>4</v>
+      </c>
+      <c r="AZ14">
+        <v>9</v>
+      </c>
+      <c r="BA14">
+        <v>2</v>
+      </c>
+      <c r="BB14">
+        <v>6</v>
+      </c>
+      <c r="BC14">
+        <v>8</v>
+      </c>
+      <c r="BD14">
+        <v>1.45</v>
+      </c>
+      <c r="BE14">
+        <v>9</v>
+      </c>
+      <c r="BF14">
+        <v>3.32</v>
+      </c>
+      <c r="BG14">
+        <v>1.12</v>
+      </c>
+      <c r="BH14">
+        <v>4.95</v>
+      </c>
+      <c r="BI14">
+        <v>1.28</v>
+      </c>
+      <c r="BJ14">
+        <v>3.3</v>
+      </c>
+      <c r="BK14">
+        <v>1.49</v>
+      </c>
+      <c r="BL14">
+        <v>2.4</v>
+      </c>
+      <c r="BM14">
+        <v>1.88</v>
+      </c>
+      <c r="BN14">
+        <v>1.92</v>
+      </c>
+      <c r="BO14">
+        <v>2.32</v>
+      </c>
+      <c r="BP14">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7480152</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15">
+        <v>2.6</v>
+      </c>
+      <c r="R15">
+        <v>2.38</v>
+      </c>
+      <c r="S15">
+        <v>3.75</v>
+      </c>
+      <c r="T15">
+        <v>1.3</v>
+      </c>
+      <c r="U15">
+        <v>3.4</v>
+      </c>
+      <c r="V15">
+        <v>2.5</v>
+      </c>
+      <c r="W15">
+        <v>1.5</v>
+      </c>
+      <c r="X15">
+        <v>6</v>
+      </c>
+      <c r="Y15">
+        <v>1.13</v>
+      </c>
+      <c r="Z15">
+        <v>1.87</v>
+      </c>
+      <c r="AA15">
+        <v>3.7</v>
+      </c>
+      <c r="AB15">
+        <v>3.88</v>
+      </c>
+      <c r="AC15">
+        <v>1.02</v>
+      </c>
+      <c r="AD15">
+        <v>15</v>
+      </c>
+      <c r="AE15">
+        <v>1.2</v>
+      </c>
+      <c r="AF15">
+        <v>4.33</v>
+      </c>
+      <c r="AG15">
+        <v>1.73</v>
+      </c>
+      <c r="AH15">
+        <v>2.1</v>
+      </c>
+      <c r="AI15">
+        <v>1.57</v>
+      </c>
+      <c r="AJ15">
+        <v>2.25</v>
+      </c>
+      <c r="AK15">
+        <v>1.3</v>
+      </c>
+      <c r="AL15">
+        <v>1.2</v>
+      </c>
+      <c r="AM15">
+        <v>1.87</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>0.5</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>0.53</v>
+      </c>
+      <c r="AS15">
+        <v>1.6</v>
+      </c>
+      <c r="AT15">
+        <v>2.13</v>
+      </c>
+      <c r="AU15">
+        <v>3</v>
+      </c>
+      <c r="AV15">
+        <v>6</v>
+      </c>
+      <c r="AW15">
+        <v>6</v>
+      </c>
+      <c r="AX15">
+        <v>1</v>
+      </c>
+      <c r="AY15">
+        <v>9</v>
+      </c>
+      <c r="AZ15">
+        <v>7</v>
+      </c>
+      <c r="BA15">
+        <v>5</v>
+      </c>
+      <c r="BB15">
+        <v>4</v>
+      </c>
+      <c r="BC15">
+        <v>9</v>
+      </c>
+      <c r="BD15">
+        <v>1.51</v>
+      </c>
+      <c r="BE15">
+        <v>9</v>
+      </c>
+      <c r="BF15">
+        <v>3.06</v>
+      </c>
+      <c r="BG15">
+        <v>1.13</v>
+      </c>
+      <c r="BH15">
+        <v>5</v>
+      </c>
+      <c r="BI15">
+        <v>1.28</v>
+      </c>
+      <c r="BJ15">
+        <v>3.3</v>
+      </c>
+      <c r="BK15">
+        <v>1.49</v>
+      </c>
+      <c r="BL15">
+        <v>2.4</v>
+      </c>
+      <c r="BM15">
+        <v>1.88</v>
+      </c>
+      <c r="BN15">
+        <v>1.92</v>
+      </c>
+      <c r="BO15">
+        <v>2.32</v>
+      </c>
+      <c r="BP15">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7480154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+      <c r="O16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q16">
+        <v>1.57</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>9.5</v>
+      </c>
+      <c r="T16">
+        <v>1.2</v>
+      </c>
+      <c r="U16">
+        <v>4.33</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>1.73</v>
+      </c>
+      <c r="X16">
+        <v>4.33</v>
+      </c>
+      <c r="Y16">
+        <v>1.2</v>
+      </c>
+      <c r="Z16">
+        <v>1.2</v>
+      </c>
+      <c r="AA16">
+        <v>7.25</v>
+      </c>
+      <c r="AB16">
+        <v>13</v>
+      </c>
+      <c r="AC16">
+        <v>1.01</v>
+      </c>
+      <c r="AD16">
+        <v>29.5</v>
+      </c>
+      <c r="AE16">
+        <v>1.08</v>
+      </c>
+      <c r="AF16">
+        <v>5.8</v>
+      </c>
+      <c r="AG16">
+        <v>1.35</v>
+      </c>
+      <c r="AH16">
+        <v>3.04</v>
+      </c>
+      <c r="AI16">
+        <v>1.95</v>
+      </c>
+      <c r="AJ16">
+        <v>1.8</v>
+      </c>
+      <c r="AK16">
+        <v>1.05</v>
+      </c>
+      <c r="AL16">
+        <v>1.1</v>
+      </c>
+      <c r="AM16">
+        <v>4.5</v>
+      </c>
+      <c r="AN16">
+        <v>3</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>3</v>
+      </c>
+      <c r="AQ16">
+        <v>0.5</v>
+      </c>
+      <c r="AR16">
+        <v>2.02</v>
+      </c>
+      <c r="AS16">
+        <v>1.11</v>
+      </c>
+      <c r="AT16">
+        <v>3.13</v>
+      </c>
+      <c r="AU16">
+        <v>10</v>
+      </c>
+      <c r="AV16">
+        <v>3</v>
+      </c>
+      <c r="AW16">
+        <v>5</v>
+      </c>
+      <c r="AX16">
+        <v>1</v>
+      </c>
+      <c r="AY16">
+        <v>15</v>
+      </c>
+      <c r="AZ16">
+        <v>4</v>
+      </c>
+      <c r="BA16">
+        <v>5</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>5</v>
+      </c>
+      <c r="BD16">
+        <v>1.07</v>
+      </c>
+      <c r="BE16">
+        <v>15</v>
+      </c>
+      <c r="BF16">
+        <v>10</v>
+      </c>
+      <c r="BG16">
+        <v>1.08</v>
+      </c>
+      <c r="BH16">
+        <v>6.8</v>
+      </c>
+      <c r="BI16">
+        <v>1.21</v>
+      </c>
+      <c r="BJ16">
+        <v>3.8</v>
+      </c>
+      <c r="BK16">
+        <v>1.38</v>
+      </c>
+      <c r="BL16">
+        <v>2.7</v>
+      </c>
+      <c r="BM16">
+        <v>1.66</v>
+      </c>
+      <c r="BN16">
+        <v>2.07</v>
+      </c>
+      <c r="BO16">
+        <v>2.05</v>
+      </c>
+      <c r="BP16">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="107">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -298,6 +298,12 @@
     <t>['18', '45', '58', '65', '69', '90']</t>
   </si>
   <si>
+    <t>['23', '65']</t>
+  </si>
+  <si>
+    <t>['24', '59', '81']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -323,6 +329,12 @@
   </si>
   <si>
     <t>['9', '88']</t>
+  </si>
+  <si>
+    <t>['3', '33', '71']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -684,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP16"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1227,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1355,7 +1367,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1639,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1973,7 +1985,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2179,7 +2191,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2385,7 +2397,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2591,7 +2603,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2797,7 +2809,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3003,7 +3015,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3209,7 +3221,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3621,7 +3633,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -3984,6 +3996,624 @@
       </c>
       <c r="BP16">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7480155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45529.33333333334</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q17">
+        <v>7.5</v>
+      </c>
+      <c r="R17">
+        <v>2.63</v>
+      </c>
+      <c r="S17">
+        <v>1.73</v>
+      </c>
+      <c r="T17">
+        <v>1.25</v>
+      </c>
+      <c r="U17">
+        <v>3.75</v>
+      </c>
+      <c r="V17">
+        <v>2.2</v>
+      </c>
+      <c r="W17">
+        <v>1.62</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <v>1.17</v>
+      </c>
+      <c r="Z17">
+        <v>8</v>
+      </c>
+      <c r="AA17">
+        <v>6</v>
+      </c>
+      <c r="AB17">
+        <v>1.33</v>
+      </c>
+      <c r="AC17">
+        <v>1.02</v>
+      </c>
+      <c r="AD17">
+        <v>22.5</v>
+      </c>
+      <c r="AE17">
+        <v>1.15</v>
+      </c>
+      <c r="AF17">
+        <v>5.5</v>
+      </c>
+      <c r="AG17">
+        <v>1.41</v>
+      </c>
+      <c r="AH17">
+        <v>2.61</v>
+      </c>
+      <c r="AI17">
+        <v>1.91</v>
+      </c>
+      <c r="AJ17">
+        <v>1.91</v>
+      </c>
+      <c r="AK17">
+        <v>3.6</v>
+      </c>
+      <c r="AL17">
+        <v>1.1</v>
+      </c>
+      <c r="AM17">
+        <v>1.02</v>
+      </c>
+      <c r="AN17">
+        <v>3</v>
+      </c>
+      <c r="AO17">
+        <v>3</v>
+      </c>
+      <c r="AP17">
+        <v>1.5</v>
+      </c>
+      <c r="AQ17">
+        <v>3</v>
+      </c>
+      <c r="AR17">
+        <v>1.07</v>
+      </c>
+      <c r="AS17">
+        <v>1.65</v>
+      </c>
+      <c r="AT17">
+        <v>2.72</v>
+      </c>
+      <c r="AU17">
+        <v>2</v>
+      </c>
+      <c r="AV17">
+        <v>9</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>5</v>
+      </c>
+      <c r="AY17">
+        <v>2</v>
+      </c>
+      <c r="AZ17">
+        <v>14</v>
+      </c>
+      <c r="BA17">
+        <v>2</v>
+      </c>
+      <c r="BB17">
+        <v>10</v>
+      </c>
+      <c r="BC17">
+        <v>12</v>
+      </c>
+      <c r="BD17">
+        <v>5.1</v>
+      </c>
+      <c r="BE17">
+        <v>11</v>
+      </c>
+      <c r="BF17">
+        <v>1.23</v>
+      </c>
+      <c r="BG17">
+        <v>1.1</v>
+      </c>
+      <c r="BH17">
+        <v>5.75</v>
+      </c>
+      <c r="BI17">
+        <v>1.23</v>
+      </c>
+      <c r="BJ17">
+        <v>3.65</v>
+      </c>
+      <c r="BK17">
+        <v>1.41</v>
+      </c>
+      <c r="BL17">
+        <v>2.63</v>
+      </c>
+      <c r="BM17">
+        <v>1.7</v>
+      </c>
+      <c r="BN17">
+        <v>2.05</v>
+      </c>
+      <c r="BO17">
+        <v>2.12</v>
+      </c>
+      <c r="BP17">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7480150</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45529.45833333334</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18">
+        <v>2.5</v>
+      </c>
+      <c r="R18">
+        <v>2.2</v>
+      </c>
+      <c r="S18">
+        <v>4.75</v>
+      </c>
+      <c r="T18">
+        <v>1.4</v>
+      </c>
+      <c r="U18">
+        <v>2.75</v>
+      </c>
+      <c r="V18">
+        <v>2.75</v>
+      </c>
+      <c r="W18">
+        <v>1.4</v>
+      </c>
+      <c r="X18">
+        <v>8</v>
+      </c>
+      <c r="Y18">
+        <v>1.08</v>
+      </c>
+      <c r="Z18">
+        <v>2.15</v>
+      </c>
+      <c r="AA18">
+        <v>3.3</v>
+      </c>
+      <c r="AB18">
+        <v>3.5</v>
+      </c>
+      <c r="AC18">
+        <v>1.03</v>
+      </c>
+      <c r="AD18">
+        <v>9</v>
+      </c>
+      <c r="AE18">
+        <v>1.29</v>
+      </c>
+      <c r="AF18">
+        <v>3.3</v>
+      </c>
+      <c r="AG18">
+        <v>2.15</v>
+      </c>
+      <c r="AH18">
+        <v>1.65</v>
+      </c>
+      <c r="AI18">
+        <v>1.8</v>
+      </c>
+      <c r="AJ18">
+        <v>1.95</v>
+      </c>
+      <c r="AK18">
+        <v>1.22</v>
+      </c>
+      <c r="AL18">
+        <v>1.25</v>
+      </c>
+      <c r="AM18">
+        <v>2</v>
+      </c>
+      <c r="AN18">
+        <v>3</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>3</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>1.1</v>
+      </c>
+      <c r="AS18">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT18">
+        <v>1.79</v>
+      </c>
+      <c r="AU18">
+        <v>4</v>
+      </c>
+      <c r="AV18">
+        <v>4</v>
+      </c>
+      <c r="AW18">
+        <v>5</v>
+      </c>
+      <c r="AX18">
+        <v>2</v>
+      </c>
+      <c r="AY18">
+        <v>9</v>
+      </c>
+      <c r="AZ18">
+        <v>6</v>
+      </c>
+      <c r="BA18">
+        <v>8</v>
+      </c>
+      <c r="BB18">
+        <v>6</v>
+      </c>
+      <c r="BC18">
+        <v>14</v>
+      </c>
+      <c r="BD18">
+        <v>1.95</v>
+      </c>
+      <c r="BE18">
+        <v>8.5</v>
+      </c>
+      <c r="BF18">
+        <v>2.1</v>
+      </c>
+      <c r="BG18">
+        <v>1.15</v>
+      </c>
+      <c r="BH18">
+        <v>4.75</v>
+      </c>
+      <c r="BI18">
+        <v>1.28</v>
+      </c>
+      <c r="BJ18">
+        <v>3.3</v>
+      </c>
+      <c r="BK18">
+        <v>1.49</v>
+      </c>
+      <c r="BL18">
+        <v>2.4</v>
+      </c>
+      <c r="BM18">
+        <v>1.85</v>
+      </c>
+      <c r="BN18">
+        <v>1.85</v>
+      </c>
+      <c r="BO18">
+        <v>2.32</v>
+      </c>
+      <c r="BP18">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7480153</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45529.45833333334</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q19">
+        <v>3.4</v>
+      </c>
+      <c r="R19">
+        <v>2.25</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>1.36</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>2.63</v>
+      </c>
+      <c r="W19">
+        <v>1.44</v>
+      </c>
+      <c r="X19">
+        <v>7</v>
+      </c>
+      <c r="Y19">
+        <v>1.1</v>
+      </c>
+      <c r="Z19">
+        <v>3.25</v>
+      </c>
+      <c r="AA19">
+        <v>3.6</v>
+      </c>
+      <c r="AB19">
+        <v>2.1</v>
+      </c>
+      <c r="AC19">
+        <v>1.01</v>
+      </c>
+      <c r="AD19">
+        <v>10.2</v>
+      </c>
+      <c r="AE19">
+        <v>1.22</v>
+      </c>
+      <c r="AF19">
+        <v>3.66</v>
+      </c>
+      <c r="AG19">
+        <v>1.61</v>
+      </c>
+      <c r="AH19">
+        <v>2.15</v>
+      </c>
+      <c r="AI19">
+        <v>1.62</v>
+      </c>
+      <c r="AJ19">
+        <v>2.2</v>
+      </c>
+      <c r="AK19">
+        <v>1.62</v>
+      </c>
+      <c r="AL19">
+        <v>1.25</v>
+      </c>
+      <c r="AM19">
+        <v>1.4</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>2</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>1.47</v>
+      </c>
+      <c r="AS19">
+        <v>1.39</v>
+      </c>
+      <c r="AT19">
+        <v>2.86</v>
+      </c>
+      <c r="AU19">
+        <v>7</v>
+      </c>
+      <c r="AV19">
+        <v>4</v>
+      </c>
+      <c r="AW19">
+        <v>3</v>
+      </c>
+      <c r="AX19">
+        <v>1</v>
+      </c>
+      <c r="AY19">
+        <v>10</v>
+      </c>
+      <c r="AZ19">
+        <v>5</v>
+      </c>
+      <c r="BA19">
+        <v>8</v>
+      </c>
+      <c r="BB19">
+        <v>7</v>
+      </c>
+      <c r="BC19">
+        <v>15</v>
+      </c>
+      <c r="BD19">
+        <v>2.41</v>
+      </c>
+      <c r="BE19">
+        <v>8.5</v>
+      </c>
+      <c r="BF19">
+        <v>1.75</v>
+      </c>
+      <c r="BG19">
+        <v>1.15</v>
+      </c>
+      <c r="BH19">
+        <v>4.75</v>
+      </c>
+      <c r="BI19">
+        <v>1.29</v>
+      </c>
+      <c r="BJ19">
+        <v>3.2</v>
+      </c>
+      <c r="BK19">
+        <v>1.52</v>
+      </c>
+      <c r="BL19">
+        <v>2.33</v>
+      </c>
+      <c r="BM19">
+        <v>1.92</v>
+      </c>
+      <c r="BN19">
+        <v>1.88</v>
+      </c>
+      <c r="BO19">
+        <v>2.38</v>
+      </c>
+      <c r="BP19">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -304,6 +304,12 @@
     <t>['24', '59', '81']</t>
   </si>
   <si>
+    <t>['30', '54']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -335,6 +341,15 @@
   </si>
   <si>
     <t>['65']</t>
+  </si>
+  <si>
+    <t>['26', '36']</t>
+  </si>
+  <si>
+    <t>['11', '90+4']</t>
+  </si>
+  <si>
+    <t>['90+8']</t>
   </si>
 </sst>
 </file>
@@ -696,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1367,7 +1382,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1985,7 +2000,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2191,7 +2206,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2272,7 +2287,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2397,7 +2412,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2475,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2603,7 +2618,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2681,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2809,7 +2824,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3015,7 +3030,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3096,7 +3111,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3221,7 +3236,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3633,7 +3648,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4045,7 +4060,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4457,7 +4472,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -4614,6 +4629,624 @@
       </c>
       <c r="BP19">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7480157</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20" t="s">
+        <v>96</v>
+      </c>
+      <c r="P20" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q20">
+        <v>2.75</v>
+      </c>
+      <c r="R20">
+        <v>2.1</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>1.4</v>
+      </c>
+      <c r="U20">
+        <v>2.75</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>1.36</v>
+      </c>
+      <c r="X20">
+        <v>8</v>
+      </c>
+      <c r="Y20">
+        <v>1.08</v>
+      </c>
+      <c r="Z20">
+        <v>2.4</v>
+      </c>
+      <c r="AA20">
+        <v>3.3</v>
+      </c>
+      <c r="AB20">
+        <v>2.8</v>
+      </c>
+      <c r="AC20">
+        <v>1.03</v>
+      </c>
+      <c r="AD20">
+        <v>9</v>
+      </c>
+      <c r="AE20">
+        <v>1.29</v>
+      </c>
+      <c r="AF20">
+        <v>3.3</v>
+      </c>
+      <c r="AG20">
+        <v>1.97</v>
+      </c>
+      <c r="AH20">
+        <v>1.78</v>
+      </c>
+      <c r="AI20">
+        <v>1.8</v>
+      </c>
+      <c r="AJ20">
+        <v>1.95</v>
+      </c>
+      <c r="AK20">
+        <v>1.33</v>
+      </c>
+      <c r="AL20">
+        <v>1.3</v>
+      </c>
+      <c r="AM20">
+        <v>1.73</v>
+      </c>
+      <c r="AN20">
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>2</v>
+      </c>
+      <c r="AQ20">
+        <v>0.5</v>
+      </c>
+      <c r="AR20">
+        <v>1.56</v>
+      </c>
+      <c r="AS20">
+        <v>1.22</v>
+      </c>
+      <c r="AT20">
+        <v>2.78</v>
+      </c>
+      <c r="AU20">
+        <v>6</v>
+      </c>
+      <c r="AV20">
+        <v>7</v>
+      </c>
+      <c r="AW20">
+        <v>4</v>
+      </c>
+      <c r="AX20">
+        <v>4</v>
+      </c>
+      <c r="AY20">
+        <v>10</v>
+      </c>
+      <c r="AZ20">
+        <v>11</v>
+      </c>
+      <c r="BA20">
+        <v>6</v>
+      </c>
+      <c r="BB20">
+        <v>1</v>
+      </c>
+      <c r="BC20">
+        <v>7</v>
+      </c>
+      <c r="BD20">
+        <v>1.64</v>
+      </c>
+      <c r="BE20">
+        <v>7.5</v>
+      </c>
+      <c r="BF20">
+        <v>2.68</v>
+      </c>
+      <c r="BG20">
+        <v>1.12</v>
+      </c>
+      <c r="BH20">
+        <v>5.05</v>
+      </c>
+      <c r="BI20">
+        <v>1.26</v>
+      </c>
+      <c r="BJ20">
+        <v>3.34</v>
+      </c>
+      <c r="BK20">
+        <v>1.49</v>
+      </c>
+      <c r="BL20">
+        <v>2.51</v>
+      </c>
+      <c r="BM20">
+        <v>1.77</v>
+      </c>
+      <c r="BN20">
+        <v>1.95</v>
+      </c>
+      <c r="BO20">
+        <v>2.27</v>
+      </c>
+      <c r="BP20">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7480161</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21">
+        <v>3.5</v>
+      </c>
+      <c r="R21">
+        <v>2.1</v>
+      </c>
+      <c r="S21">
+        <v>3.1</v>
+      </c>
+      <c r="T21">
+        <v>1.4</v>
+      </c>
+      <c r="U21">
+        <v>2.75</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>1.36</v>
+      </c>
+      <c r="X21">
+        <v>9</v>
+      </c>
+      <c r="Y21">
+        <v>1.07</v>
+      </c>
+      <c r="Z21">
+        <v>2.5</v>
+      </c>
+      <c r="AA21">
+        <v>3.1</v>
+      </c>
+      <c r="AB21">
+        <v>2.87</v>
+      </c>
+      <c r="AC21">
+        <v>1.06</v>
+      </c>
+      <c r="AD21">
+        <v>11</v>
+      </c>
+      <c r="AE21">
+        <v>1.34</v>
+      </c>
+      <c r="AF21">
+        <v>3.32</v>
+      </c>
+      <c r="AG21">
+        <v>2</v>
+      </c>
+      <c r="AH21">
+        <v>1.76</v>
+      </c>
+      <c r="AI21">
+        <v>1.8</v>
+      </c>
+      <c r="AJ21">
+        <v>1.95</v>
+      </c>
+      <c r="AK21">
+        <v>1.57</v>
+      </c>
+      <c r="AL21">
+        <v>1.28</v>
+      </c>
+      <c r="AM21">
+        <v>1.42</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>1.5</v>
+      </c>
+      <c r="AR21">
+        <v>1.39</v>
+      </c>
+      <c r="AS21">
+        <v>0.88</v>
+      </c>
+      <c r="AT21">
+        <v>2.27</v>
+      </c>
+      <c r="AU21">
+        <v>6</v>
+      </c>
+      <c r="AV21">
+        <v>8</v>
+      </c>
+      <c r="AW21">
+        <v>5</v>
+      </c>
+      <c r="AX21">
+        <v>4</v>
+      </c>
+      <c r="AY21">
+        <v>11</v>
+      </c>
+      <c r="AZ21">
+        <v>12</v>
+      </c>
+      <c r="BA21">
+        <v>4</v>
+      </c>
+      <c r="BB21">
+        <v>13</v>
+      </c>
+      <c r="BC21">
+        <v>17</v>
+      </c>
+      <c r="BD21">
+        <v>1.91</v>
+      </c>
+      <c r="BE21">
+        <v>7</v>
+      </c>
+      <c r="BF21">
+        <v>2.1</v>
+      </c>
+      <c r="BG21">
+        <v>1.14</v>
+      </c>
+      <c r="BH21">
+        <v>4.7</v>
+      </c>
+      <c r="BI21">
+        <v>1.28</v>
+      </c>
+      <c r="BJ21">
+        <v>3.18</v>
+      </c>
+      <c r="BK21">
+        <v>1.57</v>
+      </c>
+      <c r="BL21">
+        <v>2.33</v>
+      </c>
+      <c r="BM21">
+        <v>2</v>
+      </c>
+      <c r="BN21">
+        <v>1.8</v>
+      </c>
+      <c r="BO21">
+        <v>2.4</v>
+      </c>
+      <c r="BP21">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7480160</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45535.57291666666</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>2.25</v>
+      </c>
+      <c r="S22">
+        <v>2.63</v>
+      </c>
+      <c r="T22">
+        <v>1.33</v>
+      </c>
+      <c r="U22">
+        <v>3.25</v>
+      </c>
+      <c r="V22">
+        <v>2.63</v>
+      </c>
+      <c r="W22">
+        <v>1.44</v>
+      </c>
+      <c r="X22">
+        <v>6.5</v>
+      </c>
+      <c r="Y22">
+        <v>1.11</v>
+      </c>
+      <c r="Z22">
+        <v>3.4</v>
+      </c>
+      <c r="AA22">
+        <v>3.5</v>
+      </c>
+      <c r="AB22">
+        <v>1.95</v>
+      </c>
+      <c r="AC22">
+        <v>1.03</v>
+      </c>
+      <c r="AD22">
+        <v>13</v>
+      </c>
+      <c r="AE22">
+        <v>1.25</v>
+      </c>
+      <c r="AF22">
+        <v>3.75</v>
+      </c>
+      <c r="AG22">
+        <v>1.9</v>
+      </c>
+      <c r="AH22">
+        <v>1.72</v>
+      </c>
+      <c r="AI22">
+        <v>1.62</v>
+      </c>
+      <c r="AJ22">
+        <v>2.2</v>
+      </c>
+      <c r="AK22">
+        <v>1.78</v>
+      </c>
+      <c r="AL22">
+        <v>1.22</v>
+      </c>
+      <c r="AM22">
+        <v>1.3</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>3</v>
+      </c>
+      <c r="AP22">
+        <v>0.5</v>
+      </c>
+      <c r="AQ22">
+        <v>3</v>
+      </c>
+      <c r="AR22">
+        <v>1.66</v>
+      </c>
+      <c r="AS22">
+        <v>1.77</v>
+      </c>
+      <c r="AT22">
+        <v>3.43</v>
+      </c>
+      <c r="AU22">
+        <v>5</v>
+      </c>
+      <c r="AV22">
+        <v>4</v>
+      </c>
+      <c r="AW22">
+        <v>2</v>
+      </c>
+      <c r="AX22">
+        <v>2</v>
+      </c>
+      <c r="AY22">
+        <v>7</v>
+      </c>
+      <c r="AZ22">
+        <v>6</v>
+      </c>
+      <c r="BA22">
+        <v>1</v>
+      </c>
+      <c r="BB22">
+        <v>12</v>
+      </c>
+      <c r="BC22">
+        <v>13</v>
+      </c>
+      <c r="BD22">
+        <v>3.02</v>
+      </c>
+      <c r="BE22">
+        <v>7.1</v>
+      </c>
+      <c r="BF22">
+        <v>1.61</v>
+      </c>
+      <c r="BG22">
+        <v>1.12</v>
+      </c>
+      <c r="BH22">
+        <v>5.05</v>
+      </c>
+      <c r="BI22">
+        <v>1.26</v>
+      </c>
+      <c r="BJ22">
+        <v>3.34</v>
+      </c>
+      <c r="BK22">
+        <v>1.51</v>
+      </c>
+      <c r="BL22">
+        <v>2.45</v>
+      </c>
+      <c r="BM22">
+        <v>1.85</v>
+      </c>
+      <c r="BN22">
+        <v>1.94</v>
+      </c>
+      <c r="BO22">
+        <v>2.28</v>
+      </c>
+      <c r="BP22">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -310,6 +310,12 @@
     <t>['64']</t>
   </si>
   <si>
+    <t>['17', '40', '75']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -350,6 +356,12 @@
   </si>
   <si>
     <t>['90+8']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['76']</t>
   </si>
 </sst>
 </file>
@@ -711,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP22"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1048,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1382,7 +1394,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1669,7 +1681,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2000,7 +2012,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2206,7 +2218,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2412,7 +2424,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2493,7 +2505,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2618,7 +2630,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2824,7 +2836,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3030,7 +3042,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3236,7 +3248,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3314,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -3648,7 +3660,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4060,7 +4072,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4472,7 +4484,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q19">
         <v>3.4</v>
@@ -4678,7 +4690,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4884,7 +4896,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5090,7 +5102,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5246,6 +5258,624 @@
         <v>2.28</v>
       </c>
       <c r="BP22">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7480156</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45536.35416666666</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q23">
+        <v>2.1</v>
+      </c>
+      <c r="R23">
+        <v>2.6</v>
+      </c>
+      <c r="S23">
+        <v>4.5</v>
+      </c>
+      <c r="T23">
+        <v>1.22</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23">
+        <v>2.1</v>
+      </c>
+      <c r="W23">
+        <v>1.67</v>
+      </c>
+      <c r="X23">
+        <v>4.5</v>
+      </c>
+      <c r="Y23">
+        <v>1.18</v>
+      </c>
+      <c r="Z23">
+        <v>1.6</v>
+      </c>
+      <c r="AA23">
+        <v>3.95</v>
+      </c>
+      <c r="AB23">
+        <v>4.75</v>
+      </c>
+      <c r="AC23">
+        <v>1.02</v>
+      </c>
+      <c r="AD23">
+        <v>22.5</v>
+      </c>
+      <c r="AE23">
+        <v>1.11</v>
+      </c>
+      <c r="AF23">
+        <v>5.3</v>
+      </c>
+      <c r="AG23">
+        <v>1.45</v>
+      </c>
+      <c r="AH23">
+        <v>2.63</v>
+      </c>
+      <c r="AI23">
+        <v>1.5</v>
+      </c>
+      <c r="AJ23">
+        <v>2.5</v>
+      </c>
+      <c r="AK23">
+        <v>1.19</v>
+      </c>
+      <c r="AL23">
+        <v>1.21</v>
+      </c>
+      <c r="AM23">
+        <v>2.27</v>
+      </c>
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>3</v>
+      </c>
+      <c r="AQ23">
+        <v>0.5</v>
+      </c>
+      <c r="AR23">
+        <v>3.1</v>
+      </c>
+      <c r="AS23">
+        <v>1.18</v>
+      </c>
+      <c r="AT23">
+        <v>4.28</v>
+      </c>
+      <c r="AU23">
+        <v>-1</v>
+      </c>
+      <c r="AV23">
+        <v>-1</v>
+      </c>
+      <c r="AW23">
+        <v>-1</v>
+      </c>
+      <c r="AX23">
+        <v>-1</v>
+      </c>
+      <c r="AY23">
+        <v>-1</v>
+      </c>
+      <c r="AZ23">
+        <v>-1</v>
+      </c>
+      <c r="BA23">
+        <v>-1</v>
+      </c>
+      <c r="BB23">
+        <v>-1</v>
+      </c>
+      <c r="BC23">
+        <v>-1</v>
+      </c>
+      <c r="BD23">
+        <v>1.31</v>
+      </c>
+      <c r="BE23">
+        <v>8.5</v>
+      </c>
+      <c r="BF23">
+        <v>4.34</v>
+      </c>
+      <c r="BG23">
+        <v>1.12</v>
+      </c>
+      <c r="BH23">
+        <v>5.25</v>
+      </c>
+      <c r="BI23">
+        <v>1.25</v>
+      </c>
+      <c r="BJ23">
+        <v>3.6</v>
+      </c>
+      <c r="BK23">
+        <v>1.4</v>
+      </c>
+      <c r="BL23">
+        <v>2.7</v>
+      </c>
+      <c r="BM23">
+        <v>1.65</v>
+      </c>
+      <c r="BN23">
+        <v>2.1</v>
+      </c>
+      <c r="BO23">
+        <v>1.98</v>
+      </c>
+      <c r="BP23">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7480159</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45536.45833333334</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>99</v>
+      </c>
+      <c r="P24" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q24">
+        <v>3.25</v>
+      </c>
+      <c r="R24">
+        <v>2.2</v>
+      </c>
+      <c r="S24">
+        <v>3.25</v>
+      </c>
+      <c r="T24">
+        <v>1.4</v>
+      </c>
+      <c r="U24">
+        <v>2.75</v>
+      </c>
+      <c r="V24">
+        <v>2.75</v>
+      </c>
+      <c r="W24">
+        <v>1.4</v>
+      </c>
+      <c r="X24">
+        <v>8</v>
+      </c>
+      <c r="Y24">
+        <v>1.08</v>
+      </c>
+      <c r="Z24">
+        <v>2.45</v>
+      </c>
+      <c r="AA24">
+        <v>3.15</v>
+      </c>
+      <c r="AB24">
+        <v>2.75</v>
+      </c>
+      <c r="AC24">
+        <v>1.02</v>
+      </c>
+      <c r="AD24">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE24">
+        <v>1.27</v>
+      </c>
+      <c r="AF24">
+        <v>3.28</v>
+      </c>
+      <c r="AG24">
+        <v>1.87</v>
+      </c>
+      <c r="AH24">
+        <v>1.87</v>
+      </c>
+      <c r="AI24">
+        <v>1.7</v>
+      </c>
+      <c r="AJ24">
+        <v>2.05</v>
+      </c>
+      <c r="AK24">
+        <v>1.48</v>
+      </c>
+      <c r="AL24">
+        <v>1.33</v>
+      </c>
+      <c r="AM24">
+        <v>1.5</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0.5</v>
+      </c>
+      <c r="AQ24">
+        <v>0.5</v>
+      </c>
+      <c r="AR24">
+        <v>1.41</v>
+      </c>
+      <c r="AS24">
+        <v>1.47</v>
+      </c>
+      <c r="AT24">
+        <v>2.88</v>
+      </c>
+      <c r="AU24">
+        <v>4</v>
+      </c>
+      <c r="AV24">
+        <v>5</v>
+      </c>
+      <c r="AW24">
+        <v>7</v>
+      </c>
+      <c r="AX24">
+        <v>3</v>
+      </c>
+      <c r="AY24">
+        <v>11</v>
+      </c>
+      <c r="AZ24">
+        <v>8</v>
+      </c>
+      <c r="BA24">
+        <v>4</v>
+      </c>
+      <c r="BB24">
+        <v>7</v>
+      </c>
+      <c r="BC24">
+        <v>11</v>
+      </c>
+      <c r="BD24">
+        <v>1.83</v>
+      </c>
+      <c r="BE24">
+        <v>7.5</v>
+      </c>
+      <c r="BF24">
+        <v>2.2</v>
+      </c>
+      <c r="BG24">
+        <v>1.11</v>
+      </c>
+      <c r="BH24">
+        <v>5.25</v>
+      </c>
+      <c r="BI24">
+        <v>1.24</v>
+      </c>
+      <c r="BJ24">
+        <v>3.48</v>
+      </c>
+      <c r="BK24">
+        <v>1.46</v>
+      </c>
+      <c r="BL24">
+        <v>2.52</v>
+      </c>
+      <c r="BM24">
+        <v>1.8</v>
+      </c>
+      <c r="BN24">
+        <v>1.91</v>
+      </c>
+      <c r="BO24">
+        <v>2.23</v>
+      </c>
+      <c r="BP24">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7480158</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45536.45833333334</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q25">
+        <v>2.38</v>
+      </c>
+      <c r="R25">
+        <v>2.38</v>
+      </c>
+      <c r="S25">
+        <v>4.33</v>
+      </c>
+      <c r="T25">
+        <v>1.3</v>
+      </c>
+      <c r="U25">
+        <v>3.4</v>
+      </c>
+      <c r="V25">
+        <v>2.5</v>
+      </c>
+      <c r="W25">
+        <v>1.5</v>
+      </c>
+      <c r="X25">
+        <v>6</v>
+      </c>
+      <c r="Y25">
+        <v>1.13</v>
+      </c>
+      <c r="Z25">
+        <v>1.75</v>
+      </c>
+      <c r="AA25">
+        <v>3.85</v>
+      </c>
+      <c r="AB25">
+        <v>3.85</v>
+      </c>
+      <c r="AC25">
+        <v>1.03</v>
+      </c>
+      <c r="AD25">
+        <v>11</v>
+      </c>
+      <c r="AE25">
+        <v>1.17</v>
+      </c>
+      <c r="AF25">
+        <v>4.25</v>
+      </c>
+      <c r="AG25">
+        <v>1.6</v>
+      </c>
+      <c r="AH25">
+        <v>2.25</v>
+      </c>
+      <c r="AI25">
+        <v>1.62</v>
+      </c>
+      <c r="AJ25">
+        <v>2.2</v>
+      </c>
+      <c r="AK25">
+        <v>1.24</v>
+      </c>
+      <c r="AL25">
+        <v>1.25</v>
+      </c>
+      <c r="AM25">
+        <v>2</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>0.5</v>
+      </c>
+      <c r="AQ25">
+        <v>2</v>
+      </c>
+      <c r="AR25">
+        <v>1.14</v>
+      </c>
+      <c r="AS25">
+        <v>1.05</v>
+      </c>
+      <c r="AT25">
+        <v>2.19</v>
+      </c>
+      <c r="AU25">
+        <v>3</v>
+      </c>
+      <c r="AV25">
+        <v>4</v>
+      </c>
+      <c r="AW25">
+        <v>6</v>
+      </c>
+      <c r="AX25">
+        <v>5</v>
+      </c>
+      <c r="AY25">
+        <v>9</v>
+      </c>
+      <c r="AZ25">
+        <v>9</v>
+      </c>
+      <c r="BA25">
+        <v>6</v>
+      </c>
+      <c r="BB25">
+        <v>4</v>
+      </c>
+      <c r="BC25">
+        <v>10</v>
+      </c>
+      <c r="BD25">
+        <v>1.41</v>
+      </c>
+      <c r="BE25">
+        <v>8</v>
+      </c>
+      <c r="BF25">
+        <v>3.52</v>
+      </c>
+      <c r="BG25">
+        <v>1.11</v>
+      </c>
+      <c r="BH25">
+        <v>5.25</v>
+      </c>
+      <c r="BI25">
+        <v>1.27</v>
+      </c>
+      <c r="BJ25">
+        <v>3.35</v>
+      </c>
+      <c r="BK25">
+        <v>1.47</v>
+      </c>
+      <c r="BL25">
+        <v>2.5</v>
+      </c>
+      <c r="BM25">
+        <v>1.8</v>
+      </c>
+      <c r="BN25">
+        <v>2</v>
+      </c>
+      <c r="BO25">
+        <v>2.25</v>
+      </c>
+      <c r="BP25">
         <v>1.6</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -5401,31 +5401,31 @@
         <v>4.28</v>
       </c>
       <c r="AU23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB23">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC23">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD23">
         <v>1.31</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -298,12 +298,12 @@
     <t>['18', '45', '58', '65', '69', '90']</t>
   </si>
   <si>
+    <t>['24', '59', '81']</t>
+  </si>
+  <si>
     <t>['23', '65']</t>
   </si>
   <si>
-    <t>['24', '59', '81']</t>
-  </si>
-  <si>
     <t>['30', '54']</t>
   </si>
   <si>
@@ -358,10 +358,10 @@
     <t>['90+8']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['50']</t>
-  </si>
-  <si>
-    <t>['76']</t>
   </si>
 </sst>
 </file>
@@ -4236,7 +4236,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7480150</v>
+        <v>7480153</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4251,10 +4251,10 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -4266,145 +4266,145 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O18" t="s">
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="Q18">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="R18">
+        <v>2.25</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>1.36</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>2.63</v>
+      </c>
+      <c r="W18">
+        <v>1.44</v>
+      </c>
+      <c r="X18">
+        <v>7</v>
+      </c>
+      <c r="Y18">
+        <v>1.1</v>
+      </c>
+      <c r="Z18">
+        <v>3.25</v>
+      </c>
+      <c r="AA18">
+        <v>3.6</v>
+      </c>
+      <c r="AB18">
+        <v>2.1</v>
+      </c>
+      <c r="AC18">
+        <v>1.01</v>
+      </c>
+      <c r="AD18">
+        <v>10.2</v>
+      </c>
+      <c r="AE18">
+        <v>1.22</v>
+      </c>
+      <c r="AF18">
+        <v>3.66</v>
+      </c>
+      <c r="AG18">
+        <v>1.61</v>
+      </c>
+      <c r="AH18">
+        <v>2.15</v>
+      </c>
+      <c r="AI18">
+        <v>1.62</v>
+      </c>
+      <c r="AJ18">
         <v>2.2</v>
       </c>
-      <c r="S18">
-        <v>4.75</v>
-      </c>
-      <c r="T18">
-        <v>1.4</v>
-      </c>
-      <c r="U18">
-        <v>2.75</v>
-      </c>
-      <c r="V18">
-        <v>2.75</v>
-      </c>
-      <c r="W18">
-        <v>1.4</v>
-      </c>
-      <c r="X18">
-        <v>8</v>
-      </c>
-      <c r="Y18">
-        <v>1.08</v>
-      </c>
-      <c r="Z18">
-        <v>2.15</v>
-      </c>
-      <c r="AA18">
-        <v>3.3</v>
-      </c>
-      <c r="AB18">
-        <v>3.5</v>
-      </c>
-      <c r="AC18">
-        <v>1.03</v>
-      </c>
-      <c r="AD18">
-        <v>9</v>
-      </c>
-      <c r="AE18">
-        <v>1.29</v>
-      </c>
-      <c r="AF18">
-        <v>3.3</v>
-      </c>
-      <c r="AG18">
-        <v>2.15</v>
-      </c>
-      <c r="AH18">
-        <v>1.65</v>
-      </c>
-      <c r="AI18">
-        <v>1.8</v>
-      </c>
-      <c r="AJ18">
-        <v>1.95</v>
-      </c>
       <c r="AK18">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="AL18">
         <v>1.25</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>1.1</v>
+        <v>1.47</v>
       </c>
       <c r="AS18">
-        <v>0.6899999999999999</v>
+        <v>1.39</v>
       </c>
       <c r="AT18">
-        <v>1.79</v>
+        <v>2.86</v>
       </c>
       <c r="AU18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV18">
         <v>4</v>
       </c>
       <c r="AW18">
+        <v>3</v>
+      </c>
+      <c r="AX18">
+        <v>1</v>
+      </c>
+      <c r="AY18">
+        <v>10</v>
+      </c>
+      <c r="AZ18">
         <v>5</v>
-      </c>
-      <c r="AX18">
-        <v>2</v>
-      </c>
-      <c r="AY18">
-        <v>9</v>
-      </c>
-      <c r="AZ18">
-        <v>6</v>
       </c>
       <c r="BA18">
         <v>8</v>
       </c>
       <c r="BB18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD18">
-        <v>1.95</v>
+        <v>2.41</v>
       </c>
       <c r="BE18">
         <v>8.5</v>
       </c>
       <c r="BF18">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="BG18">
         <v>1.15</v>
@@ -4413,28 +4413,28 @@
         <v>4.75</v>
       </c>
       <c r="BI18">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="BJ18">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BK18">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="BL18">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="BM18">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="BN18">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BO18">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="BP18">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -4442,7 +4442,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7480153</v>
+        <v>7480150</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -4457,10 +4457,10 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4472,145 +4472,145 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O19" t="s">
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="Q19">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="R19">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="T19">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V19">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W19">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y19">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z19">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="AA19">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AB19">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="AC19">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD19">
-        <v>10.2</v>
+        <v>9</v>
       </c>
       <c r="AE19">
+        <v>1.29</v>
+      </c>
+      <c r="AF19">
+        <v>3.3</v>
+      </c>
+      <c r="AG19">
+        <v>2.15</v>
+      </c>
+      <c r="AH19">
+        <v>1.65</v>
+      </c>
+      <c r="AI19">
+        <v>1.8</v>
+      </c>
+      <c r="AJ19">
+        <v>1.95</v>
+      </c>
+      <c r="AK19">
         <v>1.22</v>
-      </c>
-      <c r="AF19">
-        <v>3.66</v>
-      </c>
-      <c r="AG19">
-        <v>1.61</v>
-      </c>
-      <c r="AH19">
-        <v>2.15</v>
-      </c>
-      <c r="AI19">
-        <v>1.62</v>
-      </c>
-      <c r="AJ19">
-        <v>2.2</v>
-      </c>
-      <c r="AK19">
-        <v>1.62</v>
       </c>
       <c r="AL19">
         <v>1.25</v>
       </c>
       <c r="AM19">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO19">
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ19">
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>1.47</v>
+        <v>1.1</v>
       </c>
       <c r="AS19">
-        <v>1.39</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT19">
-        <v>2.86</v>
+        <v>1.79</v>
       </c>
       <c r="AU19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV19">
         <v>4</v>
       </c>
       <c r="AW19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA19">
         <v>8</v>
       </c>
       <c r="BB19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD19">
-        <v>2.41</v>
+        <v>1.95</v>
       </c>
       <c r="BE19">
         <v>8.5</v>
       </c>
       <c r="BF19">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="BG19">
         <v>1.15</v>
@@ -4619,28 +4619,28 @@
         <v>4.75</v>
       </c>
       <c r="BI19">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="BJ19">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BK19">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="BL19">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="BM19">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="BN19">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BO19">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="BP19">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="20" spans="1:68">
@@ -5472,7 +5472,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7480159</v>
+        <v>7480158</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -5487,10 +5487,10 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -5502,145 +5502,145 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="P24" t="s">
         <v>114</v>
       </c>
       <c r="Q24">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="R24">
+        <v>2.38</v>
+      </c>
+      <c r="S24">
+        <v>4.33</v>
+      </c>
+      <c r="T24">
+        <v>1.3</v>
+      </c>
+      <c r="U24">
+        <v>3.4</v>
+      </c>
+      <c r="V24">
+        <v>2.5</v>
+      </c>
+      <c r="W24">
+        <v>1.5</v>
+      </c>
+      <c r="X24">
+        <v>6</v>
+      </c>
+      <c r="Y24">
+        <v>1.13</v>
+      </c>
+      <c r="Z24">
+        <v>1.75</v>
+      </c>
+      <c r="AA24">
+        <v>3.85</v>
+      </c>
+      <c r="AB24">
+        <v>3.85</v>
+      </c>
+      <c r="AC24">
+        <v>1.03</v>
+      </c>
+      <c r="AD24">
+        <v>11</v>
+      </c>
+      <c r="AE24">
+        <v>1.17</v>
+      </c>
+      <c r="AF24">
+        <v>4.25</v>
+      </c>
+      <c r="AG24">
+        <v>1.6</v>
+      </c>
+      <c r="AH24">
+        <v>2.25</v>
+      </c>
+      <c r="AI24">
+        <v>1.62</v>
+      </c>
+      <c r="AJ24">
         <v>2.2</v>
       </c>
-      <c r="S24">
-        <v>3.25</v>
-      </c>
-      <c r="T24">
-        <v>1.4</v>
-      </c>
-      <c r="U24">
-        <v>2.75</v>
-      </c>
-      <c r="V24">
-        <v>2.75</v>
-      </c>
-      <c r="W24">
-        <v>1.4</v>
-      </c>
-      <c r="X24">
-        <v>8</v>
-      </c>
-      <c r="Y24">
-        <v>1.08</v>
-      </c>
-      <c r="Z24">
-        <v>2.45</v>
-      </c>
-      <c r="AA24">
-        <v>3.15</v>
-      </c>
-      <c r="AB24">
-        <v>2.75</v>
-      </c>
-      <c r="AC24">
-        <v>1.02</v>
-      </c>
-      <c r="AD24">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AE24">
-        <v>1.27</v>
-      </c>
-      <c r="AF24">
-        <v>3.28</v>
-      </c>
-      <c r="AG24">
-        <v>1.87</v>
-      </c>
-      <c r="AH24">
-        <v>1.87</v>
-      </c>
-      <c r="AI24">
-        <v>1.7</v>
-      </c>
-      <c r="AJ24">
-        <v>2.05</v>
-      </c>
       <c r="AK24">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="AL24">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AM24">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24">
         <v>0.5</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AR24">
+        <v>1.14</v>
+      </c>
+      <c r="AS24">
+        <v>1.05</v>
+      </c>
+      <c r="AT24">
+        <v>2.19</v>
+      </c>
+      <c r="AU24">
+        <v>3</v>
+      </c>
+      <c r="AV24">
+        <v>4</v>
+      </c>
+      <c r="AW24">
+        <v>6</v>
+      </c>
+      <c r="AX24">
+        <v>5</v>
+      </c>
+      <c r="AY24">
+        <v>9</v>
+      </c>
+      <c r="AZ24">
+        <v>9</v>
+      </c>
+      <c r="BA24">
+        <v>6</v>
+      </c>
+      <c r="BB24">
+        <v>4</v>
+      </c>
+      <c r="BC24">
+        <v>10</v>
+      </c>
+      <c r="BD24">
         <v>1.41</v>
       </c>
-      <c r="AS24">
-        <v>1.47</v>
-      </c>
-      <c r="AT24">
-        <v>2.88</v>
-      </c>
-      <c r="AU24">
-        <v>4</v>
-      </c>
-      <c r="AV24">
-        <v>5</v>
-      </c>
-      <c r="AW24">
-        <v>7</v>
-      </c>
-      <c r="AX24">
-        <v>3</v>
-      </c>
-      <c r="AY24">
-        <v>11</v>
-      </c>
-      <c r="AZ24">
+      <c r="BE24">
         <v>8</v>
       </c>
-      <c r="BA24">
-        <v>4</v>
-      </c>
-      <c r="BB24">
-        <v>7</v>
-      </c>
-      <c r="BC24">
-        <v>11</v>
-      </c>
-      <c r="BD24">
-        <v>1.83</v>
-      </c>
-      <c r="BE24">
-        <v>7.5</v>
-      </c>
       <c r="BF24">
-        <v>2.2</v>
+        <v>3.52</v>
       </c>
       <c r="BG24">
         <v>1.11</v>
@@ -5649,28 +5649,28 @@
         <v>5.25</v>
       </c>
       <c r="BI24">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="BJ24">
-        <v>3.48</v>
+        <v>3.35</v>
       </c>
       <c r="BK24">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="BL24">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="BM24">
         <v>1.8</v>
       </c>
       <c r="BN24">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="BO24">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="BP24">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="25" spans="1:68">
@@ -5678,7 +5678,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7480158</v>
+        <v>7480159</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5693,10 +5693,10 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5708,145 +5708,145 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>1</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="P25" t="s">
         <v>115</v>
       </c>
       <c r="Q25">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="R25">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S25">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="T25">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U25">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="V25">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W25">
+        <v>1.4</v>
+      </c>
+      <c r="X25">
+        <v>8</v>
+      </c>
+      <c r="Y25">
+        <v>1.08</v>
+      </c>
+      <c r="Z25">
+        <v>2.45</v>
+      </c>
+      <c r="AA25">
+        <v>3.15</v>
+      </c>
+      <c r="AB25">
+        <v>2.75</v>
+      </c>
+      <c r="AC25">
+        <v>1.02</v>
+      </c>
+      <c r="AD25">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE25">
+        <v>1.27</v>
+      </c>
+      <c r="AF25">
+        <v>3.28</v>
+      </c>
+      <c r="AG25">
+        <v>1.87</v>
+      </c>
+      <c r="AH25">
+        <v>1.87</v>
+      </c>
+      <c r="AI25">
+        <v>1.7</v>
+      </c>
+      <c r="AJ25">
+        <v>2.05</v>
+      </c>
+      <c r="AK25">
+        <v>1.48</v>
+      </c>
+      <c r="AL25">
+        <v>1.33</v>
+      </c>
+      <c r="AM25">
         <v>1.5</v>
       </c>
-      <c r="X25">
-        <v>6</v>
-      </c>
-      <c r="Y25">
-        <v>1.13</v>
-      </c>
-      <c r="Z25">
-        <v>1.75</v>
-      </c>
-      <c r="AA25">
-        <v>3.85</v>
-      </c>
-      <c r="AB25">
-        <v>3.85</v>
-      </c>
-      <c r="AC25">
-        <v>1.03</v>
-      </c>
-      <c r="AD25">
-        <v>11</v>
-      </c>
-      <c r="AE25">
-        <v>1.17</v>
-      </c>
-      <c r="AF25">
-        <v>4.25</v>
-      </c>
-      <c r="AG25">
-        <v>1.6</v>
-      </c>
-      <c r="AH25">
-        <v>2.25</v>
-      </c>
-      <c r="AI25">
-        <v>1.62</v>
-      </c>
-      <c r="AJ25">
-        <v>2.2</v>
-      </c>
-      <c r="AK25">
-        <v>1.24</v>
-      </c>
-      <c r="AL25">
-        <v>1.25</v>
-      </c>
-      <c r="AM25">
-        <v>2</v>
-      </c>
       <c r="AN25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25">
         <v>0.5</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
-        <v>1.14</v>
+        <v>1.41</v>
       </c>
       <c r="AS25">
-        <v>1.05</v>
+        <v>1.47</v>
       </c>
       <c r="AT25">
-        <v>2.19</v>
+        <v>2.88</v>
       </c>
       <c r="AU25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV25">
+        <v>5</v>
+      </c>
+      <c r="AW25">
+        <v>7</v>
+      </c>
+      <c r="AX25">
+        <v>3</v>
+      </c>
+      <c r="AY25">
+        <v>11</v>
+      </c>
+      <c r="AZ25">
+        <v>8</v>
+      </c>
+      <c r="BA25">
         <v>4</v>
       </c>
-      <c r="AW25">
-        <v>6</v>
-      </c>
-      <c r="AX25">
-        <v>5</v>
-      </c>
-      <c r="AY25">
-        <v>9</v>
-      </c>
-      <c r="AZ25">
-        <v>9</v>
-      </c>
-      <c r="BA25">
-        <v>6</v>
-      </c>
       <c r="BB25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD25">
-        <v>1.41</v>
+        <v>1.83</v>
       </c>
       <c r="BE25">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF25">
-        <v>3.52</v>
+        <v>2.2</v>
       </c>
       <c r="BG25">
         <v>1.11</v>
@@ -5855,28 +5855,28 @@
         <v>5.25</v>
       </c>
       <c r="BI25">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="BJ25">
-        <v>3.35</v>
+        <v>3.48</v>
       </c>
       <c r="BK25">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="BL25">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="BM25">
         <v>1.8</v>
       </c>
       <c r="BN25">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="BO25">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="BP25">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1475,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>0.5</v>
@@ -1887,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ7">
         <v>3</v>
@@ -2290,25 +2290,25 @@
         <v>4.33</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AU8">
         <v>10</v>
@@ -2496,10 +2496,10 @@
         <v>1.5</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
         <v>0.5</v>
@@ -2508,13 +2508,13 @@
         <v>2</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AU9">
         <v>6</v>
@@ -2702,25 +2702,25 @@
         <v>1.36</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AU10">
         <v>8</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11">
         <v>0.5</v>
@@ -2920,13 +2920,13 @@
         <v>3</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>4.57</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3114,25 +3114,25 @@
         <v>1.95</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3326,19 +3326,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AU13">
         <v>3</v>
@@ -3529,22 +3529,22 @@
         <v>1</v>
       </c>
       <c r="AO14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP14">
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
-        <v>2.04</v>
+        <v>1.54</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT14">
-        <v>3.54</v>
+        <v>2.98</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -3735,22 +3735,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP15">
         <v>0.5</v>
       </c>
       <c r="AQ15">
+        <v>1.5</v>
+      </c>
+      <c r="AR15">
         <v>1</v>
       </c>
-      <c r="AR15">
-        <v>0.53</v>
-      </c>
       <c r="AS15">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AT15">
-        <v>2.13</v>
+        <v>2.58</v>
       </c>
       <c r="AU15">
         <v>3</v>
@@ -3938,25 +3938,25 @@
         <v>4.5</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO16">
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16">
         <v>0.5</v>
       </c>
       <c r="AR16">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="AS16">
-        <v>1.11</v>
+        <v>1.39</v>
       </c>
       <c r="AT16">
-        <v>3.13</v>
+        <v>2.99</v>
       </c>
       <c r="AU16">
         <v>10</v>
@@ -4144,25 +4144,25 @@
         <v>1.02</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO17">
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>3</v>
       </c>
       <c r="AR17">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AS17">
-        <v>1.65</v>
+        <v>2.38</v>
       </c>
       <c r="AT17">
-        <v>2.72</v>
+        <v>3.53</v>
       </c>
       <c r="AU17">
         <v>2</v>
@@ -4350,25 +4350,25 @@
         <v>1.4</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR18">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="AS18">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AT18">
-        <v>2.86</v>
+        <v>2.44</v>
       </c>
       <c r="AU18">
         <v>7</v>
@@ -4565,16 +4565,16 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR19">
-        <v>1.1</v>
+        <v>1.43</v>
       </c>
       <c r="AS19">
-        <v>0.6899999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AT19">
-        <v>1.79</v>
+        <v>2.48</v>
       </c>
       <c r="AU19">
         <v>4</v>
@@ -4762,25 +4762,25 @@
         <v>1.73</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR20">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="AS20">
-        <v>1.22</v>
+        <v>0.91</v>
       </c>
       <c r="AT20">
-        <v>2.78</v>
+        <v>2.36</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -4968,25 +4968,25 @@
         <v>1.42</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AR21">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="AS21">
-        <v>0.88</v>
+        <v>1.26</v>
       </c>
       <c r="AT21">
-        <v>2.27</v>
+        <v>2.54</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -5174,7 +5174,7 @@
         <v>1.3</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO22">
         <v>3</v>
@@ -5186,13 +5186,13 @@
         <v>3</v>
       </c>
       <c r="AR22">
-        <v>1.66</v>
+        <v>1.12</v>
       </c>
       <c r="AS22">
-        <v>1.77</v>
+        <v>1.34</v>
       </c>
       <c r="AT22">
-        <v>3.43</v>
+        <v>2.46</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5383,22 +5383,22 @@
         <v>3</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP23">
         <v>3</v>
       </c>
       <c r="AQ23">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
-        <v>3.1</v>
+        <v>2.22</v>
       </c>
       <c r="AS23">
-        <v>1.18</v>
+        <v>1.74</v>
       </c>
       <c r="AT23">
-        <v>4.28</v>
+        <v>3.96</v>
       </c>
       <c r="AU23">
         <v>5</v>
@@ -5586,25 +5586,25 @@
         <v>2</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AQ24">
         <v>2</v>
       </c>
       <c r="AR24">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AS24">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AT24">
-        <v>2.19</v>
+        <v>2.47</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -5795,22 +5795,22 @@
         <v>0</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP25">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AQ25">
         <v>0.5</v>
       </c>
       <c r="AR25">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="AS25">
-        <v>1.47</v>
+        <v>1.06</v>
       </c>
       <c r="AT25">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="AU25">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="123">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -316,6 +316,21 @@
     <t>['90+2']</t>
   </si>
   <si>
+    <t>['6', '45+4']</t>
+  </si>
+  <si>
+    <t>['45+1', '72']</t>
+  </si>
+  <si>
+    <t>['7', '41']</t>
+  </si>
+  <si>
+    <t>['52', '89']</t>
+  </si>
+  <si>
+    <t>['27', '80']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -362,6 +377,12 @@
   </si>
   <si>
     <t>['50']</t>
+  </si>
+  <si>
+    <t>['11', '71']</t>
+  </si>
+  <si>
+    <t>['7']</t>
   </si>
 </sst>
 </file>
@@ -723,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1060,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AQ2">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1266,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1394,7 +1415,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1472,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1678,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
         <v>0.5</v>
@@ -1887,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="AQ6">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2012,7 +2033,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2090,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
         <v>3</v>
@@ -2218,7 +2239,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2290,25 +2311,25 @@
         <v>4.33</v>
       </c>
       <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>3</v>
+      </c>
+      <c r="AQ8">
         <v>1</v>
       </c>
-      <c r="AO8">
-        <v>1</v>
-      </c>
-      <c r="AP8">
-        <v>1.75</v>
-      </c>
-      <c r="AQ8">
-        <v>1.75</v>
-      </c>
       <c r="AR8">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>10</v>
@@ -2424,7 +2445,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2496,25 +2517,25 @@
         <v>1.5</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>2</v>
       </c>
       <c r="AR9">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>6</v>
@@ -2630,7 +2651,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2702,25 +2723,25 @@
         <v>1.36</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR10">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>8</v>
@@ -2836,7 +2857,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -2911,22 +2932,22 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
         <v>3</v>
       </c>
       <c r="AR11">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>4.57</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3042,7 +3063,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3114,25 +3135,25 @@
         <v>1.95</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -3248,7 +3269,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3326,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AQ13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR13">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>3</v>
@@ -3529,22 +3550,22 @@
         <v>1</v>
       </c>
       <c r="AO14">
+        <v>3</v>
+      </c>
+      <c r="AP14">
+        <v>1.33</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>2.04</v>
+      </c>
+      <c r="AS14">
         <v>1.5</v>
       </c>
-      <c r="AP14">
-        <v>2</v>
-      </c>
-      <c r="AQ14">
-        <v>0.75</v>
-      </c>
-      <c r="AR14">
-        <v>1.54</v>
-      </c>
-      <c r="AS14">
-        <v>1.44</v>
-      </c>
       <c r="AT14">
-        <v>2.98</v>
+        <v>3.54</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -3660,7 +3681,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -3735,22 +3756,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="AS15">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AT15">
-        <v>2.58</v>
+        <v>2.13</v>
       </c>
       <c r="AU15">
         <v>3</v>
@@ -3938,25 +3959,25 @@
         <v>4.5</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO16">
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AQ16">
         <v>0.5</v>
       </c>
       <c r="AR16">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="AS16">
-        <v>1.39</v>
+        <v>1.11</v>
       </c>
       <c r="AT16">
-        <v>2.99</v>
+        <v>3.13</v>
       </c>
       <c r="AU16">
         <v>10</v>
@@ -4072,7 +4093,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4144,25 +4165,25 @@
         <v>1.02</v>
       </c>
       <c r="AN17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO17">
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
         <v>3</v>
       </c>
       <c r="AR17">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AS17">
-        <v>2.38</v>
+        <v>1.65</v>
       </c>
       <c r="AT17">
-        <v>3.53</v>
+        <v>2.72</v>
       </c>
       <c r="AU17">
         <v>2</v>
@@ -4278,7 +4299,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4350,25 +4371,25 @@
         <v>1.4</v>
       </c>
       <c r="AN18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR18">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="AS18">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AT18">
-        <v>2.44</v>
+        <v>2.86</v>
       </c>
       <c r="AU18">
         <v>7</v>
@@ -4565,16 +4586,16 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR19">
-        <v>1.43</v>
+        <v>1.1</v>
       </c>
       <c r="AS19">
-        <v>1.05</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT19">
-        <v>2.48</v>
+        <v>1.79</v>
       </c>
       <c r="AU19">
         <v>4</v>
@@ -4690,7 +4711,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4762,25 +4783,25 @@
         <v>1.73</v>
       </c>
       <c r="AN20">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AS20">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
       <c r="AT20">
-        <v>2.36</v>
+        <v>2.78</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -4896,7 +4917,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -4968,25 +4989,25 @@
         <v>1.42</v>
       </c>
       <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
         <v>1</v>
       </c>
-      <c r="AO21">
-        <v>1.33</v>
-      </c>
-      <c r="AP21">
-        <v>0.75</v>
-      </c>
-      <c r="AQ21">
-        <v>1.75</v>
-      </c>
       <c r="AR21">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="AS21">
-        <v>1.26</v>
+        <v>0.88</v>
       </c>
       <c r="AT21">
-        <v>2.54</v>
+        <v>2.27</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -5102,7 +5123,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5174,25 +5195,25 @@
         <v>1.3</v>
       </c>
       <c r="AN22">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO22">
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
         <v>3</v>
       </c>
       <c r="AR22">
-        <v>1.12</v>
+        <v>1.66</v>
       </c>
       <c r="AS22">
-        <v>1.34</v>
+        <v>1.77</v>
       </c>
       <c r="AT22">
-        <v>2.46</v>
+        <v>3.43</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5383,22 +5404,22 @@
         <v>3</v>
       </c>
       <c r="AO23">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP23">
         <v>3</v>
       </c>
       <c r="AQ23">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
-        <v>2.22</v>
+        <v>3.1</v>
       </c>
       <c r="AS23">
-        <v>1.74</v>
+        <v>1.18</v>
       </c>
       <c r="AT23">
-        <v>3.96</v>
+        <v>4.28</v>
       </c>
       <c r="AU23">
         <v>5</v>
@@ -5514,7 +5535,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5586,25 +5607,25 @@
         <v>2</v>
       </c>
       <c r="AN24">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AQ24">
         <v>2</v>
       </c>
       <c r="AR24">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AS24">
-        <v>1.32</v>
+        <v>1.05</v>
       </c>
       <c r="AT24">
-        <v>2.47</v>
+        <v>2.19</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -5720,7 +5741,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5795,22 +5816,22 @@
         <v>0</v>
       </c>
       <c r="AO25">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AQ25">
         <v>0.5</v>
       </c>
       <c r="AR25">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="AS25">
-        <v>1.06</v>
+        <v>1.47</v>
       </c>
       <c r="AT25">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="AU25">
         <v>4</v>
@@ -5877,6 +5898,1242 @@
       </c>
       <c r="BP25">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7480166</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q26">
+        <v>3.25</v>
+      </c>
+      <c r="R26">
+        <v>2.25</v>
+      </c>
+      <c r="S26">
+        <v>3</v>
+      </c>
+      <c r="T26">
+        <v>1.33</v>
+      </c>
+      <c r="U26">
+        <v>3.25</v>
+      </c>
+      <c r="V26">
+        <v>2.63</v>
+      </c>
+      <c r="W26">
+        <v>1.44</v>
+      </c>
+      <c r="X26">
+        <v>6.5</v>
+      </c>
+      <c r="Y26">
+        <v>1.11</v>
+      </c>
+      <c r="Z26">
+        <v>2.75</v>
+      </c>
+      <c r="AA26">
+        <v>3.65</v>
+      </c>
+      <c r="AB26">
+        <v>2.35</v>
+      </c>
+      <c r="AC26">
+        <v>1.03</v>
+      </c>
+      <c r="AD26">
+        <v>13</v>
+      </c>
+      <c r="AE26">
+        <v>1.22</v>
+      </c>
+      <c r="AF26">
+        <v>4</v>
+      </c>
+      <c r="AG26">
+        <v>1.8</v>
+      </c>
+      <c r="AH26">
+        <v>1.8</v>
+      </c>
+      <c r="AI26">
+        <v>1.62</v>
+      </c>
+      <c r="AJ26">
+        <v>2.2</v>
+      </c>
+      <c r="AK26">
+        <v>1.57</v>
+      </c>
+      <c r="AL26">
+        <v>1.25</v>
+      </c>
+      <c r="AM26">
+        <v>1.47</v>
+      </c>
+      <c r="AN26">
+        <v>0.5</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>1.33</v>
+      </c>
+      <c r="AQ26">
+        <v>0.67</v>
+      </c>
+      <c r="AR26">
+        <v>1.33</v>
+      </c>
+      <c r="AS26">
+        <v>1.39</v>
+      </c>
+      <c r="AT26">
+        <v>2.72</v>
+      </c>
+      <c r="AU26">
+        <v>-1</v>
+      </c>
+      <c r="AV26">
+        <v>-1</v>
+      </c>
+      <c r="AW26">
+        <v>-1</v>
+      </c>
+      <c r="AX26">
+        <v>-1</v>
+      </c>
+      <c r="AY26">
+        <v>-1</v>
+      </c>
+      <c r="AZ26">
+        <v>-1</v>
+      </c>
+      <c r="BA26">
+        <v>-1</v>
+      </c>
+      <c r="BB26">
+        <v>-1</v>
+      </c>
+      <c r="BC26">
+        <v>-1</v>
+      </c>
+      <c r="BD26">
+        <v>1.97</v>
+      </c>
+      <c r="BE26">
+        <v>6.5</v>
+      </c>
+      <c r="BF26">
+        <v>1.9</v>
+      </c>
+      <c r="BG26">
+        <v>1.17</v>
+      </c>
+      <c r="BH26">
+        <v>4.35</v>
+      </c>
+      <c r="BI26">
+        <v>1.3</v>
+      </c>
+      <c r="BJ26">
+        <v>3.15</v>
+      </c>
+      <c r="BK26">
+        <v>1.5</v>
+      </c>
+      <c r="BL26">
+        <v>2.33</v>
+      </c>
+      <c r="BM26">
+        <v>1.82</v>
+      </c>
+      <c r="BN26">
+        <v>1.98</v>
+      </c>
+      <c r="BO26">
+        <v>2.25</v>
+      </c>
+      <c r="BP26">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7480165</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q27">
+        <v>2.25</v>
+      </c>
+      <c r="R27">
+        <v>2.25</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+      <c r="T27">
+        <v>1.36</v>
+      </c>
+      <c r="U27">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <v>2.75</v>
+      </c>
+      <c r="W27">
+        <v>1.4</v>
+      </c>
+      <c r="X27">
+        <v>7</v>
+      </c>
+      <c r="Y27">
+        <v>1.1</v>
+      </c>
+      <c r="Z27">
+        <v>1.65</v>
+      </c>
+      <c r="AA27">
+        <v>3.85</v>
+      </c>
+      <c r="AB27">
+        <v>5.25</v>
+      </c>
+      <c r="AC27">
+        <v>1.04</v>
+      </c>
+      <c r="AD27">
+        <v>12</v>
+      </c>
+      <c r="AE27">
+        <v>1.28</v>
+      </c>
+      <c r="AF27">
+        <v>3.6</v>
+      </c>
+      <c r="AG27">
+        <v>1.85</v>
+      </c>
+      <c r="AH27">
+        <v>1.85</v>
+      </c>
+      <c r="AI27">
+        <v>1.8</v>
+      </c>
+      <c r="AJ27">
+        <v>1.95</v>
+      </c>
+      <c r="AK27">
+        <v>1.18</v>
+      </c>
+      <c r="AL27">
+        <v>1.22</v>
+      </c>
+      <c r="AM27">
+        <v>2.2</v>
+      </c>
+      <c r="AN27">
+        <v>0.5</v>
+      </c>
+      <c r="AO27">
+        <v>1.5</v>
+      </c>
+      <c r="AP27">
+        <v>1.33</v>
+      </c>
+      <c r="AQ27">
+        <v>1</v>
+      </c>
+      <c r="AR27">
+        <v>0.85</v>
+      </c>
+      <c r="AS27">
+        <v>1.23</v>
+      </c>
+      <c r="AT27">
+        <v>2.08</v>
+      </c>
+      <c r="AU27">
+        <v>-1</v>
+      </c>
+      <c r="AV27">
+        <v>-1</v>
+      </c>
+      <c r="AW27">
+        <v>-1</v>
+      </c>
+      <c r="AX27">
+        <v>-1</v>
+      </c>
+      <c r="AY27">
+        <v>-1</v>
+      </c>
+      <c r="AZ27">
+        <v>-1</v>
+      </c>
+      <c r="BA27">
+        <v>-1</v>
+      </c>
+      <c r="BB27">
+        <v>-1</v>
+      </c>
+      <c r="BC27">
+        <v>-1</v>
+      </c>
+      <c r="BD27">
+        <v>1.44</v>
+      </c>
+      <c r="BE27">
+        <v>7</v>
+      </c>
+      <c r="BF27">
+        <v>2.8</v>
+      </c>
+      <c r="BG27">
+        <v>1.16</v>
+      </c>
+      <c r="BH27">
+        <v>4.4</v>
+      </c>
+      <c r="BI27">
+        <v>1.29</v>
+      </c>
+      <c r="BJ27">
+        <v>3.2</v>
+      </c>
+      <c r="BK27">
+        <v>1.49</v>
+      </c>
+      <c r="BL27">
+        <v>2.4</v>
+      </c>
+      <c r="BM27">
+        <v>1.8</v>
+      </c>
+      <c r="BN27">
+        <v>2</v>
+      </c>
+      <c r="BO27">
+        <v>2.17</v>
+      </c>
+      <c r="BP27">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7480167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28">
+        <v>2.05</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>1.44</v>
+      </c>
+      <c r="U28">
+        <v>2.63</v>
+      </c>
+      <c r="V28">
+        <v>3.25</v>
+      </c>
+      <c r="W28">
+        <v>1.33</v>
+      </c>
+      <c r="X28">
+        <v>10</v>
+      </c>
+      <c r="Y28">
+        <v>1.06</v>
+      </c>
+      <c r="Z28">
+        <v>2.25</v>
+      </c>
+      <c r="AA28">
+        <v>3.4</v>
+      </c>
+      <c r="AB28">
+        <v>3.2</v>
+      </c>
+      <c r="AC28">
+        <v>1.07</v>
+      </c>
+      <c r="AD28">
+        <v>9</v>
+      </c>
+      <c r="AE28">
+        <v>1.38</v>
+      </c>
+      <c r="AF28">
+        <v>3</v>
+      </c>
+      <c r="AG28">
+        <v>2</v>
+      </c>
+      <c r="AH28">
+        <v>1.7</v>
+      </c>
+      <c r="AI28">
+        <v>1.95</v>
+      </c>
+      <c r="AJ28">
+        <v>1.8</v>
+      </c>
+      <c r="AK28">
+        <v>1.35</v>
+      </c>
+      <c r="AL28">
+        <v>1.28</v>
+      </c>
+      <c r="AM28">
+        <v>1.66</v>
+      </c>
+      <c r="AN28">
+        <v>1.5</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>1.33</v>
+      </c>
+      <c r="AQ28">
+        <v>0.33</v>
+      </c>
+      <c r="AR28">
+        <v>0.76</v>
+      </c>
+      <c r="AS28">
+        <v>0.85</v>
+      </c>
+      <c r="AT28">
+        <v>1.61</v>
+      </c>
+      <c r="AU28">
+        <v>-1</v>
+      </c>
+      <c r="AV28">
+        <v>-1</v>
+      </c>
+      <c r="AW28">
+        <v>-1</v>
+      </c>
+      <c r="AX28">
+        <v>-1</v>
+      </c>
+      <c r="AY28">
+        <v>-1</v>
+      </c>
+      <c r="AZ28">
+        <v>-1</v>
+      </c>
+      <c r="BA28">
+        <v>-1</v>
+      </c>
+      <c r="BB28">
+        <v>-1</v>
+      </c>
+      <c r="BC28">
+        <v>-1</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7480163</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>103</v>
+      </c>
+      <c r="P29" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q29">
+        <v>1.57</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>9.5</v>
+      </c>
+      <c r="T29">
+        <v>1.2</v>
+      </c>
+      <c r="U29">
+        <v>4.33</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>1.73</v>
+      </c>
+      <c r="X29">
+        <v>4.33</v>
+      </c>
+      <c r="Y29">
+        <v>1.2</v>
+      </c>
+      <c r="Z29">
+        <v>1.17</v>
+      </c>
+      <c r="AA29">
+        <v>7.5</v>
+      </c>
+      <c r="AB29">
+        <v>14</v>
+      </c>
+      <c r="AC29">
+        <v>1.01</v>
+      </c>
+      <c r="AD29">
+        <v>23</v>
+      </c>
+      <c r="AE29">
+        <v>1.1</v>
+      </c>
+      <c r="AF29">
+        <v>6.5</v>
+      </c>
+      <c r="AG29">
+        <v>1.36</v>
+      </c>
+      <c r="AH29">
+        <v>2.9</v>
+      </c>
+      <c r="AI29">
+        <v>1.95</v>
+      </c>
+      <c r="AJ29">
+        <v>1.8</v>
+      </c>
+      <c r="AK29">
+        <v>1.01</v>
+      </c>
+      <c r="AL29">
+        <v>1.05</v>
+      </c>
+      <c r="AM29">
+        <v>4.75</v>
+      </c>
+      <c r="AN29">
+        <v>3</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>3</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>2.21</v>
+      </c>
+      <c r="AS29">
+        <v>1.15</v>
+      </c>
+      <c r="AT29">
+        <v>3.36</v>
+      </c>
+      <c r="AU29">
+        <v>-1</v>
+      </c>
+      <c r="AV29">
+        <v>-1</v>
+      </c>
+      <c r="AW29">
+        <v>-1</v>
+      </c>
+      <c r="AX29">
+        <v>-1</v>
+      </c>
+      <c r="AY29">
+        <v>-1</v>
+      </c>
+      <c r="AZ29">
+        <v>-1</v>
+      </c>
+      <c r="BA29">
+        <v>-1</v>
+      </c>
+      <c r="BB29">
+        <v>-1</v>
+      </c>
+      <c r="BC29">
+        <v>-1</v>
+      </c>
+      <c r="BD29">
+        <v>1.16</v>
+      </c>
+      <c r="BE29">
+        <v>9.5</v>
+      </c>
+      <c r="BF29">
+        <v>4.8</v>
+      </c>
+      <c r="BG29">
+        <v>1.11</v>
+      </c>
+      <c r="BH29">
+        <v>5.4</v>
+      </c>
+      <c r="BI29">
+        <v>1.2</v>
+      </c>
+      <c r="BJ29">
+        <v>3.9</v>
+      </c>
+      <c r="BK29">
+        <v>1.35</v>
+      </c>
+      <c r="BL29">
+        <v>2.9</v>
+      </c>
+      <c r="BM29">
+        <v>1.55</v>
+      </c>
+      <c r="BN29">
+        <v>2.28</v>
+      </c>
+      <c r="BO29">
+        <v>1.88</v>
+      </c>
+      <c r="BP29">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7480162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>104</v>
+      </c>
+      <c r="P30" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q30">
+        <v>2.25</v>
+      </c>
+      <c r="R30">
+        <v>2.25</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30">
+        <v>1.36</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>2.75</v>
+      </c>
+      <c r="W30">
+        <v>1.4</v>
+      </c>
+      <c r="X30">
+        <v>7</v>
+      </c>
+      <c r="Y30">
+        <v>1.1</v>
+      </c>
+      <c r="Z30">
+        <v>1.7</v>
+      </c>
+      <c r="AA30">
+        <v>3.8</v>
+      </c>
+      <c r="AB30">
+        <v>4.8</v>
+      </c>
+      <c r="AC30">
+        <v>1.04</v>
+      </c>
+      <c r="AD30">
+        <v>12</v>
+      </c>
+      <c r="AE30">
+        <v>1.28</v>
+      </c>
+      <c r="AF30">
+        <v>3.75</v>
+      </c>
+      <c r="AG30">
+        <v>1.85</v>
+      </c>
+      <c r="AH30">
+        <v>1.85</v>
+      </c>
+      <c r="AI30">
+        <v>1.8</v>
+      </c>
+      <c r="AJ30">
+        <v>1.95</v>
+      </c>
+      <c r="AK30">
+        <v>1.18</v>
+      </c>
+      <c r="AL30">
+        <v>1.22</v>
+      </c>
+      <c r="AM30">
+        <v>2.2</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>1.5</v>
+      </c>
+      <c r="AP30">
+        <v>3</v>
+      </c>
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
+        <v>1.12</v>
+      </c>
+      <c r="AS30">
+        <v>1.26</v>
+      </c>
+      <c r="AT30">
+        <v>2.38</v>
+      </c>
+      <c r="AU30">
+        <v>-1</v>
+      </c>
+      <c r="AV30">
+        <v>-1</v>
+      </c>
+      <c r="AW30">
+        <v>-1</v>
+      </c>
+      <c r="AX30">
+        <v>-1</v>
+      </c>
+      <c r="AY30">
+        <v>-1</v>
+      </c>
+      <c r="AZ30">
+        <v>-1</v>
+      </c>
+      <c r="BA30">
+        <v>-1</v>
+      </c>
+      <c r="BB30">
+        <v>-1</v>
+      </c>
+      <c r="BC30">
+        <v>-1</v>
+      </c>
+      <c r="BD30">
+        <v>1.46</v>
+      </c>
+      <c r="BE30">
+        <v>7</v>
+      </c>
+      <c r="BF30">
+        <v>2.8</v>
+      </c>
+      <c r="BG30">
+        <v>1.19</v>
+      </c>
+      <c r="BH30">
+        <v>4.1</v>
+      </c>
+      <c r="BI30">
+        <v>1.33</v>
+      </c>
+      <c r="BJ30">
+        <v>2.95</v>
+      </c>
+      <c r="BK30">
+        <v>1.55</v>
+      </c>
+      <c r="BL30">
+        <v>2.28</v>
+      </c>
+      <c r="BM30">
+        <v>1.88</v>
+      </c>
+      <c r="BN30">
+        <v>1.81</v>
+      </c>
+      <c r="BO30">
+        <v>2.33</v>
+      </c>
+      <c r="BP30">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7480164</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45550.33333333334</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>82</v>
+      </c>
+      <c r="P31" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q31">
+        <v>6.5</v>
+      </c>
+      <c r="R31">
+        <v>2.4</v>
+      </c>
+      <c r="S31">
+        <v>1.95</v>
+      </c>
+      <c r="T31">
+        <v>1.3</v>
+      </c>
+      <c r="U31">
+        <v>3.4</v>
+      </c>
+      <c r="V31">
+        <v>2.5</v>
+      </c>
+      <c r="W31">
+        <v>1.5</v>
+      </c>
+      <c r="X31">
+        <v>6</v>
+      </c>
+      <c r="Y31">
+        <v>1.13</v>
+      </c>
+      <c r="Z31">
+        <v>6</v>
+      </c>
+      <c r="AA31">
+        <v>4.45</v>
+      </c>
+      <c r="AB31">
+        <v>1.41</v>
+      </c>
+      <c r="AC31">
+        <v>1.01</v>
+      </c>
+      <c r="AD31">
+        <v>11</v>
+      </c>
+      <c r="AE31">
+        <v>1.2</v>
+      </c>
+      <c r="AF31">
+        <v>4</v>
+      </c>
+      <c r="AG31">
+        <v>1.67</v>
+      </c>
+      <c r="AH31">
+        <v>2.1</v>
+      </c>
+      <c r="AI31">
+        <v>1.91</v>
+      </c>
+      <c r="AJ31">
+        <v>1.91</v>
+      </c>
+      <c r="AK31">
+        <v>2.66</v>
+      </c>
+      <c r="AL31">
+        <v>1.15</v>
+      </c>
+      <c r="AM31">
+        <v>1.06</v>
+      </c>
+      <c r="AN31">
+        <v>2</v>
+      </c>
+      <c r="AO31">
+        <v>0.5</v>
+      </c>
+      <c r="AP31">
+        <v>1.33</v>
+      </c>
+      <c r="AQ31">
+        <v>1.33</v>
+      </c>
+      <c r="AR31">
+        <v>1.46</v>
+      </c>
+      <c r="AS31">
+        <v>1.26</v>
+      </c>
+      <c r="AT31">
+        <v>2.72</v>
+      </c>
+      <c r="AU31">
+        <v>-1</v>
+      </c>
+      <c r="AV31">
+        <v>-1</v>
+      </c>
+      <c r="AW31">
+        <v>-1</v>
+      </c>
+      <c r="AX31">
+        <v>-1</v>
+      </c>
+      <c r="AY31">
+        <v>-1</v>
+      </c>
+      <c r="AZ31">
+        <v>-1</v>
+      </c>
+      <c r="BA31">
+        <v>-1</v>
+      </c>
+      <c r="BB31">
+        <v>-1</v>
+      </c>
+      <c r="BC31">
+        <v>-1</v>
+      </c>
+      <c r="BD31">
+        <v>3.4</v>
+      </c>
+      <c r="BE31">
+        <v>8</v>
+      </c>
+      <c r="BF31">
+        <v>1.3</v>
+      </c>
+      <c r="BG31">
+        <v>1.14</v>
+      </c>
+      <c r="BH31">
+        <v>4.8</v>
+      </c>
+      <c r="BI31">
+        <v>1.25</v>
+      </c>
+      <c r="BJ31">
+        <v>3.45</v>
+      </c>
+      <c r="BK31">
+        <v>1.43</v>
+      </c>
+      <c r="BL31">
+        <v>2.6</v>
+      </c>
+      <c r="BM31">
+        <v>1.67</v>
+      </c>
+      <c r="BN31">
+        <v>2.05</v>
+      </c>
+      <c r="BO31">
+        <v>2.02</v>
+      </c>
+      <c r="BP31">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -6040,31 +6040,31 @@
         <v>2.72</v>
       </c>
       <c r="AU26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV26">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW26">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX26">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA26">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC26">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD26">
         <v>1.97</v>
@@ -6246,31 +6246,31 @@
         <v>2.08</v>
       </c>
       <c r="AU27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV27">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY27">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ27">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BA27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC27">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD27">
         <v>1.44</v>
@@ -6452,31 +6452,31 @@
         <v>1.61</v>
       </c>
       <c r="AU28">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV28">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA28">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BC28">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD28">
         <v>0</v>
@@ -6658,31 +6658,31 @@
         <v>3.36</v>
       </c>
       <c r="AU29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV29">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX29">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY29">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB29">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD29">
         <v>1.16</v>
@@ -6864,31 +6864,31 @@
         <v>2.38</v>
       </c>
       <c r="AU30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ30">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC30">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD30">
         <v>1.46</v>
@@ -7070,31 +7070,31 @@
         <v>2.72</v>
       </c>
       <c r="AU31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AV31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW31">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX31">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY31">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AZ31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA31">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB31">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD31">
         <v>3.4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,12 @@
     <t>['27', '80']</t>
   </si>
   <si>
+    <t>['19', '87', '90+7']</t>
+  </si>
+  <si>
+    <t>['8', '34']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -383,6 +389,12 @@
   </si>
   <si>
     <t>['7']</t>
+  </si>
+  <si>
+    <t>['44', '60', '84']</t>
+  </si>
+  <si>
+    <t>['18']</t>
   </si>
 </sst>
 </file>
@@ -744,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BP33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1415,7 +1427,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1699,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ5">
         <v>0.5</v>
@@ -2033,7 +2045,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2239,7 +2251,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2445,7 +2457,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2523,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -2651,7 +2663,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2857,7 +2869,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3063,7 +3075,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3269,7 +3281,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3681,7 +3693,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4093,7 +4105,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4171,7 +4183,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
         <v>3</v>
@@ -4299,7 +4311,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4711,7 +4723,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4917,7 +4929,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5123,7 +5135,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5201,7 +5213,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>3</v>
@@ -5535,7 +5547,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5741,7 +5753,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6025,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
         <v>0.67</v>
@@ -6359,7 +6371,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6437,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
         <v>0.33</v>
@@ -6977,7 +6989,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7134,6 +7146,418 @@
       </c>
       <c r="BP31">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7480226</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>6</v>
+      </c>
+      <c r="O32" t="s">
+        <v>105</v>
+      </c>
+      <c r="P32" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q32">
+        <v>2.75</v>
+      </c>
+      <c r="R32">
+        <v>2.2</v>
+      </c>
+      <c r="S32">
+        <v>4</v>
+      </c>
+      <c r="T32">
+        <v>1.4</v>
+      </c>
+      <c r="U32">
+        <v>2.75</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>1.36</v>
+      </c>
+      <c r="X32">
+        <v>8</v>
+      </c>
+      <c r="Y32">
+        <v>1.08</v>
+      </c>
+      <c r="Z32">
+        <v>2.1</v>
+      </c>
+      <c r="AA32">
+        <v>3.3</v>
+      </c>
+      <c r="AB32">
+        <v>3.5</v>
+      </c>
+      <c r="AC32">
+        <v>1.03</v>
+      </c>
+      <c r="AD32">
+        <v>9</v>
+      </c>
+      <c r="AE32">
+        <v>1.29</v>
+      </c>
+      <c r="AF32">
+        <v>3.3</v>
+      </c>
+      <c r="AG32">
+        <v>1.95</v>
+      </c>
+      <c r="AH32">
+        <v>1.75</v>
+      </c>
+      <c r="AI32">
+        <v>1.8</v>
+      </c>
+      <c r="AJ32">
+        <v>1.95</v>
+      </c>
+      <c r="AK32">
+        <v>1.31</v>
+      </c>
+      <c r="AL32">
+        <v>1.31</v>
+      </c>
+      <c r="AM32">
+        <v>1.75</v>
+      </c>
+      <c r="AN32">
+        <v>1.33</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AP32">
+        <v>1.25</v>
+      </c>
+      <c r="AQ32">
+        <v>1</v>
+      </c>
+      <c r="AR32">
+        <v>1.31</v>
+      </c>
+      <c r="AS32">
+        <v>1.04</v>
+      </c>
+      <c r="AT32">
+        <v>2.35</v>
+      </c>
+      <c r="AU32">
+        <v>7</v>
+      </c>
+      <c r="AV32">
+        <v>4</v>
+      </c>
+      <c r="AW32">
+        <v>6</v>
+      </c>
+      <c r="AX32">
+        <v>2</v>
+      </c>
+      <c r="AY32">
+        <v>13</v>
+      </c>
+      <c r="AZ32">
+        <v>6</v>
+      </c>
+      <c r="BA32">
+        <v>1</v>
+      </c>
+      <c r="BB32">
+        <v>3</v>
+      </c>
+      <c r="BC32">
+        <v>4</v>
+      </c>
+      <c r="BD32">
+        <v>1.7</v>
+      </c>
+      <c r="BE32">
+        <v>6.75</v>
+      </c>
+      <c r="BF32">
+        <v>2.23</v>
+      </c>
+      <c r="BG32">
+        <v>1.16</v>
+      </c>
+      <c r="BH32">
+        <v>4.4</v>
+      </c>
+      <c r="BI32">
+        <v>1.3</v>
+      </c>
+      <c r="BJ32">
+        <v>3.15</v>
+      </c>
+      <c r="BK32">
+        <v>1.49</v>
+      </c>
+      <c r="BL32">
+        <v>2.4</v>
+      </c>
+      <c r="BM32">
+        <v>1.82</v>
+      </c>
+      <c r="BN32">
+        <v>1.98</v>
+      </c>
+      <c r="BO32">
+        <v>2.18</v>
+      </c>
+      <c r="BP32">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7480227</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F33">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>106</v>
+      </c>
+      <c r="P33" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q33">
+        <v>3.5</v>
+      </c>
+      <c r="R33">
+        <v>2.2</v>
+      </c>
+      <c r="S33">
+        <v>3.1</v>
+      </c>
+      <c r="T33">
+        <v>1.4</v>
+      </c>
+      <c r="U33">
+        <v>2.75</v>
+      </c>
+      <c r="V33">
+        <v>2.75</v>
+      </c>
+      <c r="W33">
+        <v>1.4</v>
+      </c>
+      <c r="X33">
+        <v>8</v>
+      </c>
+      <c r="Y33">
+        <v>1.08</v>
+      </c>
+      <c r="Z33">
+        <v>3</v>
+      </c>
+      <c r="AA33">
+        <v>3.3</v>
+      </c>
+      <c r="AB33">
+        <v>2.3</v>
+      </c>
+      <c r="AC33">
+        <v>1.03</v>
+      </c>
+      <c r="AD33">
+        <v>9</v>
+      </c>
+      <c r="AE33">
+        <v>1.25</v>
+      </c>
+      <c r="AF33">
+        <v>3.6</v>
+      </c>
+      <c r="AG33">
+        <v>1.85</v>
+      </c>
+      <c r="AH33">
+        <v>1.85</v>
+      </c>
+      <c r="AI33">
+        <v>1.75</v>
+      </c>
+      <c r="AJ33">
+        <v>2</v>
+      </c>
+      <c r="AK33">
+        <v>1.58</v>
+      </c>
+      <c r="AL33">
+        <v>1.31</v>
+      </c>
+      <c r="AM33">
+        <v>1.41</v>
+      </c>
+      <c r="AN33">
+        <v>1.33</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>1.75</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0.87</v>
+      </c>
+      <c r="AS33">
+        <v>1.07</v>
+      </c>
+      <c r="AT33">
+        <v>1.94</v>
+      </c>
+      <c r="AU33">
+        <v>3</v>
+      </c>
+      <c r="AV33">
+        <v>3</v>
+      </c>
+      <c r="AW33">
+        <v>7</v>
+      </c>
+      <c r="AX33">
+        <v>5</v>
+      </c>
+      <c r="AY33">
+        <v>10</v>
+      </c>
+      <c r="AZ33">
+        <v>8</v>
+      </c>
+      <c r="BA33">
+        <v>5</v>
+      </c>
+      <c r="BB33">
+        <v>4</v>
+      </c>
+      <c r="BC33">
+        <v>9</v>
+      </c>
+      <c r="BD33">
+        <v>2</v>
+      </c>
+      <c r="BE33">
+        <v>6.75</v>
+      </c>
+      <c r="BF33">
+        <v>1.84</v>
+      </c>
+      <c r="BG33">
+        <v>1.17</v>
+      </c>
+      <c r="BH33">
+        <v>4.35</v>
+      </c>
+      <c r="BI33">
+        <v>1.3</v>
+      </c>
+      <c r="BJ33">
+        <v>3.15</v>
+      </c>
+      <c r="BK33">
+        <v>1.49</v>
+      </c>
+      <c r="BL33">
+        <v>2.4</v>
+      </c>
+      <c r="BM33">
+        <v>1.79</v>
+      </c>
+      <c r="BN33">
+        <v>1.9</v>
+      </c>
+      <c r="BO33">
+        <v>2.18</v>
+      </c>
+      <c r="BP33">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="137">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -337,6 +337,21 @@
     <t>['8', '34']</t>
   </si>
   <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['47', '58', '64']</t>
+  </si>
+  <si>
+    <t>['19', '44']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -395,6 +410,21 @@
   </si>
   <si>
     <t>['18']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['21', '79', '90+9']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['15', '32']</t>
+  </si>
+  <si>
+    <t>['35', '43', '45', '54', '72', '83']</t>
   </si>
 </sst>
 </file>
@@ -756,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP33"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ2">
         <v>1.33</v>
@@ -1299,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1427,7 +1457,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1714,7 +1744,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2045,7 +2075,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2251,7 +2281,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2457,7 +2487,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2538,7 +2568,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2663,7 +2693,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2741,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2869,7 +2899,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3075,7 +3105,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3156,7 +3186,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3281,7 +3311,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3359,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3693,7 +3723,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -3980,7 +4010,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR16">
         <v>2.02</v>
@@ -4105,7 +4135,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4311,7 +4341,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4389,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4723,7 +4753,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4801,10 +4831,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>1.56</v>
@@ -4929,7 +4959,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5135,7 +5165,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5547,7 +5577,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5625,10 +5655,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.14</v>
@@ -5753,7 +5783,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5831,10 +5861,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR25">
         <v>1.41</v>
@@ -6371,7 +6401,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6989,7 +7019,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7195,7 +7225,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7401,7 +7431,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7558,6 +7588,1242 @@
       </c>
       <c r="BP33">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7480169</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>107</v>
+      </c>
+      <c r="P34" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q34">
+        <v>2.3</v>
+      </c>
+      <c r="R34">
+        <v>2.25</v>
+      </c>
+      <c r="S34">
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <v>1.36</v>
+      </c>
+      <c r="U34">
+        <v>3</v>
+      </c>
+      <c r="V34">
+        <v>2.75</v>
+      </c>
+      <c r="W34">
+        <v>1.4</v>
+      </c>
+      <c r="X34">
+        <v>8</v>
+      </c>
+      <c r="Y34">
+        <v>1.08</v>
+      </c>
+      <c r="Z34">
+        <v>1.66</v>
+      </c>
+      <c r="AA34">
+        <v>4.05</v>
+      </c>
+      <c r="AB34">
+        <v>4.85</v>
+      </c>
+      <c r="AC34">
+        <v>1.04</v>
+      </c>
+      <c r="AD34">
+        <v>12</v>
+      </c>
+      <c r="AE34">
+        <v>1.28</v>
+      </c>
+      <c r="AF34">
+        <v>3.6</v>
+      </c>
+      <c r="AG34">
+        <v>1.85</v>
+      </c>
+      <c r="AH34">
+        <v>1.85</v>
+      </c>
+      <c r="AI34">
+        <v>1.91</v>
+      </c>
+      <c r="AJ34">
+        <v>1.91</v>
+      </c>
+      <c r="AK34">
+        <v>1.17</v>
+      </c>
+      <c r="AL34">
+        <v>1.2</v>
+      </c>
+      <c r="AM34">
+        <v>2.25</v>
+      </c>
+      <c r="AN34">
+        <v>0.5</v>
+      </c>
+      <c r="AO34">
+        <v>0.5</v>
+      </c>
+      <c r="AP34">
+        <v>0.67</v>
+      </c>
+      <c r="AQ34">
+        <v>0.67</v>
+      </c>
+      <c r="AR34">
+        <v>1.25</v>
+      </c>
+      <c r="AS34">
+        <v>0.84</v>
+      </c>
+      <c r="AT34">
+        <v>2.09</v>
+      </c>
+      <c r="AU34">
+        <v>9</v>
+      </c>
+      <c r="AV34">
+        <v>3</v>
+      </c>
+      <c r="AW34">
+        <v>8</v>
+      </c>
+      <c r="AX34">
+        <v>3</v>
+      </c>
+      <c r="AY34">
+        <v>17</v>
+      </c>
+      <c r="AZ34">
+        <v>6</v>
+      </c>
+      <c r="BA34">
+        <v>11</v>
+      </c>
+      <c r="BB34">
+        <v>5</v>
+      </c>
+      <c r="BC34">
+        <v>16</v>
+      </c>
+      <c r="BD34">
+        <v>1.41</v>
+      </c>
+      <c r="BE34">
+        <v>7</v>
+      </c>
+      <c r="BF34">
+        <v>2.95</v>
+      </c>
+      <c r="BG34">
+        <v>1.16</v>
+      </c>
+      <c r="BH34">
+        <v>4.4</v>
+      </c>
+      <c r="BI34">
+        <v>1.29</v>
+      </c>
+      <c r="BJ34">
+        <v>3.15</v>
+      </c>
+      <c r="BK34">
+        <v>1.49</v>
+      </c>
+      <c r="BL34">
+        <v>2.4</v>
+      </c>
+      <c r="BM34">
+        <v>1.77</v>
+      </c>
+      <c r="BN34">
+        <v>1.92</v>
+      </c>
+      <c r="BO34">
+        <v>2.17</v>
+      </c>
+      <c r="BP34">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7480170</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>6</v>
+      </c>
+      <c r="O35" t="s">
+        <v>108</v>
+      </c>
+      <c r="P35" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q35">
+        <v>3.1</v>
+      </c>
+      <c r="R35">
+        <v>2.05</v>
+      </c>
+      <c r="S35">
+        <v>3.75</v>
+      </c>
+      <c r="T35">
+        <v>1.44</v>
+      </c>
+      <c r="U35">
+        <v>2.63</v>
+      </c>
+      <c r="V35">
+        <v>3.4</v>
+      </c>
+      <c r="W35">
+        <v>1.3</v>
+      </c>
+      <c r="X35">
+        <v>10</v>
+      </c>
+      <c r="Y35">
+        <v>1.06</v>
+      </c>
+      <c r="Z35">
+        <v>2.22</v>
+      </c>
+      <c r="AA35">
+        <v>3.32</v>
+      </c>
+      <c r="AB35">
+        <v>3.32</v>
+      </c>
+      <c r="AC35">
+        <v>1.08</v>
+      </c>
+      <c r="AD35">
+        <v>8.5</v>
+      </c>
+      <c r="AE35">
+        <v>1.4</v>
+      </c>
+      <c r="AF35">
+        <v>3</v>
+      </c>
+      <c r="AG35">
+        <v>2.14</v>
+      </c>
+      <c r="AH35">
+        <v>1.63</v>
+      </c>
+      <c r="AI35">
+        <v>1.91</v>
+      </c>
+      <c r="AJ35">
+        <v>1.91</v>
+      </c>
+      <c r="AK35">
+        <v>1.33</v>
+      </c>
+      <c r="AL35">
+        <v>1.3</v>
+      </c>
+      <c r="AM35">
+        <v>1.66</v>
+      </c>
+      <c r="AN35">
+        <v>0.5</v>
+      </c>
+      <c r="AO35">
+        <v>2</v>
+      </c>
+      <c r="AP35">
+        <v>0.67</v>
+      </c>
+      <c r="AQ35">
+        <v>1.67</v>
+      </c>
+      <c r="AR35">
+        <v>1.32</v>
+      </c>
+      <c r="AS35">
+        <v>1.1</v>
+      </c>
+      <c r="AT35">
+        <v>2.42</v>
+      </c>
+      <c r="AU35">
+        <v>4</v>
+      </c>
+      <c r="AV35">
+        <v>9</v>
+      </c>
+      <c r="AW35">
+        <v>7</v>
+      </c>
+      <c r="AX35">
+        <v>4</v>
+      </c>
+      <c r="AY35">
+        <v>11</v>
+      </c>
+      <c r="AZ35">
+        <v>13</v>
+      </c>
+      <c r="BA35">
+        <v>7</v>
+      </c>
+      <c r="BB35">
+        <v>3</v>
+      </c>
+      <c r="BC35">
+        <v>10</v>
+      </c>
+      <c r="BD35">
+        <v>1.76</v>
+      </c>
+      <c r="BE35">
+        <v>6.5</v>
+      </c>
+      <c r="BF35">
+        <v>2.15</v>
+      </c>
+      <c r="BG35">
+        <v>1.19</v>
+      </c>
+      <c r="BH35">
+        <v>4.1</v>
+      </c>
+      <c r="BI35">
+        <v>1.34</v>
+      </c>
+      <c r="BJ35">
+        <v>2.9</v>
+      </c>
+      <c r="BK35">
+        <v>1.57</v>
+      </c>
+      <c r="BL35">
+        <v>2.23</v>
+      </c>
+      <c r="BM35">
+        <v>1.91</v>
+      </c>
+      <c r="BN35">
+        <v>1.78</v>
+      </c>
+      <c r="BO35">
+        <v>2.38</v>
+      </c>
+      <c r="BP35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7480171</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>109</v>
+      </c>
+      <c r="P36" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>2.1</v>
+      </c>
+      <c r="S36">
+        <v>3.6</v>
+      </c>
+      <c r="T36">
+        <v>1.4</v>
+      </c>
+      <c r="U36">
+        <v>2.75</v>
+      </c>
+      <c r="V36">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <v>1.36</v>
+      </c>
+      <c r="X36">
+        <v>8</v>
+      </c>
+      <c r="Y36">
+        <v>1.08</v>
+      </c>
+      <c r="Z36">
+        <v>2.23</v>
+      </c>
+      <c r="AA36">
+        <v>3.38</v>
+      </c>
+      <c r="AB36">
+        <v>3.22</v>
+      </c>
+      <c r="AC36">
+        <v>1.01</v>
+      </c>
+      <c r="AD36">
+        <v>8.1</v>
+      </c>
+      <c r="AE36">
+        <v>1.27</v>
+      </c>
+      <c r="AF36">
+        <v>3.08</v>
+      </c>
+      <c r="AG36">
+        <v>1.95</v>
+      </c>
+      <c r="AH36">
+        <v>1.76</v>
+      </c>
+      <c r="AI36">
+        <v>1.75</v>
+      </c>
+      <c r="AJ36">
+        <v>2</v>
+      </c>
+      <c r="AK36">
+        <v>1.4</v>
+      </c>
+      <c r="AL36">
+        <v>1.32</v>
+      </c>
+      <c r="AM36">
+        <v>1.58</v>
+      </c>
+      <c r="AN36">
+        <v>2</v>
+      </c>
+      <c r="AO36">
+        <v>0.5</v>
+      </c>
+      <c r="AP36">
+        <v>2.33</v>
+      </c>
+      <c r="AQ36">
+        <v>0.33</v>
+      </c>
+      <c r="AR36">
+        <v>1.45</v>
+      </c>
+      <c r="AS36">
+        <v>1.35</v>
+      </c>
+      <c r="AT36">
+        <v>2.8</v>
+      </c>
+      <c r="AU36">
+        <v>5</v>
+      </c>
+      <c r="AV36">
+        <v>11</v>
+      </c>
+      <c r="AW36">
+        <v>3</v>
+      </c>
+      <c r="AX36">
+        <v>4</v>
+      </c>
+      <c r="AY36">
+        <v>8</v>
+      </c>
+      <c r="AZ36">
+        <v>15</v>
+      </c>
+      <c r="BA36">
+        <v>9</v>
+      </c>
+      <c r="BB36">
+        <v>6</v>
+      </c>
+      <c r="BC36">
+        <v>15</v>
+      </c>
+      <c r="BD36">
+        <v>1.86</v>
+      </c>
+      <c r="BE36">
+        <v>6.4</v>
+      </c>
+      <c r="BF36">
+        <v>2</v>
+      </c>
+      <c r="BG36">
+        <v>1.18</v>
+      </c>
+      <c r="BH36">
+        <v>4.1</v>
+      </c>
+      <c r="BI36">
+        <v>1.34</v>
+      </c>
+      <c r="BJ36">
+        <v>2.9</v>
+      </c>
+      <c r="BK36">
+        <v>1.57</v>
+      </c>
+      <c r="BL36">
+        <v>2.23</v>
+      </c>
+      <c r="BM36">
+        <v>2</v>
+      </c>
+      <c r="BN36">
+        <v>1.8</v>
+      </c>
+      <c r="BO36">
+        <v>2.35</v>
+      </c>
+      <c r="BP36">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7480168</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>110</v>
+      </c>
+      <c r="P37" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q37">
+        <v>3.5</v>
+      </c>
+      <c r="R37">
+        <v>2.1</v>
+      </c>
+      <c r="S37">
+        <v>3.2</v>
+      </c>
+      <c r="T37">
+        <v>1.44</v>
+      </c>
+      <c r="U37">
+        <v>2.63</v>
+      </c>
+      <c r="V37">
+        <v>3.25</v>
+      </c>
+      <c r="W37">
+        <v>1.33</v>
+      </c>
+      <c r="X37">
+        <v>9</v>
+      </c>
+      <c r="Y37">
+        <v>1.07</v>
+      </c>
+      <c r="Z37">
+        <v>3.25</v>
+      </c>
+      <c r="AA37">
+        <v>3.52</v>
+      </c>
+      <c r="AB37">
+        <v>2.16</v>
+      </c>
+      <c r="AC37">
+        <v>1.04</v>
+      </c>
+      <c r="AD37">
+        <v>12</v>
+      </c>
+      <c r="AE37">
+        <v>1.36</v>
+      </c>
+      <c r="AF37">
+        <v>3.2</v>
+      </c>
+      <c r="AG37">
+        <v>2.05</v>
+      </c>
+      <c r="AH37">
+        <v>1.69</v>
+      </c>
+      <c r="AI37">
+        <v>1.91</v>
+      </c>
+      <c r="AJ37">
+        <v>1.91</v>
+      </c>
+      <c r="AK37">
+        <v>1.55</v>
+      </c>
+      <c r="AL37">
+        <v>1.25</v>
+      </c>
+      <c r="AM37">
+        <v>1.45</v>
+      </c>
+      <c r="AN37">
+        <v>2</v>
+      </c>
+      <c r="AO37">
+        <v>3</v>
+      </c>
+      <c r="AP37">
+        <v>1.33</v>
+      </c>
+      <c r="AQ37">
+        <v>3</v>
+      </c>
+      <c r="AR37">
+        <v>1.5</v>
+      </c>
+      <c r="AS37">
+        <v>1.42</v>
+      </c>
+      <c r="AT37">
+        <v>2.92</v>
+      </c>
+      <c r="AU37">
+        <v>7</v>
+      </c>
+      <c r="AV37">
+        <v>3</v>
+      </c>
+      <c r="AW37">
+        <v>5</v>
+      </c>
+      <c r="AX37">
+        <v>2</v>
+      </c>
+      <c r="AY37">
+        <v>12</v>
+      </c>
+      <c r="AZ37">
+        <v>5</v>
+      </c>
+      <c r="BA37">
+        <v>10</v>
+      </c>
+      <c r="BB37">
+        <v>3</v>
+      </c>
+      <c r="BC37">
+        <v>13</v>
+      </c>
+      <c r="BD37">
+        <v>1.93</v>
+      </c>
+      <c r="BE37">
+        <v>6.5</v>
+      </c>
+      <c r="BF37">
+        <v>1.95</v>
+      </c>
+      <c r="BG37">
+        <v>1.2</v>
+      </c>
+      <c r="BH37">
+        <v>3.95</v>
+      </c>
+      <c r="BI37">
+        <v>1.35</v>
+      </c>
+      <c r="BJ37">
+        <v>2.9</v>
+      </c>
+      <c r="BK37">
+        <v>1.58</v>
+      </c>
+      <c r="BL37">
+        <v>2.2</v>
+      </c>
+      <c r="BM37">
+        <v>1.92</v>
+      </c>
+      <c r="BN37">
+        <v>1.77</v>
+      </c>
+      <c r="BO37">
+        <v>2.4</v>
+      </c>
+      <c r="BP37">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7480173</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45563.57291666666</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
+      <c r="N38">
+        <v>6</v>
+      </c>
+      <c r="O38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P38" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q38">
+        <v>10</v>
+      </c>
+      <c r="R38">
+        <v>2.75</v>
+      </c>
+      <c r="S38">
+        <v>1.62</v>
+      </c>
+      <c r="T38">
+        <v>1.25</v>
+      </c>
+      <c r="U38">
+        <v>3.75</v>
+      </c>
+      <c r="V38">
+        <v>2.2</v>
+      </c>
+      <c r="W38">
+        <v>1.62</v>
+      </c>
+      <c r="X38">
+        <v>5</v>
+      </c>
+      <c r="Y38">
+        <v>1.17</v>
+      </c>
+      <c r="Z38">
+        <v>9</v>
+      </c>
+      <c r="AA38">
+        <v>6.4</v>
+      </c>
+      <c r="AB38">
+        <v>1.2</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>17</v>
+      </c>
+      <c r="AE38">
+        <v>1.16</v>
+      </c>
+      <c r="AF38">
+        <v>5</v>
+      </c>
+      <c r="AG38">
+        <v>1.45</v>
+      </c>
+      <c r="AH38">
+        <v>2.65</v>
+      </c>
+      <c r="AI38">
+        <v>2.1</v>
+      </c>
+      <c r="AJ38">
+        <v>1.67</v>
+      </c>
+      <c r="AK38">
+        <v>4.33</v>
+      </c>
+      <c r="AL38">
+        <v>1.08</v>
+      </c>
+      <c r="AM38">
+        <v>1.04</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>3</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>3</v>
+      </c>
+      <c r="AR38">
+        <v>1.42</v>
+      </c>
+      <c r="AS38">
+        <v>1.78</v>
+      </c>
+      <c r="AT38">
+        <v>3.2</v>
+      </c>
+      <c r="AU38">
+        <v>2</v>
+      </c>
+      <c r="AV38">
+        <v>12</v>
+      </c>
+      <c r="AW38">
+        <v>4</v>
+      </c>
+      <c r="AX38">
+        <v>7</v>
+      </c>
+      <c r="AY38">
+        <v>6</v>
+      </c>
+      <c r="AZ38">
+        <v>19</v>
+      </c>
+      <c r="BA38">
+        <v>3</v>
+      </c>
+      <c r="BB38">
+        <v>13</v>
+      </c>
+      <c r="BC38">
+        <v>16</v>
+      </c>
+      <c r="BD38">
+        <v>3.9</v>
+      </c>
+      <c r="BE38">
+        <v>8</v>
+      </c>
+      <c r="BF38">
+        <v>1.24</v>
+      </c>
+      <c r="BG38">
+        <v>1.19</v>
+      </c>
+      <c r="BH38">
+        <v>4</v>
+      </c>
+      <c r="BI38">
+        <v>1.34</v>
+      </c>
+      <c r="BJ38">
+        <v>2.9</v>
+      </c>
+      <c r="BK38">
+        <v>1.57</v>
+      </c>
+      <c r="BL38">
+        <v>2.23</v>
+      </c>
+      <c r="BM38">
+        <v>1.9</v>
+      </c>
+      <c r="BN38">
+        <v>1.79</v>
+      </c>
+      <c r="BO38">
+        <v>2.33</v>
+      </c>
+      <c r="BP38">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7480172</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45564.33333333334</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P39" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q39">
+        <v>1.91</v>
+      </c>
+      <c r="R39">
+        <v>2.6</v>
+      </c>
+      <c r="S39">
+        <v>6.5</v>
+      </c>
+      <c r="T39">
+        <v>1.29</v>
+      </c>
+      <c r="U39">
+        <v>3.5</v>
+      </c>
+      <c r="V39">
+        <v>2.25</v>
+      </c>
+      <c r="W39">
+        <v>1.57</v>
+      </c>
+      <c r="X39">
+        <v>5.5</v>
+      </c>
+      <c r="Y39">
+        <v>1.14</v>
+      </c>
+      <c r="Z39">
+        <v>1.4</v>
+      </c>
+      <c r="AA39">
+        <v>5</v>
+      </c>
+      <c r="AB39">
+        <v>7.5</v>
+      </c>
+      <c r="AC39">
+        <v>1.02</v>
+      </c>
+      <c r="AD39">
+        <v>17</v>
+      </c>
+      <c r="AE39">
+        <v>1.16</v>
+      </c>
+      <c r="AF39">
+        <v>5</v>
+      </c>
+      <c r="AG39">
+        <v>1.57</v>
+      </c>
+      <c r="AH39">
+        <v>2.3</v>
+      </c>
+      <c r="AI39">
+        <v>1.75</v>
+      </c>
+      <c r="AJ39">
+        <v>2</v>
+      </c>
+      <c r="AK39">
+        <v>1.09</v>
+      </c>
+      <c r="AL39">
+        <v>1.14</v>
+      </c>
+      <c r="AM39">
+        <v>2.9</v>
+      </c>
+      <c r="AN39">
+        <v>3</v>
+      </c>
+      <c r="AO39">
+        <v>0.5</v>
+      </c>
+      <c r="AP39">
+        <v>3</v>
+      </c>
+      <c r="AQ39">
+        <v>0.33</v>
+      </c>
+      <c r="AR39">
+        <v>2.01</v>
+      </c>
+      <c r="AS39">
+        <v>1.32</v>
+      </c>
+      <c r="AT39">
+        <v>3.33</v>
+      </c>
+      <c r="AU39">
+        <v>5</v>
+      </c>
+      <c r="AV39">
+        <v>4</v>
+      </c>
+      <c r="AW39">
+        <v>6</v>
+      </c>
+      <c r="AX39">
+        <v>9</v>
+      </c>
+      <c r="AY39">
+        <v>11</v>
+      </c>
+      <c r="AZ39">
+        <v>13</v>
+      </c>
+      <c r="BA39">
+        <v>4</v>
+      </c>
+      <c r="BB39">
+        <v>7</v>
+      </c>
+      <c r="BC39">
+        <v>11</v>
+      </c>
+      <c r="BD39">
+        <v>1.41</v>
+      </c>
+      <c r="BE39">
+        <v>6.75</v>
+      </c>
+      <c r="BF39">
+        <v>2.95</v>
+      </c>
+      <c r="BG39">
+        <v>1.2</v>
+      </c>
+      <c r="BH39">
+        <v>3.95</v>
+      </c>
+      <c r="BI39">
+        <v>1.34</v>
+      </c>
+      <c r="BJ39">
+        <v>2.9</v>
+      </c>
+      <c r="BK39">
+        <v>1.57</v>
+      </c>
+      <c r="BL39">
+        <v>2.23</v>
+      </c>
+      <c r="BM39">
+        <v>1.8</v>
+      </c>
+      <c r="BN39">
+        <v>2</v>
+      </c>
+      <c r="BO39">
+        <v>2.35</v>
+      </c>
+      <c r="BP39">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -340,15 +340,15 @@
     <t>['90+6']</t>
   </si>
   <si>
+    <t>['19', '44']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>['47', '58', '64']</t>
   </si>
   <si>
-    <t>['19', '44']</t>
-  </si>
-  <si>
-    <t>['45']</t>
-  </si>
-  <si>
     <t>['34']</t>
   </si>
   <si>
@@ -415,13 +415,13 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['15', '32']</t>
+  </si>
+  <si>
     <t>['21', '79', '90+9']</t>
-  </si>
-  <si>
-    <t>['9']</t>
-  </si>
-  <si>
-    <t>['15', '32']</t>
   </si>
   <si>
     <t>['35', '43', '45', '54', '72', '83']</t>
@@ -7604,7 +7604,7 @@
         <v>69</v>
       </c>
       <c r="E34" s="2">
-        <v>45563.45833333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F34">
         <v>6</v>
@@ -7730,31 +7730,31 @@
         <v>2.09</v>
       </c>
       <c r="AU34">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV34">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW34">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AX34">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY34">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="AZ34">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BA34">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BB34">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BC34">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="BD34">
         <v>1.41</v>
@@ -7801,7 +7801,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7480170</v>
+        <v>7480171</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7810,34 +7810,34 @@
         <v>69</v>
       </c>
       <c r="E35" s="2">
-        <v>45563.45833333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F35">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O35" t="s">
         <v>108</v>
@@ -7846,133 +7846,133 @@
         <v>133</v>
       </c>
       <c r="Q35">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S35">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T35">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U35">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V35">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W35">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y35">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z35">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
       <c r="AA35">
-        <v>3.32</v>
+        <v>3.38</v>
       </c>
       <c r="AB35">
-        <v>3.32</v>
+        <v>3.22</v>
       </c>
       <c r="AC35">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AD35">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="AE35">
+        <v>1.27</v>
+      </c>
+      <c r="AF35">
+        <v>3.08</v>
+      </c>
+      <c r="AG35">
+        <v>1.95</v>
+      </c>
+      <c r="AH35">
+        <v>1.76</v>
+      </c>
+      <c r="AI35">
+        <v>1.75</v>
+      </c>
+      <c r="AJ35">
+        <v>2</v>
+      </c>
+      <c r="AK35">
         <v>1.4</v>
       </c>
-      <c r="AF35">
-        <v>3</v>
-      </c>
-      <c r="AG35">
-        <v>2.14</v>
-      </c>
-      <c r="AH35">
-        <v>1.63</v>
-      </c>
-      <c r="AI35">
-        <v>1.91</v>
-      </c>
-      <c r="AJ35">
-        <v>1.91</v>
-      </c>
-      <c r="AK35">
-        <v>1.33</v>
-      </c>
       <c r="AL35">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AM35">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="AN35">
+        <v>2</v>
+      </c>
+      <c r="AO35">
         <v>0.5</v>
       </c>
-      <c r="AO35">
-        <v>2</v>
-      </c>
       <c r="AP35">
-        <v>0.67</v>
+        <v>2.33</v>
       </c>
       <c r="AQ35">
-        <v>1.67</v>
+        <v>0.33</v>
       </c>
       <c r="AR35">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AS35">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="AT35">
-        <v>2.42</v>
+        <v>2.8</v>
       </c>
       <c r="AU35">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV35">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AW35">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX35">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY35">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ35">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BA35">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BB35">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BC35">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BD35">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="BE35">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF35">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="BG35">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="BH35">
         <v>4.1</v>
@@ -7990,13 +7990,13 @@
         <v>2.23</v>
       </c>
       <c r="BM35">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="BN35">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="BO35">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="BP35">
         <v>1.5</v>
@@ -8007,7 +8007,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7480171</v>
+        <v>7480168</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8016,31 +8016,31 @@
         <v>69</v>
       </c>
       <c r="E36" s="2">
-        <v>45563.45833333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F36">
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36">
         <v>3</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N36">
         <v>3</v>
@@ -8052,160 +8052,160 @@
         <v>134</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R36">
         <v>2.1</v>
       </c>
       <c r="S36">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="T36">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U36">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V36">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W36">
+        <v>1.33</v>
+      </c>
+      <c r="X36">
+        <v>9</v>
+      </c>
+      <c r="Y36">
+        <v>1.07</v>
+      </c>
+      <c r="Z36">
+        <v>3.25</v>
+      </c>
+      <c r="AA36">
+        <v>3.52</v>
+      </c>
+      <c r="AB36">
+        <v>2.16</v>
+      </c>
+      <c r="AC36">
+        <v>1.04</v>
+      </c>
+      <c r="AD36">
+        <v>12</v>
+      </c>
+      <c r="AE36">
         <v>1.36</v>
       </c>
-      <c r="X36">
-        <v>8</v>
-      </c>
-      <c r="Y36">
-        <v>1.08</v>
-      </c>
-      <c r="Z36">
-        <v>2.23</v>
-      </c>
-      <c r="AA36">
-        <v>3.38</v>
-      </c>
-      <c r="AB36">
-        <v>3.22</v>
-      </c>
-      <c r="AC36">
-        <v>1.01</v>
-      </c>
-      <c r="AD36">
-        <v>8.1</v>
-      </c>
-      <c r="AE36">
-        <v>1.27</v>
-      </c>
       <c r="AF36">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="AG36">
+        <v>2.05</v>
+      </c>
+      <c r="AH36">
+        <v>1.69</v>
+      </c>
+      <c r="AI36">
+        <v>1.91</v>
+      </c>
+      <c r="AJ36">
+        <v>1.91</v>
+      </c>
+      <c r="AK36">
+        <v>1.55</v>
+      </c>
+      <c r="AL36">
+        <v>1.25</v>
+      </c>
+      <c r="AM36">
+        <v>1.45</v>
+      </c>
+      <c r="AN36">
+        <v>2</v>
+      </c>
+      <c r="AO36">
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <v>1.33</v>
+      </c>
+      <c r="AQ36">
+        <v>3</v>
+      </c>
+      <c r="AR36">
+        <v>1.5</v>
+      </c>
+      <c r="AS36">
+        <v>1.42</v>
+      </c>
+      <c r="AT36">
+        <v>2.92</v>
+      </c>
+      <c r="AU36">
+        <v>-1</v>
+      </c>
+      <c r="AV36">
+        <v>-1</v>
+      </c>
+      <c r="AW36">
+        <v>-1</v>
+      </c>
+      <c r="AX36">
+        <v>-1</v>
+      </c>
+      <c r="AY36">
+        <v>-1</v>
+      </c>
+      <c r="AZ36">
+        <v>-1</v>
+      </c>
+      <c r="BA36">
+        <v>-1</v>
+      </c>
+      <c r="BB36">
+        <v>-1</v>
+      </c>
+      <c r="BC36">
+        <v>-1</v>
+      </c>
+      <c r="BD36">
+        <v>1.93</v>
+      </c>
+      <c r="BE36">
+        <v>6.5</v>
+      </c>
+      <c r="BF36">
         <v>1.95</v>
       </c>
-      <c r="AH36">
-        <v>1.76</v>
-      </c>
-      <c r="AI36">
-        <v>1.75</v>
-      </c>
-      <c r="AJ36">
-        <v>2</v>
-      </c>
-      <c r="AK36">
-        <v>1.4</v>
-      </c>
-      <c r="AL36">
-        <v>1.32</v>
-      </c>
-      <c r="AM36">
-        <v>1.58</v>
-      </c>
-      <c r="AN36">
-        <v>2</v>
-      </c>
-      <c r="AO36">
-        <v>0.5</v>
-      </c>
-      <c r="AP36">
-        <v>2.33</v>
-      </c>
-      <c r="AQ36">
-        <v>0.33</v>
-      </c>
-      <c r="AR36">
-        <v>1.45</v>
-      </c>
-      <c r="AS36">
+      <c r="BG36">
+        <v>1.2</v>
+      </c>
+      <c r="BH36">
+        <v>3.95</v>
+      </c>
+      <c r="BI36">
         <v>1.35</v>
-      </c>
-      <c r="AT36">
-        <v>2.8</v>
-      </c>
-      <c r="AU36">
-        <v>5</v>
-      </c>
-      <c r="AV36">
-        <v>11</v>
-      </c>
-      <c r="AW36">
-        <v>3</v>
-      </c>
-      <c r="AX36">
-        <v>4</v>
-      </c>
-      <c r="AY36">
-        <v>8</v>
-      </c>
-      <c r="AZ36">
-        <v>15</v>
-      </c>
-      <c r="BA36">
-        <v>9</v>
-      </c>
-      <c r="BB36">
-        <v>6</v>
-      </c>
-      <c r="BC36">
-        <v>15</v>
-      </c>
-      <c r="BD36">
-        <v>1.86</v>
-      </c>
-      <c r="BE36">
-        <v>6.4</v>
-      </c>
-      <c r="BF36">
-        <v>2</v>
-      </c>
-      <c r="BG36">
-        <v>1.18</v>
-      </c>
-      <c r="BH36">
-        <v>4.1</v>
-      </c>
-      <c r="BI36">
-        <v>1.34</v>
       </c>
       <c r="BJ36">
         <v>2.9</v>
       </c>
       <c r="BK36">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="BL36">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="BM36">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="BN36">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="BO36">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="BP36">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8213,7 +8213,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7480168</v>
+        <v>7480170</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8228,28 +8228,28 @@
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O37" t="s">
         <v>110</v>
@@ -8258,13 +8258,13 @@
         <v>135</v>
       </c>
       <c r="Q37">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="R37">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S37">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="T37">
         <v>1.44</v>
@@ -8273,43 +8273,43 @@
         <v>2.63</v>
       </c>
       <c r="V37">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W37">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y37">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z37">
-        <v>3.25</v>
+        <v>2.22</v>
       </c>
       <c r="AA37">
-        <v>3.52</v>
+        <v>3.32</v>
       </c>
       <c r="AB37">
-        <v>2.16</v>
+        <v>3.32</v>
       </c>
       <c r="AC37">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AD37">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AE37">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AF37">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AG37">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="AH37">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="AI37">
         <v>1.91</v>
@@ -8318,100 +8318,100 @@
         <v>1.91</v>
       </c>
       <c r="AK37">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="AL37">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM37">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="AN37">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AO37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AQ37">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AR37">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="AS37">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="AT37">
-        <v>2.92</v>
+        <v>2.42</v>
       </c>
       <c r="AU37">
+        <v>4</v>
+      </c>
+      <c r="AV37">
+        <v>9</v>
+      </c>
+      <c r="AW37">
         <v>7</v>
       </c>
-      <c r="AV37">
-        <v>3</v>
-      </c>
-      <c r="AW37">
-        <v>5</v>
-      </c>
       <c r="AX37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ37">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BA37">
+        <v>7</v>
+      </c>
+      <c r="BB37">
+        <v>3</v>
+      </c>
+      <c r="BC37">
         <v>10</v>
       </c>
-      <c r="BB37">
-        <v>3</v>
-      </c>
-      <c r="BC37">
-        <v>13</v>
-      </c>
       <c r="BD37">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="BE37">
         <v>6.5</v>
       </c>
       <c r="BF37">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="BG37">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="BH37">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="BI37">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="BJ37">
         <v>2.9</v>
       </c>
       <c r="BK37">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="BL37">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="BM37">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="BN37">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="BO37">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="BP37">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -8634,7 +8634,7 @@
         <v>69</v>
       </c>
       <c r="E39" s="2">
-        <v>45564.33333333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -8763,19 +8763,19 @@
         <v>5</v>
       </c>
       <c r="AV39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW39">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AX39">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AY39">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ39">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA39">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -316,42 +316,27 @@
     <t>['90+2']</t>
   </si>
   <si>
+    <t>['27', '80']</t>
+  </si>
+  <si>
+    <t>['52', '89']</t>
+  </si>
+  <si>
+    <t>['45+1', '72']</t>
+  </si>
+  <si>
     <t>['6', '45+4']</t>
   </si>
   <si>
-    <t>['45+1', '72']</t>
-  </si>
-  <si>
     <t>['7', '41']</t>
   </si>
   <si>
-    <t>['52', '89']</t>
-  </si>
-  <si>
-    <t>['27', '80']</t>
-  </si>
-  <si>
     <t>['19', '87', '90+7']</t>
   </si>
   <si>
     <t>['8', '34']</t>
   </si>
   <si>
-    <t>['90+6']</t>
-  </si>
-  <si>
-    <t>['19', '44']</t>
-  </si>
-  <si>
-    <t>['45']</t>
-  </si>
-  <si>
-    <t>['47', '58', '64']</t>
-  </si>
-  <si>
-    <t>['34']</t>
-  </si>
-  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -410,21 +395,6 @@
   </si>
   <si>
     <t>['18']</t>
-  </si>
-  <si>
-    <t>['35']</t>
-  </si>
-  <si>
-    <t>['9']</t>
-  </si>
-  <si>
-    <t>['15', '32']</t>
-  </si>
-  <si>
-    <t>['21', '79', '90+9']</t>
-  </si>
-  <si>
-    <t>['35', '43', '45', '54', '72', '83']</t>
   </si>
 </sst>
 </file>
@@ -786,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1123,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ2">
         <v>1.33</v>
@@ -1329,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1457,7 +1427,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1744,7 +1714,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ5">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2075,7 +2045,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2281,7 +2251,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2487,7 +2457,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2568,7 +2538,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2693,7 +2663,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2771,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2899,7 +2869,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3105,7 +3075,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3186,7 +3156,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3311,7 +3281,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3389,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3723,7 +3693,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4010,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR16">
         <v>2.02</v>
@@ -4135,7 +4105,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4341,7 +4311,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4419,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4753,7 +4723,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4831,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>1.56</v>
@@ -4959,7 +4929,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5165,7 +5135,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5577,7 +5547,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5655,10 +5625,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>1.14</v>
@@ -5783,7 +5753,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5861,10 +5831,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ25">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>1.41</v>
@@ -5947,7 +5917,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7480166</v>
+        <v>7480162</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -5962,190 +5932,190 @@
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>2</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O26" t="s">
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q26">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="R26">
         <v>2.25</v>
       </c>
       <c r="S26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U26">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V26">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W26">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X26">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y26">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z26">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA26">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="AB26">
-        <v>2.35</v>
+        <v>4.8</v>
       </c>
       <c r="AC26">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE26">
+        <v>1.28</v>
+      </c>
+      <c r="AF26">
+        <v>3.75</v>
+      </c>
+      <c r="AG26">
+        <v>1.85</v>
+      </c>
+      <c r="AH26">
+        <v>1.85</v>
+      </c>
+      <c r="AI26">
+        <v>1.8</v>
+      </c>
+      <c r="AJ26">
+        <v>1.95</v>
+      </c>
+      <c r="AK26">
+        <v>1.18</v>
+      </c>
+      <c r="AL26">
         <v>1.22</v>
       </c>
-      <c r="AF26">
-        <v>4</v>
-      </c>
-      <c r="AG26">
-        <v>1.8</v>
-      </c>
-      <c r="AH26">
-        <v>1.8</v>
-      </c>
-      <c r="AI26">
-        <v>1.62</v>
-      </c>
-      <c r="AJ26">
+      <c r="AM26">
         <v>2.2</v>
       </c>
-      <c r="AK26">
-        <v>1.57</v>
-      </c>
-      <c r="AL26">
-        <v>1.25</v>
-      </c>
-      <c r="AM26">
-        <v>1.47</v>
-      </c>
       <c r="AN26">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AO26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR26">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="AS26">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="AT26">
-        <v>2.72</v>
+        <v>2.38</v>
       </c>
       <c r="AU26">
+        <v>5</v>
+      </c>
+      <c r="AV26">
+        <v>5</v>
+      </c>
+      <c r="AW26">
+        <v>5</v>
+      </c>
+      <c r="AX26">
         <v>6</v>
       </c>
-      <c r="AV26">
-        <v>4</v>
-      </c>
-      <c r="AW26">
-        <v>3</v>
-      </c>
-      <c r="AX26">
-        <v>2</v>
-      </c>
       <c r="AY26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ26">
+        <v>11</v>
+      </c>
+      <c r="BA26">
         <v>6</v>
       </c>
-      <c r="BA26">
-        <v>3</v>
-      </c>
       <c r="BB26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC26">
         <v>11</v>
       </c>
       <c r="BD26">
-        <v>1.97</v>
+        <v>1.46</v>
       </c>
       <c r="BE26">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="BF26">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="BG26">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="BH26">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="BI26">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="BJ26">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="BK26">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="BL26">
+        <v>2.28</v>
+      </c>
+      <c r="BM26">
+        <v>1.88</v>
+      </c>
+      <c r="BN26">
+        <v>1.81</v>
+      </c>
+      <c r="BO26">
         <v>2.33</v>
       </c>
-      <c r="BM26">
-        <v>1.82</v>
-      </c>
-      <c r="BN26">
-        <v>1.98</v>
-      </c>
-      <c r="BO26">
-        <v>2.25</v>
-      </c>
       <c r="BP26">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6153,7 +6123,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7480165</v>
+        <v>7480163</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6168,19 +6138,19 @@
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -6198,160 +6168,160 @@
         <v>82</v>
       </c>
       <c r="Q27">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="R27">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="S27">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="T27">
+        <v>1.2</v>
+      </c>
+      <c r="U27">
+        <v>4.33</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>1.73</v>
+      </c>
+      <c r="X27">
+        <v>4.33</v>
+      </c>
+      <c r="Y27">
+        <v>1.2</v>
+      </c>
+      <c r="Z27">
+        <v>1.17</v>
+      </c>
+      <c r="AA27">
+        <v>7.5</v>
+      </c>
+      <c r="AB27">
+        <v>14</v>
+      </c>
+      <c r="AC27">
+        <v>1.01</v>
+      </c>
+      <c r="AD27">
+        <v>23</v>
+      </c>
+      <c r="AE27">
+        <v>1.1</v>
+      </c>
+      <c r="AF27">
+        <v>6.5</v>
+      </c>
+      <c r="AG27">
         <v>1.36</v>
       </c>
-      <c r="U27">
-        <v>3</v>
-      </c>
-      <c r="V27">
-        <v>2.75</v>
-      </c>
-      <c r="W27">
-        <v>1.4</v>
-      </c>
-      <c r="X27">
+      <c r="AH27">
+        <v>2.9</v>
+      </c>
+      <c r="AI27">
+        <v>1.95</v>
+      </c>
+      <c r="AJ27">
+        <v>1.8</v>
+      </c>
+      <c r="AK27">
+        <v>1.01</v>
+      </c>
+      <c r="AL27">
+        <v>1.05</v>
+      </c>
+      <c r="AM27">
+        <v>4.75</v>
+      </c>
+      <c r="AN27">
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>3</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>2.21</v>
+      </c>
+      <c r="AS27">
+        <v>1.15</v>
+      </c>
+      <c r="AT27">
+        <v>3.36</v>
+      </c>
+      <c r="AU27">
         <v>7</v>
       </c>
-      <c r="Y27">
-        <v>1.1</v>
-      </c>
-      <c r="Z27">
-        <v>1.65</v>
-      </c>
-      <c r="AA27">
-        <v>3.85</v>
-      </c>
-      <c r="AB27">
-        <v>5.25</v>
-      </c>
-      <c r="AC27">
-        <v>1.04</v>
-      </c>
-      <c r="AD27">
-        <v>12</v>
-      </c>
-      <c r="AE27">
-        <v>1.28</v>
-      </c>
-      <c r="AF27">
-        <v>3.6</v>
-      </c>
-      <c r="AG27">
-        <v>1.85</v>
-      </c>
-      <c r="AH27">
-        <v>1.85</v>
-      </c>
-      <c r="AI27">
-        <v>1.8</v>
-      </c>
-      <c r="AJ27">
-        <v>1.95</v>
-      </c>
-      <c r="AK27">
-        <v>1.18</v>
-      </c>
-      <c r="AL27">
-        <v>1.22</v>
-      </c>
-      <c r="AM27">
-        <v>2.2</v>
-      </c>
-      <c r="AN27">
-        <v>0.5</v>
-      </c>
-      <c r="AO27">
-        <v>1.5</v>
-      </c>
-      <c r="AP27">
-        <v>1.33</v>
-      </c>
-      <c r="AQ27">
-        <v>1</v>
-      </c>
-      <c r="AR27">
-        <v>0.85</v>
-      </c>
-      <c r="AS27">
-        <v>1.23</v>
-      </c>
-      <c r="AT27">
-        <v>2.08</v>
-      </c>
-      <c r="AU27">
+      <c r="AV27">
+        <v>4</v>
+      </c>
+      <c r="AW27">
+        <v>7</v>
+      </c>
+      <c r="AX27">
+        <v>2</v>
+      </c>
+      <c r="AY27">
+        <v>14</v>
+      </c>
+      <c r="AZ27">
         <v>6</v>
-      </c>
-      <c r="AV27">
-        <v>2</v>
-      </c>
-      <c r="AW27">
-        <v>9</v>
-      </c>
-      <c r="AX27">
-        <v>1</v>
-      </c>
-      <c r="AY27">
-        <v>15</v>
-      </c>
-      <c r="AZ27">
-        <v>3</v>
       </c>
       <c r="BA27">
         <v>5</v>
       </c>
       <c r="BB27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC27">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD27">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="BE27">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="BF27">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="BG27">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="BH27">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="BI27">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="BJ27">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="BK27">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="BL27">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="BM27">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="BN27">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="BO27">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="BP27">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6359,7 +6329,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7480167</v>
+        <v>7480165</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6374,190 +6344,190 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>2</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O28" t="s">
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T28">
+        <v>1.36</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>2.75</v>
+      </c>
+      <c r="W28">
+        <v>1.4</v>
+      </c>
+      <c r="X28">
+        <v>7</v>
+      </c>
+      <c r="Y28">
+        <v>1.1</v>
+      </c>
+      <c r="Z28">
+        <v>1.65</v>
+      </c>
+      <c r="AA28">
+        <v>3.85</v>
+      </c>
+      <c r="AB28">
+        <v>5.25</v>
+      </c>
+      <c r="AC28">
+        <v>1.04</v>
+      </c>
+      <c r="AD28">
+        <v>12</v>
+      </c>
+      <c r="AE28">
+        <v>1.28</v>
+      </c>
+      <c r="AF28">
+        <v>3.6</v>
+      </c>
+      <c r="AG28">
+        <v>1.85</v>
+      </c>
+      <c r="AH28">
+        <v>1.85</v>
+      </c>
+      <c r="AI28">
+        <v>1.8</v>
+      </c>
+      <c r="AJ28">
+        <v>1.95</v>
+      </c>
+      <c r="AK28">
+        <v>1.18</v>
+      </c>
+      <c r="AL28">
+        <v>1.22</v>
+      </c>
+      <c r="AM28">
+        <v>2.2</v>
+      </c>
+      <c r="AN28">
+        <v>0.5</v>
+      </c>
+      <c r="AO28">
+        <v>1.5</v>
+      </c>
+      <c r="AP28">
+        <v>1.33</v>
+      </c>
+      <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
+        <v>0.85</v>
+      </c>
+      <c r="AS28">
+        <v>1.23</v>
+      </c>
+      <c r="AT28">
+        <v>2.08</v>
+      </c>
+      <c r="AU28">
+        <v>6</v>
+      </c>
+      <c r="AV28">
+        <v>2</v>
+      </c>
+      <c r="AW28">
+        <v>9</v>
+      </c>
+      <c r="AX28">
+        <v>1</v>
+      </c>
+      <c r="AY28">
+        <v>15</v>
+      </c>
+      <c r="AZ28">
+        <v>3</v>
+      </c>
+      <c r="BA28">
+        <v>5</v>
+      </c>
+      <c r="BB28">
+        <v>7</v>
+      </c>
+      <c r="BC28">
+        <v>12</v>
+      </c>
+      <c r="BD28">
         <v>1.44</v>
       </c>
-      <c r="U28">
-        <v>2.63</v>
-      </c>
-      <c r="V28">
-        <v>3.25</v>
-      </c>
-      <c r="W28">
-        <v>1.33</v>
-      </c>
-      <c r="X28">
-        <v>10</v>
-      </c>
-      <c r="Y28">
-        <v>1.06</v>
-      </c>
-      <c r="Z28">
-        <v>2.25</v>
-      </c>
-      <c r="AA28">
-        <v>3.4</v>
-      </c>
-      <c r="AB28">
+      <c r="BE28">
+        <v>7</v>
+      </c>
+      <c r="BF28">
+        <v>2.8</v>
+      </c>
+      <c r="BG28">
+        <v>1.16</v>
+      </c>
+      <c r="BH28">
+        <v>4.4</v>
+      </c>
+      <c r="BI28">
+        <v>1.29</v>
+      </c>
+      <c r="BJ28">
         <v>3.2</v>
       </c>
-      <c r="AC28">
-        <v>1.07</v>
-      </c>
-      <c r="AD28">
-        <v>9</v>
-      </c>
-      <c r="AE28">
-        <v>1.38</v>
-      </c>
-      <c r="AF28">
-        <v>3</v>
-      </c>
-      <c r="AG28">
-        <v>2</v>
-      </c>
-      <c r="AH28">
-        <v>1.7</v>
-      </c>
-      <c r="AI28">
-        <v>1.95</v>
-      </c>
-      <c r="AJ28">
+      <c r="BK28">
+        <v>1.49</v>
+      </c>
+      <c r="BL28">
+        <v>2.4</v>
+      </c>
+      <c r="BM28">
         <v>1.8</v>
       </c>
-      <c r="AK28">
-        <v>1.35</v>
-      </c>
-      <c r="AL28">
-        <v>1.28</v>
-      </c>
-      <c r="AM28">
-        <v>1.66</v>
-      </c>
-      <c r="AN28">
-        <v>1.5</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>1.75</v>
-      </c>
-      <c r="AQ28">
-        <v>0.33</v>
-      </c>
-      <c r="AR28">
-        <v>0.76</v>
-      </c>
-      <c r="AS28">
-        <v>0.85</v>
-      </c>
-      <c r="AT28">
-        <v>1.61</v>
-      </c>
-      <c r="AU28">
-        <v>4</v>
-      </c>
-      <c r="AV28">
-        <v>4</v>
-      </c>
-      <c r="AW28">
-        <v>5</v>
-      </c>
-      <c r="AX28">
-        <v>6</v>
-      </c>
-      <c r="AY28">
-        <v>9</v>
-      </c>
-      <c r="AZ28">
-        <v>10</v>
-      </c>
-      <c r="BA28">
-        <v>3</v>
-      </c>
-      <c r="BB28">
-        <v>10</v>
-      </c>
-      <c r="BC28">
-        <v>13</v>
-      </c>
-      <c r="BD28">
-        <v>0</v>
-      </c>
-      <c r="BE28">
-        <v>0</v>
-      </c>
-      <c r="BF28">
-        <v>0</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <v>0</v>
-      </c>
-      <c r="BI28">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>0</v>
-      </c>
-      <c r="BK28">
-        <v>0</v>
-      </c>
-      <c r="BL28">
-        <v>0</v>
-      </c>
-      <c r="BM28">
-        <v>0</v>
-      </c>
       <c r="BN28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO28">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="BP28">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -6565,7 +6535,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7480163</v>
+        <v>7480166</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -6580,19 +6550,19 @@
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -6610,160 +6580,160 @@
         <v>82</v>
       </c>
       <c r="Q29">
+        <v>3.25</v>
+      </c>
+      <c r="R29">
+        <v>2.25</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
+      <c r="T29">
+        <v>1.33</v>
+      </c>
+      <c r="U29">
+        <v>3.25</v>
+      </c>
+      <c r="V29">
+        <v>2.63</v>
+      </c>
+      <c r="W29">
+        <v>1.44</v>
+      </c>
+      <c r="X29">
+        <v>6.5</v>
+      </c>
+      <c r="Y29">
+        <v>1.11</v>
+      </c>
+      <c r="Z29">
+        <v>2.75</v>
+      </c>
+      <c r="AA29">
+        <v>3.65</v>
+      </c>
+      <c r="AB29">
+        <v>2.35</v>
+      </c>
+      <c r="AC29">
+        <v>1.03</v>
+      </c>
+      <c r="AD29">
+        <v>13</v>
+      </c>
+      <c r="AE29">
+        <v>1.22</v>
+      </c>
+      <c r="AF29">
+        <v>4</v>
+      </c>
+      <c r="AG29">
+        <v>1.8</v>
+      </c>
+      <c r="AH29">
+        <v>1.8</v>
+      </c>
+      <c r="AI29">
+        <v>1.62</v>
+      </c>
+      <c r="AJ29">
+        <v>2.2</v>
+      </c>
+      <c r="AK29">
         <v>1.57</v>
       </c>
-      <c r="R29">
-        <v>3</v>
-      </c>
-      <c r="S29">
-        <v>9.5</v>
-      </c>
-      <c r="T29">
-        <v>1.2</v>
-      </c>
-      <c r="U29">
-        <v>4.33</v>
-      </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
-      <c r="W29">
-        <v>1.73</v>
-      </c>
-      <c r="X29">
-        <v>4.33</v>
-      </c>
-      <c r="Y29">
-        <v>1.2</v>
-      </c>
-      <c r="Z29">
-        <v>1.17</v>
-      </c>
-      <c r="AA29">
-        <v>7.5</v>
-      </c>
-      <c r="AB29">
-        <v>14</v>
-      </c>
-      <c r="AC29">
-        <v>1.01</v>
-      </c>
-      <c r="AD29">
-        <v>23</v>
-      </c>
-      <c r="AE29">
-        <v>1.1</v>
-      </c>
-      <c r="AF29">
-        <v>6.5</v>
-      </c>
-      <c r="AG29">
-        <v>1.36</v>
-      </c>
-      <c r="AH29">
-        <v>2.9</v>
-      </c>
-      <c r="AI29">
-        <v>1.95</v>
-      </c>
-      <c r="AJ29">
-        <v>1.8</v>
-      </c>
-      <c r="AK29">
-        <v>1.01</v>
-      </c>
       <c r="AL29">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="AM29">
-        <v>4.75</v>
+        <v>1.47</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AR29">
-        <v>2.21</v>
+        <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>1.15</v>
+        <v>1.39</v>
       </c>
       <c r="AT29">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="AU29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV29">
         <v>4</v>
       </c>
       <c r="AW29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX29">
         <v>2</v>
       </c>
       <c r="AY29">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AZ29">
         <v>6</v>
       </c>
       <c r="BA29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB29">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC29">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD29">
-        <v>1.16</v>
+        <v>1.97</v>
       </c>
       <c r="BE29">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="BF29">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="BG29">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="BH29">
-        <v>5.4</v>
+        <v>4.35</v>
       </c>
       <c r="BI29">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="BJ29">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="BK29">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="BL29">
-        <v>2.9</v>
+        <v>2.33</v>
       </c>
       <c r="BM29">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="BN29">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="BO29">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="BP29">
-        <v>1.92</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="30" spans="1:68">
@@ -6771,7 +6741,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7480162</v>
+        <v>7480167</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -6786,130 +6756,130 @@
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>2</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O30" t="s">
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30">
+        <v>2.05</v>
+      </c>
+      <c r="S30">
+        <v>4</v>
+      </c>
+      <c r="T30">
+        <v>1.44</v>
+      </c>
+      <c r="U30">
+        <v>2.63</v>
+      </c>
+      <c r="V30">
+        <v>3.25</v>
+      </c>
+      <c r="W30">
+        <v>1.33</v>
+      </c>
+      <c r="X30">
+        <v>10</v>
+      </c>
+      <c r="Y30">
+        <v>1.06</v>
+      </c>
+      <c r="Z30">
         <v>2.25</v>
       </c>
-      <c r="R30">
-        <v>2.25</v>
-      </c>
-      <c r="S30">
-        <v>5</v>
-      </c>
-      <c r="T30">
-        <v>1.36</v>
-      </c>
-      <c r="U30">
-        <v>3</v>
-      </c>
-      <c r="V30">
-        <v>2.75</v>
-      </c>
-      <c r="W30">
-        <v>1.4</v>
-      </c>
-      <c r="X30">
-        <v>7</v>
-      </c>
-      <c r="Y30">
-        <v>1.1</v>
-      </c>
-      <c r="Z30">
+      <c r="AA30">
+        <v>3.4</v>
+      </c>
+      <c r="AB30">
+        <v>3.2</v>
+      </c>
+      <c r="AC30">
+        <v>1.07</v>
+      </c>
+      <c r="AD30">
+        <v>9</v>
+      </c>
+      <c r="AE30">
+        <v>1.38</v>
+      </c>
+      <c r="AF30">
+        <v>3</v>
+      </c>
+      <c r="AG30">
+        <v>2</v>
+      </c>
+      <c r="AH30">
         <v>1.7</v>
       </c>
-      <c r="AA30">
-        <v>3.8</v>
-      </c>
-      <c r="AB30">
-        <v>4.8</v>
-      </c>
-      <c r="AC30">
-        <v>1.04</v>
-      </c>
-      <c r="AD30">
-        <v>12</v>
-      </c>
-      <c r="AE30">
+      <c r="AI30">
+        <v>1.95</v>
+      </c>
+      <c r="AJ30">
+        <v>1.8</v>
+      </c>
+      <c r="AK30">
+        <v>1.35</v>
+      </c>
+      <c r="AL30">
         <v>1.28</v>
       </c>
-      <c r="AF30">
-        <v>3.75</v>
-      </c>
-      <c r="AG30">
-        <v>1.85</v>
-      </c>
-      <c r="AH30">
-        <v>1.85</v>
-      </c>
-      <c r="AI30">
-        <v>1.8</v>
-      </c>
-      <c r="AJ30">
-        <v>1.95</v>
-      </c>
-      <c r="AK30">
-        <v>1.18</v>
-      </c>
-      <c r="AL30">
-        <v>1.22</v>
-      </c>
       <c r="AM30">
-        <v>2.2</v>
+        <v>1.66</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AR30">
-        <v>1.12</v>
+        <v>0.76</v>
       </c>
       <c r="AS30">
-        <v>1.26</v>
+        <v>0.85</v>
       </c>
       <c r="AT30">
-        <v>2.38</v>
+        <v>1.61</v>
       </c>
       <c r="AU30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW30">
         <v>5</v>
@@ -6918,58 +6888,58 @@
         <v>6</v>
       </c>
       <c r="AY30">
+        <v>9</v>
+      </c>
+      <c r="AZ30">
         <v>10</v>
       </c>
-      <c r="AZ30">
-        <v>11</v>
-      </c>
       <c r="BA30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BC30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD30">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="BE30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BF30">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="BG30">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="BH30">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="BI30">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="BJ30">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="BK30">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="BL30">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="BM30">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="BN30">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="BO30">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="BP30">
-        <v>1.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7019,7 +6989,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7225,7 +7195,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7431,7 +7401,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7588,1242 +7558,6 @@
       </c>
       <c r="BP33">
         <v>1.58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:68">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>7480169</v>
-      </c>
-      <c r="C34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="2">
-        <v>45562.875</v>
-      </c>
-      <c r="F34">
-        <v>6</v>
-      </c>
-      <c r="G34" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>2</v>
-      </c>
-      <c r="O34" t="s">
-        <v>107</v>
-      </c>
-      <c r="P34" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q34">
-        <v>2.3</v>
-      </c>
-      <c r="R34">
-        <v>2.25</v>
-      </c>
-      <c r="S34">
-        <v>5</v>
-      </c>
-      <c r="T34">
-        <v>1.36</v>
-      </c>
-      <c r="U34">
-        <v>3</v>
-      </c>
-      <c r="V34">
-        <v>2.75</v>
-      </c>
-      <c r="W34">
-        <v>1.4</v>
-      </c>
-      <c r="X34">
-        <v>8</v>
-      </c>
-      <c r="Y34">
-        <v>1.08</v>
-      </c>
-      <c r="Z34">
-        <v>1.66</v>
-      </c>
-      <c r="AA34">
-        <v>4.05</v>
-      </c>
-      <c r="AB34">
-        <v>4.85</v>
-      </c>
-      <c r="AC34">
-        <v>1.04</v>
-      </c>
-      <c r="AD34">
-        <v>12</v>
-      </c>
-      <c r="AE34">
-        <v>1.28</v>
-      </c>
-      <c r="AF34">
-        <v>3.6</v>
-      </c>
-      <c r="AG34">
-        <v>1.85</v>
-      </c>
-      <c r="AH34">
-        <v>1.85</v>
-      </c>
-      <c r="AI34">
-        <v>1.91</v>
-      </c>
-      <c r="AJ34">
-        <v>1.91</v>
-      </c>
-      <c r="AK34">
-        <v>1.17</v>
-      </c>
-      <c r="AL34">
-        <v>1.2</v>
-      </c>
-      <c r="AM34">
-        <v>2.25</v>
-      </c>
-      <c r="AN34">
-        <v>0.5</v>
-      </c>
-      <c r="AO34">
-        <v>0.5</v>
-      </c>
-      <c r="AP34">
-        <v>0.67</v>
-      </c>
-      <c r="AQ34">
-        <v>0.67</v>
-      </c>
-      <c r="AR34">
-        <v>1.25</v>
-      </c>
-      <c r="AS34">
-        <v>0.84</v>
-      </c>
-      <c r="AT34">
-        <v>2.09</v>
-      </c>
-      <c r="AU34">
-        <v>-1</v>
-      </c>
-      <c r="AV34">
-        <v>-1</v>
-      </c>
-      <c r="AW34">
-        <v>-1</v>
-      </c>
-      <c r="AX34">
-        <v>-1</v>
-      </c>
-      <c r="AY34">
-        <v>-1</v>
-      </c>
-      <c r="AZ34">
-        <v>-1</v>
-      </c>
-      <c r="BA34">
-        <v>-1</v>
-      </c>
-      <c r="BB34">
-        <v>-1</v>
-      </c>
-      <c r="BC34">
-        <v>-1</v>
-      </c>
-      <c r="BD34">
-        <v>1.41</v>
-      </c>
-      <c r="BE34">
-        <v>7</v>
-      </c>
-      <c r="BF34">
-        <v>2.95</v>
-      </c>
-      <c r="BG34">
-        <v>1.16</v>
-      </c>
-      <c r="BH34">
-        <v>4.4</v>
-      </c>
-      <c r="BI34">
-        <v>1.29</v>
-      </c>
-      <c r="BJ34">
-        <v>3.15</v>
-      </c>
-      <c r="BK34">
-        <v>1.49</v>
-      </c>
-      <c r="BL34">
-        <v>2.4</v>
-      </c>
-      <c r="BM34">
-        <v>1.77</v>
-      </c>
-      <c r="BN34">
-        <v>1.92</v>
-      </c>
-      <c r="BO34">
-        <v>2.17</v>
-      </c>
-      <c r="BP34">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:68">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>7480171</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="2">
-        <v>45562.875</v>
-      </c>
-      <c r="F35">
-        <v>6</v>
-      </c>
-      <c r="G35" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" t="s">
-        <v>73</v>
-      </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>2</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>3</v>
-      </c>
-      <c r="O35" t="s">
-        <v>108</v>
-      </c>
-      <c r="P35" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q35">
-        <v>3</v>
-      </c>
-      <c r="R35">
-        <v>2.1</v>
-      </c>
-      <c r="S35">
-        <v>3.6</v>
-      </c>
-      <c r="T35">
-        <v>1.4</v>
-      </c>
-      <c r="U35">
-        <v>2.75</v>
-      </c>
-      <c r="V35">
-        <v>3</v>
-      </c>
-      <c r="W35">
-        <v>1.36</v>
-      </c>
-      <c r="X35">
-        <v>8</v>
-      </c>
-      <c r="Y35">
-        <v>1.08</v>
-      </c>
-      <c r="Z35">
-        <v>2.23</v>
-      </c>
-      <c r="AA35">
-        <v>3.38</v>
-      </c>
-      <c r="AB35">
-        <v>3.22</v>
-      </c>
-      <c r="AC35">
-        <v>1.01</v>
-      </c>
-      <c r="AD35">
-        <v>8.1</v>
-      </c>
-      <c r="AE35">
-        <v>1.27</v>
-      </c>
-      <c r="AF35">
-        <v>3.08</v>
-      </c>
-      <c r="AG35">
-        <v>1.95</v>
-      </c>
-      <c r="AH35">
-        <v>1.76</v>
-      </c>
-      <c r="AI35">
-        <v>1.75</v>
-      </c>
-      <c r="AJ35">
-        <v>2</v>
-      </c>
-      <c r="AK35">
-        <v>1.4</v>
-      </c>
-      <c r="AL35">
-        <v>1.32</v>
-      </c>
-      <c r="AM35">
-        <v>1.58</v>
-      </c>
-      <c r="AN35">
-        <v>2</v>
-      </c>
-      <c r="AO35">
-        <v>0.5</v>
-      </c>
-      <c r="AP35">
-        <v>2.33</v>
-      </c>
-      <c r="AQ35">
-        <v>0.33</v>
-      </c>
-      <c r="AR35">
-        <v>1.45</v>
-      </c>
-      <c r="AS35">
-        <v>1.35</v>
-      </c>
-      <c r="AT35">
-        <v>2.8</v>
-      </c>
-      <c r="AU35">
-        <v>-1</v>
-      </c>
-      <c r="AV35">
-        <v>-1</v>
-      </c>
-      <c r="AW35">
-        <v>-1</v>
-      </c>
-      <c r="AX35">
-        <v>-1</v>
-      </c>
-      <c r="AY35">
-        <v>-1</v>
-      </c>
-      <c r="AZ35">
-        <v>-1</v>
-      </c>
-      <c r="BA35">
-        <v>-1</v>
-      </c>
-      <c r="BB35">
-        <v>-1</v>
-      </c>
-      <c r="BC35">
-        <v>-1</v>
-      </c>
-      <c r="BD35">
-        <v>1.86</v>
-      </c>
-      <c r="BE35">
-        <v>6.4</v>
-      </c>
-      <c r="BF35">
-        <v>2</v>
-      </c>
-      <c r="BG35">
-        <v>1.18</v>
-      </c>
-      <c r="BH35">
-        <v>4.1</v>
-      </c>
-      <c r="BI35">
-        <v>1.34</v>
-      </c>
-      <c r="BJ35">
-        <v>2.9</v>
-      </c>
-      <c r="BK35">
-        <v>1.57</v>
-      </c>
-      <c r="BL35">
-        <v>2.23</v>
-      </c>
-      <c r="BM35">
-        <v>2</v>
-      </c>
-      <c r="BN35">
-        <v>1.8</v>
-      </c>
-      <c r="BO35">
-        <v>2.35</v>
-      </c>
-      <c r="BP35">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:68">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>7480168</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="2">
-        <v>45562.875</v>
-      </c>
-      <c r="F36">
-        <v>6</v>
-      </c>
-      <c r="G36" t="s">
-        <v>78</v>
-      </c>
-      <c r="H36" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>2</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>2</v>
-      </c>
-      <c r="N36">
-        <v>3</v>
-      </c>
-      <c r="O36" t="s">
-        <v>109</v>
-      </c>
-      <c r="P36" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q36">
-        <v>3.5</v>
-      </c>
-      <c r="R36">
-        <v>2.1</v>
-      </c>
-      <c r="S36">
-        <v>3.2</v>
-      </c>
-      <c r="T36">
-        <v>1.44</v>
-      </c>
-      <c r="U36">
-        <v>2.63</v>
-      </c>
-      <c r="V36">
-        <v>3.25</v>
-      </c>
-      <c r="W36">
-        <v>1.33</v>
-      </c>
-      <c r="X36">
-        <v>9</v>
-      </c>
-      <c r="Y36">
-        <v>1.07</v>
-      </c>
-      <c r="Z36">
-        <v>3.25</v>
-      </c>
-      <c r="AA36">
-        <v>3.52</v>
-      </c>
-      <c r="AB36">
-        <v>2.16</v>
-      </c>
-      <c r="AC36">
-        <v>1.04</v>
-      </c>
-      <c r="AD36">
-        <v>12</v>
-      </c>
-      <c r="AE36">
-        <v>1.36</v>
-      </c>
-      <c r="AF36">
-        <v>3.2</v>
-      </c>
-      <c r="AG36">
-        <v>2.05</v>
-      </c>
-      <c r="AH36">
-        <v>1.69</v>
-      </c>
-      <c r="AI36">
-        <v>1.91</v>
-      </c>
-      <c r="AJ36">
-        <v>1.91</v>
-      </c>
-      <c r="AK36">
-        <v>1.55</v>
-      </c>
-      <c r="AL36">
-        <v>1.25</v>
-      </c>
-      <c r="AM36">
-        <v>1.45</v>
-      </c>
-      <c r="AN36">
-        <v>2</v>
-      </c>
-      <c r="AO36">
-        <v>3</v>
-      </c>
-      <c r="AP36">
-        <v>1.33</v>
-      </c>
-      <c r="AQ36">
-        <v>3</v>
-      </c>
-      <c r="AR36">
-        <v>1.5</v>
-      </c>
-      <c r="AS36">
-        <v>1.42</v>
-      </c>
-      <c r="AT36">
-        <v>2.92</v>
-      </c>
-      <c r="AU36">
-        <v>-1</v>
-      </c>
-      <c r="AV36">
-        <v>-1</v>
-      </c>
-      <c r="AW36">
-        <v>-1</v>
-      </c>
-      <c r="AX36">
-        <v>-1</v>
-      </c>
-      <c r="AY36">
-        <v>-1</v>
-      </c>
-      <c r="AZ36">
-        <v>-1</v>
-      </c>
-      <c r="BA36">
-        <v>-1</v>
-      </c>
-      <c r="BB36">
-        <v>-1</v>
-      </c>
-      <c r="BC36">
-        <v>-1</v>
-      </c>
-      <c r="BD36">
-        <v>1.93</v>
-      </c>
-      <c r="BE36">
-        <v>6.5</v>
-      </c>
-      <c r="BF36">
-        <v>1.95</v>
-      </c>
-      <c r="BG36">
-        <v>1.2</v>
-      </c>
-      <c r="BH36">
-        <v>3.95</v>
-      </c>
-      <c r="BI36">
-        <v>1.35</v>
-      </c>
-      <c r="BJ36">
-        <v>2.9</v>
-      </c>
-      <c r="BK36">
-        <v>1.58</v>
-      </c>
-      <c r="BL36">
-        <v>2.2</v>
-      </c>
-      <c r="BM36">
-        <v>1.92</v>
-      </c>
-      <c r="BN36">
-        <v>1.77</v>
-      </c>
-      <c r="BO36">
-        <v>2.4</v>
-      </c>
-      <c r="BP36">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:68">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>7480170</v>
-      </c>
-      <c r="C37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="2">
-        <v>45563.45833333334</v>
-      </c>
-      <c r="F37">
-        <v>6</v>
-      </c>
-      <c r="G37" t="s">
-        <v>81</v>
-      </c>
-      <c r="H37" t="s">
-        <v>72</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>3</v>
-      </c>
-      <c r="M37">
-        <v>3</v>
-      </c>
-      <c r="N37">
-        <v>6</v>
-      </c>
-      <c r="O37" t="s">
-        <v>110</v>
-      </c>
-      <c r="P37" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q37">
-        <v>3.1</v>
-      </c>
-      <c r="R37">
-        <v>2.05</v>
-      </c>
-      <c r="S37">
-        <v>3.75</v>
-      </c>
-      <c r="T37">
-        <v>1.44</v>
-      </c>
-      <c r="U37">
-        <v>2.63</v>
-      </c>
-      <c r="V37">
-        <v>3.4</v>
-      </c>
-      <c r="W37">
-        <v>1.3</v>
-      </c>
-      <c r="X37">
-        <v>10</v>
-      </c>
-      <c r="Y37">
-        <v>1.06</v>
-      </c>
-      <c r="Z37">
-        <v>2.22</v>
-      </c>
-      <c r="AA37">
-        <v>3.32</v>
-      </c>
-      <c r="AB37">
-        <v>3.32</v>
-      </c>
-      <c r="AC37">
-        <v>1.08</v>
-      </c>
-      <c r="AD37">
-        <v>8.5</v>
-      </c>
-      <c r="AE37">
-        <v>1.4</v>
-      </c>
-      <c r="AF37">
-        <v>3</v>
-      </c>
-      <c r="AG37">
-        <v>2.14</v>
-      </c>
-      <c r="AH37">
-        <v>1.63</v>
-      </c>
-      <c r="AI37">
-        <v>1.91</v>
-      </c>
-      <c r="AJ37">
-        <v>1.91</v>
-      </c>
-      <c r="AK37">
-        <v>1.33</v>
-      </c>
-      <c r="AL37">
-        <v>1.3</v>
-      </c>
-      <c r="AM37">
-        <v>1.66</v>
-      </c>
-      <c r="AN37">
-        <v>0.5</v>
-      </c>
-      <c r="AO37">
-        <v>2</v>
-      </c>
-      <c r="AP37">
-        <v>0.67</v>
-      </c>
-      <c r="AQ37">
-        <v>1.67</v>
-      </c>
-      <c r="AR37">
-        <v>1.32</v>
-      </c>
-      <c r="AS37">
-        <v>1.1</v>
-      </c>
-      <c r="AT37">
-        <v>2.42</v>
-      </c>
-      <c r="AU37">
-        <v>4</v>
-      </c>
-      <c r="AV37">
-        <v>9</v>
-      </c>
-      <c r="AW37">
-        <v>7</v>
-      </c>
-      <c r="AX37">
-        <v>4</v>
-      </c>
-      <c r="AY37">
-        <v>11</v>
-      </c>
-      <c r="AZ37">
-        <v>13</v>
-      </c>
-      <c r="BA37">
-        <v>7</v>
-      </c>
-      <c r="BB37">
-        <v>3</v>
-      </c>
-      <c r="BC37">
-        <v>10</v>
-      </c>
-      <c r="BD37">
-        <v>1.76</v>
-      </c>
-      <c r="BE37">
-        <v>6.5</v>
-      </c>
-      <c r="BF37">
-        <v>2.15</v>
-      </c>
-      <c r="BG37">
-        <v>1.19</v>
-      </c>
-      <c r="BH37">
-        <v>4.1</v>
-      </c>
-      <c r="BI37">
-        <v>1.34</v>
-      </c>
-      <c r="BJ37">
-        <v>2.9</v>
-      </c>
-      <c r="BK37">
-        <v>1.57</v>
-      </c>
-      <c r="BL37">
-        <v>2.23</v>
-      </c>
-      <c r="BM37">
-        <v>1.91</v>
-      </c>
-      <c r="BN37">
-        <v>1.78</v>
-      </c>
-      <c r="BO37">
-        <v>2.38</v>
-      </c>
-      <c r="BP37">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:68">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>7480173</v>
-      </c>
-      <c r="C38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="2">
-        <v>45563.57291666666</v>
-      </c>
-      <c r="F38">
-        <v>6</v>
-      </c>
-      <c r="G38" t="s">
-        <v>75</v>
-      </c>
-      <c r="H38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>3</v>
-      </c>
-      <c r="K38">
-        <v>3</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>6</v>
-      </c>
-      <c r="N38">
-        <v>6</v>
-      </c>
-      <c r="O38" t="s">
-        <v>82</v>
-      </c>
-      <c r="P38" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q38">
-        <v>10</v>
-      </c>
-      <c r="R38">
-        <v>2.75</v>
-      </c>
-      <c r="S38">
-        <v>1.62</v>
-      </c>
-      <c r="T38">
-        <v>1.25</v>
-      </c>
-      <c r="U38">
-        <v>3.75</v>
-      </c>
-      <c r="V38">
-        <v>2.2</v>
-      </c>
-      <c r="W38">
-        <v>1.62</v>
-      </c>
-      <c r="X38">
-        <v>5</v>
-      </c>
-      <c r="Y38">
-        <v>1.17</v>
-      </c>
-      <c r="Z38">
-        <v>9</v>
-      </c>
-      <c r="AA38">
-        <v>6.4</v>
-      </c>
-      <c r="AB38">
-        <v>1.2</v>
-      </c>
-      <c r="AC38">
-        <v>1.01</v>
-      </c>
-      <c r="AD38">
-        <v>17</v>
-      </c>
-      <c r="AE38">
-        <v>1.16</v>
-      </c>
-      <c r="AF38">
-        <v>5</v>
-      </c>
-      <c r="AG38">
-        <v>1.45</v>
-      </c>
-      <c r="AH38">
-        <v>2.65</v>
-      </c>
-      <c r="AI38">
-        <v>2.1</v>
-      </c>
-      <c r="AJ38">
-        <v>1.67</v>
-      </c>
-      <c r="AK38">
-        <v>4.33</v>
-      </c>
-      <c r="AL38">
-        <v>1.08</v>
-      </c>
-      <c r="AM38">
-        <v>1.04</v>
-      </c>
-      <c r="AN38">
-        <v>0</v>
-      </c>
-      <c r="AO38">
-        <v>3</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-      <c r="AQ38">
-        <v>3</v>
-      </c>
-      <c r="AR38">
-        <v>1.42</v>
-      </c>
-      <c r="AS38">
-        <v>1.78</v>
-      </c>
-      <c r="AT38">
-        <v>3.2</v>
-      </c>
-      <c r="AU38">
-        <v>2</v>
-      </c>
-      <c r="AV38">
-        <v>12</v>
-      </c>
-      <c r="AW38">
-        <v>4</v>
-      </c>
-      <c r="AX38">
-        <v>7</v>
-      </c>
-      <c r="AY38">
-        <v>6</v>
-      </c>
-      <c r="AZ38">
-        <v>19</v>
-      </c>
-      <c r="BA38">
-        <v>3</v>
-      </c>
-      <c r="BB38">
-        <v>13</v>
-      </c>
-      <c r="BC38">
-        <v>16</v>
-      </c>
-      <c r="BD38">
-        <v>3.9</v>
-      </c>
-      <c r="BE38">
-        <v>8</v>
-      </c>
-      <c r="BF38">
-        <v>1.24</v>
-      </c>
-      <c r="BG38">
-        <v>1.19</v>
-      </c>
-      <c r="BH38">
-        <v>4</v>
-      </c>
-      <c r="BI38">
-        <v>1.34</v>
-      </c>
-      <c r="BJ38">
-        <v>2.9</v>
-      </c>
-      <c r="BK38">
-        <v>1.57</v>
-      </c>
-      <c r="BL38">
-        <v>2.23</v>
-      </c>
-      <c r="BM38">
-        <v>1.9</v>
-      </c>
-      <c r="BN38">
-        <v>1.79</v>
-      </c>
-      <c r="BO38">
-        <v>2.33</v>
-      </c>
-      <c r="BP38">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:68">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>7480172</v>
-      </c>
-      <c r="C39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="2">
-        <v>45563.875</v>
-      </c>
-      <c r="F39">
-        <v>6</v>
-      </c>
-      <c r="G39" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39" t="s">
-        <v>111</v>
-      </c>
-      <c r="P39" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q39">
-        <v>1.91</v>
-      </c>
-      <c r="R39">
-        <v>2.6</v>
-      </c>
-      <c r="S39">
-        <v>6.5</v>
-      </c>
-      <c r="T39">
-        <v>1.29</v>
-      </c>
-      <c r="U39">
-        <v>3.5</v>
-      </c>
-      <c r="V39">
-        <v>2.25</v>
-      </c>
-      <c r="W39">
-        <v>1.57</v>
-      </c>
-      <c r="X39">
-        <v>5.5</v>
-      </c>
-      <c r="Y39">
-        <v>1.14</v>
-      </c>
-      <c r="Z39">
-        <v>1.4</v>
-      </c>
-      <c r="AA39">
-        <v>5</v>
-      </c>
-      <c r="AB39">
-        <v>7.5</v>
-      </c>
-      <c r="AC39">
-        <v>1.02</v>
-      </c>
-      <c r="AD39">
-        <v>17</v>
-      </c>
-      <c r="AE39">
-        <v>1.16</v>
-      </c>
-      <c r="AF39">
-        <v>5</v>
-      </c>
-      <c r="AG39">
-        <v>1.57</v>
-      </c>
-      <c r="AH39">
-        <v>2.3</v>
-      </c>
-      <c r="AI39">
-        <v>1.75</v>
-      </c>
-      <c r="AJ39">
-        <v>2</v>
-      </c>
-      <c r="AK39">
-        <v>1.09</v>
-      </c>
-      <c r="AL39">
-        <v>1.14</v>
-      </c>
-      <c r="AM39">
-        <v>2.9</v>
-      </c>
-      <c r="AN39">
-        <v>3</v>
-      </c>
-      <c r="AO39">
-        <v>0.5</v>
-      </c>
-      <c r="AP39">
-        <v>3</v>
-      </c>
-      <c r="AQ39">
-        <v>0.33</v>
-      </c>
-      <c r="AR39">
-        <v>2.01</v>
-      </c>
-      <c r="AS39">
-        <v>1.32</v>
-      </c>
-      <c r="AT39">
-        <v>3.33</v>
-      </c>
-      <c r="AU39">
-        <v>5</v>
-      </c>
-      <c r="AV39">
-        <v>6</v>
-      </c>
-      <c r="AW39">
-        <v>14</v>
-      </c>
-      <c r="AX39">
-        <v>13</v>
-      </c>
-      <c r="AY39">
-        <v>19</v>
-      </c>
-      <c r="AZ39">
-        <v>19</v>
-      </c>
-      <c r="BA39">
-        <v>4</v>
-      </c>
-      <c r="BB39">
-        <v>7</v>
-      </c>
-      <c r="BC39">
-        <v>11</v>
-      </c>
-      <c r="BD39">
-        <v>1.41</v>
-      </c>
-      <c r="BE39">
-        <v>6.75</v>
-      </c>
-      <c r="BF39">
-        <v>2.95</v>
-      </c>
-      <c r="BG39">
-        <v>1.2</v>
-      </c>
-      <c r="BH39">
-        <v>3.95</v>
-      </c>
-      <c r="BI39">
-        <v>1.34</v>
-      </c>
-      <c r="BJ39">
-        <v>2.9</v>
-      </c>
-      <c r="BK39">
-        <v>1.57</v>
-      </c>
-      <c r="BL39">
-        <v>2.23</v>
-      </c>
-      <c r="BM39">
-        <v>1.8</v>
-      </c>
-      <c r="BN39">
-        <v>2</v>
-      </c>
-      <c r="BO39">
-        <v>2.35</v>
-      </c>
-      <c r="BP39">
-        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="137">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -337,6 +337,21 @@
     <t>['8', '34']</t>
   </si>
   <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['47', '57', '64']</t>
+  </si>
+  <si>
+    <t>['19', '44']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -395,6 +410,21 @@
   </si>
   <si>
     <t>['18']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['21', '79', '90+9']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['15', '32']</t>
+  </si>
+  <si>
+    <t>['35', '43', '45', '54', '72', '83']</t>
   </si>
 </sst>
 </file>
@@ -756,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP33"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ2">
         <v>1.33</v>
@@ -1120,10 +1150,10 @@
         <v>3</v>
       </c>
       <c r="AY2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AZ2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA2">
         <v>8</v>
@@ -1299,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1326,10 +1356,10 @@
         <v>3</v>
       </c>
       <c r="AY3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA3">
         <v>9</v>
@@ -1427,7 +1457,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1532,10 +1562,10 @@
         <v>8</v>
       </c>
       <c r="AY4">
+        <v>17</v>
+      </c>
+      <c r="AZ4">
         <v>16</v>
-      </c>
-      <c r="AZ4">
-        <v>13</v>
       </c>
       <c r="BA4">
         <v>5</v>
@@ -1714,7 +1744,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1738,10 +1768,10 @@
         <v>7</v>
       </c>
       <c r="AY5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA5">
         <v>4</v>
@@ -1944,10 +1974,10 @@
         <v>2</v>
       </c>
       <c r="AY6">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="AZ6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA6">
         <v>10</v>
@@ -2045,7 +2075,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2150,10 +2180,10 @@
         <v>9</v>
       </c>
       <c r="AY7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BA7">
         <v>12</v>
@@ -2251,7 +2281,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2356,10 +2386,10 @@
         <v>5</v>
       </c>
       <c r="AY8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA8">
         <v>6</v>
@@ -2457,7 +2487,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2538,7 +2568,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2562,10 +2592,10 @@
         <v>4</v>
       </c>
       <c r="AY9">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA9">
         <v>7</v>
@@ -2663,7 +2693,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2741,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2768,10 +2798,10 @@
         <v>7</v>
       </c>
       <c r="AY10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA10">
         <v>2</v>
@@ -2869,7 +2899,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -2977,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="AZ11">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="BA11">
         <v>3</v>
@@ -3075,7 +3105,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3156,7 +3186,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3180,10 +3210,10 @@
         <v>3</v>
       </c>
       <c r="AY12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA12">
         <v>6</v>
@@ -3281,7 +3311,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3359,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3386,10 +3416,10 @@
         <v>2</v>
       </c>
       <c r="AY13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA13">
         <v>4</v>
@@ -3595,7 +3625,7 @@
         <v>4</v>
       </c>
       <c r="AZ14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA14">
         <v>2</v>
@@ -3693,7 +3723,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -3798,10 +3828,10 @@
         <v>1</v>
       </c>
       <c r="AY15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA15">
         <v>5</v>
@@ -3980,7 +4010,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR16">
         <v>2.02</v>
@@ -4004,10 +4034,10 @@
         <v>1</v>
       </c>
       <c r="AY16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA16">
         <v>5</v>
@@ -4105,7 +4135,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4210,10 +4240,10 @@
         <v>5</v>
       </c>
       <c r="AY17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ17">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="BA17">
         <v>2</v>
@@ -4311,7 +4341,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4389,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4416,10 +4446,10 @@
         <v>1</v>
       </c>
       <c r="AY18">
+        <v>15</v>
+      </c>
+      <c r="AZ18">
         <v>10</v>
-      </c>
-      <c r="AZ18">
-        <v>5</v>
       </c>
       <c r="BA18">
         <v>8</v>
@@ -4622,10 +4652,10 @@
         <v>2</v>
       </c>
       <c r="AY19">
+        <v>13</v>
+      </c>
+      <c r="AZ19">
         <v>9</v>
-      </c>
-      <c r="AZ19">
-        <v>6</v>
       </c>
       <c r="BA19">
         <v>8</v>
@@ -4723,7 +4753,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4801,10 +4831,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>1.56</v>
@@ -4828,10 +4858,10 @@
         <v>4</v>
       </c>
       <c r="AY20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA20">
         <v>6</v>
@@ -4929,7 +4959,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5034,10 +5064,10 @@
         <v>4</v>
       </c>
       <c r="AY21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ21">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA21">
         <v>4</v>
@@ -5135,7 +5165,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5240,10 +5270,10 @@
         <v>2</v>
       </c>
       <c r="AY22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA22">
         <v>1</v>
@@ -5446,10 +5476,10 @@
         <v>5</v>
       </c>
       <c r="AY23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ23">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA23">
         <v>7</v>
@@ -5547,7 +5577,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5625,10 +5655,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.14</v>
@@ -5652,10 +5682,10 @@
         <v>5</v>
       </c>
       <c r="AY24">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA24">
         <v>6</v>
@@ -5753,7 +5783,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5831,10 +5861,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR25">
         <v>1.41</v>
@@ -5858,10 +5888,10 @@
         <v>3</v>
       </c>
       <c r="AY25">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA25">
         <v>4</v>
@@ -6064,10 +6094,10 @@
         <v>6</v>
       </c>
       <c r="AY26">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ26">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA26">
         <v>6</v>
@@ -6270,10 +6300,10 @@
         <v>2</v>
       </c>
       <c r="AY27">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA27">
         <v>5</v>
@@ -6476,10 +6506,10 @@
         <v>1</v>
       </c>
       <c r="AY28">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA28">
         <v>5</v>
@@ -6682,10 +6712,10 @@
         <v>2</v>
       </c>
       <c r="AY29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA29">
         <v>3</v>
@@ -6783,7 +6813,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6888,10 +6918,10 @@
         <v>6</v>
       </c>
       <c r="AY30">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA30">
         <v>3</v>
@@ -6989,7 +7019,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7094,10 +7124,10 @@
         <v>2</v>
       </c>
       <c r="AY31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ31">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA31">
         <v>4</v>
@@ -7195,7 +7225,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7300,10 +7330,10 @@
         <v>2</v>
       </c>
       <c r="AY32">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA32">
         <v>1</v>
@@ -7401,7 +7431,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7506,10 +7536,10 @@
         <v>5</v>
       </c>
       <c r="AY33">
+        <v>12</v>
+      </c>
+      <c r="AZ33">
         <v>10</v>
-      </c>
-      <c r="AZ33">
-        <v>8</v>
       </c>
       <c r="BA33">
         <v>5</v>
@@ -7558,6 +7588,1242 @@
       </c>
       <c r="BP33">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7480169</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>107</v>
+      </c>
+      <c r="P34" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q34">
+        <v>2.3</v>
+      </c>
+      <c r="R34">
+        <v>2.25</v>
+      </c>
+      <c r="S34">
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <v>1.36</v>
+      </c>
+      <c r="U34">
+        <v>3</v>
+      </c>
+      <c r="V34">
+        <v>2.75</v>
+      </c>
+      <c r="W34">
+        <v>1.4</v>
+      </c>
+      <c r="X34">
+        <v>8</v>
+      </c>
+      <c r="Y34">
+        <v>1.08</v>
+      </c>
+      <c r="Z34">
+        <v>1.66</v>
+      </c>
+      <c r="AA34">
+        <v>4.05</v>
+      </c>
+      <c r="AB34">
+        <v>4.85</v>
+      </c>
+      <c r="AC34">
+        <v>1.04</v>
+      </c>
+      <c r="AD34">
+        <v>12</v>
+      </c>
+      <c r="AE34">
+        <v>1.28</v>
+      </c>
+      <c r="AF34">
+        <v>3.6</v>
+      </c>
+      <c r="AG34">
+        <v>1.85</v>
+      </c>
+      <c r="AH34">
+        <v>1.85</v>
+      </c>
+      <c r="AI34">
+        <v>1.91</v>
+      </c>
+      <c r="AJ34">
+        <v>1.91</v>
+      </c>
+      <c r="AK34">
+        <v>1.17</v>
+      </c>
+      <c r="AL34">
+        <v>1.2</v>
+      </c>
+      <c r="AM34">
+        <v>2.25</v>
+      </c>
+      <c r="AN34">
+        <v>0.5</v>
+      </c>
+      <c r="AO34">
+        <v>0.5</v>
+      </c>
+      <c r="AP34">
+        <v>0.67</v>
+      </c>
+      <c r="AQ34">
+        <v>0.67</v>
+      </c>
+      <c r="AR34">
+        <v>1.25</v>
+      </c>
+      <c r="AS34">
+        <v>0.84</v>
+      </c>
+      <c r="AT34">
+        <v>2.09</v>
+      </c>
+      <c r="AU34">
+        <v>9</v>
+      </c>
+      <c r="AV34">
+        <v>3</v>
+      </c>
+      <c r="AW34">
+        <v>8</v>
+      </c>
+      <c r="AX34">
+        <v>3</v>
+      </c>
+      <c r="AY34">
+        <v>22</v>
+      </c>
+      <c r="AZ34">
+        <v>13</v>
+      </c>
+      <c r="BA34">
+        <v>11</v>
+      </c>
+      <c r="BB34">
+        <v>5</v>
+      </c>
+      <c r="BC34">
+        <v>16</v>
+      </c>
+      <c r="BD34">
+        <v>1.41</v>
+      </c>
+      <c r="BE34">
+        <v>7</v>
+      </c>
+      <c r="BF34">
+        <v>2.95</v>
+      </c>
+      <c r="BG34">
+        <v>1.16</v>
+      </c>
+      <c r="BH34">
+        <v>4.4</v>
+      </c>
+      <c r="BI34">
+        <v>1.29</v>
+      </c>
+      <c r="BJ34">
+        <v>3.15</v>
+      </c>
+      <c r="BK34">
+        <v>1.49</v>
+      </c>
+      <c r="BL34">
+        <v>2.4</v>
+      </c>
+      <c r="BM34">
+        <v>1.77</v>
+      </c>
+      <c r="BN34">
+        <v>1.92</v>
+      </c>
+      <c r="BO34">
+        <v>2.17</v>
+      </c>
+      <c r="BP34">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7480170</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>6</v>
+      </c>
+      <c r="O35" t="s">
+        <v>108</v>
+      </c>
+      <c r="P35" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q35">
+        <v>3.1</v>
+      </c>
+      <c r="R35">
+        <v>2.05</v>
+      </c>
+      <c r="S35">
+        <v>3.75</v>
+      </c>
+      <c r="T35">
+        <v>1.44</v>
+      </c>
+      <c r="U35">
+        <v>2.63</v>
+      </c>
+      <c r="V35">
+        <v>3.4</v>
+      </c>
+      <c r="W35">
+        <v>1.3</v>
+      </c>
+      <c r="X35">
+        <v>10</v>
+      </c>
+      <c r="Y35">
+        <v>1.06</v>
+      </c>
+      <c r="Z35">
+        <v>2.22</v>
+      </c>
+      <c r="AA35">
+        <v>3.32</v>
+      </c>
+      <c r="AB35">
+        <v>3.32</v>
+      </c>
+      <c r="AC35">
+        <v>1.08</v>
+      </c>
+      <c r="AD35">
+        <v>8.5</v>
+      </c>
+      <c r="AE35">
+        <v>1.4</v>
+      </c>
+      <c r="AF35">
+        <v>3</v>
+      </c>
+      <c r="AG35">
+        <v>2.14</v>
+      </c>
+      <c r="AH35">
+        <v>1.63</v>
+      </c>
+      <c r="AI35">
+        <v>1.91</v>
+      </c>
+      <c r="AJ35">
+        <v>1.91</v>
+      </c>
+      <c r="AK35">
+        <v>1.33</v>
+      </c>
+      <c r="AL35">
+        <v>1.3</v>
+      </c>
+      <c r="AM35">
+        <v>1.66</v>
+      </c>
+      <c r="AN35">
+        <v>0.5</v>
+      </c>
+      <c r="AO35">
+        <v>2</v>
+      </c>
+      <c r="AP35">
+        <v>0.67</v>
+      </c>
+      <c r="AQ35">
+        <v>1.67</v>
+      </c>
+      <c r="AR35">
+        <v>1.32</v>
+      </c>
+      <c r="AS35">
+        <v>1.1</v>
+      </c>
+      <c r="AT35">
+        <v>2.42</v>
+      </c>
+      <c r="AU35">
+        <v>4</v>
+      </c>
+      <c r="AV35">
+        <v>9</v>
+      </c>
+      <c r="AW35">
+        <v>7</v>
+      </c>
+      <c r="AX35">
+        <v>4</v>
+      </c>
+      <c r="AY35">
+        <v>16</v>
+      </c>
+      <c r="AZ35">
+        <v>20</v>
+      </c>
+      <c r="BA35">
+        <v>7</v>
+      </c>
+      <c r="BB35">
+        <v>3</v>
+      </c>
+      <c r="BC35">
+        <v>10</v>
+      </c>
+      <c r="BD35">
+        <v>1.76</v>
+      </c>
+      <c r="BE35">
+        <v>6.5</v>
+      </c>
+      <c r="BF35">
+        <v>2.15</v>
+      </c>
+      <c r="BG35">
+        <v>1.19</v>
+      </c>
+      <c r="BH35">
+        <v>4.1</v>
+      </c>
+      <c r="BI35">
+        <v>1.34</v>
+      </c>
+      <c r="BJ35">
+        <v>2.9</v>
+      </c>
+      <c r="BK35">
+        <v>1.57</v>
+      </c>
+      <c r="BL35">
+        <v>2.23</v>
+      </c>
+      <c r="BM35">
+        <v>1.91</v>
+      </c>
+      <c r="BN35">
+        <v>1.78</v>
+      </c>
+      <c r="BO35">
+        <v>2.38</v>
+      </c>
+      <c r="BP35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7480171</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>109</v>
+      </c>
+      <c r="P36" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>2.1</v>
+      </c>
+      <c r="S36">
+        <v>3.6</v>
+      </c>
+      <c r="T36">
+        <v>1.4</v>
+      </c>
+      <c r="U36">
+        <v>2.75</v>
+      </c>
+      <c r="V36">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <v>1.36</v>
+      </c>
+      <c r="X36">
+        <v>8</v>
+      </c>
+      <c r="Y36">
+        <v>1.08</v>
+      </c>
+      <c r="Z36">
+        <v>2.23</v>
+      </c>
+      <c r="AA36">
+        <v>3.38</v>
+      </c>
+      <c r="AB36">
+        <v>3.22</v>
+      </c>
+      <c r="AC36">
+        <v>1.01</v>
+      </c>
+      <c r="AD36">
+        <v>8.1</v>
+      </c>
+      <c r="AE36">
+        <v>1.27</v>
+      </c>
+      <c r="AF36">
+        <v>3.08</v>
+      </c>
+      <c r="AG36">
+        <v>1.95</v>
+      </c>
+      <c r="AH36">
+        <v>1.76</v>
+      </c>
+      <c r="AI36">
+        <v>1.75</v>
+      </c>
+      <c r="AJ36">
+        <v>2</v>
+      </c>
+      <c r="AK36">
+        <v>1.4</v>
+      </c>
+      <c r="AL36">
+        <v>1.32</v>
+      </c>
+      <c r="AM36">
+        <v>1.58</v>
+      </c>
+      <c r="AN36">
+        <v>2</v>
+      </c>
+      <c r="AO36">
+        <v>0.5</v>
+      </c>
+      <c r="AP36">
+        <v>2.33</v>
+      </c>
+      <c r="AQ36">
+        <v>0.33</v>
+      </c>
+      <c r="AR36">
+        <v>1.45</v>
+      </c>
+      <c r="AS36">
+        <v>1.35</v>
+      </c>
+      <c r="AT36">
+        <v>2.8</v>
+      </c>
+      <c r="AU36">
+        <v>5</v>
+      </c>
+      <c r="AV36">
+        <v>11</v>
+      </c>
+      <c r="AW36">
+        <v>3</v>
+      </c>
+      <c r="AX36">
+        <v>4</v>
+      </c>
+      <c r="AY36">
+        <v>10</v>
+      </c>
+      <c r="AZ36">
+        <v>18</v>
+      </c>
+      <c r="BA36">
+        <v>9</v>
+      </c>
+      <c r="BB36">
+        <v>6</v>
+      </c>
+      <c r="BC36">
+        <v>15</v>
+      </c>
+      <c r="BD36">
+        <v>1.86</v>
+      </c>
+      <c r="BE36">
+        <v>6.4</v>
+      </c>
+      <c r="BF36">
+        <v>2</v>
+      </c>
+      <c r="BG36">
+        <v>1.18</v>
+      </c>
+      <c r="BH36">
+        <v>4.1</v>
+      </c>
+      <c r="BI36">
+        <v>1.34</v>
+      </c>
+      <c r="BJ36">
+        <v>2.9</v>
+      </c>
+      <c r="BK36">
+        <v>1.57</v>
+      </c>
+      <c r="BL36">
+        <v>2.23</v>
+      </c>
+      <c r="BM36">
+        <v>2</v>
+      </c>
+      <c r="BN36">
+        <v>1.8</v>
+      </c>
+      <c r="BO36">
+        <v>2.35</v>
+      </c>
+      <c r="BP36">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7480168</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>110</v>
+      </c>
+      <c r="P37" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q37">
+        <v>3.5</v>
+      </c>
+      <c r="R37">
+        <v>2.1</v>
+      </c>
+      <c r="S37">
+        <v>3.2</v>
+      </c>
+      <c r="T37">
+        <v>1.44</v>
+      </c>
+      <c r="U37">
+        <v>2.63</v>
+      </c>
+      <c r="V37">
+        <v>3.25</v>
+      </c>
+      <c r="W37">
+        <v>1.33</v>
+      </c>
+      <c r="X37">
+        <v>9</v>
+      </c>
+      <c r="Y37">
+        <v>1.07</v>
+      </c>
+      <c r="Z37">
+        <v>3.25</v>
+      </c>
+      <c r="AA37">
+        <v>3.52</v>
+      </c>
+      <c r="AB37">
+        <v>2.16</v>
+      </c>
+      <c r="AC37">
+        <v>1.04</v>
+      </c>
+      <c r="AD37">
+        <v>12</v>
+      </c>
+      <c r="AE37">
+        <v>1.36</v>
+      </c>
+      <c r="AF37">
+        <v>3.2</v>
+      </c>
+      <c r="AG37">
+        <v>2.05</v>
+      </c>
+      <c r="AH37">
+        <v>1.69</v>
+      </c>
+      <c r="AI37">
+        <v>1.91</v>
+      </c>
+      <c r="AJ37">
+        <v>1.91</v>
+      </c>
+      <c r="AK37">
+        <v>1.55</v>
+      </c>
+      <c r="AL37">
+        <v>1.25</v>
+      </c>
+      <c r="AM37">
+        <v>1.45</v>
+      </c>
+      <c r="AN37">
+        <v>2</v>
+      </c>
+      <c r="AO37">
+        <v>3</v>
+      </c>
+      <c r="AP37">
+        <v>1.33</v>
+      </c>
+      <c r="AQ37">
+        <v>3</v>
+      </c>
+      <c r="AR37">
+        <v>1.5</v>
+      </c>
+      <c r="AS37">
+        <v>1.42</v>
+      </c>
+      <c r="AT37">
+        <v>2.92</v>
+      </c>
+      <c r="AU37">
+        <v>7</v>
+      </c>
+      <c r="AV37">
+        <v>3</v>
+      </c>
+      <c r="AW37">
+        <v>5</v>
+      </c>
+      <c r="AX37">
+        <v>2</v>
+      </c>
+      <c r="AY37">
+        <v>15</v>
+      </c>
+      <c r="AZ37">
+        <v>9</v>
+      </c>
+      <c r="BA37">
+        <v>10</v>
+      </c>
+      <c r="BB37">
+        <v>4</v>
+      </c>
+      <c r="BC37">
+        <v>14</v>
+      </c>
+      <c r="BD37">
+        <v>1.93</v>
+      </c>
+      <c r="BE37">
+        <v>6.5</v>
+      </c>
+      <c r="BF37">
+        <v>1.95</v>
+      </c>
+      <c r="BG37">
+        <v>1.2</v>
+      </c>
+      <c r="BH37">
+        <v>3.95</v>
+      </c>
+      <c r="BI37">
+        <v>1.35</v>
+      </c>
+      <c r="BJ37">
+        <v>2.9</v>
+      </c>
+      <c r="BK37">
+        <v>1.58</v>
+      </c>
+      <c r="BL37">
+        <v>2.2</v>
+      </c>
+      <c r="BM37">
+        <v>1.92</v>
+      </c>
+      <c r="BN37">
+        <v>1.77</v>
+      </c>
+      <c r="BO37">
+        <v>2.4</v>
+      </c>
+      <c r="BP37">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7480173</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45563.57291666666</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
+      <c r="N38">
+        <v>6</v>
+      </c>
+      <c r="O38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P38" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q38">
+        <v>10</v>
+      </c>
+      <c r="R38">
+        <v>2.75</v>
+      </c>
+      <c r="S38">
+        <v>1.62</v>
+      </c>
+      <c r="T38">
+        <v>1.25</v>
+      </c>
+      <c r="U38">
+        <v>3.75</v>
+      </c>
+      <c r="V38">
+        <v>2.2</v>
+      </c>
+      <c r="W38">
+        <v>1.62</v>
+      </c>
+      <c r="X38">
+        <v>5</v>
+      </c>
+      <c r="Y38">
+        <v>1.17</v>
+      </c>
+      <c r="Z38">
+        <v>9</v>
+      </c>
+      <c r="AA38">
+        <v>6.4</v>
+      </c>
+      <c r="AB38">
+        <v>1.2</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>17</v>
+      </c>
+      <c r="AE38">
+        <v>1.16</v>
+      </c>
+      <c r="AF38">
+        <v>5</v>
+      </c>
+      <c r="AG38">
+        <v>1.45</v>
+      </c>
+      <c r="AH38">
+        <v>2.65</v>
+      </c>
+      <c r="AI38">
+        <v>2.1</v>
+      </c>
+      <c r="AJ38">
+        <v>1.67</v>
+      </c>
+      <c r="AK38">
+        <v>4.33</v>
+      </c>
+      <c r="AL38">
+        <v>1.08</v>
+      </c>
+      <c r="AM38">
+        <v>1.04</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>3</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>3</v>
+      </c>
+      <c r="AR38">
+        <v>1.42</v>
+      </c>
+      <c r="AS38">
+        <v>1.78</v>
+      </c>
+      <c r="AT38">
+        <v>3.2</v>
+      </c>
+      <c r="AU38">
+        <v>2</v>
+      </c>
+      <c r="AV38">
+        <v>12</v>
+      </c>
+      <c r="AW38">
+        <v>4</v>
+      </c>
+      <c r="AX38">
+        <v>7</v>
+      </c>
+      <c r="AY38">
+        <v>6</v>
+      </c>
+      <c r="AZ38">
+        <v>20</v>
+      </c>
+      <c r="BA38">
+        <v>3</v>
+      </c>
+      <c r="BB38">
+        <v>13</v>
+      </c>
+      <c r="BC38">
+        <v>16</v>
+      </c>
+      <c r="BD38">
+        <v>3.9</v>
+      </c>
+      <c r="BE38">
+        <v>8</v>
+      </c>
+      <c r="BF38">
+        <v>1.24</v>
+      </c>
+      <c r="BG38">
+        <v>1.19</v>
+      </c>
+      <c r="BH38">
+        <v>4</v>
+      </c>
+      <c r="BI38">
+        <v>1.34</v>
+      </c>
+      <c r="BJ38">
+        <v>2.9</v>
+      </c>
+      <c r="BK38">
+        <v>1.57</v>
+      </c>
+      <c r="BL38">
+        <v>2.23</v>
+      </c>
+      <c r="BM38">
+        <v>1.9</v>
+      </c>
+      <c r="BN38">
+        <v>1.79</v>
+      </c>
+      <c r="BO38">
+        <v>2.33</v>
+      </c>
+      <c r="BP38">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7480172</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45564.33333333334</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P39" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q39">
+        <v>1.91</v>
+      </c>
+      <c r="R39">
+        <v>2.6</v>
+      </c>
+      <c r="S39">
+        <v>6.5</v>
+      </c>
+      <c r="T39">
+        <v>1.29</v>
+      </c>
+      <c r="U39">
+        <v>3.5</v>
+      </c>
+      <c r="V39">
+        <v>2.25</v>
+      </c>
+      <c r="W39">
+        <v>1.57</v>
+      </c>
+      <c r="X39">
+        <v>5.5</v>
+      </c>
+      <c r="Y39">
+        <v>1.14</v>
+      </c>
+      <c r="Z39">
+        <v>1.4</v>
+      </c>
+      <c r="AA39">
+        <v>5</v>
+      </c>
+      <c r="AB39">
+        <v>7.5</v>
+      </c>
+      <c r="AC39">
+        <v>1.02</v>
+      </c>
+      <c r="AD39">
+        <v>17</v>
+      </c>
+      <c r="AE39">
+        <v>1.16</v>
+      </c>
+      <c r="AF39">
+        <v>5</v>
+      </c>
+      <c r="AG39">
+        <v>1.57</v>
+      </c>
+      <c r="AH39">
+        <v>2.3</v>
+      </c>
+      <c r="AI39">
+        <v>1.75</v>
+      </c>
+      <c r="AJ39">
+        <v>2</v>
+      </c>
+      <c r="AK39">
+        <v>1.09</v>
+      </c>
+      <c r="AL39">
+        <v>1.14</v>
+      </c>
+      <c r="AM39">
+        <v>2.9</v>
+      </c>
+      <c r="AN39">
+        <v>3</v>
+      </c>
+      <c r="AO39">
+        <v>0.5</v>
+      </c>
+      <c r="AP39">
+        <v>3</v>
+      </c>
+      <c r="AQ39">
+        <v>0.33</v>
+      </c>
+      <c r="AR39">
+        <v>2.01</v>
+      </c>
+      <c r="AS39">
+        <v>1.32</v>
+      </c>
+      <c r="AT39">
+        <v>3.33</v>
+      </c>
+      <c r="AU39">
+        <v>5</v>
+      </c>
+      <c r="AV39">
+        <v>4</v>
+      </c>
+      <c r="AW39">
+        <v>6</v>
+      </c>
+      <c r="AX39">
+        <v>9</v>
+      </c>
+      <c r="AY39">
+        <v>19</v>
+      </c>
+      <c r="AZ39">
+        <v>19</v>
+      </c>
+      <c r="BA39">
+        <v>4</v>
+      </c>
+      <c r="BB39">
+        <v>7</v>
+      </c>
+      <c r="BC39">
+        <v>11</v>
+      </c>
+      <c r="BD39">
+        <v>1.41</v>
+      </c>
+      <c r="BE39">
+        <v>6.75</v>
+      </c>
+      <c r="BF39">
+        <v>2.95</v>
+      </c>
+      <c r="BG39">
+        <v>1.2</v>
+      </c>
+      <c r="BH39">
+        <v>3.95</v>
+      </c>
+      <c r="BI39">
+        <v>1.34</v>
+      </c>
+      <c r="BJ39">
+        <v>2.9</v>
+      </c>
+      <c r="BK39">
+        <v>1.57</v>
+      </c>
+      <c r="BL39">
+        <v>2.23</v>
+      </c>
+      <c r="BM39">
+        <v>1.8</v>
+      </c>
+      <c r="BN39">
+        <v>2</v>
+      </c>
+      <c r="BO39">
+        <v>2.35</v>
+      </c>
+      <c r="BP39">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,15 @@
     <t>['34']</t>
   </si>
   <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['24', '81']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -425,6 +434,18 @@
   </si>
   <si>
     <t>['35', '43', '45', '54', '72', '83']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['56', '80']</t>
+  </si>
+  <si>
+    <t>['86', '88', '90+4']</t>
+  </si>
+  <si>
+    <t>['76', '88']</t>
   </si>
 </sst>
 </file>
@@ -786,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1457,7 +1478,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1741,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ5">
         <v>0.33</v>
@@ -1950,7 +1971,7 @@
         <v>3</v>
       </c>
       <c r="AQ6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2075,7 +2096,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2281,7 +2302,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2362,7 +2383,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2487,7 +2508,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2565,10 +2586,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2693,7 +2714,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2771,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2899,7 +2920,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -2977,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>3</v>
@@ -3105,7 +3126,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3311,7 +3332,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3723,7 +3744,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -3801,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>0.67</v>
@@ -4135,7 +4156,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4213,7 +4234,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17">
         <v>3</v>
@@ -4341,7 +4362,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4628,7 +4649,7 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.1</v>
@@ -4753,7 +4774,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4831,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>0.33</v>
@@ -4959,7 +4980,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5040,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>1.39</v>
@@ -5165,7 +5186,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5243,7 +5264,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>3</v>
@@ -5577,7 +5598,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5658,7 +5679,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>1.14</v>
@@ -5783,7 +5804,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6070,7 +6091,7 @@
         <v>3</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.12</v>
@@ -6479,7 +6500,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6685,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>0.67</v>
@@ -6813,7 +6834,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6891,10 +6912,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ30">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>0.76</v>
@@ -7019,7 +7040,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7225,7 +7246,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7303,7 +7324,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7431,7 +7452,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7509,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -7637,7 +7658,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7843,7 +7864,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -7924,7 +7945,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ35">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>1.32</v>
@@ -8049,7 +8070,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8255,7 +8276,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8333,7 +8354,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>3</v>
@@ -8461,7 +8482,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8824,6 +8845,830 @@
       </c>
       <c r="BP39">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7480179</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P40" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <v>2.1</v>
+      </c>
+      <c r="S40">
+        <v>3.75</v>
+      </c>
+      <c r="T40">
+        <v>1.44</v>
+      </c>
+      <c r="U40">
+        <v>2.63</v>
+      </c>
+      <c r="V40">
+        <v>3.25</v>
+      </c>
+      <c r="W40">
+        <v>1.33</v>
+      </c>
+      <c r="X40">
+        <v>9</v>
+      </c>
+      <c r="Y40">
+        <v>1.07</v>
+      </c>
+      <c r="Z40">
+        <v>2.38</v>
+      </c>
+      <c r="AA40">
+        <v>3.25</v>
+      </c>
+      <c r="AB40">
+        <v>3.2</v>
+      </c>
+      <c r="AC40">
+        <v>1.01</v>
+      </c>
+      <c r="AD40">
+        <v>7.7</v>
+      </c>
+      <c r="AE40">
+        <v>1.3</v>
+      </c>
+      <c r="AF40">
+        <v>2.91</v>
+      </c>
+      <c r="AG40">
+        <v>2.1</v>
+      </c>
+      <c r="AH40">
+        <v>1.68</v>
+      </c>
+      <c r="AI40">
+        <v>1.91</v>
+      </c>
+      <c r="AJ40">
+        <v>1.91</v>
+      </c>
+      <c r="AK40">
+        <v>1.36</v>
+      </c>
+      <c r="AL40">
+        <v>1.32</v>
+      </c>
+      <c r="AM40">
+        <v>1.63</v>
+      </c>
+      <c r="AN40">
+        <v>1.75</v>
+      </c>
+      <c r="AO40">
+        <v>1.67</v>
+      </c>
+      <c r="AP40">
+        <v>1.4</v>
+      </c>
+      <c r="AQ40">
+        <v>2</v>
+      </c>
+      <c r="AR40">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS40">
+        <v>1.36</v>
+      </c>
+      <c r="AT40">
+        <v>2.3</v>
+      </c>
+      <c r="AU40">
+        <v>4</v>
+      </c>
+      <c r="AV40">
+        <v>4</v>
+      </c>
+      <c r="AW40">
+        <v>10</v>
+      </c>
+      <c r="AX40">
+        <v>4</v>
+      </c>
+      <c r="AY40">
+        <v>17</v>
+      </c>
+      <c r="AZ40">
+        <v>13</v>
+      </c>
+      <c r="BA40">
+        <v>3</v>
+      </c>
+      <c r="BB40">
+        <v>3</v>
+      </c>
+      <c r="BC40">
+        <v>6</v>
+      </c>
+      <c r="BD40">
+        <v>1.74</v>
+      </c>
+      <c r="BE40">
+        <v>6.5</v>
+      </c>
+      <c r="BF40">
+        <v>2.15</v>
+      </c>
+      <c r="BG40">
+        <v>1.25</v>
+      </c>
+      <c r="BH40">
+        <v>3.4</v>
+      </c>
+      <c r="BI40">
+        <v>1.46</v>
+      </c>
+      <c r="BJ40">
+        <v>2.5</v>
+      </c>
+      <c r="BK40">
+        <v>1.73</v>
+      </c>
+      <c r="BL40">
+        <v>1.96</v>
+      </c>
+      <c r="BM40">
+        <v>2.17</v>
+      </c>
+      <c r="BN40">
+        <v>1.6</v>
+      </c>
+      <c r="BO40">
+        <v>2.7</v>
+      </c>
+      <c r="BP40">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7480176</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41" t="s">
+        <v>112</v>
+      </c>
+      <c r="P41" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q41">
+        <v>2.63</v>
+      </c>
+      <c r="R41">
+        <v>2.2</v>
+      </c>
+      <c r="S41">
+        <v>4</v>
+      </c>
+      <c r="T41">
+        <v>1.36</v>
+      </c>
+      <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <v>2.75</v>
+      </c>
+      <c r="W41">
+        <v>1.4</v>
+      </c>
+      <c r="X41">
+        <v>7</v>
+      </c>
+      <c r="Y41">
+        <v>1.1</v>
+      </c>
+      <c r="Z41">
+        <v>2.1</v>
+      </c>
+      <c r="AA41">
+        <v>3.5</v>
+      </c>
+      <c r="AB41">
+        <v>3.5</v>
+      </c>
+      <c r="AC41">
+        <v>1.05</v>
+      </c>
+      <c r="AD41">
+        <v>9.5</v>
+      </c>
+      <c r="AE41">
+        <v>1.22</v>
+      </c>
+      <c r="AF41">
+        <v>3.42</v>
+      </c>
+      <c r="AG41">
+        <v>1.87</v>
+      </c>
+      <c r="AH41">
+        <v>1.87</v>
+      </c>
+      <c r="AI41">
+        <v>1.7</v>
+      </c>
+      <c r="AJ41">
+        <v>2.05</v>
+      </c>
+      <c r="AK41">
+        <v>1.31</v>
+      </c>
+      <c r="AL41">
+        <v>1.29</v>
+      </c>
+      <c r="AM41">
+        <v>1.77</v>
+      </c>
+      <c r="AN41">
+        <v>1.33</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AP41">
+        <v>1</v>
+      </c>
+      <c r="AQ41">
+        <v>1.5</v>
+      </c>
+      <c r="AR41">
+        <v>1.12</v>
+      </c>
+      <c r="AS41">
+        <v>1.26</v>
+      </c>
+      <c r="AT41">
+        <v>2.38</v>
+      </c>
+      <c r="AU41">
+        <v>8</v>
+      </c>
+      <c r="AV41">
+        <v>6</v>
+      </c>
+      <c r="AW41">
+        <v>4</v>
+      </c>
+      <c r="AX41">
+        <v>2</v>
+      </c>
+      <c r="AY41">
+        <v>18</v>
+      </c>
+      <c r="AZ41">
+        <v>12</v>
+      </c>
+      <c r="BA41">
+        <v>10</v>
+      </c>
+      <c r="BB41">
+        <v>5</v>
+      </c>
+      <c r="BC41">
+        <v>15</v>
+      </c>
+      <c r="BD41">
+        <v>1.58</v>
+      </c>
+      <c r="BE41">
+        <v>6.75</v>
+      </c>
+      <c r="BF41">
+        <v>2.4</v>
+      </c>
+      <c r="BG41">
+        <v>1.17</v>
+      </c>
+      <c r="BH41">
+        <v>4.35</v>
+      </c>
+      <c r="BI41">
+        <v>1.29</v>
+      </c>
+      <c r="BJ41">
+        <v>3.15</v>
+      </c>
+      <c r="BK41">
+        <v>1.5</v>
+      </c>
+      <c r="BL41">
+        <v>2.4</v>
+      </c>
+      <c r="BM41">
+        <v>1.79</v>
+      </c>
+      <c r="BN41">
+        <v>1.9</v>
+      </c>
+      <c r="BO41">
+        <v>2.2</v>
+      </c>
+      <c r="BP41">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7480175</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
+      </c>
+      <c r="O42" t="s">
+        <v>113</v>
+      </c>
+      <c r="P42" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q42">
+        <v>2.88</v>
+      </c>
+      <c r="R42">
+        <v>2.2</v>
+      </c>
+      <c r="S42">
+        <v>3.6</v>
+      </c>
+      <c r="T42">
+        <v>1.4</v>
+      </c>
+      <c r="U42">
+        <v>2.75</v>
+      </c>
+      <c r="V42">
+        <v>2.75</v>
+      </c>
+      <c r="W42">
+        <v>1.4</v>
+      </c>
+      <c r="X42">
+        <v>8</v>
+      </c>
+      <c r="Y42">
+        <v>1.08</v>
+      </c>
+      <c r="Z42">
+        <v>2.3</v>
+      </c>
+      <c r="AA42">
+        <v>3.4</v>
+      </c>
+      <c r="AB42">
+        <v>3.1</v>
+      </c>
+      <c r="AC42">
+        <v>1.05</v>
+      </c>
+      <c r="AD42">
+        <v>9.5</v>
+      </c>
+      <c r="AE42">
+        <v>1.28</v>
+      </c>
+      <c r="AF42">
+        <v>3.55</v>
+      </c>
+      <c r="AG42">
+        <v>1.9</v>
+      </c>
+      <c r="AH42">
+        <v>1.91</v>
+      </c>
+      <c r="AI42">
+        <v>1.75</v>
+      </c>
+      <c r="AJ42">
+        <v>2</v>
+      </c>
+      <c r="AK42">
+        <v>1.36</v>
+      </c>
+      <c r="AL42">
+        <v>1.22</v>
+      </c>
+      <c r="AM42">
+        <v>1.62</v>
+      </c>
+      <c r="AN42">
+        <v>1.33</v>
+      </c>
+      <c r="AO42">
+        <v>0.33</v>
+      </c>
+      <c r="AP42">
+        <v>1</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>1.64</v>
+      </c>
+      <c r="AS42">
+        <v>0.99</v>
+      </c>
+      <c r="AT42">
+        <v>2.63</v>
+      </c>
+      <c r="AU42">
+        <v>4</v>
+      </c>
+      <c r="AV42">
+        <v>6</v>
+      </c>
+      <c r="AW42">
+        <v>5</v>
+      </c>
+      <c r="AX42">
+        <v>9</v>
+      </c>
+      <c r="AY42">
+        <v>11</v>
+      </c>
+      <c r="AZ42">
+        <v>26</v>
+      </c>
+      <c r="BA42">
+        <v>2</v>
+      </c>
+      <c r="BB42">
+        <v>10</v>
+      </c>
+      <c r="BC42">
+        <v>12</v>
+      </c>
+      <c r="BD42">
+        <v>1.84</v>
+      </c>
+      <c r="BE42">
+        <v>6.75</v>
+      </c>
+      <c r="BF42">
+        <v>2</v>
+      </c>
+      <c r="BG42">
+        <v>1.15</v>
+      </c>
+      <c r="BH42">
+        <v>4.6</v>
+      </c>
+      <c r="BI42">
+        <v>1.27</v>
+      </c>
+      <c r="BJ42">
+        <v>3.3</v>
+      </c>
+      <c r="BK42">
+        <v>1.46</v>
+      </c>
+      <c r="BL42">
+        <v>2.5</v>
+      </c>
+      <c r="BM42">
+        <v>1.72</v>
+      </c>
+      <c r="BN42">
+        <v>1.98</v>
+      </c>
+      <c r="BO42">
+        <v>2.08</v>
+      </c>
+      <c r="BP42">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7480178</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45571.33333333334</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>114</v>
+      </c>
+      <c r="P43" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q43">
+        <v>9.5</v>
+      </c>
+      <c r="R43">
+        <v>3</v>
+      </c>
+      <c r="S43">
+        <v>1.57</v>
+      </c>
+      <c r="T43">
+        <v>1.2</v>
+      </c>
+      <c r="U43">
+        <v>4.33</v>
+      </c>
+      <c r="V43">
+        <v>1.91</v>
+      </c>
+      <c r="W43">
+        <v>1.8</v>
+      </c>
+      <c r="X43">
+        <v>4</v>
+      </c>
+      <c r="Y43">
+        <v>1.22</v>
+      </c>
+      <c r="Z43">
+        <v>16</v>
+      </c>
+      <c r="AA43">
+        <v>7.5</v>
+      </c>
+      <c r="AB43">
+        <v>1.15</v>
+      </c>
+      <c r="AC43">
+        <v>1.01</v>
+      </c>
+      <c r="AD43">
+        <v>33.5</v>
+      </c>
+      <c r="AE43">
+        <v>1.06</v>
+      </c>
+      <c r="AF43">
+        <v>5.7</v>
+      </c>
+      <c r="AG43">
+        <v>1.36</v>
+      </c>
+      <c r="AH43">
+        <v>2.9</v>
+      </c>
+      <c r="AI43">
+        <v>1.91</v>
+      </c>
+      <c r="AJ43">
+        <v>1.91</v>
+      </c>
+      <c r="AK43">
+        <v>4.7</v>
+      </c>
+      <c r="AL43">
+        <v>1.09</v>
+      </c>
+      <c r="AM43">
+        <v>1.02</v>
+      </c>
+      <c r="AN43">
+        <v>1.25</v>
+      </c>
+      <c r="AO43">
+        <v>3</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+      <c r="AQ43">
+        <v>3</v>
+      </c>
+      <c r="AR43">
+        <v>1.4</v>
+      </c>
+      <c r="AS43">
+        <v>2.05</v>
+      </c>
+      <c r="AT43">
+        <v>3.45</v>
+      </c>
+      <c r="AU43">
+        <v>7</v>
+      </c>
+      <c r="AV43">
+        <v>7</v>
+      </c>
+      <c r="AW43">
+        <v>3</v>
+      </c>
+      <c r="AX43">
+        <v>18</v>
+      </c>
+      <c r="AY43">
+        <v>10</v>
+      </c>
+      <c r="AZ43">
+        <v>30</v>
+      </c>
+      <c r="BA43">
+        <v>1</v>
+      </c>
+      <c r="BB43">
+        <v>9</v>
+      </c>
+      <c r="BC43">
+        <v>10</v>
+      </c>
+      <c r="BD43">
+        <v>3.9</v>
+      </c>
+      <c r="BE43">
+        <v>8</v>
+      </c>
+      <c r="BF43">
+        <v>1.23</v>
+      </c>
+      <c r="BG43">
+        <v>1.15</v>
+      </c>
+      <c r="BH43">
+        <v>4.4</v>
+      </c>
+      <c r="BI43">
+        <v>1.26</v>
+      </c>
+      <c r="BJ43">
+        <v>3.4</v>
+      </c>
+      <c r="BK43">
+        <v>1.44</v>
+      </c>
+      <c r="BL43">
+        <v>2.55</v>
+      </c>
+      <c r="BM43">
+        <v>1.71</v>
+      </c>
+      <c r="BN43">
+        <v>2</v>
+      </c>
+      <c r="BO43">
+        <v>2.07</v>
+      </c>
+      <c r="BP43">
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="147">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,12 @@
     <t>['43']</t>
   </si>
   <si>
+    <t>['2', '65', '88']</t>
+  </si>
+  <si>
+    <t>['34', '58']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -446,6 +452,9 @@
   </si>
   <si>
     <t>['76', '88']</t>
+  </si>
+  <si>
+    <t>['36', '63']</t>
   </si>
 </sst>
 </file>
@@ -807,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1478,7 +1487,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2096,7 +2105,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2302,7 +2311,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2508,7 +2517,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2714,7 +2723,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2920,7 +2929,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3126,7 +3135,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3332,7 +3341,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3413,7 +3422,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3619,7 +3628,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR14">
         <v>2.04</v>
@@ -3744,7 +3753,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4156,7 +4165,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4362,7 +4371,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4774,7 +4783,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4980,7 +4989,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5186,7 +5195,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5598,7 +5607,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5804,7 +5813,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6503,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR28">
         <v>0.85</v>
@@ -6834,7 +6843,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7040,7 +7049,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7246,7 +7255,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7327,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR32">
         <v>1.31</v>
@@ -7452,7 +7461,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7658,7 +7667,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7864,7 +7873,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8070,7 +8079,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8276,7 +8285,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8482,7 +8491,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8861,7 +8870,7 @@
         <v>69</v>
       </c>
       <c r="E40" s="2">
-        <v>45570.45833333334</v>
+        <v>45569.875</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -8894,7 +8903,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8987,31 +8996,31 @@
         <v>2.3</v>
       </c>
       <c r="AU40">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV40">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW40">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AX40">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY40">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="AZ40">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BA40">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BB40">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BC40">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BD40">
         <v>1.74</v>
@@ -9067,7 +9076,7 @@
         <v>69</v>
       </c>
       <c r="E41" s="2">
-        <v>45570.45833333334</v>
+        <v>45569.875</v>
       </c>
       <c r="F41">
         <v>7</v>
@@ -9100,7 +9109,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9193,31 +9202,31 @@
         <v>2.38</v>
       </c>
       <c r="AU41">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AV41">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AW41">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AX41">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY41">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="AZ41">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BA41">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BB41">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BC41">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BD41">
         <v>1.58</v>
@@ -9273,7 +9282,7 @@
         <v>69</v>
       </c>
       <c r="E42" s="2">
-        <v>45570.45833333334</v>
+        <v>45569.875</v>
       </c>
       <c r="F42">
         <v>7</v>
@@ -9306,7 +9315,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9399,31 +9408,31 @@
         <v>2.63</v>
       </c>
       <c r="AU42">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV42">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AW42">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX42">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AY42">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ42">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="BA42">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BB42">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BC42">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BD42">
         <v>1.84</v>
@@ -9479,7 +9488,7 @@
         <v>69</v>
       </c>
       <c r="E43" s="2">
-        <v>45571.33333333334</v>
+        <v>45570.875</v>
       </c>
       <c r="F43">
         <v>7</v>
@@ -9512,7 +9521,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9605,31 +9614,31 @@
         <v>3.45</v>
       </c>
       <c r="AU43">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV43">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AW43">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX43">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="AY43">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AZ43">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="BA43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BB43">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BC43">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BD43">
         <v>3.9</v>
@@ -9669,6 +9678,418 @@
       </c>
       <c r="BP43">
         <v>1.66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7480174</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45571.45833333334</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>5</v>
+      </c>
+      <c r="O44" t="s">
+        <v>115</v>
+      </c>
+      <c r="P44" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q44">
+        <v>2.25</v>
+      </c>
+      <c r="R44">
+        <v>2.25</v>
+      </c>
+      <c r="S44">
+        <v>5.5</v>
+      </c>
+      <c r="T44">
+        <v>1.36</v>
+      </c>
+      <c r="U44">
+        <v>3</v>
+      </c>
+      <c r="V44">
+        <v>2.75</v>
+      </c>
+      <c r="W44">
+        <v>1.4</v>
+      </c>
+      <c r="X44">
+        <v>7</v>
+      </c>
+      <c r="Y44">
+        <v>1.1</v>
+      </c>
+      <c r="Z44">
+        <v>1.64</v>
+      </c>
+      <c r="AA44">
+        <v>4</v>
+      </c>
+      <c r="AB44">
+        <v>4.2</v>
+      </c>
+      <c r="AC44">
+        <v>1.02</v>
+      </c>
+      <c r="AD44">
+        <v>10</v>
+      </c>
+      <c r="AE44">
+        <v>1.22</v>
+      </c>
+      <c r="AF44">
+        <v>3.8</v>
+      </c>
+      <c r="AG44">
+        <v>1.77</v>
+      </c>
+      <c r="AH44">
+        <v>1.98</v>
+      </c>
+      <c r="AI44">
+        <v>1.91</v>
+      </c>
+      <c r="AJ44">
+        <v>1.91</v>
+      </c>
+      <c r="AK44">
+        <v>1.28</v>
+      </c>
+      <c r="AL44">
+        <v>1.25</v>
+      </c>
+      <c r="AM44">
+        <v>1.83</v>
+      </c>
+      <c r="AN44">
+        <v>3</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>3</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>1.19</v>
+      </c>
+      <c r="AS44">
+        <v>1.08</v>
+      </c>
+      <c r="AT44">
+        <v>2.27</v>
+      </c>
+      <c r="AU44">
+        <v>4</v>
+      </c>
+      <c r="AV44">
+        <v>4</v>
+      </c>
+      <c r="AW44">
+        <v>3</v>
+      </c>
+      <c r="AX44">
+        <v>6</v>
+      </c>
+      <c r="AY44">
+        <v>12</v>
+      </c>
+      <c r="AZ44">
+        <v>12</v>
+      </c>
+      <c r="BA44">
+        <v>2</v>
+      </c>
+      <c r="BB44">
+        <v>5</v>
+      </c>
+      <c r="BC44">
+        <v>7</v>
+      </c>
+      <c r="BD44">
+        <v>1.45</v>
+      </c>
+      <c r="BE44">
+        <v>7</v>
+      </c>
+      <c r="BF44">
+        <v>2.8</v>
+      </c>
+      <c r="BG44">
+        <v>1.15</v>
+      </c>
+      <c r="BH44">
+        <v>4.6</v>
+      </c>
+      <c r="BI44">
+        <v>1.27</v>
+      </c>
+      <c r="BJ44">
+        <v>3.3</v>
+      </c>
+      <c r="BK44">
+        <v>1.46</v>
+      </c>
+      <c r="BL44">
+        <v>2.5</v>
+      </c>
+      <c r="BM44">
+        <v>1.72</v>
+      </c>
+      <c r="BN44">
+        <v>1.98</v>
+      </c>
+      <c r="BO44">
+        <v>2.08</v>
+      </c>
+      <c r="BP44">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7480177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45571.66666666666</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P45" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q45">
+        <v>1.44</v>
+      </c>
+      <c r="R45">
+        <v>3.2</v>
+      </c>
+      <c r="S45">
+        <v>11</v>
+      </c>
+      <c r="T45">
+        <v>1.18</v>
+      </c>
+      <c r="U45">
+        <v>4.5</v>
+      </c>
+      <c r="V45">
+        <v>1.91</v>
+      </c>
+      <c r="W45">
+        <v>1.8</v>
+      </c>
+      <c r="X45">
+        <v>4</v>
+      </c>
+      <c r="Y45">
+        <v>1.22</v>
+      </c>
+      <c r="Z45">
+        <v>1.09</v>
+      </c>
+      <c r="AA45">
+        <v>8</v>
+      </c>
+      <c r="AB45">
+        <v>18</v>
+      </c>
+      <c r="AC45">
+        <v>1.01</v>
+      </c>
+      <c r="AD45">
+        <v>33.5</v>
+      </c>
+      <c r="AE45">
+        <v>1.05</v>
+      </c>
+      <c r="AF45">
+        <v>5.95</v>
+      </c>
+      <c r="AG45">
+        <v>1.33</v>
+      </c>
+      <c r="AH45">
+        <v>3.15</v>
+      </c>
+      <c r="AI45">
+        <v>2.05</v>
+      </c>
+      <c r="AJ45">
+        <v>1.7</v>
+      </c>
+      <c r="AK45">
+        <v>1.01</v>
+      </c>
+      <c r="AL45">
+        <v>1.07</v>
+      </c>
+      <c r="AM45">
+        <v>5.7</v>
+      </c>
+      <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <v>3</v>
+      </c>
+      <c r="AQ45">
+        <v>0.8</v>
+      </c>
+      <c r="AR45">
+        <v>1.85</v>
+      </c>
+      <c r="AS45">
+        <v>1.02</v>
+      </c>
+      <c r="AT45">
+        <v>2.87</v>
+      </c>
+      <c r="AU45">
+        <v>7</v>
+      </c>
+      <c r="AV45">
+        <v>4</v>
+      </c>
+      <c r="AW45">
+        <v>8</v>
+      </c>
+      <c r="AX45">
+        <v>5</v>
+      </c>
+      <c r="AY45">
+        <v>22</v>
+      </c>
+      <c r="AZ45">
+        <v>12</v>
+      </c>
+      <c r="BA45">
+        <v>7</v>
+      </c>
+      <c r="BB45">
+        <v>3</v>
+      </c>
+      <c r="BC45">
+        <v>10</v>
+      </c>
+      <c r="BD45">
+        <v>1.11</v>
+      </c>
+      <c r="BE45">
+        <v>10.5</v>
+      </c>
+      <c r="BF45">
+        <v>5.8</v>
+      </c>
+      <c r="BG45">
+        <v>1.16</v>
+      </c>
+      <c r="BH45">
+        <v>4.5</v>
+      </c>
+      <c r="BI45">
+        <v>1.28</v>
+      </c>
+      <c r="BJ45">
+        <v>3.3</v>
+      </c>
+      <c r="BK45">
+        <v>1.47</v>
+      </c>
+      <c r="BL45">
+        <v>2.48</v>
+      </c>
+      <c r="BM45">
+        <v>1.73</v>
+      </c>
+      <c r="BN45">
+        <v>1.98</v>
+      </c>
+      <c r="BO45">
+        <v>2.1</v>
+      </c>
+      <c r="BP45">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -358,13 +358,13 @@
     <t>['24', '81']</t>
   </si>
   <si>
+    <t>['34', '58']</t>
+  </si>
+  <si>
     <t>['43']</t>
   </si>
   <si>
     <t>['2', '65', '88']</t>
-  </si>
-  <si>
-    <t>['34', '58']</t>
   </si>
   <si>
     <t>['18', '79']</t>
@@ -8870,10 +8870,10 @@
         <v>69</v>
       </c>
       <c r="E40" s="2">
-        <v>45569.875</v>
+        <v>45570.45833333334</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G40" t="s">
         <v>73</v>
@@ -8996,31 +8996,31 @@
         <v>2.3</v>
       </c>
       <c r="AU40">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV40">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW40">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX40">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY40">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ40">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA40">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB40">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD40">
         <v>1.74</v>
@@ -9076,7 +9076,7 @@
         <v>69</v>
       </c>
       <c r="E41" s="2">
-        <v>45569.875</v>
+        <v>45570.45833333334</v>
       </c>
       <c r="F41">
         <v>7</v>
@@ -9202,31 +9202,31 @@
         <v>2.38</v>
       </c>
       <c r="AU41">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW41">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX41">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY41">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ41">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC41">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD41">
         <v>1.58</v>
@@ -9282,7 +9282,7 @@
         <v>69</v>
       </c>
       <c r="E42" s="2">
-        <v>45569.875</v>
+        <v>45570.45833333334</v>
       </c>
       <c r="F42">
         <v>7</v>
@@ -9408,31 +9408,31 @@
         <v>2.63</v>
       </c>
       <c r="AU42">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX42">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY42">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ42">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="BA42">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB42">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BC42">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD42">
         <v>1.84</v>
@@ -9479,7 +9479,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7480178</v>
+        <v>7480177</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9494,10 +9494,10 @@
         <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -9509,34 +9509,34 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O43" t="s">
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="Q43">
-        <v>9.5</v>
+        <v>1.44</v>
       </c>
       <c r="R43">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S43">
-        <v>1.57</v>
+        <v>11</v>
       </c>
       <c r="T43">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U43">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V43">
         <v>1.91</v>
@@ -9551,13 +9551,13 @@
         <v>1.22</v>
       </c>
       <c r="Z43">
-        <v>16</v>
+        <v>1.09</v>
       </c>
       <c r="AA43">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB43">
-        <v>1.15</v>
+        <v>18</v>
       </c>
       <c r="AC43">
         <v>1.01</v>
@@ -9566,52 +9566,52 @@
         <v>33.5</v>
       </c>
       <c r="AE43">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AF43">
+        <v>5.95</v>
+      </c>
+      <c r="AG43">
+        <v>1.33</v>
+      </c>
+      <c r="AH43">
+        <v>3.15</v>
+      </c>
+      <c r="AI43">
+        <v>2.05</v>
+      </c>
+      <c r="AJ43">
+        <v>1.7</v>
+      </c>
+      <c r="AK43">
+        <v>1.01</v>
+      </c>
+      <c r="AL43">
+        <v>1.07</v>
+      </c>
+      <c r="AM43">
         <v>5.7</v>
       </c>
-      <c r="AG43">
-        <v>1.36</v>
-      </c>
-      <c r="AH43">
-        <v>2.9</v>
-      </c>
-      <c r="AI43">
-        <v>1.91</v>
-      </c>
-      <c r="AJ43">
-        <v>1.91</v>
-      </c>
-      <c r="AK43">
-        <v>4.7</v>
-      </c>
-      <c r="AL43">
-        <v>1.09</v>
-      </c>
-      <c r="AM43">
+      <c r="AN43">
+        <v>3</v>
+      </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
+      <c r="AP43">
+        <v>3</v>
+      </c>
+      <c r="AQ43">
+        <v>0.8</v>
+      </c>
+      <c r="AR43">
+        <v>1.85</v>
+      </c>
+      <c r="AS43">
         <v>1.02</v>
       </c>
-      <c r="AN43">
-        <v>1.25</v>
-      </c>
-      <c r="AO43">
-        <v>3</v>
-      </c>
-      <c r="AP43">
-        <v>1</v>
-      </c>
-      <c r="AQ43">
-        <v>3</v>
-      </c>
-      <c r="AR43">
-        <v>1.4</v>
-      </c>
-      <c r="AS43">
-        <v>2.05</v>
-      </c>
       <c r="AT43">
-        <v>3.45</v>
+        <v>2.87</v>
       </c>
       <c r="AU43">
         <v>-1</v>
@@ -9641,43 +9641,43 @@
         <v>-1</v>
       </c>
       <c r="BD43">
-        <v>3.9</v>
+        <v>1.11</v>
       </c>
       <c r="BE43">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="BF43">
-        <v>1.23</v>
+        <v>5.8</v>
       </c>
       <c r="BG43">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="BH43">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BI43">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BJ43">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BK43">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="BL43">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="BM43">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="BN43">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BO43">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="BP43">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -9685,7 +9685,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7480174</v>
+        <v>7480178</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -9694,94 +9694,94 @@
         <v>69</v>
       </c>
       <c r="E44" s="2">
-        <v>45571.45833333334</v>
+        <v>45571.33333333334</v>
       </c>
       <c r="F44">
         <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>2</v>
       </c>
       <c r="N44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O44" t="s">
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q44">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="R44">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="S44">
-        <v>5.5</v>
+        <v>1.57</v>
       </c>
       <c r="T44">
+        <v>1.2</v>
+      </c>
+      <c r="U44">
+        <v>4.33</v>
+      </c>
+      <c r="V44">
+        <v>1.91</v>
+      </c>
+      <c r="W44">
+        <v>1.8</v>
+      </c>
+      <c r="X44">
+        <v>4</v>
+      </c>
+      <c r="Y44">
+        <v>1.22</v>
+      </c>
+      <c r="Z44">
+        <v>16</v>
+      </c>
+      <c r="AA44">
+        <v>7.5</v>
+      </c>
+      <c r="AB44">
+        <v>1.15</v>
+      </c>
+      <c r="AC44">
+        <v>1.01</v>
+      </c>
+      <c r="AD44">
+        <v>33.5</v>
+      </c>
+      <c r="AE44">
+        <v>1.06</v>
+      </c>
+      <c r="AF44">
+        <v>5.7</v>
+      </c>
+      <c r="AG44">
         <v>1.36</v>
       </c>
-      <c r="U44">
-        <v>3</v>
-      </c>
-      <c r="V44">
-        <v>2.75</v>
-      </c>
-      <c r="W44">
-        <v>1.4</v>
-      </c>
-      <c r="X44">
-        <v>7</v>
-      </c>
-      <c r="Y44">
-        <v>1.1</v>
-      </c>
-      <c r="Z44">
-        <v>1.64</v>
-      </c>
-      <c r="AA44">
-        <v>4</v>
-      </c>
-      <c r="AB44">
-        <v>4.2</v>
-      </c>
-      <c r="AC44">
-        <v>1.02</v>
-      </c>
-      <c r="AD44">
-        <v>10</v>
-      </c>
-      <c r="AE44">
-        <v>1.22</v>
-      </c>
-      <c r="AF44">
-        <v>3.8</v>
-      </c>
-      <c r="AG44">
-        <v>1.77</v>
-      </c>
       <c r="AH44">
-        <v>1.98</v>
+        <v>2.9</v>
       </c>
       <c r="AI44">
         <v>1.91</v>
@@ -9790,100 +9790,100 @@
         <v>1.91</v>
       </c>
       <c r="AK44">
-        <v>1.28</v>
+        <v>4.7</v>
       </c>
       <c r="AL44">
+        <v>1.09</v>
+      </c>
+      <c r="AM44">
+        <v>1.02</v>
+      </c>
+      <c r="AN44">
         <v>1.25</v>
       </c>
-      <c r="AM44">
-        <v>1.83</v>
-      </c>
-      <c r="AN44">
-        <v>3</v>
-      </c>
       <c r="AO44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR44">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="AS44">
-        <v>1.08</v>
+        <v>2.05</v>
       </c>
       <c r="AT44">
-        <v>2.27</v>
+        <v>3.45</v>
       </c>
       <c r="AU44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX44">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AY44">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ44">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="BA44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB44">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC44">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD44">
-        <v>1.45</v>
+        <v>3.9</v>
       </c>
       <c r="BE44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF44">
-        <v>2.8</v>
+        <v>1.23</v>
       </c>
       <c r="BG44">
         <v>1.15</v>
       </c>
       <c r="BH44">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="BI44">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="BJ44">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BK44">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="BL44">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="BM44">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="BN44">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BO44">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="BP44">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -9891,7 +9891,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7480177</v>
+        <v>7480174</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -9900,196 +9900,196 @@
         <v>69</v>
       </c>
       <c r="E45" s="2">
-        <v>45571.66666666666</v>
+        <v>45571.45833333334</v>
       </c>
       <c r="F45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O45" t="s">
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="Q45">
-        <v>1.44</v>
+        <v>2.25</v>
       </c>
       <c r="R45">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="S45">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="T45">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="U45">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="V45">
+        <v>2.75</v>
+      </c>
+      <c r="W45">
+        <v>1.4</v>
+      </c>
+      <c r="X45">
+        <v>7</v>
+      </c>
+      <c r="Y45">
+        <v>1.1</v>
+      </c>
+      <c r="Z45">
+        <v>1.64</v>
+      </c>
+      <c r="AA45">
+        <v>4</v>
+      </c>
+      <c r="AB45">
+        <v>4.2</v>
+      </c>
+      <c r="AC45">
+        <v>1.02</v>
+      </c>
+      <c r="AD45">
+        <v>10</v>
+      </c>
+      <c r="AE45">
+        <v>1.22</v>
+      </c>
+      <c r="AF45">
+        <v>3.8</v>
+      </c>
+      <c r="AG45">
+        <v>1.77</v>
+      </c>
+      <c r="AH45">
+        <v>1.98</v>
+      </c>
+      <c r="AI45">
         <v>1.91</v>
       </c>
-      <c r="W45">
-        <v>1.8</v>
-      </c>
-      <c r="X45">
+      <c r="AJ45">
+        <v>1.91</v>
+      </c>
+      <c r="AK45">
+        <v>1.28</v>
+      </c>
+      <c r="AL45">
+        <v>1.25</v>
+      </c>
+      <c r="AM45">
+        <v>1.83</v>
+      </c>
+      <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>3</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>1.19</v>
+      </c>
+      <c r="AS45">
+        <v>1.08</v>
+      </c>
+      <c r="AT45">
+        <v>2.27</v>
+      </c>
+      <c r="AU45">
         <v>4</v>
-      </c>
-      <c r="Y45">
-        <v>1.22</v>
-      </c>
-      <c r="Z45">
-        <v>1.09</v>
-      </c>
-      <c r="AA45">
-        <v>8</v>
-      </c>
-      <c r="AB45">
-        <v>18</v>
-      </c>
-      <c r="AC45">
-        <v>1.01</v>
-      </c>
-      <c r="AD45">
-        <v>33.5</v>
-      </c>
-      <c r="AE45">
-        <v>1.05</v>
-      </c>
-      <c r="AF45">
-        <v>5.95</v>
-      </c>
-      <c r="AG45">
-        <v>1.33</v>
-      </c>
-      <c r="AH45">
-        <v>3.15</v>
-      </c>
-      <c r="AI45">
-        <v>2.05</v>
-      </c>
-      <c r="AJ45">
-        <v>1.7</v>
-      </c>
-      <c r="AK45">
-        <v>1.01</v>
-      </c>
-      <c r="AL45">
-        <v>1.07</v>
-      </c>
-      <c r="AM45">
-        <v>5.7</v>
-      </c>
-      <c r="AN45">
-        <v>3</v>
-      </c>
-      <c r="AO45">
-        <v>1</v>
-      </c>
-      <c r="AP45">
-        <v>3</v>
-      </c>
-      <c r="AQ45">
-        <v>0.8</v>
-      </c>
-      <c r="AR45">
-        <v>1.85</v>
-      </c>
-      <c r="AS45">
-        <v>1.02</v>
-      </c>
-      <c r="AT45">
-        <v>2.87</v>
-      </c>
-      <c r="AU45">
-        <v>7</v>
       </c>
       <c r="AV45">
         <v>4</v>
       </c>
       <c r="AW45">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY45">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AZ45">
         <v>12</v>
       </c>
       <c r="BA45">
+        <v>2</v>
+      </c>
+      <c r="BB45">
+        <v>5</v>
+      </c>
+      <c r="BC45">
         <v>7</v>
       </c>
-      <c r="BB45">
-        <v>3</v>
-      </c>
-      <c r="BC45">
-        <v>10</v>
-      </c>
       <c r="BD45">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="BE45">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="BF45">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="BG45">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="BH45">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="BI45">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="BJ45">
         <v>3.3</v>
       </c>
       <c r="BK45">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="BL45">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="BM45">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="BN45">
         <v>1.98</v>
       </c>
       <c r="BO45">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="BP45">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -358,13 +358,13 @@
     <t>['24', '81']</t>
   </si>
   <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['2', '65', '88']</t>
+  </si>
+  <si>
     <t>['34', '58']</t>
-  </si>
-  <si>
-    <t>['43']</t>
-  </si>
-  <si>
-    <t>['2', '65', '88']</t>
   </si>
   <si>
     <t>['18', '79']</t>
@@ -9479,7 +9479,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7480177</v>
+        <v>7480178</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9488,16 +9488,16 @@
         <v>69</v>
       </c>
       <c r="E43" s="2">
-        <v>45570.875</v>
+        <v>45571.33333333334</v>
       </c>
       <c r="F43">
         <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -9509,34 +9509,34 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O43" t="s">
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="Q43">
-        <v>1.44</v>
+        <v>9.5</v>
       </c>
       <c r="R43">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="S43">
-        <v>11</v>
+        <v>1.57</v>
       </c>
       <c r="T43">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U43">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V43">
         <v>1.91</v>
@@ -9551,13 +9551,13 @@
         <v>1.22</v>
       </c>
       <c r="Z43">
-        <v>1.09</v>
+        <v>16</v>
       </c>
       <c r="AA43">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB43">
-        <v>18</v>
+        <v>1.15</v>
       </c>
       <c r="AC43">
         <v>1.01</v>
@@ -9566,118 +9566,118 @@
         <v>33.5</v>
       </c>
       <c r="AE43">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AF43">
-        <v>5.95</v>
+        <v>5.7</v>
       </c>
       <c r="AG43">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AH43">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="AI43">
+        <v>1.91</v>
+      </c>
+      <c r="AJ43">
+        <v>1.91</v>
+      </c>
+      <c r="AK43">
+        <v>4.7</v>
+      </c>
+      <c r="AL43">
+        <v>1.09</v>
+      </c>
+      <c r="AM43">
+        <v>1.02</v>
+      </c>
+      <c r="AN43">
+        <v>1.25</v>
+      </c>
+      <c r="AO43">
+        <v>3</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+      <c r="AQ43">
+        <v>3</v>
+      </c>
+      <c r="AR43">
+        <v>1.4</v>
+      </c>
+      <c r="AS43">
         <v>2.05</v>
       </c>
-      <c r="AJ43">
-        <v>1.7</v>
-      </c>
-      <c r="AK43">
-        <v>1.01</v>
-      </c>
-      <c r="AL43">
-        <v>1.07</v>
-      </c>
-      <c r="AM43">
-        <v>5.7</v>
-      </c>
-      <c r="AN43">
-        <v>3</v>
-      </c>
-      <c r="AO43">
-        <v>1</v>
-      </c>
-      <c r="AP43">
-        <v>3</v>
-      </c>
-      <c r="AQ43">
-        <v>0.8</v>
-      </c>
-      <c r="AR43">
-        <v>1.85</v>
-      </c>
-      <c r="AS43">
-        <v>1.02</v>
-      </c>
       <c r="AT43">
-        <v>2.87</v>
+        <v>3.45</v>
       </c>
       <c r="AU43">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV43">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW43">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX43">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AY43">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ43">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="BA43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB43">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BC43">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD43">
-        <v>1.11</v>
+        <v>3.9</v>
       </c>
       <c r="BE43">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="BF43">
-        <v>5.8</v>
+        <v>1.23</v>
       </c>
       <c r="BG43">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="BH43">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="BI43">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BJ43">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BK43">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="BL43">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BM43">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="BN43">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BO43">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="BP43">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -9685,7 +9685,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7480178</v>
+        <v>7480174</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -9694,94 +9694,94 @@
         <v>69</v>
       </c>
       <c r="E44" s="2">
-        <v>45571.33333333334</v>
+        <v>45571.45833333334</v>
       </c>
       <c r="F44">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M44">
         <v>2</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O44" t="s">
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q44">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="R44">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="S44">
-        <v>1.57</v>
+        <v>5.5</v>
       </c>
       <c r="T44">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="U44">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="V44">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="W44">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="X44">
+        <v>7</v>
+      </c>
+      <c r="Y44">
+        <v>1.1</v>
+      </c>
+      <c r="Z44">
+        <v>1.64</v>
+      </c>
+      <c r="AA44">
         <v>4</v>
       </c>
-      <c r="Y44">
+      <c r="AB44">
+        <v>4.2</v>
+      </c>
+      <c r="AC44">
+        <v>1.02</v>
+      </c>
+      <c r="AD44">
+        <v>10</v>
+      </c>
+      <c r="AE44">
         <v>1.22</v>
       </c>
-      <c r="Z44">
-        <v>16</v>
-      </c>
-      <c r="AA44">
-        <v>7.5</v>
-      </c>
-      <c r="AB44">
-        <v>1.15</v>
-      </c>
-      <c r="AC44">
-        <v>1.01</v>
-      </c>
-      <c r="AD44">
-        <v>33.5</v>
-      </c>
-      <c r="AE44">
-        <v>1.06</v>
-      </c>
       <c r="AF44">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="AG44">
-        <v>1.36</v>
+        <v>1.77</v>
       </c>
       <c r="AH44">
-        <v>2.9</v>
+        <v>1.98</v>
       </c>
       <c r="AI44">
         <v>1.91</v>
@@ -9790,100 +9790,100 @@
         <v>1.91</v>
       </c>
       <c r="AK44">
-        <v>4.7</v>
+        <v>1.28</v>
       </c>
       <c r="AL44">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AM44">
-        <v>1.02</v>
+        <v>1.83</v>
       </c>
       <c r="AN44">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="AO44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR44">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="AS44">
-        <v>2.05</v>
+        <v>1.08</v>
       </c>
       <c r="AT44">
-        <v>3.45</v>
+        <v>2.27</v>
       </c>
       <c r="AU44">
+        <v>4</v>
+      </c>
+      <c r="AV44">
+        <v>4</v>
+      </c>
+      <c r="AW44">
+        <v>3</v>
+      </c>
+      <c r="AX44">
         <v>6</v>
       </c>
-      <c r="AV44">
+      <c r="AY44">
+        <v>12</v>
+      </c>
+      <c r="AZ44">
+        <v>12</v>
+      </c>
+      <c r="BA44">
+        <v>2</v>
+      </c>
+      <c r="BB44">
+        <v>5</v>
+      </c>
+      <c r="BC44">
         <v>7</v>
       </c>
-      <c r="AW44">
-        <v>2</v>
-      </c>
-      <c r="AX44">
-        <v>11</v>
-      </c>
-      <c r="AY44">
-        <v>9</v>
-      </c>
-      <c r="AZ44">
-        <v>24</v>
-      </c>
-      <c r="BA44">
-        <v>1</v>
-      </c>
-      <c r="BB44">
-        <v>9</v>
-      </c>
-      <c r="BC44">
-        <v>10</v>
-      </c>
       <c r="BD44">
-        <v>3.9</v>
+        <v>1.45</v>
       </c>
       <c r="BE44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF44">
-        <v>1.23</v>
+        <v>2.8</v>
       </c>
       <c r="BG44">
         <v>1.15</v>
       </c>
       <c r="BH44">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="BI44">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="BJ44">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BK44">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="BL44">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="BM44">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="BN44">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BO44">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="BP44">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -9891,7 +9891,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7480174</v>
+        <v>7480177</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -9900,196 +9900,196 @@
         <v>69</v>
       </c>
       <c r="E45" s="2">
-        <v>45571.45833333334</v>
+        <v>45571.66666666666</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O45" t="s">
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="Q45">
-        <v>2.25</v>
+        <v>1.44</v>
       </c>
       <c r="R45">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="S45">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="T45">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="U45">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="V45">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="W45">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="X45">
+        <v>4</v>
+      </c>
+      <c r="Y45">
+        <v>1.22</v>
+      </c>
+      <c r="Z45">
+        <v>1.09</v>
+      </c>
+      <c r="AA45">
+        <v>8</v>
+      </c>
+      <c r="AB45">
+        <v>18</v>
+      </c>
+      <c r="AC45">
+        <v>1.01</v>
+      </c>
+      <c r="AD45">
+        <v>33.5</v>
+      </c>
+      <c r="AE45">
+        <v>1.05</v>
+      </c>
+      <c r="AF45">
+        <v>5.95</v>
+      </c>
+      <c r="AG45">
+        <v>1.33</v>
+      </c>
+      <c r="AH45">
+        <v>3.15</v>
+      </c>
+      <c r="AI45">
+        <v>2.05</v>
+      </c>
+      <c r="AJ45">
+        <v>1.7</v>
+      </c>
+      <c r="AK45">
+        <v>1.01</v>
+      </c>
+      <c r="AL45">
+        <v>1.07</v>
+      </c>
+      <c r="AM45">
+        <v>5.7</v>
+      </c>
+      <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <v>3</v>
+      </c>
+      <c r="AQ45">
+        <v>0.8</v>
+      </c>
+      <c r="AR45">
+        <v>1.85</v>
+      </c>
+      <c r="AS45">
+        <v>1.02</v>
+      </c>
+      <c r="AT45">
+        <v>2.87</v>
+      </c>
+      <c r="AU45">
+        <v>-1</v>
+      </c>
+      <c r="AV45">
+        <v>-1</v>
+      </c>
+      <c r="AW45">
+        <v>-1</v>
+      </c>
+      <c r="AX45">
+        <v>-1</v>
+      </c>
+      <c r="AY45">
+        <v>-1</v>
+      </c>
+      <c r="AZ45">
+        <v>-1</v>
+      </c>
+      <c r="BA45">
         <v>7</v>
       </c>
-      <c r="Y45">
-        <v>1.1</v>
-      </c>
-      <c r="Z45">
-        <v>1.64</v>
-      </c>
-      <c r="AA45">
-        <v>4</v>
-      </c>
-      <c r="AB45">
-        <v>4.2</v>
-      </c>
-      <c r="AC45">
-        <v>1.02</v>
-      </c>
-      <c r="AD45">
+      <c r="BB45">
+        <v>3</v>
+      </c>
+      <c r="BC45">
         <v>10</v>
       </c>
-      <c r="AE45">
-        <v>1.22</v>
-      </c>
-      <c r="AF45">
-        <v>3.8</v>
-      </c>
-      <c r="AG45">
-        <v>1.77</v>
-      </c>
-      <c r="AH45">
-        <v>1.98</v>
-      </c>
-      <c r="AI45">
-        <v>1.91</v>
-      </c>
-      <c r="AJ45">
-        <v>1.91</v>
-      </c>
-      <c r="AK45">
+      <c r="BD45">
+        <v>1.11</v>
+      </c>
+      <c r="BE45">
+        <v>10.5</v>
+      </c>
+      <c r="BF45">
+        <v>5.8</v>
+      </c>
+      <c r="BG45">
+        <v>1.16</v>
+      </c>
+      <c r="BH45">
+        <v>4.5</v>
+      </c>
+      <c r="BI45">
         <v>1.28</v>
-      </c>
-      <c r="AL45">
-        <v>1.25</v>
-      </c>
-      <c r="AM45">
-        <v>1.83</v>
-      </c>
-      <c r="AN45">
-        <v>3</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>3</v>
-      </c>
-      <c r="AQ45">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>1.19</v>
-      </c>
-      <c r="AS45">
-        <v>1.08</v>
-      </c>
-      <c r="AT45">
-        <v>2.27</v>
-      </c>
-      <c r="AU45">
-        <v>4</v>
-      </c>
-      <c r="AV45">
-        <v>4</v>
-      </c>
-      <c r="AW45">
-        <v>3</v>
-      </c>
-      <c r="AX45">
-        <v>6</v>
-      </c>
-      <c r="AY45">
-        <v>12</v>
-      </c>
-      <c r="AZ45">
-        <v>12</v>
-      </c>
-      <c r="BA45">
-        <v>2</v>
-      </c>
-      <c r="BB45">
-        <v>5</v>
-      </c>
-      <c r="BC45">
-        <v>7</v>
-      </c>
-      <c r="BD45">
-        <v>1.45</v>
-      </c>
-      <c r="BE45">
-        <v>7</v>
-      </c>
-      <c r="BF45">
-        <v>2.8</v>
-      </c>
-      <c r="BG45">
-        <v>1.15</v>
-      </c>
-      <c r="BH45">
-        <v>4.6</v>
-      </c>
-      <c r="BI45">
-        <v>1.27</v>
       </c>
       <c r="BJ45">
         <v>3.3</v>
       </c>
       <c r="BK45">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="BL45">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="BM45">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="BN45">
         <v>1.98</v>
       </c>
       <c r="BO45">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="BP45">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -10026,22 +10026,22 @@
         <v>2.87</v>
       </c>
       <c r="AU45">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV45">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW45">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AX45">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY45">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AZ45">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA45">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,21 @@
     <t>['34', '58']</t>
   </si>
   <si>
+    <t>['24', '27']</t>
+  </si>
+  <si>
+    <t>['20', '90+3', '90+9']</t>
+  </si>
+  <si>
+    <t>['15', '47', '86', '90+3']</t>
+  </si>
+  <si>
+    <t>['16', '45', '90+4']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -455,6 +470,15 @@
   </si>
   <si>
     <t>['36', '63']</t>
+  </si>
+  <si>
+    <t>['50', '60']</t>
+  </si>
+  <si>
+    <t>['43', '72']</t>
+  </si>
+  <si>
+    <t>['38']</t>
   </si>
 </sst>
 </file>
@@ -816,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1153,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1359,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1487,7 +1511,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1565,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1774,7 +1798,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ5">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1977,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2105,7 +2129,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2183,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2311,7 +2335,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2517,7 +2541,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2723,7 +2747,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2929,7 +2953,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3135,7 +3159,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3216,7 +3240,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3341,7 +3365,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3419,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
         <v>0.8</v>
@@ -3625,7 +3649,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14">
         <v>0.8</v>
@@ -3753,7 +3777,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -3834,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>0.53</v>
@@ -4040,7 +4064,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR16">
         <v>2.02</v>
@@ -4165,7 +4189,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4371,7 +4395,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4449,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4783,7 +4807,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4864,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR20">
         <v>1.56</v>
@@ -4989,7 +5013,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5067,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5195,7 +5219,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5276,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR22">
         <v>1.66</v>
@@ -5479,10 +5503,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>3.1</v>
@@ -5607,7 +5631,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5685,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
         <v>2</v>
@@ -5813,7 +5837,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5891,10 +5915,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ25">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR25">
         <v>1.41</v>
@@ -6303,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6718,7 +6742,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR29">
         <v>1.33</v>
@@ -6843,7 +6867,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7049,7 +7073,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7127,10 +7151,10 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.46</v>
@@ -7255,7 +7279,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7461,7 +7485,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7667,7 +7691,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7745,10 +7769,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR34">
         <v>1.25</v>
@@ -7873,7 +7897,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -7951,7 +7975,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8079,7 +8103,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8157,10 +8181,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR36">
         <v>1.45</v>
@@ -8285,7 +8309,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8366,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8491,7 +8515,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8569,7 +8593,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ38">
         <v>3</v>
@@ -8778,7 +8802,7 @@
         <v>3</v>
       </c>
       <c r="AQ39">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR39">
         <v>2.01</v>
@@ -8903,7 +8927,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9109,7 +9133,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9315,7 +9339,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9521,7 +9545,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9727,7 +9751,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10090,6 +10114,1242 @@
       </c>
       <c r="BP45">
         <v>1.64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7480180</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46" t="s">
+        <v>117</v>
+      </c>
+      <c r="P46" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q46">
+        <v>1.67</v>
+      </c>
+      <c r="R46">
+        <v>2.88</v>
+      </c>
+      <c r="S46">
+        <v>8</v>
+      </c>
+      <c r="T46">
+        <v>1.22</v>
+      </c>
+      <c r="U46">
+        <v>4</v>
+      </c>
+      <c r="V46">
+        <v>2.1</v>
+      </c>
+      <c r="W46">
+        <v>1.67</v>
+      </c>
+      <c r="X46">
+        <v>4.5</v>
+      </c>
+      <c r="Y46">
+        <v>1.18</v>
+      </c>
+      <c r="Z46">
+        <v>1.23</v>
+      </c>
+      <c r="AA46">
+        <v>5.13</v>
+      </c>
+      <c r="AB46">
+        <v>7.34</v>
+      </c>
+      <c r="AC46">
+        <v>1.01</v>
+      </c>
+      <c r="AD46">
+        <v>17</v>
+      </c>
+      <c r="AE46">
+        <v>1.12</v>
+      </c>
+      <c r="AF46">
+        <v>6</v>
+      </c>
+      <c r="AG46">
+        <v>1.4</v>
+      </c>
+      <c r="AH46">
+        <v>2.85</v>
+      </c>
+      <c r="AI46">
+        <v>1.8</v>
+      </c>
+      <c r="AJ46">
+        <v>1.95</v>
+      </c>
+      <c r="AK46">
+        <v>1.01</v>
+      </c>
+      <c r="AL46">
+        <v>1.09</v>
+      </c>
+      <c r="AM46">
+        <v>3.75</v>
+      </c>
+      <c r="AN46">
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <v>3</v>
+      </c>
+      <c r="AP46">
+        <v>2.5</v>
+      </c>
+      <c r="AQ46">
+        <v>2.5</v>
+      </c>
+      <c r="AR46">
+        <v>2.16</v>
+      </c>
+      <c r="AS46">
+        <v>1.23</v>
+      </c>
+      <c r="AT46">
+        <v>3.39</v>
+      </c>
+      <c r="AU46">
+        <v>8</v>
+      </c>
+      <c r="AV46">
+        <v>5</v>
+      </c>
+      <c r="AW46">
+        <v>11</v>
+      </c>
+      <c r="AX46">
+        <v>1</v>
+      </c>
+      <c r="AY46">
+        <v>34</v>
+      </c>
+      <c r="AZ46">
+        <v>9</v>
+      </c>
+      <c r="BA46">
+        <v>18</v>
+      </c>
+      <c r="BB46">
+        <v>2</v>
+      </c>
+      <c r="BC46">
+        <v>20</v>
+      </c>
+      <c r="BD46">
+        <v>1.29</v>
+      </c>
+      <c r="BE46">
+        <v>7</v>
+      </c>
+      <c r="BF46">
+        <v>3.65</v>
+      </c>
+      <c r="BG46">
+        <v>1.28</v>
+      </c>
+      <c r="BH46">
+        <v>3.2</v>
+      </c>
+      <c r="BI46">
+        <v>1.49</v>
+      </c>
+      <c r="BJ46">
+        <v>2.4</v>
+      </c>
+      <c r="BK46">
+        <v>1.82</v>
+      </c>
+      <c r="BL46">
+        <v>1.86</v>
+      </c>
+      <c r="BM46">
+        <v>2.28</v>
+      </c>
+      <c r="BN46">
+        <v>1.54</v>
+      </c>
+      <c r="BO46">
+        <v>2.9</v>
+      </c>
+      <c r="BP46">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7480181</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47" t="s">
+        <v>118</v>
+      </c>
+      <c r="P47" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q47">
+        <v>3</v>
+      </c>
+      <c r="R47">
+        <v>2.2</v>
+      </c>
+      <c r="S47">
+        <v>3.5</v>
+      </c>
+      <c r="T47">
+        <v>1.4</v>
+      </c>
+      <c r="U47">
+        <v>2.75</v>
+      </c>
+      <c r="V47">
+        <v>2.75</v>
+      </c>
+      <c r="W47">
+        <v>1.4</v>
+      </c>
+      <c r="X47">
+        <v>8</v>
+      </c>
+      <c r="Y47">
+        <v>1.08</v>
+      </c>
+      <c r="Z47">
+        <v>2.26</v>
+      </c>
+      <c r="AA47">
+        <v>3.13</v>
+      </c>
+      <c r="AB47">
+        <v>2.78</v>
+      </c>
+      <c r="AC47">
+        <v>1.05</v>
+      </c>
+      <c r="AD47">
+        <v>11</v>
+      </c>
+      <c r="AE47">
+        <v>1.3</v>
+      </c>
+      <c r="AF47">
+        <v>3.4</v>
+      </c>
+      <c r="AG47">
+        <v>1.92</v>
+      </c>
+      <c r="AH47">
+        <v>1.9</v>
+      </c>
+      <c r="AI47">
+        <v>1.7</v>
+      </c>
+      <c r="AJ47">
+        <v>2.05</v>
+      </c>
+      <c r="AK47">
+        <v>1.42</v>
+      </c>
+      <c r="AL47">
+        <v>1.28</v>
+      </c>
+      <c r="AM47">
+        <v>1.57</v>
+      </c>
+      <c r="AN47">
+        <v>1.33</v>
+      </c>
+      <c r="AO47">
+        <v>0.33</v>
+      </c>
+      <c r="AP47">
+        <v>1.75</v>
+      </c>
+      <c r="AQ47">
+        <v>0.25</v>
+      </c>
+      <c r="AR47">
+        <v>1.19</v>
+      </c>
+      <c r="AS47">
+        <v>1.37</v>
+      </c>
+      <c r="AT47">
+        <v>2.56</v>
+      </c>
+      <c r="AU47">
+        <v>5</v>
+      </c>
+      <c r="AV47">
+        <v>6</v>
+      </c>
+      <c r="AW47">
+        <v>2</v>
+      </c>
+      <c r="AX47">
+        <v>4</v>
+      </c>
+      <c r="AY47">
+        <v>9</v>
+      </c>
+      <c r="AZ47">
+        <v>11</v>
+      </c>
+      <c r="BA47">
+        <v>5</v>
+      </c>
+      <c r="BB47">
+        <v>5</v>
+      </c>
+      <c r="BC47">
+        <v>10</v>
+      </c>
+      <c r="BD47">
+        <v>1.82</v>
+      </c>
+      <c r="BE47">
+        <v>6.25</v>
+      </c>
+      <c r="BF47">
+        <v>2.08</v>
+      </c>
+      <c r="BG47">
+        <v>1.4</v>
+      </c>
+      <c r="BH47">
+        <v>2.7</v>
+      </c>
+      <c r="BI47">
+        <v>1.67</v>
+      </c>
+      <c r="BJ47">
+        <v>2.05</v>
+      </c>
+      <c r="BK47">
+        <v>2.07</v>
+      </c>
+      <c r="BL47">
+        <v>1.65</v>
+      </c>
+      <c r="BM47">
+        <v>2.65</v>
+      </c>
+      <c r="BN47">
+        <v>1.41</v>
+      </c>
+      <c r="BO47">
+        <v>3.55</v>
+      </c>
+      <c r="BP47">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7480182</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48" t="s">
+        <v>119</v>
+      </c>
+      <c r="P48" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q48">
+        <v>2.4</v>
+      </c>
+      <c r="R48">
+        <v>2.25</v>
+      </c>
+      <c r="S48">
+        <v>4.5</v>
+      </c>
+      <c r="T48">
+        <v>1.36</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+      <c r="V48">
+        <v>2.75</v>
+      </c>
+      <c r="W48">
+        <v>1.4</v>
+      </c>
+      <c r="X48">
+        <v>7</v>
+      </c>
+      <c r="Y48">
+        <v>1.1</v>
+      </c>
+      <c r="Z48">
+        <v>1.71</v>
+      </c>
+      <c r="AA48">
+        <v>3.42</v>
+      </c>
+      <c r="AB48">
+        <v>4.07</v>
+      </c>
+      <c r="AC48">
+        <v>1.04</v>
+      </c>
+      <c r="AD48">
+        <v>12</v>
+      </c>
+      <c r="AE48">
+        <v>1.28</v>
+      </c>
+      <c r="AF48">
+        <v>3.75</v>
+      </c>
+      <c r="AG48">
+        <v>1.89</v>
+      </c>
+      <c r="AH48">
+        <v>1.93</v>
+      </c>
+      <c r="AI48">
+        <v>1.8</v>
+      </c>
+      <c r="AJ48">
+        <v>1.95</v>
+      </c>
+      <c r="AK48">
+        <v>1.22</v>
+      </c>
+      <c r="AL48">
+        <v>1.22</v>
+      </c>
+      <c r="AM48">
+        <v>2</v>
+      </c>
+      <c r="AN48">
+        <v>0.67</v>
+      </c>
+      <c r="AO48">
+        <v>0.33</v>
+      </c>
+      <c r="AP48">
+        <v>1.25</v>
+      </c>
+      <c r="AQ48">
+        <v>0.25</v>
+      </c>
+      <c r="AR48">
+        <v>1.61</v>
+      </c>
+      <c r="AS48">
+        <v>1.6</v>
+      </c>
+      <c r="AT48">
+        <v>3.21</v>
+      </c>
+      <c r="AU48">
+        <v>5</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>7</v>
+      </c>
+      <c r="AX48">
+        <v>3</v>
+      </c>
+      <c r="AY48">
+        <v>13</v>
+      </c>
+      <c r="AZ48">
+        <v>6</v>
+      </c>
+      <c r="BA48">
+        <v>1</v>
+      </c>
+      <c r="BB48">
+        <v>7</v>
+      </c>
+      <c r="BC48">
+        <v>8</v>
+      </c>
+      <c r="BD48">
+        <v>1.56</v>
+      </c>
+      <c r="BE48">
+        <v>6.4</v>
+      </c>
+      <c r="BF48">
+        <v>2.55</v>
+      </c>
+      <c r="BG48">
+        <v>1.41</v>
+      </c>
+      <c r="BH48">
+        <v>2.65</v>
+      </c>
+      <c r="BI48">
+        <v>1.7</v>
+      </c>
+      <c r="BJ48">
+        <v>2.02</v>
+      </c>
+      <c r="BK48">
+        <v>2.12</v>
+      </c>
+      <c r="BL48">
+        <v>1.63</v>
+      </c>
+      <c r="BM48">
+        <v>2.7</v>
+      </c>
+      <c r="BN48">
+        <v>1.4</v>
+      </c>
+      <c r="BO48">
+        <v>3.65</v>
+      </c>
+      <c r="BP48">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7480184</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s">
+        <v>78</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>82</v>
+      </c>
+      <c r="P49" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q49">
+        <v>2.63</v>
+      </c>
+      <c r="R49">
+        <v>2.25</v>
+      </c>
+      <c r="S49">
+        <v>3.75</v>
+      </c>
+      <c r="T49">
+        <v>1.36</v>
+      </c>
+      <c r="U49">
+        <v>3</v>
+      </c>
+      <c r="V49">
+        <v>2.63</v>
+      </c>
+      <c r="W49">
+        <v>1.44</v>
+      </c>
+      <c r="X49">
+        <v>7</v>
+      </c>
+      <c r="Y49">
+        <v>1.1</v>
+      </c>
+      <c r="Z49">
+        <v>1.94</v>
+      </c>
+      <c r="AA49">
+        <v>3.21</v>
+      </c>
+      <c r="AB49">
+        <v>3.09</v>
+      </c>
+      <c r="AC49">
+        <v>1.03</v>
+      </c>
+      <c r="AD49">
+        <v>13</v>
+      </c>
+      <c r="AE49">
+        <v>1.25</v>
+      </c>
+      <c r="AF49">
+        <v>3.75</v>
+      </c>
+      <c r="AG49">
+        <v>1.75</v>
+      </c>
+      <c r="AH49">
+        <v>1.95</v>
+      </c>
+      <c r="AI49">
+        <v>1.67</v>
+      </c>
+      <c r="AJ49">
+        <v>2.1</v>
+      </c>
+      <c r="AK49">
+        <v>1.3</v>
+      </c>
+      <c r="AL49">
+        <v>1.22</v>
+      </c>
+      <c r="AM49">
+        <v>1.83</v>
+      </c>
+      <c r="AN49">
+        <v>2.33</v>
+      </c>
+      <c r="AO49">
+        <v>0.67</v>
+      </c>
+      <c r="AP49">
+        <v>1.75</v>
+      </c>
+      <c r="AQ49">
+        <v>1.25</v>
+      </c>
+      <c r="AR49">
+        <v>1.3</v>
+      </c>
+      <c r="AS49">
+        <v>1.28</v>
+      </c>
+      <c r="AT49">
+        <v>2.58</v>
+      </c>
+      <c r="AU49">
+        <v>4</v>
+      </c>
+      <c r="AV49">
+        <v>5</v>
+      </c>
+      <c r="AW49">
+        <v>6</v>
+      </c>
+      <c r="AX49">
+        <v>7</v>
+      </c>
+      <c r="AY49">
+        <v>12</v>
+      </c>
+      <c r="AZ49">
+        <v>16</v>
+      </c>
+      <c r="BA49">
+        <v>3</v>
+      </c>
+      <c r="BB49">
+        <v>4</v>
+      </c>
+      <c r="BC49">
+        <v>7</v>
+      </c>
+      <c r="BD49">
+        <v>1.74</v>
+      </c>
+      <c r="BE49">
+        <v>6.1</v>
+      </c>
+      <c r="BF49">
+        <v>2.23</v>
+      </c>
+      <c r="BG49">
+        <v>1.38</v>
+      </c>
+      <c r="BH49">
+        <v>2.75</v>
+      </c>
+      <c r="BI49">
+        <v>1.65</v>
+      </c>
+      <c r="BJ49">
+        <v>2.08</v>
+      </c>
+      <c r="BK49">
+        <v>2.02</v>
+      </c>
+      <c r="BL49">
+        <v>1.68</v>
+      </c>
+      <c r="BM49">
+        <v>2.63</v>
+      </c>
+      <c r="BN49">
+        <v>1.41</v>
+      </c>
+      <c r="BO49">
+        <v>3.45</v>
+      </c>
+      <c r="BP49">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7480185</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" t="s">
+        <v>77</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>120</v>
+      </c>
+      <c r="P50" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q50">
+        <v>3.4</v>
+      </c>
+      <c r="R50">
+        <v>2.05</v>
+      </c>
+      <c r="S50">
+        <v>3.4</v>
+      </c>
+      <c r="T50">
+        <v>1.44</v>
+      </c>
+      <c r="U50">
+        <v>2.63</v>
+      </c>
+      <c r="V50">
+        <v>3.25</v>
+      </c>
+      <c r="W50">
+        <v>1.33</v>
+      </c>
+      <c r="X50">
+        <v>10</v>
+      </c>
+      <c r="Y50">
+        <v>1.06</v>
+      </c>
+      <c r="Z50">
+        <v>2.45</v>
+      </c>
+      <c r="AA50">
+        <v>3.03</v>
+      </c>
+      <c r="AB50">
+        <v>2.6</v>
+      </c>
+      <c r="AC50">
+        <v>1.07</v>
+      </c>
+      <c r="AD50">
+        <v>9</v>
+      </c>
+      <c r="AE50">
+        <v>1.38</v>
+      </c>
+      <c r="AF50">
+        <v>3</v>
+      </c>
+      <c r="AG50">
+        <v>2.05</v>
+      </c>
+      <c r="AH50">
+        <v>1.7</v>
+      </c>
+      <c r="AI50">
+        <v>1.91</v>
+      </c>
+      <c r="AJ50">
+        <v>1.91</v>
+      </c>
+      <c r="AK50">
+        <v>1.45</v>
+      </c>
+      <c r="AL50">
+        <v>1.3</v>
+      </c>
+      <c r="AM50">
+        <v>1.5</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0.67</v>
+      </c>
+      <c r="AP50">
+        <v>0.75</v>
+      </c>
+      <c r="AQ50">
+        <v>0.5</v>
+      </c>
+      <c r="AR50">
+        <v>1.16</v>
+      </c>
+      <c r="AS50">
+        <v>0.84</v>
+      </c>
+      <c r="AT50">
+        <v>2</v>
+      </c>
+      <c r="AU50">
+        <v>8</v>
+      </c>
+      <c r="AV50">
+        <v>2</v>
+      </c>
+      <c r="AW50">
+        <v>8</v>
+      </c>
+      <c r="AX50">
+        <v>3</v>
+      </c>
+      <c r="AY50">
+        <v>20</v>
+      </c>
+      <c r="AZ50">
+        <v>8</v>
+      </c>
+      <c r="BA50">
+        <v>5</v>
+      </c>
+      <c r="BB50">
+        <v>2</v>
+      </c>
+      <c r="BC50">
+        <v>7</v>
+      </c>
+      <c r="BD50">
+        <v>1.9</v>
+      </c>
+      <c r="BE50">
+        <v>5.8</v>
+      </c>
+      <c r="BF50">
+        <v>2.02</v>
+      </c>
+      <c r="BG50">
+        <v>1.47</v>
+      </c>
+      <c r="BH50">
+        <v>2.48</v>
+      </c>
+      <c r="BI50">
+        <v>1.77</v>
+      </c>
+      <c r="BJ50">
+        <v>1.91</v>
+      </c>
+      <c r="BK50">
+        <v>2.23</v>
+      </c>
+      <c r="BL50">
+        <v>1.56</v>
+      </c>
+      <c r="BM50">
+        <v>2.9</v>
+      </c>
+      <c r="BN50">
+        <v>1.34</v>
+      </c>
+      <c r="BO50">
+        <v>3.95</v>
+      </c>
+      <c r="BP50">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7480183</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45585.33333333334</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>81</v>
+      </c>
+      <c r="H51" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>121</v>
+      </c>
+      <c r="P51" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q51">
+        <v>5.5</v>
+      </c>
+      <c r="R51">
+        <v>2.5</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
+        <v>1.29</v>
+      </c>
+      <c r="U51">
+        <v>3.5</v>
+      </c>
+      <c r="V51">
+        <v>2.38</v>
+      </c>
+      <c r="W51">
+        <v>1.53</v>
+      </c>
+      <c r="X51">
+        <v>5.5</v>
+      </c>
+      <c r="Y51">
+        <v>1.14</v>
+      </c>
+      <c r="Z51">
+        <v>5.4</v>
+      </c>
+      <c r="AA51">
+        <v>4.33</v>
+      </c>
+      <c r="AB51">
+        <v>1.55</v>
+      </c>
+      <c r="AC51">
+        <v>1.02</v>
+      </c>
+      <c r="AD51">
+        <v>17</v>
+      </c>
+      <c r="AE51">
+        <v>1.18</v>
+      </c>
+      <c r="AF51">
+        <v>4.75</v>
+      </c>
+      <c r="AG51">
+        <v>1.67</v>
+      </c>
+      <c r="AH51">
+        <v>2.2</v>
+      </c>
+      <c r="AI51">
+        <v>1.7</v>
+      </c>
+      <c r="AJ51">
+        <v>2.05</v>
+      </c>
+      <c r="AK51">
+        <v>2.65</v>
+      </c>
+      <c r="AL51">
+        <v>1.16</v>
+      </c>
+      <c r="AM51">
+        <v>1.12</v>
+      </c>
+      <c r="AN51">
+        <v>0.67</v>
+      </c>
+      <c r="AO51">
+        <v>1.33</v>
+      </c>
+      <c r="AP51">
+        <v>1.25</v>
+      </c>
+      <c r="AQ51">
+        <v>1</v>
+      </c>
+      <c r="AR51">
+        <v>1.31</v>
+      </c>
+      <c r="AS51">
+        <v>1.3</v>
+      </c>
+      <c r="AT51">
+        <v>2.61</v>
+      </c>
+      <c r="AU51">
+        <v>4</v>
+      </c>
+      <c r="AV51">
+        <v>4</v>
+      </c>
+      <c r="AW51">
+        <v>3</v>
+      </c>
+      <c r="AX51">
+        <v>6</v>
+      </c>
+      <c r="AY51">
+        <v>11</v>
+      </c>
+      <c r="AZ51">
+        <v>16</v>
+      </c>
+      <c r="BA51">
+        <v>1</v>
+      </c>
+      <c r="BB51">
+        <v>6</v>
+      </c>
+      <c r="BC51">
+        <v>7</v>
+      </c>
+      <c r="BD51">
+        <v>3.75</v>
+      </c>
+      <c r="BE51">
+        <v>7.5</v>
+      </c>
+      <c r="BF51">
+        <v>1.42</v>
+      </c>
+      <c r="BG51">
+        <v>1.1</v>
+      </c>
+      <c r="BH51">
+        <v>4.9</v>
+      </c>
+      <c r="BI51">
+        <v>1.23</v>
+      </c>
+      <c r="BJ51">
+        <v>3.28</v>
+      </c>
+      <c r="BK51">
+        <v>1.6</v>
+      </c>
+      <c r="BL51">
+        <v>2.25</v>
+      </c>
+      <c r="BM51">
+        <v>1.95</v>
+      </c>
+      <c r="BN51">
+        <v>1.78</v>
+      </c>
+      <c r="BO51">
+        <v>2.5</v>
+      </c>
+      <c r="BP51">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -11160,7 +11160,7 @@
         <v>69</v>
       </c>
       <c r="E51" s="2">
-        <v>45585.33333333334</v>
+        <v>45584.875</v>
       </c>
       <c r="F51">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -10689,10 +10689,10 @@
         <v>1</v>
       </c>
       <c r="BB48">
+        <v>6</v>
+      </c>
+      <c r="BC48">
         <v>7</v>
-      </c>
-      <c r="BC48">
-        <v>8</v>
       </c>
       <c r="BD48">
         <v>1.56</v>
@@ -10892,13 +10892,13 @@
         <v>16</v>
       </c>
       <c r="BA49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB49">
         <v>4</v>
       </c>
       <c r="BC49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD49">
         <v>1.74</v>
@@ -11098,13 +11098,13 @@
         <v>8</v>
       </c>
       <c r="BA50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB50">
         <v>2</v>
       </c>
       <c r="BC50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD50">
         <v>1.9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -11160,10 +11160,10 @@
         <v>69</v>
       </c>
       <c r="E51" s="2">
-        <v>45584.875</v>
+        <v>45585.33333333334</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G51" t="s">
         <v>81</v>
@@ -11286,22 +11286,22 @@
         <v>2.61</v>
       </c>
       <c r="AU51">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV51">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW51">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX51">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AY51">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ51">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="BA51">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="159">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,6 +382,12 @@
     <t>['87']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['61', '82']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -479,6 +485,12 @@
   </si>
   <si>
     <t>['38']</t>
+  </si>
+  <si>
+    <t>['64', '90']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -840,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1511,7 +1523,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2004,7 +2016,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2129,7 +2141,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2335,7 +2347,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2541,7 +2553,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2619,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -2747,7 +2759,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2825,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2953,7 +2965,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3159,7 +3171,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3365,7 +3377,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3446,7 +3458,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3652,7 +3664,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ14">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR14">
         <v>2.04</v>
@@ -3777,7 +3789,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4189,7 +4201,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4395,7 +4407,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4682,7 +4694,7 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR19">
         <v>1.1</v>
@@ -4807,7 +4819,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4885,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ20">
         <v>0.25</v>
@@ -5013,7 +5025,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5219,7 +5231,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5297,7 +5309,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
         <v>2.5</v>
@@ -5631,7 +5643,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5837,7 +5849,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6536,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR28">
         <v>0.85</v>
@@ -6739,7 +6751,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
         <v>1.25</v>
@@ -6867,7 +6879,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6948,7 +6960,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR30">
         <v>0.76</v>
@@ -7073,7 +7085,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7279,7 +7291,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7357,10 +7369,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR32">
         <v>1.31</v>
@@ -7485,7 +7497,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7691,7 +7703,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7897,7 +7909,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8103,7 +8115,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8309,7 +8321,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8387,7 +8399,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ37">
         <v>2.5</v>
@@ -8515,7 +8527,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8927,7 +8939,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9133,7 +9145,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9339,7 +9351,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9417,10 +9429,10 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
         <v>1.64</v>
@@ -9545,7 +9557,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9623,7 +9635,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
         <v>3</v>
@@ -9751,7 +9763,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10038,7 +10050,7 @@
         <v>3</v>
       </c>
       <c r="AQ45">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR45">
         <v>1.85</v>
@@ -10163,7 +10175,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10369,7 +10381,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10781,7 +10793,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11350,6 +11362,418 @@
       </c>
       <c r="BP51">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7480187</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>122</v>
+      </c>
+      <c r="P52" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q52">
+        <v>2.3</v>
+      </c>
+      <c r="R52">
+        <v>2.3</v>
+      </c>
+      <c r="S52">
+        <v>5</v>
+      </c>
+      <c r="T52">
+        <v>1.36</v>
+      </c>
+      <c r="U52">
+        <v>3</v>
+      </c>
+      <c r="V52">
+        <v>2.63</v>
+      </c>
+      <c r="W52">
+        <v>1.44</v>
+      </c>
+      <c r="X52">
+        <v>7</v>
+      </c>
+      <c r="Y52">
+        <v>1.1</v>
+      </c>
+      <c r="Z52">
+        <v>1.78</v>
+      </c>
+      <c r="AA52">
+        <v>3.8</v>
+      </c>
+      <c r="AB52">
+        <v>4</v>
+      </c>
+      <c r="AC52">
+        <v>1.04</v>
+      </c>
+      <c r="AD52">
+        <v>12</v>
+      </c>
+      <c r="AE52">
+        <v>1.25</v>
+      </c>
+      <c r="AF52">
+        <v>3.75</v>
+      </c>
+      <c r="AG52">
+        <v>1.72</v>
+      </c>
+      <c r="AH52">
+        <v>1.98</v>
+      </c>
+      <c r="AI52">
+        <v>1.8</v>
+      </c>
+      <c r="AJ52">
+        <v>1.95</v>
+      </c>
+      <c r="AK52">
+        <v>1.18</v>
+      </c>
+      <c r="AL52">
+        <v>1.22</v>
+      </c>
+      <c r="AM52">
+        <v>2.15</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
+        <v>0.8</v>
+      </c>
+      <c r="AP52">
+        <v>0.8</v>
+      </c>
+      <c r="AQ52">
+        <v>1.17</v>
+      </c>
+      <c r="AR52">
+        <v>1.52</v>
+      </c>
+      <c r="AS52">
+        <v>1.07</v>
+      </c>
+      <c r="AT52">
+        <v>2.59</v>
+      </c>
+      <c r="AU52">
+        <v>5</v>
+      </c>
+      <c r="AV52">
+        <v>5</v>
+      </c>
+      <c r="AW52">
+        <v>1</v>
+      </c>
+      <c r="AX52">
+        <v>10</v>
+      </c>
+      <c r="AY52">
+        <v>9</v>
+      </c>
+      <c r="AZ52">
+        <v>22</v>
+      </c>
+      <c r="BA52">
+        <v>2</v>
+      </c>
+      <c r="BB52">
+        <v>3</v>
+      </c>
+      <c r="BC52">
+        <v>5</v>
+      </c>
+      <c r="BD52">
+        <v>1.42</v>
+      </c>
+      <c r="BE52">
+        <v>7</v>
+      </c>
+      <c r="BF52">
+        <v>2.9</v>
+      </c>
+      <c r="BG52">
+        <v>1.15</v>
+      </c>
+      <c r="BH52">
+        <v>4.6</v>
+      </c>
+      <c r="BI52">
+        <v>1.27</v>
+      </c>
+      <c r="BJ52">
+        <v>3.3</v>
+      </c>
+      <c r="BK52">
+        <v>1.46</v>
+      </c>
+      <c r="BL52">
+        <v>2.5</v>
+      </c>
+      <c r="BM52">
+        <v>1.72</v>
+      </c>
+      <c r="BN52">
+        <v>1.98</v>
+      </c>
+      <c r="BO52">
+        <v>2.1</v>
+      </c>
+      <c r="BP52">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7480191</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53" t="s">
+        <v>123</v>
+      </c>
+      <c r="P53" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q53">
+        <v>3.75</v>
+      </c>
+      <c r="R53">
+        <v>2.1</v>
+      </c>
+      <c r="S53">
+        <v>2.88</v>
+      </c>
+      <c r="T53">
+        <v>1.4</v>
+      </c>
+      <c r="U53">
+        <v>2.75</v>
+      </c>
+      <c r="V53">
+        <v>3</v>
+      </c>
+      <c r="W53">
+        <v>1.36</v>
+      </c>
+      <c r="X53">
+        <v>8</v>
+      </c>
+      <c r="Y53">
+        <v>1.08</v>
+      </c>
+      <c r="Z53">
+        <v>3.1</v>
+      </c>
+      <c r="AA53">
+        <v>3.2</v>
+      </c>
+      <c r="AB53">
+        <v>2.3</v>
+      </c>
+      <c r="AC53">
+        <v>1.05</v>
+      </c>
+      <c r="AD53">
+        <v>11</v>
+      </c>
+      <c r="AE53">
+        <v>1.33</v>
+      </c>
+      <c r="AF53">
+        <v>3.3</v>
+      </c>
+      <c r="AG53">
+        <v>1.88</v>
+      </c>
+      <c r="AH53">
+        <v>1.8</v>
+      </c>
+      <c r="AI53">
+        <v>1.75</v>
+      </c>
+      <c r="AJ53">
+        <v>2</v>
+      </c>
+      <c r="AK53">
+        <v>1.68</v>
+      </c>
+      <c r="AL53">
+        <v>1.25</v>
+      </c>
+      <c r="AM53">
+        <v>1.36</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>1.33</v>
+      </c>
+      <c r="AQ53">
+        <v>0.8</v>
+      </c>
+      <c r="AR53">
+        <v>1.34</v>
+      </c>
+      <c r="AS53">
+        <v>1.21</v>
+      </c>
+      <c r="AT53">
+        <v>2.55</v>
+      </c>
+      <c r="AU53">
+        <v>4</v>
+      </c>
+      <c r="AV53">
+        <v>3</v>
+      </c>
+      <c r="AW53">
+        <v>5</v>
+      </c>
+      <c r="AX53">
+        <v>3</v>
+      </c>
+      <c r="AY53">
+        <v>15</v>
+      </c>
+      <c r="AZ53">
+        <v>10</v>
+      </c>
+      <c r="BA53">
+        <v>5</v>
+      </c>
+      <c r="BB53">
+        <v>5</v>
+      </c>
+      <c r="BC53">
+        <v>10</v>
+      </c>
+      <c r="BD53">
+        <v>2.15</v>
+      </c>
+      <c r="BE53">
+        <v>6.5</v>
+      </c>
+      <c r="BF53">
+        <v>1.74</v>
+      </c>
+      <c r="BG53">
+        <v>1.17</v>
+      </c>
+      <c r="BH53">
+        <v>4.35</v>
+      </c>
+      <c r="BI53">
+        <v>1.3</v>
+      </c>
+      <c r="BJ53">
+        <v>3.15</v>
+      </c>
+      <c r="BK53">
+        <v>1.5</v>
+      </c>
+      <c r="BL53">
+        <v>2.38</v>
+      </c>
+      <c r="BM53">
+        <v>1.79</v>
+      </c>
+      <c r="BN53">
+        <v>1.9</v>
+      </c>
+      <c r="BO53">
+        <v>2.2</v>
+      </c>
+      <c r="BP53">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>['61', '82']</t>
+  </si>
+  <si>
+    <t>['84']</t>
   </si>
   <si>
     <t>['18', '79']</t>
@@ -852,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1523,7 +1526,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2141,7 +2144,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2347,7 +2350,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2553,7 +2556,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2634,7 +2637,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2759,7 +2762,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2965,7 +2968,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3171,7 +3174,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3377,7 +3380,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3789,7 +3792,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4201,7 +4204,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4407,7 +4410,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4819,7 +4822,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5025,7 +5028,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5231,7 +5234,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5643,7 +5646,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5724,7 +5727,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR24">
         <v>1.14</v>
@@ -5849,7 +5852,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6879,7 +6882,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7085,7 +7088,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7291,7 +7294,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7497,7 +7500,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7703,7 +7706,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7909,7 +7912,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -7990,7 +7993,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR35">
         <v>1.32</v>
@@ -8115,7 +8118,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8321,7 +8324,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8527,7 +8530,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8939,7 +8942,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9020,7 +9023,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR40">
         <v>0.9399999999999999</v>
@@ -9145,7 +9148,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9351,7 +9354,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9557,7 +9560,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9763,7 +9766,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10175,7 +10178,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10381,7 +10384,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10793,7 +10796,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11411,7 +11414,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11617,7 +11620,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -11774,6 +11777,212 @@
       </c>
       <c r="BP53">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7480186</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45591.5625</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>124</v>
+      </c>
+      <c r="P54" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q54">
+        <v>2.25</v>
+      </c>
+      <c r="R54">
+        <v>2.3</v>
+      </c>
+      <c r="S54">
+        <v>5</v>
+      </c>
+      <c r="T54">
+        <v>1.33</v>
+      </c>
+      <c r="U54">
+        <v>3.25</v>
+      </c>
+      <c r="V54">
+        <v>2.63</v>
+      </c>
+      <c r="W54">
+        <v>1.44</v>
+      </c>
+      <c r="X54">
+        <v>6.5</v>
+      </c>
+      <c r="Y54">
+        <v>1.11</v>
+      </c>
+      <c r="Z54">
+        <v>1.62</v>
+      </c>
+      <c r="AA54">
+        <v>3.9</v>
+      </c>
+      <c r="AB54">
+        <v>5.25</v>
+      </c>
+      <c r="AC54">
+        <v>1.03</v>
+      </c>
+      <c r="AD54">
+        <v>13</v>
+      </c>
+      <c r="AE54">
+        <v>1.22</v>
+      </c>
+      <c r="AF54">
+        <v>4</v>
+      </c>
+      <c r="AG54">
+        <v>1.85</v>
+      </c>
+      <c r="AH54">
+        <v>1.83</v>
+      </c>
+      <c r="AI54">
+        <v>1.75</v>
+      </c>
+      <c r="AJ54">
+        <v>2</v>
+      </c>
+      <c r="AK54">
+        <v>1.18</v>
+      </c>
+      <c r="AL54">
+        <v>1.2</v>
+      </c>
+      <c r="AM54">
+        <v>2.2</v>
+      </c>
+      <c r="AN54">
+        <v>3</v>
+      </c>
+      <c r="AO54">
+        <v>2</v>
+      </c>
+      <c r="AP54">
+        <v>3</v>
+      </c>
+      <c r="AQ54">
+        <v>1.6</v>
+      </c>
+      <c r="AR54">
+        <v>1.17</v>
+      </c>
+      <c r="AS54">
+        <v>1.32</v>
+      </c>
+      <c r="AT54">
+        <v>2.49</v>
+      </c>
+      <c r="AU54">
+        <v>6</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <v>5</v>
+      </c>
+      <c r="AX54">
+        <v>6</v>
+      </c>
+      <c r="AY54">
+        <v>13</v>
+      </c>
+      <c r="AZ54">
+        <v>9</v>
+      </c>
+      <c r="BA54">
+        <v>8</v>
+      </c>
+      <c r="BB54">
+        <v>2</v>
+      </c>
+      <c r="BC54">
+        <v>10</v>
+      </c>
+      <c r="BD54">
+        <v>1.45</v>
+      </c>
+      <c r="BE54">
+        <v>6.75</v>
+      </c>
+      <c r="BF54">
+        <v>2.8</v>
+      </c>
+      <c r="BG54">
+        <v>1.21</v>
+      </c>
+      <c r="BH54">
+        <v>3.8</v>
+      </c>
+      <c r="BI54">
+        <v>1.38</v>
+      </c>
+      <c r="BJ54">
+        <v>2.7</v>
+      </c>
+      <c r="BK54">
+        <v>1.64</v>
+      </c>
+      <c r="BL54">
+        <v>2.1</v>
+      </c>
+      <c r="BM54">
+        <v>1.98</v>
+      </c>
+      <c r="BN54">
+        <v>1.72</v>
+      </c>
+      <c r="BO54">
+        <v>2.48</v>
+      </c>
+      <c r="BP54">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,12 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['13', '69']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -421,9 +427,6 @@
     <t>['3', '33', '71']</t>
   </si>
   <si>
-    <t>['65']</t>
-  </si>
-  <si>
     <t>['26', '36']</t>
   </si>
   <si>
@@ -494,6 +497,12 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['27', '56', '88']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP54"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1398,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1526,7 +1535,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2144,7 +2153,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2350,7 +2359,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2556,7 +2565,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2762,7 +2771,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2843,7 +2852,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2968,7 +2977,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3174,7 +3183,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3255,7 +3264,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3380,7 +3389,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3792,7 +3801,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4204,7 +4213,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4410,7 +4419,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4488,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR18">
         <v>1.47</v>
@@ -4822,7 +4831,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4903,7 +4912,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ20">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR20">
         <v>1.56</v>
@@ -5028,7 +5037,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5234,7 +5243,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5646,7 +5655,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5852,7 +5861,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6345,7 +6354,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR27">
         <v>2.21</v>
@@ -6882,7 +6891,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7088,7 +7097,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7294,7 +7303,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7500,7 +7509,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7581,7 +7590,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR33">
         <v>0.87</v>
@@ -7706,7 +7715,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7912,7 +7921,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8118,7 +8127,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8196,10 +8205,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ36">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR36">
         <v>1.45</v>
@@ -8324,7 +8333,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8530,7 +8539,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8942,7 +8951,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9148,7 +9157,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9354,7 +9363,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9560,7 +9569,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9766,7 +9775,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -9847,7 +9856,7 @@
         <v>3</v>
       </c>
       <c r="AQ44">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR44">
         <v>1.19</v>
@@ -10178,7 +10187,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10384,7 +10393,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10671,7 +10680,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ48">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR48">
         <v>1.61</v>
@@ -10796,7 +10805,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -10874,7 +10883,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ49">
         <v>1.25</v>
@@ -11414,7 +11423,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11620,7 +11629,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -11796,7 +11805,7 @@
         <v>45591.5625</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G54" t="s">
         <v>80</v>
@@ -11983,6 +11992,624 @@
       </c>
       <c r="BP54">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7480188</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45591.875</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>125</v>
+      </c>
+      <c r="P55" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q55">
+        <v>3</v>
+      </c>
+      <c r="R55">
+        <v>2.2</v>
+      </c>
+      <c r="S55">
+        <v>3.5</v>
+      </c>
+      <c r="T55">
+        <v>1.36</v>
+      </c>
+      <c r="U55">
+        <v>3</v>
+      </c>
+      <c r="V55">
+        <v>2.75</v>
+      </c>
+      <c r="W55">
+        <v>1.4</v>
+      </c>
+      <c r="X55">
+        <v>7</v>
+      </c>
+      <c r="Y55">
+        <v>1.1</v>
+      </c>
+      <c r="Z55">
+        <v>2.38</v>
+      </c>
+      <c r="AA55">
+        <v>3.1</v>
+      </c>
+      <c r="AB55">
+        <v>2.6</v>
+      </c>
+      <c r="AC55">
+        <v>1.04</v>
+      </c>
+      <c r="AD55">
+        <v>12</v>
+      </c>
+      <c r="AE55">
+        <v>1.28</v>
+      </c>
+      <c r="AF55">
+        <v>3.6</v>
+      </c>
+      <c r="AG55">
+        <v>1.82</v>
+      </c>
+      <c r="AH55">
+        <v>1.99</v>
+      </c>
+      <c r="AI55">
+        <v>1.67</v>
+      </c>
+      <c r="AJ55">
+        <v>2.1</v>
+      </c>
+      <c r="AK55">
+        <v>1.4</v>
+      </c>
+      <c r="AL55">
+        <v>1.25</v>
+      </c>
+      <c r="AM55">
+        <v>1.6</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>0.17</v>
+      </c>
+      <c r="AR55">
+        <v>1.27</v>
+      </c>
+      <c r="AS55">
+        <v>1.12</v>
+      </c>
+      <c r="AT55">
+        <v>2.39</v>
+      </c>
+      <c r="AU55">
+        <v>8</v>
+      </c>
+      <c r="AV55">
+        <v>3</v>
+      </c>
+      <c r="AW55">
+        <v>2</v>
+      </c>
+      <c r="AX55">
+        <v>5</v>
+      </c>
+      <c r="AY55">
+        <v>13</v>
+      </c>
+      <c r="AZ55">
+        <v>12</v>
+      </c>
+      <c r="BA55">
+        <v>1</v>
+      </c>
+      <c r="BB55">
+        <v>6</v>
+      </c>
+      <c r="BC55">
+        <v>7</v>
+      </c>
+      <c r="BD55">
+        <v>1.79</v>
+      </c>
+      <c r="BE55">
+        <v>6.75</v>
+      </c>
+      <c r="BF55">
+        <v>2.08</v>
+      </c>
+      <c r="BG55">
+        <v>1.14</v>
+      </c>
+      <c r="BH55">
+        <v>4.8</v>
+      </c>
+      <c r="BI55">
+        <v>1.26</v>
+      </c>
+      <c r="BJ55">
+        <v>3.4</v>
+      </c>
+      <c r="BK55">
+        <v>1.44</v>
+      </c>
+      <c r="BL55">
+        <v>2.55</v>
+      </c>
+      <c r="BM55">
+        <v>1.68</v>
+      </c>
+      <c r="BN55">
+        <v>2.04</v>
+      </c>
+      <c r="BO55">
+        <v>2.05</v>
+      </c>
+      <c r="BP55">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7480190</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45592.5</v>
+      </c>
+      <c r="F56">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s">
+        <v>73</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>126</v>
+      </c>
+      <c r="P56" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q56">
+        <v>1.62</v>
+      </c>
+      <c r="R56">
+        <v>2.88</v>
+      </c>
+      <c r="S56">
+        <v>8.5</v>
+      </c>
+      <c r="T56">
+        <v>1.22</v>
+      </c>
+      <c r="U56">
+        <v>4</v>
+      </c>
+      <c r="V56">
+        <v>2.1</v>
+      </c>
+      <c r="W56">
+        <v>1.67</v>
+      </c>
+      <c r="X56">
+        <v>4.5</v>
+      </c>
+      <c r="Y56">
+        <v>1.18</v>
+      </c>
+      <c r="Z56">
+        <v>1.21</v>
+      </c>
+      <c r="AA56">
+        <v>5.5</v>
+      </c>
+      <c r="AB56">
+        <v>8.6</v>
+      </c>
+      <c r="AC56">
+        <v>1.01</v>
+      </c>
+      <c r="AD56">
+        <v>17</v>
+      </c>
+      <c r="AE56">
+        <v>1.12</v>
+      </c>
+      <c r="AF56">
+        <v>6</v>
+      </c>
+      <c r="AG56">
+        <v>1.42</v>
+      </c>
+      <c r="AH56">
+        <v>2.75</v>
+      </c>
+      <c r="AI56">
+        <v>1.95</v>
+      </c>
+      <c r="AJ56">
+        <v>1.8</v>
+      </c>
+      <c r="AK56">
+        <v>1.04</v>
+      </c>
+      <c r="AL56">
+        <v>1.11</v>
+      </c>
+      <c r="AM56">
+        <v>4</v>
+      </c>
+      <c r="AN56">
+        <v>3</v>
+      </c>
+      <c r="AO56">
+        <v>0.25</v>
+      </c>
+      <c r="AP56">
+        <v>3</v>
+      </c>
+      <c r="AQ56">
+        <v>0.2</v>
+      </c>
+      <c r="AR56">
+        <v>1.99</v>
+      </c>
+      <c r="AS56">
+        <v>1.29</v>
+      </c>
+      <c r="AT56">
+        <v>3.28</v>
+      </c>
+      <c r="AU56">
+        <v>8</v>
+      </c>
+      <c r="AV56">
+        <v>4</v>
+      </c>
+      <c r="AW56">
+        <v>5</v>
+      </c>
+      <c r="AX56">
+        <v>4</v>
+      </c>
+      <c r="AY56">
+        <v>17</v>
+      </c>
+      <c r="AZ56">
+        <v>9</v>
+      </c>
+      <c r="BA56">
+        <v>7</v>
+      </c>
+      <c r="BB56">
+        <v>3</v>
+      </c>
+      <c r="BC56">
+        <v>10</v>
+      </c>
+      <c r="BD56">
+        <v>1.18</v>
+      </c>
+      <c r="BE56">
+        <v>8.5</v>
+      </c>
+      <c r="BF56">
+        <v>4.6</v>
+      </c>
+      <c r="BG56">
+        <v>1.15</v>
+      </c>
+      <c r="BH56">
+        <v>4.4</v>
+      </c>
+      <c r="BI56">
+        <v>1.29</v>
+      </c>
+      <c r="BJ56">
+        <v>3.15</v>
+      </c>
+      <c r="BK56">
+        <v>1.49</v>
+      </c>
+      <c r="BL56">
+        <v>2.4</v>
+      </c>
+      <c r="BM56">
+        <v>1.76</v>
+      </c>
+      <c r="BN56">
+        <v>1.93</v>
+      </c>
+      <c r="BO56">
+        <v>2.15</v>
+      </c>
+      <c r="BP56">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7480189</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45592.5</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s">
+        <v>74</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57" t="s">
+        <v>82</v>
+      </c>
+      <c r="P57" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q57">
+        <v>7.5</v>
+      </c>
+      <c r="R57">
+        <v>2.88</v>
+      </c>
+      <c r="S57">
+        <v>1.67</v>
+      </c>
+      <c r="T57">
+        <v>1.22</v>
+      </c>
+      <c r="U57">
+        <v>4</v>
+      </c>
+      <c r="V57">
+        <v>2</v>
+      </c>
+      <c r="W57">
+        <v>1.73</v>
+      </c>
+      <c r="X57">
+        <v>4.33</v>
+      </c>
+      <c r="Y57">
+        <v>1.2</v>
+      </c>
+      <c r="Z57">
+        <v>7.1</v>
+      </c>
+      <c r="AA57">
+        <v>5.2</v>
+      </c>
+      <c r="AB57">
+        <v>1.26</v>
+      </c>
+      <c r="AC57">
+        <v>1.01</v>
+      </c>
+      <c r="AD57">
+        <v>17</v>
+      </c>
+      <c r="AE57">
+        <v>1.1</v>
+      </c>
+      <c r="AF57">
+        <v>6.5</v>
+      </c>
+      <c r="AG57">
+        <v>1.35</v>
+      </c>
+      <c r="AH57">
+        <v>3.05</v>
+      </c>
+      <c r="AI57">
+        <v>1.75</v>
+      </c>
+      <c r="AJ57">
+        <v>2</v>
+      </c>
+      <c r="AK57">
+        <v>3.75</v>
+      </c>
+      <c r="AL57">
+        <v>1.09</v>
+      </c>
+      <c r="AM57">
+        <v>1.02</v>
+      </c>
+      <c r="AN57">
+        <v>1.75</v>
+      </c>
+      <c r="AO57">
+        <v>3</v>
+      </c>
+      <c r="AP57">
+        <v>1.4</v>
+      </c>
+      <c r="AQ57">
+        <v>3</v>
+      </c>
+      <c r="AR57">
+        <v>1.24</v>
+      </c>
+      <c r="AS57">
+        <v>2.13</v>
+      </c>
+      <c r="AT57">
+        <v>3.37</v>
+      </c>
+      <c r="AU57">
+        <v>3</v>
+      </c>
+      <c r="AV57">
+        <v>11</v>
+      </c>
+      <c r="AW57">
+        <v>5</v>
+      </c>
+      <c r="AX57">
+        <v>5</v>
+      </c>
+      <c r="AY57">
+        <v>10</v>
+      </c>
+      <c r="AZ57">
+        <v>22</v>
+      </c>
+      <c r="BA57">
+        <v>3</v>
+      </c>
+      <c r="BB57">
+        <v>10</v>
+      </c>
+      <c r="BC57">
+        <v>13</v>
+      </c>
+      <c r="BD57">
+        <v>3.8</v>
+      </c>
+      <c r="BE57">
+        <v>7.5</v>
+      </c>
+      <c r="BF57">
+        <v>1.25</v>
+      </c>
+      <c r="BG57">
+        <v>1.15</v>
+      </c>
+      <c r="BH57">
+        <v>4.6</v>
+      </c>
+      <c r="BI57">
+        <v>1.26</v>
+      </c>
+      <c r="BJ57">
+        <v>3.4</v>
+      </c>
+      <c r="BK57">
+        <v>1.44</v>
+      </c>
+      <c r="BL57">
+        <v>2.55</v>
+      </c>
+      <c r="BM57">
+        <v>1.71</v>
+      </c>
+      <c r="BN57">
+        <v>2</v>
+      </c>
+      <c r="BO57">
+        <v>2.06</v>
+      </c>
+      <c r="BP57">
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -12008,10 +12008,10 @@
         <v>69</v>
       </c>
       <c r="E55" s="2">
-        <v>45591.875</v>
+        <v>45592.375</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G55" t="s">
         <v>79</v>
@@ -12423,7 +12423,7 @@
         <v>45592.5</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G57" t="s">
         <v>71</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -10074,16 +10074,16 @@
         <v>2.87</v>
       </c>
       <c r="AU45">
+        <v>7</v>
+      </c>
+      <c r="AV45">
+        <v>4</v>
+      </c>
+      <c r="AW45">
         <v>8</v>
       </c>
-      <c r="AV45">
+      <c r="AX45">
         <v>5</v>
-      </c>
-      <c r="AW45">
-        <v>14</v>
-      </c>
-      <c r="AX45">
-        <v>7</v>
       </c>
       <c r="AY45">
         <v>22</v>
@@ -10916,13 +10916,13 @@
         <v>16</v>
       </c>
       <c r="BA49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD49">
         <v>1.74</v>
@@ -11122,13 +11122,13 @@
         <v>8</v>
       </c>
       <c r="BA50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC50">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD50">
         <v>1.9</v>
@@ -11310,22 +11310,22 @@
         <v>2.61</v>
       </c>
       <c r="AU51">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV51">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW51">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX51">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY51">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ51">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA51">
         <v>1</v>
@@ -11510,10 +11510,10 @@
         <v>1.52</v>
       </c>
       <c r="AS52">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AT52">
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
       <c r="AU52">
         <v>5</v>
@@ -12331,13 +12331,13 @@
         <v>0.2</v>
       </c>
       <c r="AR56">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="AS56">
         <v>1.29</v>
       </c>
       <c r="AT56">
-        <v>3.28</v>
+        <v>3.15</v>
       </c>
       <c r="AU56">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="172">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,21 @@
     <t>['13', '69']</t>
   </si>
   <si>
+    <t>['60', '67']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['30', '57', '90+3']</t>
+  </si>
+  <si>
+    <t>['31', '74']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -503,6 +518,18 @@
   </si>
   <si>
     <t>['27', '56', '88']</t>
+  </si>
+  <si>
+    <t>['23', '74']</t>
+  </si>
+  <si>
+    <t>['58', '63']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['63']</t>
   </si>
 </sst>
 </file>
@@ -864,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1201,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1535,7 +1562,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1613,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1819,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ5">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2025,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2153,7 +2180,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2359,7 +2386,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2440,7 +2467,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2565,7 +2592,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2643,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ9">
         <v>1.6</v>
@@ -2771,7 +2798,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2977,7 +3004,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3183,7 +3210,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3389,7 +3416,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3470,7 +3497,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3673,10 +3700,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ14">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>2.04</v>
@@ -3801,7 +3828,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -3882,7 +3909,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0.53</v>
@@ -4213,7 +4240,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4291,7 +4318,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
         <v>3</v>
@@ -4706,7 +4733,7 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR19">
         <v>1.1</v>
@@ -4831,7 +4858,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5037,7 +5064,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5118,7 +5145,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR21">
         <v>1.39</v>
@@ -5243,7 +5270,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5321,7 +5348,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ22">
         <v>2.5</v>
@@ -5527,10 +5554,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR23">
         <v>3.1</v>
@@ -5655,7 +5682,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5733,7 +5760,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.6</v>
@@ -5861,7 +5888,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5942,7 +5969,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ25">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR25">
         <v>1.41</v>
@@ -6148,7 +6175,7 @@
         <v>3</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR26">
         <v>1.12</v>
@@ -6351,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ27">
         <v>0.17</v>
@@ -6560,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>0.85</v>
@@ -6763,10 +6790,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ29">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.33</v>
@@ -6891,7 +6918,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6969,10 +6996,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR30">
         <v>0.76</v>
@@ -7097,7 +7124,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7175,10 +7202,10 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR31">
         <v>1.46</v>
@@ -7303,7 +7330,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7381,10 +7408,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.31</v>
@@ -7509,7 +7536,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7587,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ33">
         <v>0.17</v>
@@ -7715,7 +7742,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7793,7 +7820,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>0.5</v>
@@ -7921,7 +7948,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8127,7 +8154,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8333,7 +8360,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8539,7 +8566,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8826,7 +8853,7 @@
         <v>3</v>
       </c>
       <c r="AQ39">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR39">
         <v>2.01</v>
@@ -8951,7 +8978,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9029,7 +9056,7 @@
         <v>1.67</v>
       </c>
       <c r="AP40">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40">
         <v>1.6</v>
@@ -9157,7 +9184,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9238,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR41">
         <v>1.12</v>
@@ -9363,7 +9390,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9444,7 +9471,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR42">
         <v>1.64</v>
@@ -9569,7 +9596,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9647,7 +9674,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ43">
         <v>3</v>
@@ -9775,7 +9802,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10062,7 +10089,7 @@
         <v>3</v>
       </c>
       <c r="AQ45">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.85</v>
@@ -10187,7 +10214,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10265,7 +10292,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ46">
         <v>2.5</v>
@@ -10393,7 +10420,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10471,10 +10498,10 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR47">
         <v>1.19</v>
@@ -10677,7 +10704,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>0.2</v>
@@ -10805,7 +10832,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -10886,7 +10913,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.3</v>
@@ -11298,7 +11325,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11423,7 +11450,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11504,7 +11531,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ52">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -11629,7 +11656,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -11707,10 +11734,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ53">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR53">
         <v>1.34</v>
@@ -12247,7 +12274,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q56">
         <v>1.62</v>
@@ -12453,7 +12480,7 @@
         <v>82</v>
       </c>
       <c r="P57" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>7.5</v>
@@ -12610,6 +12637,1242 @@
       </c>
       <c r="BP57">
         <v>1.66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7480193</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45595.69791666666</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>127</v>
+      </c>
+      <c r="P58" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q58">
+        <v>1.5</v>
+      </c>
+      <c r="R58">
+        <v>3</v>
+      </c>
+      <c r="S58">
+        <v>15</v>
+      </c>
+      <c r="T58">
+        <v>1.25</v>
+      </c>
+      <c r="U58">
+        <v>3.75</v>
+      </c>
+      <c r="V58">
+        <v>2.2</v>
+      </c>
+      <c r="W58">
+        <v>1.62</v>
+      </c>
+      <c r="X58">
+        <v>5</v>
+      </c>
+      <c r="Y58">
+        <v>1.17</v>
+      </c>
+      <c r="Z58">
+        <v>1.13</v>
+      </c>
+      <c r="AA58">
+        <v>7.67</v>
+      </c>
+      <c r="AB58">
+        <v>10.02</v>
+      </c>
+      <c r="AC58">
+        <v>1.01</v>
+      </c>
+      <c r="AD58">
+        <v>15</v>
+      </c>
+      <c r="AE58">
+        <v>1.16</v>
+      </c>
+      <c r="AF58">
+        <v>5</v>
+      </c>
+      <c r="AG58">
+        <v>1.56</v>
+      </c>
+      <c r="AH58">
+        <v>2.33</v>
+      </c>
+      <c r="AI58">
+        <v>2.75</v>
+      </c>
+      <c r="AJ58">
+        <v>1.4</v>
+      </c>
+      <c r="AK58">
+        <v>1.01</v>
+      </c>
+      <c r="AL58">
+        <v>1.06</v>
+      </c>
+      <c r="AM58">
+        <v>6.25</v>
+      </c>
+      <c r="AN58">
+        <v>2.5</v>
+      </c>
+      <c r="AO58">
+        <v>1.25</v>
+      </c>
+      <c r="AP58">
+        <v>2.6</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
+        <v>2.17</v>
+      </c>
+      <c r="AS58">
+        <v>1.31</v>
+      </c>
+      <c r="AT58">
+        <v>3.48</v>
+      </c>
+      <c r="AU58">
+        <v>6</v>
+      </c>
+      <c r="AV58">
+        <v>2</v>
+      </c>
+      <c r="AW58">
+        <v>12</v>
+      </c>
+      <c r="AX58">
+        <v>1</v>
+      </c>
+      <c r="AY58">
+        <v>25</v>
+      </c>
+      <c r="AZ58">
+        <v>4</v>
+      </c>
+      <c r="BA58">
+        <v>7</v>
+      </c>
+      <c r="BB58">
+        <v>2</v>
+      </c>
+      <c r="BC58">
+        <v>9</v>
+      </c>
+      <c r="BD58">
+        <v>1.06</v>
+      </c>
+      <c r="BE58">
+        <v>13</v>
+      </c>
+      <c r="BF58">
+        <v>9</v>
+      </c>
+      <c r="BG58">
+        <v>1.14</v>
+      </c>
+      <c r="BH58">
+        <v>4.8</v>
+      </c>
+      <c r="BI58">
+        <v>1.24</v>
+      </c>
+      <c r="BJ58">
+        <v>3.55</v>
+      </c>
+      <c r="BK58">
+        <v>1.41</v>
+      </c>
+      <c r="BL58">
+        <v>2.65</v>
+      </c>
+      <c r="BM58">
+        <v>1.64</v>
+      </c>
+      <c r="BN58">
+        <v>2.1</v>
+      </c>
+      <c r="BO58">
+        <v>1.96</v>
+      </c>
+      <c r="BP58">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7480194</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45595.69791666666</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59" t="s">
+        <v>71</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
+        <v>128</v>
+      </c>
+      <c r="P59" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q59">
+        <v>2.75</v>
+      </c>
+      <c r="R59">
+        <v>2.2</v>
+      </c>
+      <c r="S59">
+        <v>3.75</v>
+      </c>
+      <c r="T59">
+        <v>1.4</v>
+      </c>
+      <c r="U59">
+        <v>2.75</v>
+      </c>
+      <c r="V59">
+        <v>2.75</v>
+      </c>
+      <c r="W59">
+        <v>1.4</v>
+      </c>
+      <c r="X59">
+        <v>8</v>
+      </c>
+      <c r="Y59">
+        <v>1.08</v>
+      </c>
+      <c r="Z59">
+        <v>3.38</v>
+      </c>
+      <c r="AA59">
+        <v>1.69</v>
+      </c>
+      <c r="AB59">
+        <v>4.48</v>
+      </c>
+      <c r="AC59">
+        <v>1.05</v>
+      </c>
+      <c r="AD59">
+        <v>9</v>
+      </c>
+      <c r="AE59">
+        <v>1.3</v>
+      </c>
+      <c r="AF59">
+        <v>3.45</v>
+      </c>
+      <c r="AG59">
+        <v>1.91</v>
+      </c>
+      <c r="AH59">
+        <v>1.83</v>
+      </c>
+      <c r="AI59">
+        <v>1.75</v>
+      </c>
+      <c r="AJ59">
+        <v>2</v>
+      </c>
+      <c r="AK59">
+        <v>1.33</v>
+      </c>
+      <c r="AL59">
+        <v>1.25</v>
+      </c>
+      <c r="AM59">
+        <v>1.67</v>
+      </c>
+      <c r="AN59">
+        <v>1.75</v>
+      </c>
+      <c r="AO59">
+        <v>1.5</v>
+      </c>
+      <c r="AP59">
+        <v>1.4</v>
+      </c>
+      <c r="AQ59">
+        <v>1.8</v>
+      </c>
+      <c r="AR59">
+        <v>1.15</v>
+      </c>
+      <c r="AS59">
+        <v>1.24</v>
+      </c>
+      <c r="AT59">
+        <v>2.39</v>
+      </c>
+      <c r="AU59">
+        <v>6</v>
+      </c>
+      <c r="AV59">
+        <v>4</v>
+      </c>
+      <c r="AW59">
+        <v>5</v>
+      </c>
+      <c r="AX59">
+        <v>6</v>
+      </c>
+      <c r="AY59">
+        <v>18</v>
+      </c>
+      <c r="AZ59">
+        <v>10</v>
+      </c>
+      <c r="BA59">
+        <v>11</v>
+      </c>
+      <c r="BB59">
+        <v>3</v>
+      </c>
+      <c r="BC59">
+        <v>14</v>
+      </c>
+      <c r="BD59">
+        <v>1.71</v>
+      </c>
+      <c r="BE59">
+        <v>6.75</v>
+      </c>
+      <c r="BF59">
+        <v>2.18</v>
+      </c>
+      <c r="BG59">
+        <v>1.15</v>
+      </c>
+      <c r="BH59">
+        <v>4.6</v>
+      </c>
+      <c r="BI59">
+        <v>1.26</v>
+      </c>
+      <c r="BJ59">
+        <v>3.4</v>
+      </c>
+      <c r="BK59">
+        <v>1.44</v>
+      </c>
+      <c r="BL59">
+        <v>2.55</v>
+      </c>
+      <c r="BM59">
+        <v>1.72</v>
+      </c>
+      <c r="BN59">
+        <v>1.98</v>
+      </c>
+      <c r="BO59">
+        <v>2.08</v>
+      </c>
+      <c r="BP59">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7480195</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45595.69791666666</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>129</v>
+      </c>
+      <c r="P60" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q60">
+        <v>2.4</v>
+      </c>
+      <c r="R60">
+        <v>2.3</v>
+      </c>
+      <c r="S60">
+        <v>4.33</v>
+      </c>
+      <c r="T60">
+        <v>1.33</v>
+      </c>
+      <c r="U60">
+        <v>3.25</v>
+      </c>
+      <c r="V60">
+        <v>2.63</v>
+      </c>
+      <c r="W60">
+        <v>1.44</v>
+      </c>
+      <c r="X60">
+        <v>6.5</v>
+      </c>
+      <c r="Y60">
+        <v>1.11</v>
+      </c>
+      <c r="Z60">
+        <v>2</v>
+      </c>
+      <c r="AA60">
+        <v>3.08</v>
+      </c>
+      <c r="AB60">
+        <v>3.54</v>
+      </c>
+      <c r="AC60">
+        <v>1.04</v>
+      </c>
+      <c r="AD60">
+        <v>10</v>
+      </c>
+      <c r="AE60">
+        <v>1.22</v>
+      </c>
+      <c r="AF60">
+        <v>4</v>
+      </c>
+      <c r="AG60">
+        <v>1.71</v>
+      </c>
+      <c r="AH60">
+        <v>2.07</v>
+      </c>
+      <c r="AI60">
+        <v>1.67</v>
+      </c>
+      <c r="AJ60">
+        <v>2.1</v>
+      </c>
+      <c r="AK60">
+        <v>1.22</v>
+      </c>
+      <c r="AL60">
+        <v>1.22</v>
+      </c>
+      <c r="AM60">
+        <v>1.93</v>
+      </c>
+      <c r="AN60">
+        <v>1.25</v>
+      </c>
+      <c r="AO60">
+        <v>0.8</v>
+      </c>
+      <c r="AP60">
+        <v>1</v>
+      </c>
+      <c r="AQ60">
+        <v>1.17</v>
+      </c>
+      <c r="AR60">
+        <v>1.54</v>
+      </c>
+      <c r="AS60">
+        <v>1.17</v>
+      </c>
+      <c r="AT60">
+        <v>2.71</v>
+      </c>
+      <c r="AU60">
+        <v>6</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>6</v>
+      </c>
+      <c r="AX60">
+        <v>8</v>
+      </c>
+      <c r="AY60">
+        <v>19</v>
+      </c>
+      <c r="AZ60">
+        <v>16</v>
+      </c>
+      <c r="BA60">
+        <v>10</v>
+      </c>
+      <c r="BB60">
+        <v>1</v>
+      </c>
+      <c r="BC60">
+        <v>11</v>
+      </c>
+      <c r="BD60">
+        <v>1.5</v>
+      </c>
+      <c r="BE60">
+        <v>6.75</v>
+      </c>
+      <c r="BF60">
+        <v>2.65</v>
+      </c>
+      <c r="BG60">
+        <v>1.14</v>
+      </c>
+      <c r="BH60">
+        <v>4.8</v>
+      </c>
+      <c r="BI60">
+        <v>1.26</v>
+      </c>
+      <c r="BJ60">
+        <v>3.4</v>
+      </c>
+      <c r="BK60">
+        <v>1.44</v>
+      </c>
+      <c r="BL60">
+        <v>2.55</v>
+      </c>
+      <c r="BM60">
+        <v>1.68</v>
+      </c>
+      <c r="BN60">
+        <v>2.02</v>
+      </c>
+      <c r="BO60">
+        <v>2.05</v>
+      </c>
+      <c r="BP60">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7480196</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45595.69791666666</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s">
+        <v>79</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
+        <v>82</v>
+      </c>
+      <c r="P61" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q61">
+        <v>3.75</v>
+      </c>
+      <c r="R61">
+        <v>2.2</v>
+      </c>
+      <c r="S61">
+        <v>2.75</v>
+      </c>
+      <c r="T61">
+        <v>1.4</v>
+      </c>
+      <c r="U61">
+        <v>2.75</v>
+      </c>
+      <c r="V61">
+        <v>2.75</v>
+      </c>
+      <c r="W61">
+        <v>1.4</v>
+      </c>
+      <c r="X61">
+        <v>8</v>
+      </c>
+      <c r="Y61">
+        <v>1.08</v>
+      </c>
+      <c r="Z61">
+        <v>5.12</v>
+      </c>
+      <c r="AA61">
+        <v>1.7</v>
+      </c>
+      <c r="AB61">
+        <v>3.07</v>
+      </c>
+      <c r="AC61">
+        <v>1.05</v>
+      </c>
+      <c r="AD61">
+        <v>9</v>
+      </c>
+      <c r="AE61">
+        <v>1.3</v>
+      </c>
+      <c r="AF61">
+        <v>3.45</v>
+      </c>
+      <c r="AG61">
+        <v>1.87</v>
+      </c>
+      <c r="AH61">
+        <v>1.87</v>
+      </c>
+      <c r="AI61">
+        <v>1.75</v>
+      </c>
+      <c r="AJ61">
+        <v>2</v>
+      </c>
+      <c r="AK61">
+        <v>1.67</v>
+      </c>
+      <c r="AL61">
+        <v>1.25</v>
+      </c>
+      <c r="AM61">
+        <v>1.33</v>
+      </c>
+      <c r="AN61">
+        <v>1.33</v>
+      </c>
+      <c r="AO61">
+        <v>0.25</v>
+      </c>
+      <c r="AP61">
+        <v>1.29</v>
+      </c>
+      <c r="AQ61">
+        <v>0.4</v>
+      </c>
+      <c r="AR61">
+        <v>1.31</v>
+      </c>
+      <c r="AS61">
+        <v>1.36</v>
+      </c>
+      <c r="AT61">
+        <v>2.67</v>
+      </c>
+      <c r="AU61">
+        <v>3</v>
+      </c>
+      <c r="AV61">
+        <v>3</v>
+      </c>
+      <c r="AW61">
+        <v>7</v>
+      </c>
+      <c r="AX61">
+        <v>8</v>
+      </c>
+      <c r="AY61">
+        <v>14</v>
+      </c>
+      <c r="AZ61">
+        <v>13</v>
+      </c>
+      <c r="BA61">
+        <v>4</v>
+      </c>
+      <c r="BB61">
+        <v>2</v>
+      </c>
+      <c r="BC61">
+        <v>6</v>
+      </c>
+      <c r="BD61">
+        <v>2.18</v>
+      </c>
+      <c r="BE61">
+        <v>6.75</v>
+      </c>
+      <c r="BF61">
+        <v>1.72</v>
+      </c>
+      <c r="BG61">
+        <v>1.19</v>
+      </c>
+      <c r="BH61">
+        <v>4.1</v>
+      </c>
+      <c r="BI61">
+        <v>1.32</v>
+      </c>
+      <c r="BJ61">
+        <v>3.05</v>
+      </c>
+      <c r="BK61">
+        <v>1.54</v>
+      </c>
+      <c r="BL61">
+        <v>2.3</v>
+      </c>
+      <c r="BM61">
+        <v>1.92</v>
+      </c>
+      <c r="BN61">
+        <v>1.88</v>
+      </c>
+      <c r="BO61">
+        <v>2.28</v>
+      </c>
+      <c r="BP61">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7480197</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45595.69791666666</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s">
+        <v>75</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>130</v>
+      </c>
+      <c r="P62" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q62">
+        <v>2.38</v>
+      </c>
+      <c r="R62">
+        <v>2.3</v>
+      </c>
+      <c r="S62">
+        <v>4.5</v>
+      </c>
+      <c r="T62">
+        <v>1.33</v>
+      </c>
+      <c r="U62">
+        <v>3.25</v>
+      </c>
+      <c r="V62">
+        <v>2.5</v>
+      </c>
+      <c r="W62">
+        <v>1.5</v>
+      </c>
+      <c r="X62">
+        <v>6.5</v>
+      </c>
+      <c r="Y62">
+        <v>1.11</v>
+      </c>
+      <c r="Z62">
+        <v>1.54</v>
+      </c>
+      <c r="AA62">
+        <v>3.7</v>
+      </c>
+      <c r="AB62">
+        <v>5.23</v>
+      </c>
+      <c r="AC62">
+        <v>1.03</v>
+      </c>
+      <c r="AD62">
+        <v>13</v>
+      </c>
+      <c r="AE62">
+        <v>1.22</v>
+      </c>
+      <c r="AF62">
+        <v>4.2</v>
+      </c>
+      <c r="AG62">
+        <v>1.7</v>
+      </c>
+      <c r="AH62">
+        <v>2.08</v>
+      </c>
+      <c r="AI62">
+        <v>1.67</v>
+      </c>
+      <c r="AJ62">
+        <v>2.1</v>
+      </c>
+      <c r="AK62">
+        <v>1.22</v>
+      </c>
+      <c r="AL62">
+        <v>1.2</v>
+      </c>
+      <c r="AM62">
+        <v>2.05</v>
+      </c>
+      <c r="AN62">
+        <v>1.4</v>
+      </c>
+      <c r="AO62">
+        <v>1.17</v>
+      </c>
+      <c r="AP62">
+        <v>1.67</v>
+      </c>
+      <c r="AQ62">
+        <v>1</v>
+      </c>
+      <c r="AR62">
+        <v>1.06</v>
+      </c>
+      <c r="AS62">
+        <v>1.12</v>
+      </c>
+      <c r="AT62">
+        <v>2.18</v>
+      </c>
+      <c r="AU62">
+        <v>6</v>
+      </c>
+      <c r="AV62">
+        <v>3</v>
+      </c>
+      <c r="AW62">
+        <v>5</v>
+      </c>
+      <c r="AX62">
+        <v>3</v>
+      </c>
+      <c r="AY62">
+        <v>18</v>
+      </c>
+      <c r="AZ62">
+        <v>7</v>
+      </c>
+      <c r="BA62">
+        <v>9</v>
+      </c>
+      <c r="BB62">
+        <v>2</v>
+      </c>
+      <c r="BC62">
+        <v>11</v>
+      </c>
+      <c r="BD62">
+        <v>1.49</v>
+      </c>
+      <c r="BE62">
+        <v>6.75</v>
+      </c>
+      <c r="BF62">
+        <v>2.65</v>
+      </c>
+      <c r="BG62">
+        <v>1.18</v>
+      </c>
+      <c r="BH62">
+        <v>4.1</v>
+      </c>
+      <c r="BI62">
+        <v>1.32</v>
+      </c>
+      <c r="BJ62">
+        <v>3.05</v>
+      </c>
+      <c r="BK62">
+        <v>1.53</v>
+      </c>
+      <c r="BL62">
+        <v>2.32</v>
+      </c>
+      <c r="BM62">
+        <v>1.9</v>
+      </c>
+      <c r="BN62">
+        <v>1.9</v>
+      </c>
+      <c r="BO62">
+        <v>2.3</v>
+      </c>
+      <c r="BP62">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7480192</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45595.70833333334</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>80</v>
+      </c>
+      <c r="H63" t="s">
+        <v>76</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>131</v>
+      </c>
+      <c r="P63" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q63">
+        <v>4.33</v>
+      </c>
+      <c r="R63">
+        <v>2.25</v>
+      </c>
+      <c r="S63">
+        <v>2.5</v>
+      </c>
+      <c r="T63">
+        <v>1.36</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
+      <c r="V63">
+        <v>2.63</v>
+      </c>
+      <c r="W63">
+        <v>1.44</v>
+      </c>
+      <c r="X63">
+        <v>7</v>
+      </c>
+      <c r="Y63">
+        <v>1.1</v>
+      </c>
+      <c r="Z63">
+        <v>3.44</v>
+      </c>
+      <c r="AA63">
+        <v>4.14</v>
+      </c>
+      <c r="AB63">
+        <v>1.74</v>
+      </c>
+      <c r="AC63">
+        <v>1.03</v>
+      </c>
+      <c r="AD63">
+        <v>13</v>
+      </c>
+      <c r="AE63">
+        <v>1.25</v>
+      </c>
+      <c r="AF63">
+        <v>3.75</v>
+      </c>
+      <c r="AG63">
+        <v>1.78</v>
+      </c>
+      <c r="AH63">
+        <v>1.97</v>
+      </c>
+      <c r="AI63">
+        <v>1.7</v>
+      </c>
+      <c r="AJ63">
+        <v>2.05</v>
+      </c>
+      <c r="AK63">
+        <v>1.95</v>
+      </c>
+      <c r="AL63">
+        <v>1.22</v>
+      </c>
+      <c r="AM63">
+        <v>1.25</v>
+      </c>
+      <c r="AN63">
+        <v>3</v>
+      </c>
+      <c r="AO63">
+        <v>1</v>
+      </c>
+      <c r="AP63">
+        <v>3</v>
+      </c>
+      <c r="AQ63">
+        <v>0.8</v>
+      </c>
+      <c r="AR63">
+        <v>1.25</v>
+      </c>
+      <c r="AS63">
+        <v>1.28</v>
+      </c>
+      <c r="AT63">
+        <v>2.53</v>
+      </c>
+      <c r="AU63">
+        <v>7</v>
+      </c>
+      <c r="AV63">
+        <v>4</v>
+      </c>
+      <c r="AW63">
+        <v>6</v>
+      </c>
+      <c r="AX63">
+        <v>10</v>
+      </c>
+      <c r="AY63">
+        <v>22</v>
+      </c>
+      <c r="AZ63">
+        <v>19</v>
+      </c>
+      <c r="BA63">
+        <v>4</v>
+      </c>
+      <c r="BB63">
+        <v>6</v>
+      </c>
+      <c r="BC63">
+        <v>10</v>
+      </c>
+      <c r="BD63">
+        <v>2.55</v>
+      </c>
+      <c r="BE63">
+        <v>6.75</v>
+      </c>
+      <c r="BF63">
+        <v>1.53</v>
+      </c>
+      <c r="BG63">
+        <v>1.15</v>
+      </c>
+      <c r="BH63">
+        <v>4.6</v>
+      </c>
+      <c r="BI63">
+        <v>1.27</v>
+      </c>
+      <c r="BJ63">
+        <v>3.3</v>
+      </c>
+      <c r="BK63">
+        <v>1.47</v>
+      </c>
+      <c r="BL63">
+        <v>2.48</v>
+      </c>
+      <c r="BM63">
+        <v>1.72</v>
+      </c>
+      <c r="BN63">
+        <v>1.98</v>
+      </c>
+      <c r="BO63">
+        <v>2.1</v>
+      </c>
+      <c r="BP63">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="178">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,15 @@
     <t>['31', '74']</t>
   </si>
   <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['41', '56', '90+4']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -530,6 +539,15 @@
   </si>
   <si>
     <t>['63']</t>
+  </si>
+  <si>
+    <t>['23', '76']</t>
+  </si>
+  <si>
+    <t>['24', '40']</t>
+  </si>
+  <si>
+    <t>['90']</t>
   </si>
 </sst>
 </file>
@@ -891,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1437,7 +1455,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1562,7 +1580,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1846,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ5">
         <v>0.4</v>
@@ -2055,7 +2073,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ6">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2180,7 +2198,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2258,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ7">
         <v>2.5</v>
@@ -2386,7 +2404,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2592,7 +2610,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2673,7 +2691,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ9">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2798,7 +2816,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2876,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ10">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3004,7 +3022,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3210,7 +3228,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3416,7 +3434,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3828,7 +3846,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4115,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR16">
         <v>2.02</v>
@@ -4240,7 +4258,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4318,7 +4336,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ17">
         <v>3</v>
@@ -4527,7 +4545,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ18">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR18">
         <v>1.47</v>
@@ -4733,7 +4751,7 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.1</v>
@@ -4858,7 +4876,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4936,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ20">
         <v>0.2</v>
@@ -5064,7 +5082,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5142,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ21">
         <v>1.8</v>
@@ -5270,7 +5288,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5682,7 +5700,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5763,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.14</v>
@@ -5888,7 +5906,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6381,7 +6399,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ27">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR27">
         <v>2.21</v>
@@ -6918,7 +6936,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6996,10 +7014,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ30">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>0.76</v>
@@ -7124,7 +7142,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7330,7 +7348,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7536,7 +7554,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7614,10 +7632,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ33">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR33">
         <v>0.87</v>
@@ -7742,7 +7760,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7823,7 +7841,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR34">
         <v>1.25</v>
@@ -7948,7 +7966,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8029,7 +8047,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.32</v>
@@ -8154,7 +8172,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8360,7 +8378,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8438,7 +8456,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ37">
         <v>2.5</v>
@@ -8566,7 +8584,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8644,7 +8662,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ38">
         <v>3</v>
@@ -8978,7 +8996,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9056,10 +9074,10 @@
         <v>1.67</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ40">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
         <v>0.9399999999999999</v>
@@ -9184,7 +9202,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9390,7 +9408,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9468,10 +9486,10 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ42">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.64</v>
@@ -9596,7 +9614,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9802,7 +9820,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -9883,7 +9901,7 @@
         <v>3</v>
       </c>
       <c r="AQ44">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR44">
         <v>1.19</v>
@@ -10214,7 +10232,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10420,7 +10438,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10832,7 +10850,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11116,10 +11134,10 @@
         <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ50">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11450,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11528,7 +11546,7 @@
         <v>0.8</v>
       </c>
       <c r="AP52">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -11656,7 +11674,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -11737,7 +11755,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ53">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.34</v>
@@ -11943,7 +11961,7 @@
         <v>3</v>
       </c>
       <c r="AQ54">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
         <v>1.17</v>
@@ -12149,7 +12167,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR55">
         <v>1.27</v>
@@ -12274,7 +12292,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>1.62</v>
@@ -12480,7 +12498,7 @@
         <v>82</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>7.5</v>
@@ -12892,7 +12910,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13098,7 +13116,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13179,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.54</v>
@@ -13510,7 +13528,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13588,7 +13606,7 @@
         <v>1.17</v>
       </c>
       <c r="AP62">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -13716,7 +13734,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -13873,6 +13891,830 @@
       </c>
       <c r="BP63">
         <v>1.64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7480203</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45598.5</v>
+      </c>
+      <c r="F64">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>73</v>
+      </c>
+      <c r="H64" t="s">
+        <v>77</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P64" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q64">
+        <v>2.38</v>
+      </c>
+      <c r="R64">
+        <v>2.25</v>
+      </c>
+      <c r="S64">
+        <v>4.75</v>
+      </c>
+      <c r="T64">
+        <v>1.36</v>
+      </c>
+      <c r="U64">
+        <v>3</v>
+      </c>
+      <c r="V64">
+        <v>2.63</v>
+      </c>
+      <c r="W64">
+        <v>1.44</v>
+      </c>
+      <c r="X64">
+        <v>7</v>
+      </c>
+      <c r="Y64">
+        <v>1.1</v>
+      </c>
+      <c r="Z64">
+        <v>1.73</v>
+      </c>
+      <c r="AA64">
+        <v>3.53</v>
+      </c>
+      <c r="AB64">
+        <v>4.17</v>
+      </c>
+      <c r="AC64">
+        <v>1.04</v>
+      </c>
+      <c r="AD64">
+        <v>12</v>
+      </c>
+      <c r="AE64">
+        <v>1.25</v>
+      </c>
+      <c r="AF64">
+        <v>3.75</v>
+      </c>
+      <c r="AG64">
+        <v>1.73</v>
+      </c>
+      <c r="AH64">
+        <v>1.91</v>
+      </c>
+      <c r="AI64">
+        <v>1.75</v>
+      </c>
+      <c r="AJ64">
+        <v>2</v>
+      </c>
+      <c r="AK64">
+        <v>1.22</v>
+      </c>
+      <c r="AL64">
+        <v>1.22</v>
+      </c>
+      <c r="AM64">
+        <v>2.05</v>
+      </c>
+      <c r="AN64">
+        <v>1.67</v>
+      </c>
+      <c r="AO64">
+        <v>0.5</v>
+      </c>
+      <c r="AP64">
+        <v>1.57</v>
+      </c>
+      <c r="AQ64">
+        <v>0.6</v>
+      </c>
+      <c r="AR64">
+        <v>1.13</v>
+      </c>
+      <c r="AS64">
+        <v>0.77</v>
+      </c>
+      <c r="AT64">
+        <v>1.9</v>
+      </c>
+      <c r="AU64">
+        <v>4</v>
+      </c>
+      <c r="AV64">
+        <v>4</v>
+      </c>
+      <c r="AW64">
+        <v>4</v>
+      </c>
+      <c r="AX64">
+        <v>2</v>
+      </c>
+      <c r="AY64">
+        <v>12</v>
+      </c>
+      <c r="AZ64">
+        <v>8</v>
+      </c>
+      <c r="BA64">
+        <v>6</v>
+      </c>
+      <c r="BB64">
+        <v>5</v>
+      </c>
+      <c r="BC64">
+        <v>11</v>
+      </c>
+      <c r="BD64">
+        <v>1.57</v>
+      </c>
+      <c r="BE64">
+        <v>6.4</v>
+      </c>
+      <c r="BF64">
+        <v>2.55</v>
+      </c>
+      <c r="BG64">
+        <v>1.4</v>
+      </c>
+      <c r="BH64">
+        <v>2.7</v>
+      </c>
+      <c r="BI64">
+        <v>1.66</v>
+      </c>
+      <c r="BJ64">
+        <v>2.07</v>
+      </c>
+      <c r="BK64">
+        <v>2.05</v>
+      </c>
+      <c r="BL64">
+        <v>1.67</v>
+      </c>
+      <c r="BM64">
+        <v>2.65</v>
+      </c>
+      <c r="BN64">
+        <v>1.41</v>
+      </c>
+      <c r="BO64">
+        <v>3.45</v>
+      </c>
+      <c r="BP64">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7480202</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45598.5</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" t="s">
+        <v>70</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>132</v>
+      </c>
+      <c r="P65" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q65">
+        <v>4.5</v>
+      </c>
+      <c r="R65">
+        <v>2.25</v>
+      </c>
+      <c r="S65">
+        <v>2.4</v>
+      </c>
+      <c r="T65">
+        <v>1.36</v>
+      </c>
+      <c r="U65">
+        <v>3</v>
+      </c>
+      <c r="V65">
+        <v>2.75</v>
+      </c>
+      <c r="W65">
+        <v>1.4</v>
+      </c>
+      <c r="X65">
+        <v>7</v>
+      </c>
+      <c r="Y65">
+        <v>1.1</v>
+      </c>
+      <c r="Z65">
+        <v>3.92</v>
+      </c>
+      <c r="AA65">
+        <v>3.53</v>
+      </c>
+      <c r="AB65">
+        <v>1.78</v>
+      </c>
+      <c r="AC65">
+        <v>1.04</v>
+      </c>
+      <c r="AD65">
+        <v>12</v>
+      </c>
+      <c r="AE65">
+        <v>1.25</v>
+      </c>
+      <c r="AF65">
+        <v>3.75</v>
+      </c>
+      <c r="AG65">
+        <v>1.77</v>
+      </c>
+      <c r="AH65">
+        <v>1.86</v>
+      </c>
+      <c r="AI65">
+        <v>1.8</v>
+      </c>
+      <c r="AJ65">
+        <v>1.95</v>
+      </c>
+      <c r="AK65">
+        <v>2</v>
+      </c>
+      <c r="AL65">
+        <v>1.22</v>
+      </c>
+      <c r="AM65">
+        <v>1.22</v>
+      </c>
+      <c r="AN65">
+        <v>0.75</v>
+      </c>
+      <c r="AO65">
+        <v>0.17</v>
+      </c>
+      <c r="AP65">
+        <v>0.6</v>
+      </c>
+      <c r="AQ65">
+        <v>0.57</v>
+      </c>
+      <c r="AR65">
+        <v>1.33</v>
+      </c>
+      <c r="AS65">
+        <v>1.12</v>
+      </c>
+      <c r="AT65">
+        <v>2.45</v>
+      </c>
+      <c r="AU65">
+        <v>6</v>
+      </c>
+      <c r="AV65">
+        <v>3</v>
+      </c>
+      <c r="AW65">
+        <v>5</v>
+      </c>
+      <c r="AX65">
+        <v>4</v>
+      </c>
+      <c r="AY65">
+        <v>14</v>
+      </c>
+      <c r="AZ65">
+        <v>14</v>
+      </c>
+      <c r="BA65">
+        <v>6</v>
+      </c>
+      <c r="BB65">
+        <v>9</v>
+      </c>
+      <c r="BC65">
+        <v>15</v>
+      </c>
+      <c r="BD65">
+        <v>2.55</v>
+      </c>
+      <c r="BE65">
+        <v>6.25</v>
+      </c>
+      <c r="BF65">
+        <v>1.55</v>
+      </c>
+      <c r="BG65">
+        <v>1.38</v>
+      </c>
+      <c r="BH65">
+        <v>2.7</v>
+      </c>
+      <c r="BI65">
+        <v>1.66</v>
+      </c>
+      <c r="BJ65">
+        <v>2.07</v>
+      </c>
+      <c r="BK65">
+        <v>2.06</v>
+      </c>
+      <c r="BL65">
+        <v>1.66</v>
+      </c>
+      <c r="BM65">
+        <v>2.65</v>
+      </c>
+      <c r="BN65">
+        <v>1.41</v>
+      </c>
+      <c r="BO65">
+        <v>3.45</v>
+      </c>
+      <c r="BP65">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7480271</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45599.5</v>
+      </c>
+      <c r="F66">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s">
+        <v>81</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+      <c r="O66" t="s">
+        <v>133</v>
+      </c>
+      <c r="P66" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q66">
+        <v>3.1</v>
+      </c>
+      <c r="R66">
+        <v>2.25</v>
+      </c>
+      <c r="S66">
+        <v>3.25</v>
+      </c>
+      <c r="T66">
+        <v>1.33</v>
+      </c>
+      <c r="U66">
+        <v>3.25</v>
+      </c>
+      <c r="V66">
+        <v>2.63</v>
+      </c>
+      <c r="W66">
+        <v>1.44</v>
+      </c>
+      <c r="X66">
+        <v>7</v>
+      </c>
+      <c r="Y66">
+        <v>1.1</v>
+      </c>
+      <c r="Z66">
+        <v>2.4</v>
+      </c>
+      <c r="AA66">
+        <v>3.5</v>
+      </c>
+      <c r="AB66">
+        <v>2.7</v>
+      </c>
+      <c r="AC66">
+        <v>1.03</v>
+      </c>
+      <c r="AD66">
+        <v>13</v>
+      </c>
+      <c r="AE66">
+        <v>1.22</v>
+      </c>
+      <c r="AF66">
+        <v>4</v>
+      </c>
+      <c r="AG66">
+        <v>1.71</v>
+      </c>
+      <c r="AH66">
+        <v>1.98</v>
+      </c>
+      <c r="AI66">
+        <v>1.62</v>
+      </c>
+      <c r="AJ66">
+        <v>2.2</v>
+      </c>
+      <c r="AK66">
+        <v>1.47</v>
+      </c>
+      <c r="AL66">
+        <v>1.25</v>
+      </c>
+      <c r="AM66">
+        <v>1.53</v>
+      </c>
+      <c r="AN66">
+        <v>0.8</v>
+      </c>
+      <c r="AO66">
+        <v>1.17</v>
+      </c>
+      <c r="AP66">
+        <v>1.17</v>
+      </c>
+      <c r="AQ66">
+        <v>1</v>
+      </c>
+      <c r="AR66">
+        <v>1.42</v>
+      </c>
+      <c r="AS66">
+        <v>1.21</v>
+      </c>
+      <c r="AT66">
+        <v>2.63</v>
+      </c>
+      <c r="AU66">
+        <v>6</v>
+      </c>
+      <c r="AV66">
+        <v>5</v>
+      </c>
+      <c r="AW66">
+        <v>4</v>
+      </c>
+      <c r="AX66">
+        <v>6</v>
+      </c>
+      <c r="AY66">
+        <v>18</v>
+      </c>
+      <c r="AZ66">
+        <v>16</v>
+      </c>
+      <c r="BA66">
+        <v>7</v>
+      </c>
+      <c r="BB66">
+        <v>1</v>
+      </c>
+      <c r="BC66">
+        <v>8</v>
+      </c>
+      <c r="BD66">
+        <v>1.9</v>
+      </c>
+      <c r="BE66">
+        <v>6.85</v>
+      </c>
+      <c r="BF66">
+        <v>2.38</v>
+      </c>
+      <c r="BG66">
+        <v>1.08</v>
+      </c>
+      <c r="BH66">
+        <v>5.2</v>
+      </c>
+      <c r="BI66">
+        <v>1.2</v>
+      </c>
+      <c r="BJ66">
+        <v>3.52</v>
+      </c>
+      <c r="BK66">
+        <v>1.42</v>
+      </c>
+      <c r="BL66">
+        <v>2.57</v>
+      </c>
+      <c r="BM66">
+        <v>1.77</v>
+      </c>
+      <c r="BN66">
+        <v>1.95</v>
+      </c>
+      <c r="BO66">
+        <v>2.14</v>
+      </c>
+      <c r="BP66">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7480224</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45599.5</v>
+      </c>
+      <c r="F67">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s">
+        <v>72</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>134</v>
+      </c>
+      <c r="P67" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q67">
+        <v>2.4</v>
+      </c>
+      <c r="R67">
+        <v>2.25</v>
+      </c>
+      <c r="S67">
+        <v>4.5</v>
+      </c>
+      <c r="T67">
+        <v>1.36</v>
+      </c>
+      <c r="U67">
+        <v>3</v>
+      </c>
+      <c r="V67">
+        <v>2.63</v>
+      </c>
+      <c r="W67">
+        <v>1.44</v>
+      </c>
+      <c r="X67">
+        <v>7</v>
+      </c>
+      <c r="Y67">
+        <v>1.1</v>
+      </c>
+      <c r="Z67">
+        <v>1.75</v>
+      </c>
+      <c r="AA67">
+        <v>3.75</v>
+      </c>
+      <c r="AB67">
+        <v>4.33</v>
+      </c>
+      <c r="AC67">
+        <v>1.04</v>
+      </c>
+      <c r="AD67">
+        <v>12</v>
+      </c>
+      <c r="AE67">
+        <v>1.25</v>
+      </c>
+      <c r="AF67">
+        <v>3.75</v>
+      </c>
+      <c r="AG67">
+        <v>1.78</v>
+      </c>
+      <c r="AH67">
+        <v>1.9</v>
+      </c>
+      <c r="AI67">
+        <v>1.75</v>
+      </c>
+      <c r="AJ67">
+        <v>2</v>
+      </c>
+      <c r="AK67">
+        <v>1.22</v>
+      </c>
+      <c r="AL67">
+        <v>1.22</v>
+      </c>
+      <c r="AM67">
+        <v>2</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
+        <v>1.6</v>
+      </c>
+      <c r="AP67">
+        <v>1</v>
+      </c>
+      <c r="AQ67">
+        <v>1.5</v>
+      </c>
+      <c r="AR67">
+        <v>1.3</v>
+      </c>
+      <c r="AS67">
+        <v>1.19</v>
+      </c>
+      <c r="AT67">
+        <v>2.49</v>
+      </c>
+      <c r="AU67">
+        <v>4</v>
+      </c>
+      <c r="AV67">
+        <v>3</v>
+      </c>
+      <c r="AW67">
+        <v>8</v>
+      </c>
+      <c r="AX67">
+        <v>5</v>
+      </c>
+      <c r="AY67">
+        <v>16</v>
+      </c>
+      <c r="AZ67">
+        <v>9</v>
+      </c>
+      <c r="BA67">
+        <v>13</v>
+      </c>
+      <c r="BB67">
+        <v>2</v>
+      </c>
+      <c r="BC67">
+        <v>15</v>
+      </c>
+      <c r="BD67">
+        <v>1.48</v>
+      </c>
+      <c r="BE67">
+        <v>7.5</v>
+      </c>
+      <c r="BF67">
+        <v>3.52</v>
+      </c>
+      <c r="BG67">
+        <v>1.1</v>
+      </c>
+      <c r="BH67">
+        <v>4.8</v>
+      </c>
+      <c r="BI67">
+        <v>1.24</v>
+      </c>
+      <c r="BJ67">
+        <v>3.22</v>
+      </c>
+      <c r="BK67">
+        <v>1.47</v>
+      </c>
+      <c r="BL67">
+        <v>2.42</v>
+      </c>
+      <c r="BM67">
+        <v>1.84</v>
+      </c>
+      <c r="BN67">
+        <v>1.9</v>
+      </c>
+      <c r="BO67">
+        <v>2.3</v>
+      </c>
+      <c r="BP67">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="185">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,18 @@
     <t>['28']</t>
   </si>
   <si>
+    <t>['57', '68', '90+2']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['20', '34']</t>
+  </si>
+  <si>
+    <t>['53', '57', '72', '90+7']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -548,6 +560,15 @@
   </si>
   <si>
     <t>['90']</t>
+  </si>
+  <si>
+    <t>['16', '31']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -909,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1452,10 +1473,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1580,7 +1601,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1658,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2198,7 +2219,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2404,7 +2425,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2610,7 +2631,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2816,7 +2837,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3022,7 +3043,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3100,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ11">
         <v>3</v>
@@ -3228,7 +3249,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3309,7 +3330,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3434,7 +3455,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3515,7 +3536,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3718,10 +3739,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR14">
         <v>2.04</v>
@@ -3846,7 +3867,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -3924,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR15">
         <v>0.53</v>
@@ -4133,7 +4154,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR16">
         <v>2.02</v>
@@ -4258,7 +4279,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4542,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18">
         <v>0.57</v>
@@ -4876,7 +4897,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4957,7 +4978,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ20">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>1.56</v>
@@ -5082,7 +5103,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5288,7 +5309,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5700,7 +5721,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5906,7 +5927,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6602,10 +6623,10 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR28">
         <v>0.85</v>
@@ -6811,7 +6832,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR29">
         <v>1.33</v>
@@ -6936,7 +6957,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7142,7 +7163,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7220,7 +7241,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
         <v>0.8</v>
@@ -7348,7 +7369,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7429,7 +7450,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR32">
         <v>1.31</v>
@@ -7554,7 +7575,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7760,7 +7781,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7841,7 +7862,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR34">
         <v>1.25</v>
@@ -7966,7 +7987,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8172,7 +8193,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8250,10 +8271,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR36">
         <v>1.45</v>
@@ -8378,7 +8399,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8584,7 +8605,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8996,7 +9017,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9202,7 +9223,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9280,7 +9301,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ41">
         <v>1.8</v>
@@ -9408,7 +9429,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9614,7 +9635,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9820,7 +9841,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -10107,7 +10128,7 @@
         <v>3</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR45">
         <v>1.85</v>
@@ -10232,7 +10253,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10438,7 +10459,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10516,7 +10537,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47">
         <v>0.4</v>
@@ -10725,7 +10746,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR48">
         <v>1.61</v>
@@ -10850,7 +10871,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -10928,10 +10949,10 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR49">
         <v>1.3</v>
@@ -11137,7 +11158,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ50">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11468,7 +11489,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11549,7 +11570,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -11674,7 +11695,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12164,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ55">
         <v>0.57</v>
@@ -12292,7 +12313,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>1.62</v>
@@ -12373,7 +12394,7 @@
         <v>3</v>
       </c>
       <c r="AQ56">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR56">
         <v>1.86</v>
@@ -12498,7 +12519,7 @@
         <v>82</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>7.5</v>
@@ -12576,7 +12597,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ57">
         <v>3</v>
@@ -12785,7 +12806,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR58">
         <v>2.17</v>
@@ -12910,7 +12931,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -12988,7 +13009,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ59">
         <v>1.8</v>
@@ -13116,7 +13137,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13528,7 +13549,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13609,7 +13630,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR62">
         <v>1.06</v>
@@ -13734,7 +13755,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -14021,7 +14042,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ64">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.13</v>
@@ -14146,7 +14167,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14352,7 +14373,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14558,7 +14579,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -14636,7 +14657,7 @@
         <v>1.6</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ67">
         <v>1.5</v>
@@ -14715,6 +14736,830 @@
       </c>
       <c r="BP67">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7480205</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68" t="s">
+        <v>135</v>
+      </c>
+      <c r="P68" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q68">
+        <v>2.3</v>
+      </c>
+      <c r="R68">
+        <v>2.2</v>
+      </c>
+      <c r="S68">
+        <v>5</v>
+      </c>
+      <c r="T68">
+        <v>1.4</v>
+      </c>
+      <c r="U68">
+        <v>2.75</v>
+      </c>
+      <c r="V68">
+        <v>2.75</v>
+      </c>
+      <c r="W68">
+        <v>1.4</v>
+      </c>
+      <c r="X68">
+        <v>8</v>
+      </c>
+      <c r="Y68">
+        <v>1.08</v>
+      </c>
+      <c r="Z68">
+        <v>1.8</v>
+      </c>
+      <c r="AA68">
+        <v>3.5</v>
+      </c>
+      <c r="AB68">
+        <v>4.33</v>
+      </c>
+      <c r="AC68">
+        <v>1.06</v>
+      </c>
+      <c r="AD68">
+        <v>8.5</v>
+      </c>
+      <c r="AE68">
+        <v>1.3</v>
+      </c>
+      <c r="AF68">
+        <v>3.45</v>
+      </c>
+      <c r="AG68">
+        <v>1.88</v>
+      </c>
+      <c r="AH68">
+        <v>1.86</v>
+      </c>
+      <c r="AI68">
+        <v>1.91</v>
+      </c>
+      <c r="AJ68">
+        <v>1.91</v>
+      </c>
+      <c r="AK68">
+        <v>1.17</v>
+      </c>
+      <c r="AL68">
+        <v>1.22</v>
+      </c>
+      <c r="AM68">
+        <v>2.05</v>
+      </c>
+      <c r="AN68">
+        <v>1.4</v>
+      </c>
+      <c r="AO68">
+        <v>0.6</v>
+      </c>
+      <c r="AP68">
+        <v>1.67</v>
+      </c>
+      <c r="AQ68">
+        <v>0.5</v>
+      </c>
+      <c r="AR68">
+        <v>1.22</v>
+      </c>
+      <c r="AS68">
+        <v>0.82</v>
+      </c>
+      <c r="AT68">
+        <v>2.04</v>
+      </c>
+      <c r="AU68">
+        <v>5</v>
+      </c>
+      <c r="AV68">
+        <v>0</v>
+      </c>
+      <c r="AW68">
+        <v>7</v>
+      </c>
+      <c r="AX68">
+        <v>7</v>
+      </c>
+      <c r="AY68">
+        <v>17</v>
+      </c>
+      <c r="AZ68">
+        <v>10</v>
+      </c>
+      <c r="BA68">
+        <v>5</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>8</v>
+      </c>
+      <c r="BD68">
+        <v>1.4</v>
+      </c>
+      <c r="BE68">
+        <v>7</v>
+      </c>
+      <c r="BF68">
+        <v>2.95</v>
+      </c>
+      <c r="BG68">
+        <v>1.17</v>
+      </c>
+      <c r="BH68">
+        <v>4.3</v>
+      </c>
+      <c r="BI68">
+        <v>1.3</v>
+      </c>
+      <c r="BJ68">
+        <v>3.05</v>
+      </c>
+      <c r="BK68">
+        <v>1.52</v>
+      </c>
+      <c r="BL68">
+        <v>2.33</v>
+      </c>
+      <c r="BM68">
+        <v>1.82</v>
+      </c>
+      <c r="BN68">
+        <v>1.86</v>
+      </c>
+      <c r="BO68">
+        <v>2.23</v>
+      </c>
+      <c r="BP68">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7480206</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F69">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s">
+        <v>73</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>136</v>
+      </c>
+      <c r="P69" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q69">
+        <v>2.5</v>
+      </c>
+      <c r="R69">
+        <v>2.2</v>
+      </c>
+      <c r="S69">
+        <v>4.75</v>
+      </c>
+      <c r="T69">
+        <v>1.4</v>
+      </c>
+      <c r="U69">
+        <v>2.75</v>
+      </c>
+      <c r="V69">
+        <v>3</v>
+      </c>
+      <c r="W69">
+        <v>1.36</v>
+      </c>
+      <c r="X69">
+        <v>8</v>
+      </c>
+      <c r="Y69">
+        <v>1.08</v>
+      </c>
+      <c r="Z69">
+        <v>1.8</v>
+      </c>
+      <c r="AA69">
+        <v>3.6</v>
+      </c>
+      <c r="AB69">
+        <v>4.2</v>
+      </c>
+      <c r="AC69">
+        <v>1.05</v>
+      </c>
+      <c r="AD69">
+        <v>9</v>
+      </c>
+      <c r="AE69">
+        <v>1.3</v>
+      </c>
+      <c r="AF69">
+        <v>3.45</v>
+      </c>
+      <c r="AG69">
+        <v>1.92</v>
+      </c>
+      <c r="AH69">
+        <v>1.82</v>
+      </c>
+      <c r="AI69">
+        <v>1.8</v>
+      </c>
+      <c r="AJ69">
+        <v>1.95</v>
+      </c>
+      <c r="AK69">
+        <v>1.2</v>
+      </c>
+      <c r="AL69">
+        <v>1.25</v>
+      </c>
+      <c r="AM69">
+        <v>1.93</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
+        <v>0.2</v>
+      </c>
+      <c r="AP69">
+        <v>0.86</v>
+      </c>
+      <c r="AQ69">
+        <v>0.67</v>
+      </c>
+      <c r="AR69">
+        <v>1.35</v>
+      </c>
+      <c r="AS69">
+        <v>1.25</v>
+      </c>
+      <c r="AT69">
+        <v>2.6</v>
+      </c>
+      <c r="AU69">
+        <v>-1</v>
+      </c>
+      <c r="AV69">
+        <v>-1</v>
+      </c>
+      <c r="AW69">
+        <v>-1</v>
+      </c>
+      <c r="AX69">
+        <v>-1</v>
+      </c>
+      <c r="AY69">
+        <v>-1</v>
+      </c>
+      <c r="AZ69">
+        <v>-1</v>
+      </c>
+      <c r="BA69">
+        <v>-1</v>
+      </c>
+      <c r="BB69">
+        <v>-1</v>
+      </c>
+      <c r="BC69">
+        <v>-1</v>
+      </c>
+      <c r="BD69">
+        <v>1.41</v>
+      </c>
+      <c r="BE69">
+        <v>7</v>
+      </c>
+      <c r="BF69">
+        <v>2.95</v>
+      </c>
+      <c r="BG69">
+        <v>1.17</v>
+      </c>
+      <c r="BH69">
+        <v>4.3</v>
+      </c>
+      <c r="BI69">
+        <v>1.3</v>
+      </c>
+      <c r="BJ69">
+        <v>3.05</v>
+      </c>
+      <c r="BK69">
+        <v>1.5</v>
+      </c>
+      <c r="BL69">
+        <v>2.38</v>
+      </c>
+      <c r="BM69">
+        <v>1.79</v>
+      </c>
+      <c r="BN69">
+        <v>1.9</v>
+      </c>
+      <c r="BO69">
+        <v>2.2</v>
+      </c>
+      <c r="BP69">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7480208</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45605.5</v>
+      </c>
+      <c r="F70">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H70" t="s">
+        <v>75</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>137</v>
+      </c>
+      <c r="P70" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q70">
+        <v>2.5</v>
+      </c>
+      <c r="R70">
+        <v>2.2</v>
+      </c>
+      <c r="S70">
+        <v>4.33</v>
+      </c>
+      <c r="T70">
+        <v>1.36</v>
+      </c>
+      <c r="U70">
+        <v>3</v>
+      </c>
+      <c r="V70">
+        <v>2.75</v>
+      </c>
+      <c r="W70">
+        <v>1.4</v>
+      </c>
+      <c r="X70">
+        <v>7</v>
+      </c>
+      <c r="Y70">
+        <v>1.1</v>
+      </c>
+      <c r="Z70">
+        <v>1.75</v>
+      </c>
+      <c r="AA70">
+        <v>3.75</v>
+      </c>
+      <c r="AB70">
+        <v>4.4</v>
+      </c>
+      <c r="AC70">
+        <v>1.05</v>
+      </c>
+      <c r="AD70">
+        <v>9.5</v>
+      </c>
+      <c r="AE70">
+        <v>1.28</v>
+      </c>
+      <c r="AF70">
+        <v>3.55</v>
+      </c>
+      <c r="AG70">
+        <v>1.84</v>
+      </c>
+      <c r="AH70">
+        <v>1.86</v>
+      </c>
+      <c r="AI70">
+        <v>1.75</v>
+      </c>
+      <c r="AJ70">
+        <v>2</v>
+      </c>
+      <c r="AK70">
+        <v>1.22</v>
+      </c>
+      <c r="AL70">
+        <v>1.22</v>
+      </c>
+      <c r="AM70">
+        <v>1.95</v>
+      </c>
+      <c r="AN70">
+        <v>1.4</v>
+      </c>
+      <c r="AO70">
+        <v>1</v>
+      </c>
+      <c r="AP70">
+        <v>1.67</v>
+      </c>
+      <c r="AQ70">
+        <v>0.88</v>
+      </c>
+      <c r="AR70">
+        <v>1.19</v>
+      </c>
+      <c r="AS70">
+        <v>1.08</v>
+      </c>
+      <c r="AT70">
+        <v>2.27</v>
+      </c>
+      <c r="AU70">
+        <v>5</v>
+      </c>
+      <c r="AV70">
+        <v>6</v>
+      </c>
+      <c r="AW70">
+        <v>9</v>
+      </c>
+      <c r="AX70">
+        <v>2</v>
+      </c>
+      <c r="AY70">
+        <v>16</v>
+      </c>
+      <c r="AZ70">
+        <v>14</v>
+      </c>
+      <c r="BA70">
+        <v>3</v>
+      </c>
+      <c r="BB70">
+        <v>3</v>
+      </c>
+      <c r="BC70">
+        <v>6</v>
+      </c>
+      <c r="BD70">
+        <v>1.41</v>
+      </c>
+      <c r="BE70">
+        <v>6.75</v>
+      </c>
+      <c r="BF70">
+        <v>2.95</v>
+      </c>
+      <c r="BG70">
+        <v>1.24</v>
+      </c>
+      <c r="BH70">
+        <v>3.55</v>
+      </c>
+      <c r="BI70">
+        <v>1.43</v>
+      </c>
+      <c r="BJ70">
+        <v>2.6</v>
+      </c>
+      <c r="BK70">
+        <v>1.7</v>
+      </c>
+      <c r="BL70">
+        <v>2.02</v>
+      </c>
+      <c r="BM70">
+        <v>2.08</v>
+      </c>
+      <c r="BN70">
+        <v>1.65</v>
+      </c>
+      <c r="BO70">
+        <v>2.65</v>
+      </c>
+      <c r="BP70">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7480204</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45605.60416666666</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>80</v>
+      </c>
+      <c r="H71" t="s">
+        <v>78</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>4</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>5</v>
+      </c>
+      <c r="O71" t="s">
+        <v>138</v>
+      </c>
+      <c r="P71" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q71">
+        <v>2.25</v>
+      </c>
+      <c r="R71">
+        <v>2.3</v>
+      </c>
+      <c r="S71">
+        <v>5</v>
+      </c>
+      <c r="T71">
+        <v>1.33</v>
+      </c>
+      <c r="U71">
+        <v>3.25</v>
+      </c>
+      <c r="V71">
+        <v>2.63</v>
+      </c>
+      <c r="W71">
+        <v>1.44</v>
+      </c>
+      <c r="X71">
+        <v>6.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.11</v>
+      </c>
+      <c r="Z71">
+        <v>1.75</v>
+      </c>
+      <c r="AA71">
+        <v>3.88</v>
+      </c>
+      <c r="AB71">
+        <v>4.49</v>
+      </c>
+      <c r="AC71">
+        <v>1.04</v>
+      </c>
+      <c r="AD71">
+        <v>10</v>
+      </c>
+      <c r="AE71">
+        <v>1.22</v>
+      </c>
+      <c r="AF71">
+        <v>4.2</v>
+      </c>
+      <c r="AG71">
+        <v>1.8</v>
+      </c>
+      <c r="AH71">
+        <v>2</v>
+      </c>
+      <c r="AI71">
+        <v>1.75</v>
+      </c>
+      <c r="AJ71">
+        <v>2</v>
+      </c>
+      <c r="AK71">
+        <v>1.2</v>
+      </c>
+      <c r="AL71">
+        <v>1.18</v>
+      </c>
+      <c r="AM71">
+        <v>2.15</v>
+      </c>
+      <c r="AN71">
+        <v>3</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>3</v>
+      </c>
+      <c r="AQ71">
+        <v>0.83</v>
+      </c>
+      <c r="AR71">
+        <v>1.32</v>
+      </c>
+      <c r="AS71">
+        <v>1.15</v>
+      </c>
+      <c r="AT71">
+        <v>2.47</v>
+      </c>
+      <c r="AU71">
+        <v>9</v>
+      </c>
+      <c r="AV71">
+        <v>6</v>
+      </c>
+      <c r="AW71">
+        <v>8</v>
+      </c>
+      <c r="AX71">
+        <v>4</v>
+      </c>
+      <c r="AY71">
+        <v>20</v>
+      </c>
+      <c r="AZ71">
+        <v>14</v>
+      </c>
+      <c r="BA71">
+        <v>7</v>
+      </c>
+      <c r="BB71">
+        <v>4</v>
+      </c>
+      <c r="BC71">
+        <v>11</v>
+      </c>
+      <c r="BD71">
+        <v>1.6</v>
+      </c>
+      <c r="BE71">
+        <v>7</v>
+      </c>
+      <c r="BF71">
+        <v>2.4</v>
+      </c>
+      <c r="BG71">
+        <v>1.15</v>
+      </c>
+      <c r="BH71">
+        <v>4.6</v>
+      </c>
+      <c r="BI71">
+        <v>1.27</v>
+      </c>
+      <c r="BJ71">
+        <v>3.3</v>
+      </c>
+      <c r="BK71">
+        <v>1.46</v>
+      </c>
+      <c r="BL71">
+        <v>2.48</v>
+      </c>
+      <c r="BM71">
+        <v>1.72</v>
+      </c>
+      <c r="BN71">
+        <v>1.98</v>
+      </c>
+      <c r="BO71">
+        <v>2.08</v>
+      </c>
+      <c r="BP71">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="187">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,9 @@
     <t>['53', '57', '72', '90+7']</t>
   </si>
   <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -569,6 +572,9 @@
   </si>
   <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['45+4', '71']</t>
   </si>
 </sst>
 </file>
@@ -930,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1601,7 +1607,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2219,7 +2225,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>3.6</v>
@@ -2425,7 +2431,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>1.57</v>
@@ -2631,7 +2637,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>3.2</v>
@@ -2837,7 +2843,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -2918,7 +2924,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ10">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3043,7 +3049,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3249,7 +3255,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3455,7 +3461,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q13">
         <v>2.4</v>
@@ -3533,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>0.88</v>
@@ -3867,7 +3873,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q15">
         <v>2.6</v>
@@ -4279,7 +4285,7 @@
         <v>82</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>7.5</v>
@@ -4566,7 +4572,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ18">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR18">
         <v>1.47</v>
@@ -4897,7 +4903,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5103,7 +5109,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5309,7 +5315,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5721,7 +5727,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q24">
         <v>2.38</v>
@@ -5927,7 +5933,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6005,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>0.4</v>
@@ -6420,7 +6426,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ27">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>2.21</v>
@@ -6957,7 +6963,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7163,7 +7169,7 @@
         <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>6.5</v>
@@ -7369,7 +7375,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7575,7 +7581,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7656,7 +7662,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ33">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>0.87</v>
@@ -7781,7 +7787,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>2.3</v>
@@ -7987,7 +7993,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8065,7 +8071,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -8193,7 +8199,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8399,7 +8405,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8605,7 +8611,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -9017,7 +9023,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9223,7 +9229,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9429,7 +9435,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9635,7 +9641,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q43">
         <v>9.5</v>
@@ -9841,7 +9847,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q44">
         <v>2.25</v>
@@ -9922,7 +9928,7 @@
         <v>3</v>
       </c>
       <c r="AQ44">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>1.19</v>
@@ -10253,7 +10259,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>1.67</v>
@@ -10459,7 +10465,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10871,7 +10877,7 @@
         <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11361,7 +11367,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
         <v>0.8</v>
@@ -11489,7 +11495,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11695,7 +11701,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q53">
         <v>3.75</v>
@@ -12188,7 +12194,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ55">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR55">
         <v>1.27</v>
@@ -12313,7 +12319,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q56">
         <v>1.62</v>
@@ -12519,7 +12525,7 @@
         <v>82</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q57">
         <v>7.5</v>
@@ -12931,7 +12937,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13137,7 +13143,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13549,7 +13555,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q62">
         <v>2.38</v>
@@ -13755,7 +13761,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q63">
         <v>4.33</v>
@@ -14167,7 +14173,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14248,7 +14254,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ65">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -14373,7 +14379,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14579,7 +14585,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -14991,7 +14997,7 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15084,31 +15090,31 @@
         <v>2.6</v>
       </c>
       <c r="AU69">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV69">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW69">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX69">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY69">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ69">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA69">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB69">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC69">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD69">
         <v>1.41</v>
@@ -15197,7 +15203,7 @@
         <v>137</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15403,7 +15409,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q71">
         <v>2.25</v>
@@ -15560,6 +15566,418 @@
       </c>
       <c r="BP71">
         <v>1.65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7480207</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F72">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H72" t="s">
+        <v>74</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>82</v>
+      </c>
+      <c r="P72" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q72">
+        <v>7</v>
+      </c>
+      <c r="R72">
+        <v>2.63</v>
+      </c>
+      <c r="S72">
+        <v>1.8</v>
+      </c>
+      <c r="T72">
+        <v>1.25</v>
+      </c>
+      <c r="U72">
+        <v>3.75</v>
+      </c>
+      <c r="V72">
+        <v>2.2</v>
+      </c>
+      <c r="W72">
+        <v>1.62</v>
+      </c>
+      <c r="X72">
+        <v>5</v>
+      </c>
+      <c r="Y72">
+        <v>1.17</v>
+      </c>
+      <c r="Z72">
+        <v>10</v>
+      </c>
+      <c r="AA72">
+        <v>6</v>
+      </c>
+      <c r="AB72">
+        <v>1.25</v>
+      </c>
+      <c r="AC72">
+        <v>1.01</v>
+      </c>
+      <c r="AD72">
+        <v>17</v>
+      </c>
+      <c r="AE72">
+        <v>1.14</v>
+      </c>
+      <c r="AF72">
+        <v>5.5</v>
+      </c>
+      <c r="AG72">
+        <v>1.45</v>
+      </c>
+      <c r="AH72">
+        <v>2.56</v>
+      </c>
+      <c r="AI72">
+        <v>1.8</v>
+      </c>
+      <c r="AJ72">
+        <v>1.95</v>
+      </c>
+      <c r="AK72">
+        <v>3.2</v>
+      </c>
+      <c r="AL72">
+        <v>1.11</v>
+      </c>
+      <c r="AM72">
+        <v>1.07</v>
+      </c>
+      <c r="AN72">
+        <v>1.25</v>
+      </c>
+      <c r="AO72">
+        <v>3</v>
+      </c>
+      <c r="AP72">
+        <v>1</v>
+      </c>
+      <c r="AQ72">
+        <v>3</v>
+      </c>
+      <c r="AR72">
+        <v>1.22</v>
+      </c>
+      <c r="AS72">
+        <v>2.16</v>
+      </c>
+      <c r="AT72">
+        <v>3.38</v>
+      </c>
+      <c r="AU72">
+        <v>7</v>
+      </c>
+      <c r="AV72">
+        <v>7</v>
+      </c>
+      <c r="AW72">
+        <v>6</v>
+      </c>
+      <c r="AX72">
+        <v>2</v>
+      </c>
+      <c r="AY72">
+        <v>20</v>
+      </c>
+      <c r="AZ72">
+        <v>11</v>
+      </c>
+      <c r="BA72">
+        <v>6</v>
+      </c>
+      <c r="BB72">
+        <v>4</v>
+      </c>
+      <c r="BC72">
+        <v>10</v>
+      </c>
+      <c r="BD72">
+        <v>4.3</v>
+      </c>
+      <c r="BE72">
+        <v>8.5</v>
+      </c>
+      <c r="BF72">
+        <v>1.21</v>
+      </c>
+      <c r="BG72">
+        <v>1.15</v>
+      </c>
+      <c r="BH72">
+        <v>4.6</v>
+      </c>
+      <c r="BI72">
+        <v>1.27</v>
+      </c>
+      <c r="BJ72">
+        <v>3.3</v>
+      </c>
+      <c r="BK72">
+        <v>1.44</v>
+      </c>
+      <c r="BL72">
+        <v>2.55</v>
+      </c>
+      <c r="BM72">
+        <v>1.7</v>
+      </c>
+      <c r="BN72">
+        <v>2.05</v>
+      </c>
+      <c r="BO72">
+        <v>2.08</v>
+      </c>
+      <c r="BP72">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7480209</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F73">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s">
+        <v>70</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73" t="s">
+        <v>139</v>
+      </c>
+      <c r="P73" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q73">
+        <v>1.91</v>
+      </c>
+      <c r="R73">
+        <v>2.5</v>
+      </c>
+      <c r="S73">
+        <v>6.5</v>
+      </c>
+      <c r="T73">
+        <v>1.29</v>
+      </c>
+      <c r="U73">
+        <v>3.5</v>
+      </c>
+      <c r="V73">
+        <v>2.25</v>
+      </c>
+      <c r="W73">
+        <v>1.57</v>
+      </c>
+      <c r="X73">
+        <v>5.5</v>
+      </c>
+      <c r="Y73">
+        <v>1.14</v>
+      </c>
+      <c r="Z73">
+        <v>1.39</v>
+      </c>
+      <c r="AA73">
+        <v>4.6</v>
+      </c>
+      <c r="AB73">
+        <v>7.24</v>
+      </c>
+      <c r="AC73">
+        <v>1.03</v>
+      </c>
+      <c r="AD73">
+        <v>11</v>
+      </c>
+      <c r="AE73">
+        <v>1.18</v>
+      </c>
+      <c r="AF73">
+        <v>4.75</v>
+      </c>
+      <c r="AG73">
+        <v>1.51</v>
+      </c>
+      <c r="AH73">
+        <v>2.39</v>
+      </c>
+      <c r="AI73">
+        <v>1.8</v>
+      </c>
+      <c r="AJ73">
+        <v>1.95</v>
+      </c>
+      <c r="AK73">
+        <v>1.08</v>
+      </c>
+      <c r="AL73">
+        <v>1.14</v>
+      </c>
+      <c r="AM73">
+        <v>2.88</v>
+      </c>
+      <c r="AN73">
+        <v>3</v>
+      </c>
+      <c r="AO73">
+        <v>0.57</v>
+      </c>
+      <c r="AP73">
+        <v>3</v>
+      </c>
+      <c r="AQ73">
+        <v>0.5</v>
+      </c>
+      <c r="AR73">
+        <v>1.87</v>
+      </c>
+      <c r="AS73">
+        <v>1.1</v>
+      </c>
+      <c r="AT73">
+        <v>2.97</v>
+      </c>
+      <c r="AU73">
+        <v>4</v>
+      </c>
+      <c r="AV73">
+        <v>0</v>
+      </c>
+      <c r="AW73">
+        <v>5</v>
+      </c>
+      <c r="AX73">
+        <v>3</v>
+      </c>
+      <c r="AY73">
+        <v>21</v>
+      </c>
+      <c r="AZ73">
+        <v>6</v>
+      </c>
+      <c r="BA73">
+        <v>9</v>
+      </c>
+      <c r="BB73">
+        <v>6</v>
+      </c>
+      <c r="BC73">
+        <v>15</v>
+      </c>
+      <c r="BD73">
+        <v>1.34</v>
+      </c>
+      <c r="BE73">
+        <v>10</v>
+      </c>
+      <c r="BF73">
+        <v>3.84</v>
+      </c>
+      <c r="BG73">
+        <v>1.11</v>
+      </c>
+      <c r="BH73">
+        <v>5.6</v>
+      </c>
+      <c r="BI73">
+        <v>1.23</v>
+      </c>
+      <c r="BJ73">
+        <v>3.8</v>
+      </c>
+      <c r="BK73">
+        <v>1.41</v>
+      </c>
+      <c r="BL73">
+        <v>2.7</v>
+      </c>
+      <c r="BM73">
+        <v>1.68</v>
+      </c>
+      <c r="BN73">
+        <v>2.13</v>
+      </c>
+      <c r="BO73">
+        <v>1.95</v>
+      </c>
+      <c r="BP73">
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Scotland Premiership_20242025.xlsx
@@ -15582,7 +15582,7 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45605.875</v>
+        <v>45606.5</v>
       </c>
       <c r="F72">
         <v>12</v>
@@ -15788,7 +15788,7 @@
         <v>69</v>
       </c>
       <c r="E73" s="2">
-        <v>45605.875</v>
+        <v>45606.58333333334</v>
       </c>
       <c r="F73">
         <v>12</v>
